--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4943" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4942" uniqueCount="1138">
   <si>
     <t>Owner</t>
   </si>
@@ -4225,9 +4225,6 @@
       </rPr>
       <t>UF_B_STDNT_TERM is a bridge table for the student's academic career enrollment terms. This only provides the term enrollment information bridge to the UF_D_TERM table based on the Academic Career program status of ACTIVE.  Join from fact to bridge based on PERSON_SID and where TERM_CD between the Effective Term and End Effective Term on the fact. Can bridge outwards to UF_D_TERM for term information based on TERM_SID. Additional attributes are on the bridge for information relative to the enrollment career term.</t>
     </r>
-  </si>
-  <si>
-    <t>Testing Change</t>
   </si>
 </sst>
 </file>
@@ -4639,11 +4636,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G1277"/>
+  <dimension ref="A1:G1272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1278" sqref="B1278"/>
+      <selection pane="bottomLeft" activeCell="A1274" sqref="A1274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26299,34 +26296,8 @@
       <c r="F1272" s="4"/>
       <c r="G1272" s="4"/>
     </row>
-    <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1277" t="s">
-        <v>1138</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B947:G949"/>
-    <mergeCell ref="B964:G966"/>
-    <mergeCell ref="B993:G995"/>
-    <mergeCell ref="B1014:G1016"/>
-    <mergeCell ref="B1270:G1272"/>
-    <mergeCell ref="B1034:G1036"/>
-    <mergeCell ref="B1051:G1053"/>
-    <mergeCell ref="B1093:G1095"/>
-    <mergeCell ref="B1110:G1112"/>
-    <mergeCell ref="B1222:G1224"/>
-    <mergeCell ref="B361:G363"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="B50:G52"/>
-    <mergeCell ref="B74:G76"/>
-    <mergeCell ref="B95:G97"/>
-    <mergeCell ref="B121:G123"/>
-    <mergeCell ref="B196:G198"/>
-    <mergeCell ref="B241:G243"/>
-    <mergeCell ref="B293:G295"/>
-    <mergeCell ref="B316:G318"/>
-    <mergeCell ref="B333:G335"/>
     <mergeCell ref="B643:G645"/>
     <mergeCell ref="B1163:G1165"/>
     <mergeCell ref="B515:G517"/>
@@ -26343,6 +26314,27 @@
     <mergeCell ref="B733:G735"/>
     <mergeCell ref="B871:G873"/>
     <mergeCell ref="B930:G932"/>
+    <mergeCell ref="B361:G363"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="B50:G52"/>
+    <mergeCell ref="B74:G76"/>
+    <mergeCell ref="B95:G97"/>
+    <mergeCell ref="B121:G123"/>
+    <mergeCell ref="B196:G198"/>
+    <mergeCell ref="B241:G243"/>
+    <mergeCell ref="B293:G295"/>
+    <mergeCell ref="B316:G318"/>
+    <mergeCell ref="B333:G335"/>
+    <mergeCell ref="B947:G949"/>
+    <mergeCell ref="B964:G966"/>
+    <mergeCell ref="B993:G995"/>
+    <mergeCell ref="B1014:G1016"/>
+    <mergeCell ref="B1270:G1272"/>
+    <mergeCell ref="B1034:G1036"/>
+    <mergeCell ref="B1051:G1053"/>
+    <mergeCell ref="B1093:G1095"/>
+    <mergeCell ref="B1110:G1112"/>
+    <mergeCell ref="B1222:G1224"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26355,15 +26347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
@@ -26375,7 +26358,62 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023C68C9F20C69D48BB417A9ADFD5DC9C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29914a5778ec744f9d5d623c4355d354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a57c4080a7a73066863a39e6ec4255" ns2:_="">
     <xsd:import namespace="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
@@ -26520,61 +26558,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26584,7 +26568,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26600,12 +26600,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
+    <sheet name="Naming Rules" sheetId="2" r:id="rId2"/>
+    <sheet name="Standard Abbreviations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5118" uniqueCount="1145">
   <si>
     <t>Owner</t>
   </si>
@@ -3821,6 +3823,351 @@
       </rPr>
       <t>: WH_F_STU_ENRLMT is a fact table that contains the measures of the section/course enrollment and the grade for the student. The student's primary Academic Career, Academic Program, Academic Plan, Academic Sub Plan, and Degree is included for the term. Surrogate identifiers should be used to joined to dimensions based on how you want to describe the data.</t>
     </r>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ADDR</t>
+  </si>
+  <si>
+    <t>Advance, Advanced or Advancement</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>Begin or Begining</t>
+  </si>
+  <si>
+    <t>BEG</t>
+  </si>
+  <si>
+    <t>Begin or Begining of Term</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>Biology or Biological</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>Board of Governors</t>
+  </si>
+  <si>
+    <t>BOG</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Complete or Completion</t>
+  </si>
+  <si>
+    <t>COMPL</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>CUM</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>CUR</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>DTTM</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>DIST</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>EDU</t>
+  </si>
+  <si>
+    <t>Effective</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>EFFDT</t>
+  </si>
+  <si>
+    <t>Employee Education Program</t>
+  </si>
+  <si>
+    <t>EEP</t>
+  </si>
+  <si>
+    <t>End of Term</t>
+  </si>
+  <si>
+    <t>EOT</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>ENRLMT</t>
+  </si>
+  <si>
+    <t>Formal Description</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>General Education</t>
+  </si>
+  <si>
+    <t>GENED</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Innovation Academy</t>
+  </si>
+  <si>
+    <t>INNOVACAD</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>INTL</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>LIT</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>Matriculation</t>
+  </si>
+  <si>
+    <t>MATRIC</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Minium</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>National Student Clearinghouse</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>PeopleSoft</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Percent or Percentage</t>
+  </si>
+  <si>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>Required or Requirement</t>
+  </si>
+  <si>
+    <t>REQ</t>
+  </si>
+  <si>
+    <t>Schedule or Scheduled</t>
+  </si>
+  <si>
+    <t>SCHED</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>STU</t>
+  </si>
+  <si>
+    <t>SubPlan</t>
+  </si>
+  <si>
+    <t>SPLAN</t>
+  </si>
+  <si>
+    <t>Surrogate ID</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>UF Online</t>
+  </si>
+  <si>
+    <t>UFO</t>
+  </si>
+  <si>
+    <t>Every instance of a column containing the same data point will have the same name across all Tables/Views.  Example: ACAD_CAR_CD</t>
+  </si>
+  <si>
+    <t>If a standard abbreviation for a word or phrase exists, that word or phrase will only exist as the abbreviation. Example: ENRLMT (Yes), ENROLLMENT (No)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Words will be seperatated by the underscore character and not run together. Example: EFF_DT (Yes),  EFFDT (No)  </t>
+  </si>
+  <si>
+    <t>Columns names will not contain a "UF_" prefix unless necessary to delineate a UF-owned data point from an identical non UF-owned datapoint in the same Table/View.  Example: UF_GPA, TRANSFER_GPA</t>
+  </si>
+  <si>
+    <t>If a Table/View contains two or more columns containing the same data point, a prefix will be added.  Example: STU_ACAD_CAR_CD, COURSE_ACAD_CAR_CD</t>
+  </si>
+  <si>
+    <t>"FLAG" should be used in place of "INDICATOR" or "IND"</t>
+  </si>
+  <si>
+    <t>We see little value it forcing these "system" column names into compliance, so they  have been retained: SRC_SYS_ID, CREATED_EW_DTTM, LASTUPD_EW_DTTM</t>
   </si>
 </sst>
 </file>
@@ -3920,7 +4267,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3932,18 +4279,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4258,8 +4610,8 @@
   <dimension ref="A1:L1192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1077" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1086" sqref="E1086"/>
+      <pane ySplit="1" topLeftCell="A1113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1131" sqref="D1131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,22 +4636,22 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="2"/>
@@ -4504,39 +4856,39 @@
       <c r="B9" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>1000</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
@@ -5562,39 +5914,39 @@
       <c r="B50" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D53" s="2"/>
@@ -6056,36 +6408,36 @@
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="12" t="s">
         <v>998</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -6550,39 +6902,39 @@
       <c r="B95" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D98" s="2"/>
@@ -7094,36 +7446,36 @@
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -8356,36 +8708,36 @@
       <c r="B173" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -9422,36 +9774,36 @@
       <c r="B218" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D218" s="10" t="s">
+      <c r="D218" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
@@ -10627,36 +10979,36 @@
       <c r="B269" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D269" s="8" t="s">
+      <c r="D269" s="12" t="s">
         <v>1001</v>
       </c>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
-      <c r="H269" s="8"/>
-      <c r="I269" s="8"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="12"/>
+      <c r="H269" s="12"/>
+      <c r="I269" s="12"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
-      <c r="H270" s="8"/>
-      <c r="I270" s="8"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+      <c r="G270" s="12"/>
+      <c r="H270" s="12"/>
+      <c r="I270" s="12"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
-      <c r="H271" s="8"/>
-      <c r="I271" s="8"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
+      <c r="G271" s="12"/>
+      <c r="H271" s="12"/>
+      <c r="I271" s="12"/>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
@@ -11127,36 +11479,36 @@
       <c r="L291" s="2"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D292" s="12" t="s">
+      <c r="D292" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="E292" s="12"/>
-      <c r="F292" s="12"/>
-      <c r="G292" s="12"/>
-      <c r="H292" s="12"/>
-      <c r="I292" s="12"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="13"/>
+      <c r="G292" s="13"/>
+      <c r="H292" s="13"/>
+      <c r="I292" s="13"/>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D293" s="12"/>
-      <c r="E293" s="12"/>
-      <c r="F293" s="12"/>
-      <c r="G293" s="12"/>
-      <c r="H293" s="12"/>
-      <c r="I293" s="12"/>
+      <c r="D293" s="13"/>
+      <c r="E293" s="13"/>
+      <c r="F293" s="13"/>
+      <c r="G293" s="13"/>
+      <c r="H293" s="13"/>
+      <c r="I293" s="13"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D294" s="12"/>
-      <c r="E294" s="12"/>
-      <c r="F294" s="12"/>
-      <c r="G294" s="12"/>
-      <c r="H294" s="12"/>
-      <c r="I294" s="12"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
+      <c r="G294" s="13"/>
+      <c r="H294" s="13"/>
+      <c r="I294" s="13"/>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
@@ -11481,39 +11833,39 @@
       <c r="B309" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D309" s="8" t="s">
+      <c r="D309" s="12" t="s">
         <v>1003</v>
       </c>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
-      <c r="H309" s="8"/>
-      <c r="I309" s="8"/>
-      <c r="J309" s="8"/>
-      <c r="K309" s="8"/>
-      <c r="L309" s="8"/>
+      <c r="E309" s="12"/>
+      <c r="F309" s="12"/>
+      <c r="G309" s="12"/>
+      <c r="H309" s="12"/>
+      <c r="I309" s="12"/>
+      <c r="J309" s="12"/>
+      <c r="K309" s="12"/>
+      <c r="L309" s="12"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="8"/>
-      <c r="H310" s="8"/>
-      <c r="I310" s="8"/>
-      <c r="J310" s="8"/>
-      <c r="K310" s="8"/>
-      <c r="L310" s="8"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
+      <c r="F310" s="12"/>
+      <c r="G310" s="12"/>
+      <c r="H310" s="12"/>
+      <c r="I310" s="12"/>
+      <c r="J310" s="12"/>
+      <c r="K310" s="12"/>
+      <c r="L310" s="12"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="8"/>
-      <c r="H311" s="8"/>
-      <c r="I311" s="8"/>
-      <c r="J311" s="8"/>
-      <c r="K311" s="8"/>
-      <c r="L311" s="8"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+      <c r="G311" s="12"/>
+      <c r="H311" s="12"/>
+      <c r="I311" s="12"/>
+      <c r="J311" s="12"/>
+      <c r="K311" s="12"/>
+      <c r="L311" s="12"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D312" s="2"/>
@@ -12111,36 +12463,36 @@
       <c r="L336" s="2"/>
     </row>
     <row r="337" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D337" s="12" t="s">
+      <c r="D337" s="13" t="s">
         <v>1004</v>
       </c>
-      <c r="E337" s="12"/>
-      <c r="F337" s="12"/>
-      <c r="G337" s="12"/>
-      <c r="H337" s="12"/>
-      <c r="I337" s="12"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="13"/>
+      <c r="G337" s="13"/>
+      <c r="H337" s="13"/>
+      <c r="I337" s="13"/>
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
     </row>
     <row r="338" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D338" s="12"/>
-      <c r="E338" s="12"/>
-      <c r="F338" s="12"/>
-      <c r="G338" s="12"/>
-      <c r="H338" s="12"/>
-      <c r="I338" s="12"/>
+      <c r="D338" s="13"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="13"/>
+      <c r="G338" s="13"/>
+      <c r="H338" s="13"/>
+      <c r="I338" s="13"/>
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
     <row r="339" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D339" s="12"/>
-      <c r="E339" s="12"/>
-      <c r="F339" s="12"/>
-      <c r="G339" s="12"/>
-      <c r="H339" s="12"/>
-      <c r="I339" s="12"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="13"/>
+      <c r="I339" s="13"/>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
@@ -13851,10 +14203,10 @@
       </c>
     </row>
     <row r="412" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="13">
-        <v>43263</v>
-      </c>
-      <c r="B412" s="14" t="s">
+      <c r="A412" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B412" s="11" t="s">
         <v>747</v>
       </c>
       <c r="C412" s="7" t="s">
@@ -13880,10 +14232,10 @@
       </c>
     </row>
     <row r="413" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="13">
-        <v>43263</v>
-      </c>
-      <c r="B413" s="14" t="s">
+      <c r="A413" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B413" s="11" t="s">
         <v>747</v>
       </c>
       <c r="C413" s="7" t="s">
@@ -13909,10 +14261,10 @@
       </c>
     </row>
     <row r="414" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="13">
-        <v>43263</v>
-      </c>
-      <c r="B414" s="14" t="s">
+      <c r="A414" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B414" s="11" t="s">
         <v>747</v>
       </c>
       <c r="C414" s="7" t="s">
@@ -13938,10 +14290,10 @@
       </c>
     </row>
     <row r="415" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="13">
-        <v>43263</v>
-      </c>
-      <c r="B415" s="14" t="s">
+      <c r="A415" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B415" s="11" t="s">
         <v>747</v>
       </c>
       <c r="C415" s="7" t="s">
@@ -13967,10 +14319,10 @@
       </c>
     </row>
     <row r="416" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="13">
-        <v>43263</v>
-      </c>
-      <c r="B416" s="14" t="s">
+      <c r="A416" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B416" s="11" t="s">
         <v>747</v>
       </c>
       <c r="C416" s="7" t="s">
@@ -13996,10 +14348,10 @@
       </c>
     </row>
     <row r="417" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="13">
-        <v>43263</v>
-      </c>
-      <c r="B417" s="14" t="s">
+      <c r="A417" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B417" s="11" t="s">
         <v>747</v>
       </c>
       <c r="C417" s="7" t="s">
@@ -14025,10 +14377,10 @@
       </c>
     </row>
     <row r="418" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="13">
-        <v>43263</v>
-      </c>
-      <c r="B418" s="14" t="s">
+      <c r="A418" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B418" s="11" t="s">
         <v>747</v>
       </c>
       <c r="C418" s="7" t="s">
@@ -14137,36 +14489,36 @@
       <c r="L422" s="2"/>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D423" s="12" t="s">
+      <c r="D423" s="13" t="s">
         <v>1005</v>
       </c>
-      <c r="E423" s="12"/>
-      <c r="F423" s="12"/>
-      <c r="G423" s="12"/>
-      <c r="H423" s="12"/>
-      <c r="I423" s="12"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
+      <c r="G423" s="13"/>
+      <c r="H423" s="13"/>
+      <c r="I423" s="13"/>
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
     </row>
     <row r="424" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D424" s="12"/>
-      <c r="E424" s="12"/>
-      <c r="F424" s="12"/>
-      <c r="G424" s="12"/>
-      <c r="H424" s="12"/>
-      <c r="I424" s="12"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+      <c r="G424" s="13"/>
+      <c r="H424" s="13"/>
+      <c r="I424" s="13"/>
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D425" s="12"/>
-      <c r="E425" s="12"/>
-      <c r="F425" s="12"/>
-      <c r="G425" s="12"/>
-      <c r="H425" s="12"/>
-      <c r="I425" s="12"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
+      <c r="F425" s="13"/>
+      <c r="G425" s="13"/>
+      <c r="H425" s="13"/>
+      <c r="I425" s="13"/>
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
       <c r="L425" s="2"/>
@@ -14461,36 +14813,36 @@
       <c r="L439" s="2"/>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D440" s="8" t="s">
+      <c r="D440" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="E440" s="8"/>
-      <c r="F440" s="8"/>
-      <c r="G440" s="8"/>
-      <c r="H440" s="8"/>
-      <c r="I440" s="8"/>
+      <c r="E440" s="12"/>
+      <c r="F440" s="12"/>
+      <c r="G440" s="12"/>
+      <c r="H440" s="12"/>
+      <c r="I440" s="12"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
     </row>
     <row r="441" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D441" s="8"/>
-      <c r="E441" s="8"/>
-      <c r="F441" s="8"/>
-      <c r="G441" s="8"/>
-      <c r="H441" s="8"/>
-      <c r="I441" s="8"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12"/>
+      <c r="F441" s="12"/>
+      <c r="G441" s="12"/>
+      <c r="H441" s="12"/>
+      <c r="I441" s="12"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
-      <c r="G442" s="8"/>
-      <c r="H442" s="8"/>
-      <c r="I442" s="8"/>
+      <c r="D442" s="12"/>
+      <c r="E442" s="12"/>
+      <c r="F442" s="12"/>
+      <c r="G442" s="12"/>
+      <c r="H442" s="12"/>
+      <c r="I442" s="12"/>
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -14839,36 +15191,36 @@
       <c r="L458" s="2"/>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D459" s="8" t="s">
+      <c r="D459" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="E459" s="8"/>
-      <c r="F459" s="8"/>
-      <c r="G459" s="8"/>
-      <c r="H459" s="8"/>
-      <c r="I459" s="8"/>
+      <c r="E459" s="12"/>
+      <c r="F459" s="12"/>
+      <c r="G459" s="12"/>
+      <c r="H459" s="12"/>
+      <c r="I459" s="12"/>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
     </row>
     <row r="460" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D460" s="8"/>
-      <c r="E460" s="8"/>
-      <c r="F460" s="8"/>
-      <c r="G460" s="8"/>
-      <c r="H460" s="8"/>
-      <c r="I460" s="8"/>
+      <c r="D460" s="12"/>
+      <c r="E460" s="12"/>
+      <c r="F460" s="12"/>
+      <c r="G460" s="12"/>
+      <c r="H460" s="12"/>
+      <c r="I460" s="12"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D461" s="8"/>
-      <c r="E461" s="8"/>
-      <c r="F461" s="8"/>
-      <c r="G461" s="8"/>
-      <c r="H461" s="8"/>
-      <c r="I461" s="8"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
+      <c r="F461" s="12"/>
+      <c r="G461" s="12"/>
+      <c r="H461" s="12"/>
+      <c r="I461" s="12"/>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
@@ -15163,36 +15515,36 @@
       <c r="L475" s="2"/>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D476" s="8" t="s">
+      <c r="D476" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="E476" s="8"/>
-      <c r="F476" s="8"/>
-      <c r="G476" s="8"/>
-      <c r="H476" s="8"/>
-      <c r="I476" s="8"/>
+      <c r="E476" s="12"/>
+      <c r="F476" s="12"/>
+      <c r="G476" s="12"/>
+      <c r="H476" s="12"/>
+      <c r="I476" s="12"/>
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D477" s="8"/>
-      <c r="E477" s="8"/>
-      <c r="F477" s="8"/>
-      <c r="G477" s="8"/>
-      <c r="H477" s="8"/>
-      <c r="I477" s="8"/>
+      <c r="D477" s="12"/>
+      <c r="E477" s="12"/>
+      <c r="F477" s="12"/>
+      <c r="G477" s="12"/>
+      <c r="H477" s="12"/>
+      <c r="I477" s="12"/>
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D478" s="8"/>
-      <c r="E478" s="8"/>
-      <c r="F478" s="8"/>
-      <c r="G478" s="8"/>
-      <c r="H478" s="8"/>
-      <c r="I478" s="8"/>
+      <c r="D478" s="12"/>
+      <c r="E478" s="12"/>
+      <c r="F478" s="12"/>
+      <c r="G478" s="12"/>
+      <c r="H478" s="12"/>
+      <c r="I478" s="12"/>
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
@@ -15573,39 +15925,39 @@
       <c r="B495" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D495" s="8" t="s">
+      <c r="D495" s="12" t="s">
         <v>1009</v>
       </c>
-      <c r="E495" s="8"/>
-      <c r="F495" s="8"/>
-      <c r="G495" s="8"/>
-      <c r="H495" s="8"/>
-      <c r="I495" s="8"/>
-      <c r="J495" s="8"/>
-      <c r="K495" s="8"/>
-      <c r="L495" s="8"/>
+      <c r="E495" s="12"/>
+      <c r="F495" s="12"/>
+      <c r="G495" s="12"/>
+      <c r="H495" s="12"/>
+      <c r="I495" s="12"/>
+      <c r="J495" s="12"/>
+      <c r="K495" s="12"/>
+      <c r="L495" s="12"/>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D496" s="8"/>
-      <c r="E496" s="8"/>
-      <c r="F496" s="8"/>
-      <c r="G496" s="8"/>
-      <c r="H496" s="8"/>
-      <c r="I496" s="8"/>
-      <c r="J496" s="8"/>
-      <c r="K496" s="8"/>
-      <c r="L496" s="8"/>
+      <c r="D496" s="12"/>
+      <c r="E496" s="12"/>
+      <c r="F496" s="12"/>
+      <c r="G496" s="12"/>
+      <c r="H496" s="12"/>
+      <c r="I496" s="12"/>
+      <c r="J496" s="12"/>
+      <c r="K496" s="12"/>
+      <c r="L496" s="12"/>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D497" s="8"/>
-      <c r="E497" s="8"/>
-      <c r="F497" s="8"/>
-      <c r="G497" s="8"/>
-      <c r="H497" s="8"/>
-      <c r="I497" s="8"/>
-      <c r="J497" s="8"/>
-      <c r="K497" s="8"/>
-      <c r="L497" s="8"/>
+      <c r="D497" s="12"/>
+      <c r="E497" s="12"/>
+      <c r="F497" s="12"/>
+      <c r="G497" s="12"/>
+      <c r="H497" s="12"/>
+      <c r="I497" s="12"/>
+      <c r="J497" s="12"/>
+      <c r="K497" s="12"/>
+      <c r="L497" s="12"/>
     </row>
     <row r="498" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D498" s="2"/>
@@ -16185,36 +16537,36 @@
       <c r="L521" s="2"/>
     </row>
     <row r="522" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D522" s="8" t="s">
+      <c r="D522" s="12" t="s">
         <v>1010</v>
       </c>
-      <c r="E522" s="8"/>
-      <c r="F522" s="8"/>
-      <c r="G522" s="8"/>
-      <c r="H522" s="8"/>
-      <c r="I522" s="8"/>
+      <c r="E522" s="12"/>
+      <c r="F522" s="12"/>
+      <c r="G522" s="12"/>
+      <c r="H522" s="12"/>
+      <c r="I522" s="12"/>
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D523" s="8"/>
-      <c r="E523" s="8"/>
-      <c r="F523" s="8"/>
-      <c r="G523" s="8"/>
-      <c r="H523" s="8"/>
-      <c r="I523" s="8"/>
+      <c r="D523" s="12"/>
+      <c r="E523" s="12"/>
+      <c r="F523" s="12"/>
+      <c r="G523" s="12"/>
+      <c r="H523" s="12"/>
+      <c r="I523" s="12"/>
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D524" s="8"/>
-      <c r="E524" s="8"/>
-      <c r="F524" s="8"/>
-      <c r="G524" s="8"/>
-      <c r="H524" s="8"/>
-      <c r="I524" s="8"/>
+      <c r="D524" s="12"/>
+      <c r="E524" s="12"/>
+      <c r="F524" s="12"/>
+      <c r="G524" s="12"/>
+      <c r="H524" s="12"/>
+      <c r="I524" s="12"/>
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
       <c r="L524" s="2"/>
@@ -17097,69 +17449,69 @@
       <c r="L560" s="2"/>
     </row>
     <row r="561" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D561" s="8" t="s">
+      <c r="D561" s="12" t="s">
         <v>1011</v>
       </c>
-      <c r="E561" s="8"/>
-      <c r="F561" s="8"/>
-      <c r="G561" s="8"/>
-      <c r="H561" s="8"/>
-      <c r="I561" s="8"/>
+      <c r="E561" s="12"/>
+      <c r="F561" s="12"/>
+      <c r="G561" s="12"/>
+      <c r="H561" s="12"/>
+      <c r="I561" s="12"/>
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
     <row r="562" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D562" s="8"/>
-      <c r="E562" s="8"/>
-      <c r="F562" s="8"/>
-      <c r="G562" s="8"/>
-      <c r="H562" s="8"/>
-      <c r="I562" s="8"/>
+      <c r="D562" s="12"/>
+      <c r="E562" s="12"/>
+      <c r="F562" s="12"/>
+      <c r="G562" s="12"/>
+      <c r="H562" s="12"/>
+      <c r="I562" s="12"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
     <row r="563" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D563" s="8"/>
-      <c r="E563" s="8"/>
-      <c r="F563" s="8"/>
-      <c r="G563" s="8"/>
-      <c r="H563" s="8"/>
-      <c r="I563" s="8"/>
+      <c r="D563" s="12"/>
+      <c r="E563" s="12"/>
+      <c r="F563" s="12"/>
+      <c r="G563" s="12"/>
+      <c r="H563" s="12"/>
+      <c r="I563" s="12"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
     <row r="564" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D564" s="9"/>
-      <c r="E564" s="9"/>
-      <c r="F564" s="9"/>
-      <c r="G564" s="9"/>
-      <c r="H564" s="9"/>
-      <c r="I564" s="9"/>
+      <c r="D564" s="8"/>
+      <c r="E564" s="8"/>
+      <c r="F564" s="8"/>
+      <c r="G564" s="8"/>
+      <c r="H564" s="8"/>
+      <c r="I564" s="8"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
     </row>
     <row r="565" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D565" s="9"/>
-      <c r="E565" s="9"/>
-      <c r="F565" s="9"/>
-      <c r="G565" s="9"/>
-      <c r="H565" s="9"/>
-      <c r="I565" s="9"/>
+      <c r="D565" s="8"/>
+      <c r="E565" s="8"/>
+      <c r="F565" s="8"/>
+      <c r="G565" s="8"/>
+      <c r="H565" s="8"/>
+      <c r="I565" s="8"/>
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
     </row>
     <row r="566" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D566" s="9"/>
-      <c r="E566" s="9"/>
-      <c r="F566" s="9"/>
-      <c r="G566" s="9"/>
-      <c r="H566" s="9"/>
-      <c r="I566" s="9"/>
+      <c r="D566" s="8"/>
+      <c r="E566" s="8"/>
+      <c r="F566" s="8"/>
+      <c r="G566" s="8"/>
+      <c r="H566" s="8"/>
+      <c r="I566" s="8"/>
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
@@ -17237,36 +17589,36 @@
       <c r="L570" s="2"/>
     </row>
     <row r="571" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D571" s="8" t="s">
+      <c r="D571" s="12" t="s">
         <v>1012</v>
       </c>
-      <c r="E571" s="8"/>
-      <c r="F571" s="8"/>
-      <c r="G571" s="8"/>
-      <c r="H571" s="8"/>
-      <c r="I571" s="8"/>
+      <c r="E571" s="12"/>
+      <c r="F571" s="12"/>
+      <c r="G571" s="12"/>
+      <c r="H571" s="12"/>
+      <c r="I571" s="12"/>
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
     </row>
     <row r="572" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D572" s="8"/>
-      <c r="E572" s="8"/>
-      <c r="F572" s="8"/>
-      <c r="G572" s="8"/>
-      <c r="H572" s="8"/>
-      <c r="I572" s="8"/>
+      <c r="D572" s="12"/>
+      <c r="E572" s="12"/>
+      <c r="F572" s="12"/>
+      <c r="G572" s="12"/>
+      <c r="H572" s="12"/>
+      <c r="I572" s="12"/>
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
     <row r="573" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D573" s="8"/>
-      <c r="E573" s="8"/>
-      <c r="F573" s="8"/>
-      <c r="G573" s="8"/>
-      <c r="H573" s="8"/>
-      <c r="I573" s="8"/>
+      <c r="D573" s="12"/>
+      <c r="E573" s="12"/>
+      <c r="F573" s="12"/>
+      <c r="G573" s="12"/>
+      <c r="H573" s="12"/>
+      <c r="I573" s="12"/>
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
       <c r="L573" s="2"/>
@@ -17550,36 +17902,36 @@
       <c r="L586" s="2"/>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D587" s="8" t="s">
+      <c r="D587" s="12" t="s">
         <v>1013</v>
       </c>
-      <c r="E587" s="8"/>
-      <c r="F587" s="8"/>
-      <c r="G587" s="8"/>
-      <c r="H587" s="8"/>
-      <c r="I587" s="8"/>
+      <c r="E587" s="12"/>
+      <c r="F587" s="12"/>
+      <c r="G587" s="12"/>
+      <c r="H587" s="12"/>
+      <c r="I587" s="12"/>
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D588" s="8"/>
-      <c r="E588" s="8"/>
-      <c r="F588" s="8"/>
-      <c r="G588" s="8"/>
-      <c r="H588" s="8"/>
-      <c r="I588" s="8"/>
+      <c r="D588" s="12"/>
+      <c r="E588" s="12"/>
+      <c r="F588" s="12"/>
+      <c r="G588" s="12"/>
+      <c r="H588" s="12"/>
+      <c r="I588" s="12"/>
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
       <c r="L588" s="2"/>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D589" s="8"/>
-      <c r="E589" s="8"/>
-      <c r="F589" s="8"/>
-      <c r="G589" s="8"/>
-      <c r="H589" s="8"/>
-      <c r="I589" s="8"/>
+      <c r="D589" s="12"/>
+      <c r="E589" s="12"/>
+      <c r="F589" s="12"/>
+      <c r="G589" s="12"/>
+      <c r="H589" s="12"/>
+      <c r="I589" s="12"/>
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
@@ -17931,36 +18283,36 @@
       <c r="L605" s="2"/>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D606" s="8" t="s">
+      <c r="D606" s="12" t="s">
         <v>1014</v>
       </c>
-      <c r="E606" s="8"/>
-      <c r="F606" s="8"/>
-      <c r="G606" s="8"/>
-      <c r="H606" s="8"/>
-      <c r="I606" s="8"/>
+      <c r="E606" s="12"/>
+      <c r="F606" s="12"/>
+      <c r="G606" s="12"/>
+      <c r="H606" s="12"/>
+      <c r="I606" s="12"/>
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
       <c r="L606" s="2"/>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D607" s="8"/>
-      <c r="E607" s="8"/>
-      <c r="F607" s="8"/>
-      <c r="G607" s="8"/>
-      <c r="H607" s="8"/>
-      <c r="I607" s="8"/>
+      <c r="D607" s="12"/>
+      <c r="E607" s="12"/>
+      <c r="F607" s="12"/>
+      <c r="G607" s="12"/>
+      <c r="H607" s="12"/>
+      <c r="I607" s="12"/>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D608" s="8"/>
-      <c r="E608" s="8"/>
-      <c r="F608" s="8"/>
-      <c r="G608" s="8"/>
-      <c r="H608" s="8"/>
-      <c r="I608" s="8"/>
+      <c r="D608" s="12"/>
+      <c r="E608" s="12"/>
+      <c r="F608" s="12"/>
+      <c r="G608" s="12"/>
+      <c r="H608" s="12"/>
+      <c r="I608" s="12"/>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
       <c r="L608" s="2"/>
@@ -18252,36 +18604,36 @@
       <c r="L622" s="2"/>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D623" s="8" t="s">
+      <c r="D623" s="12" t="s">
         <v>1015</v>
       </c>
-      <c r="E623" s="8"/>
-      <c r="F623" s="8"/>
-      <c r="G623" s="8"/>
-      <c r="H623" s="8"/>
-      <c r="I623" s="8"/>
+      <c r="E623" s="12"/>
+      <c r="F623" s="12"/>
+      <c r="G623" s="12"/>
+      <c r="H623" s="12"/>
+      <c r="I623" s="12"/>
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
       <c r="L623" s="2"/>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D624" s="8"/>
-      <c r="E624" s="8"/>
-      <c r="F624" s="8"/>
-      <c r="G624" s="8"/>
-      <c r="H624" s="8"/>
-      <c r="I624" s="8"/>
+      <c r="D624" s="12"/>
+      <c r="E624" s="12"/>
+      <c r="F624" s="12"/>
+      <c r="G624" s="12"/>
+      <c r="H624" s="12"/>
+      <c r="I624" s="12"/>
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D625" s="8"/>
-      <c r="E625" s="8"/>
-      <c r="F625" s="8"/>
-      <c r="G625" s="8"/>
-      <c r="H625" s="8"/>
-      <c r="I625" s="8"/>
+      <c r="D625" s="12"/>
+      <c r="E625" s="12"/>
+      <c r="F625" s="12"/>
+      <c r="G625" s="12"/>
+      <c r="H625" s="12"/>
+      <c r="I625" s="12"/>
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
       <c r="L625" s="2"/>
@@ -18846,36 +19198,36 @@
       <c r="L650" s="2"/>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D651" s="8" t="s">
+      <c r="D651" s="12" t="s">
         <v>1016</v>
       </c>
-      <c r="E651" s="8"/>
-      <c r="F651" s="8"/>
-      <c r="G651" s="8"/>
-      <c r="H651" s="8"/>
-      <c r="I651" s="8"/>
+      <c r="E651" s="12"/>
+      <c r="F651" s="12"/>
+      <c r="G651" s="12"/>
+      <c r="H651" s="12"/>
+      <c r="I651" s="12"/>
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
       <c r="L651" s="2"/>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D652" s="8"/>
-      <c r="E652" s="8"/>
-      <c r="F652" s="8"/>
-      <c r="G652" s="8"/>
-      <c r="H652" s="8"/>
-      <c r="I652" s="8"/>
+      <c r="D652" s="12"/>
+      <c r="E652" s="12"/>
+      <c r="F652" s="12"/>
+      <c r="G652" s="12"/>
+      <c r="H652" s="12"/>
+      <c r="I652" s="12"/>
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
       <c r="L652" s="2"/>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D653" s="8"/>
-      <c r="E653" s="8"/>
-      <c r="F653" s="8"/>
-      <c r="G653" s="8"/>
-      <c r="H653" s="8"/>
-      <c r="I653" s="8"/>
+      <c r="D653" s="12"/>
+      <c r="E653" s="12"/>
+      <c r="F653" s="12"/>
+      <c r="G653" s="12"/>
+      <c r="H653" s="12"/>
+      <c r="I653" s="12"/>
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
       <c r="L653" s="2"/>
@@ -22592,36 +22944,36 @@
       <c r="L788" s="2"/>
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D789" s="8" t="s">
+      <c r="D789" s="12" t="s">
         <v>1017</v>
       </c>
-      <c r="E789" s="8"/>
-      <c r="F789" s="8"/>
-      <c r="G789" s="8"/>
-      <c r="H789" s="8"/>
-      <c r="I789" s="8"/>
+      <c r="E789" s="12"/>
+      <c r="F789" s="12"/>
+      <c r="G789" s="12"/>
+      <c r="H789" s="12"/>
+      <c r="I789" s="12"/>
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
       <c r="L789" s="2"/>
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D790" s="8"/>
-      <c r="E790" s="8"/>
-      <c r="F790" s="8"/>
-      <c r="G790" s="8"/>
-      <c r="H790" s="8"/>
-      <c r="I790" s="8"/>
+      <c r="D790" s="12"/>
+      <c r="E790" s="12"/>
+      <c r="F790" s="12"/>
+      <c r="G790" s="12"/>
+      <c r="H790" s="12"/>
+      <c r="I790" s="12"/>
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
       <c r="L790" s="2"/>
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D791" s="8"/>
-      <c r="E791" s="8"/>
-      <c r="F791" s="8"/>
-      <c r="G791" s="8"/>
-      <c r="H791" s="8"/>
-      <c r="I791" s="8"/>
+      <c r="D791" s="12"/>
+      <c r="E791" s="12"/>
+      <c r="F791" s="12"/>
+      <c r="G791" s="12"/>
+      <c r="H791" s="12"/>
+      <c r="I791" s="12"/>
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
       <c r="L791" s="2"/>
@@ -24135,39 +24487,39 @@
       <c r="B849" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D849" s="8" t="s">
+      <c r="D849" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="E849" s="8"/>
-      <c r="F849" s="8"/>
-      <c r="G849" s="8"/>
-      <c r="H849" s="8"/>
-      <c r="I849" s="8"/>
-      <c r="J849" s="8"/>
-      <c r="K849" s="8"/>
-      <c r="L849" s="8"/>
+      <c r="E849" s="12"/>
+      <c r="F849" s="12"/>
+      <c r="G849" s="12"/>
+      <c r="H849" s="12"/>
+      <c r="I849" s="12"/>
+      <c r="J849" s="12"/>
+      <c r="K849" s="12"/>
+      <c r="L849" s="12"/>
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D850" s="8"/>
-      <c r="E850" s="8"/>
-      <c r="F850" s="8"/>
-      <c r="G850" s="8"/>
-      <c r="H850" s="8"/>
-      <c r="I850" s="8"/>
-      <c r="J850" s="8"/>
-      <c r="K850" s="8"/>
-      <c r="L850" s="8"/>
+      <c r="D850" s="12"/>
+      <c r="E850" s="12"/>
+      <c r="F850" s="12"/>
+      <c r="G850" s="12"/>
+      <c r="H850" s="12"/>
+      <c r="I850" s="12"/>
+      <c r="J850" s="12"/>
+      <c r="K850" s="12"/>
+      <c r="L850" s="12"/>
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D851" s="8"/>
-      <c r="E851" s="8"/>
-      <c r="F851" s="8"/>
-      <c r="G851" s="8"/>
-      <c r="H851" s="8"/>
-      <c r="I851" s="8"/>
-      <c r="J851" s="8"/>
-      <c r="K851" s="8"/>
-      <c r="L851" s="8"/>
+      <c r="D851" s="12"/>
+      <c r="E851" s="12"/>
+      <c r="F851" s="12"/>
+      <c r="G851" s="12"/>
+      <c r="H851" s="12"/>
+      <c r="I851" s="12"/>
+      <c r="J851" s="12"/>
+      <c r="K851" s="12"/>
+      <c r="L851" s="12"/>
     </row>
     <row r="852" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D852" s="2"/>
@@ -24484,39 +24836,39 @@
       <c r="B866" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D866" s="8" t="s">
+      <c r="D866" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="E866" s="8"/>
-      <c r="F866" s="8"/>
-      <c r="G866" s="8"/>
-      <c r="H866" s="8"/>
-      <c r="I866" s="8"/>
-      <c r="J866" s="8"/>
-      <c r="K866" s="8"/>
-      <c r="L866" s="8"/>
+      <c r="E866" s="12"/>
+      <c r="F866" s="12"/>
+      <c r="G866" s="12"/>
+      <c r="H866" s="12"/>
+      <c r="I866" s="12"/>
+      <c r="J866" s="12"/>
+      <c r="K866" s="12"/>
+      <c r="L866" s="12"/>
     </row>
     <row r="867" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D867" s="8"/>
-      <c r="E867" s="8"/>
-      <c r="F867" s="8"/>
-      <c r="G867" s="8"/>
-      <c r="H867" s="8"/>
-      <c r="I867" s="8"/>
-      <c r="J867" s="8"/>
-      <c r="K867" s="8"/>
-      <c r="L867" s="8"/>
+      <c r="D867" s="12"/>
+      <c r="E867" s="12"/>
+      <c r="F867" s="12"/>
+      <c r="G867" s="12"/>
+      <c r="H867" s="12"/>
+      <c r="I867" s="12"/>
+      <c r="J867" s="12"/>
+      <c r="K867" s="12"/>
+      <c r="L867" s="12"/>
     </row>
     <row r="868" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D868" s="8"/>
-      <c r="E868" s="8"/>
-      <c r="F868" s="8"/>
-      <c r="G868" s="8"/>
-      <c r="H868" s="8"/>
-      <c r="I868" s="8"/>
-      <c r="J868" s="8"/>
-      <c r="K868" s="8"/>
-      <c r="L868" s="8"/>
+      <c r="D868" s="12"/>
+      <c r="E868" s="12"/>
+      <c r="F868" s="12"/>
+      <c r="G868" s="12"/>
+      <c r="H868" s="12"/>
+      <c r="I868" s="12"/>
+      <c r="J868" s="12"/>
+      <c r="K868" s="12"/>
+      <c r="L868" s="12"/>
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D869" s="2"/>
@@ -24833,39 +25185,39 @@
       <c r="B883" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D883" s="8" t="s">
+      <c r="D883" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="E883" s="8"/>
-      <c r="F883" s="8"/>
-      <c r="G883" s="8"/>
-      <c r="H883" s="8"/>
-      <c r="I883" s="8"/>
-      <c r="J883" s="8"/>
-      <c r="K883" s="8"/>
-      <c r="L883" s="8"/>
+      <c r="E883" s="12"/>
+      <c r="F883" s="12"/>
+      <c r="G883" s="12"/>
+      <c r="H883" s="12"/>
+      <c r="I883" s="12"/>
+      <c r="J883" s="12"/>
+      <c r="K883" s="12"/>
+      <c r="L883" s="12"/>
     </row>
     <row r="884" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D884" s="8"/>
-      <c r="E884" s="8"/>
-      <c r="F884" s="8"/>
-      <c r="G884" s="8"/>
-      <c r="H884" s="8"/>
-      <c r="I884" s="8"/>
-      <c r="J884" s="8"/>
-      <c r="K884" s="8"/>
-      <c r="L884" s="8"/>
+      <c r="D884" s="12"/>
+      <c r="E884" s="12"/>
+      <c r="F884" s="12"/>
+      <c r="G884" s="12"/>
+      <c r="H884" s="12"/>
+      <c r="I884" s="12"/>
+      <c r="J884" s="12"/>
+      <c r="K884" s="12"/>
+      <c r="L884" s="12"/>
     </row>
     <row r="885" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D885" s="8"/>
-      <c r="E885" s="8"/>
-      <c r="F885" s="8"/>
-      <c r="G885" s="8"/>
-      <c r="H885" s="8"/>
-      <c r="I885" s="8"/>
-      <c r="J885" s="8"/>
-      <c r="K885" s="8"/>
-      <c r="L885" s="8"/>
+      <c r="D885" s="12"/>
+      <c r="E885" s="12"/>
+      <c r="F885" s="12"/>
+      <c r="G885" s="12"/>
+      <c r="H885" s="12"/>
+      <c r="I885" s="12"/>
+      <c r="J885" s="12"/>
+      <c r="K885" s="12"/>
+      <c r="L885" s="12"/>
     </row>
     <row r="886" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D886" s="2"/>
@@ -25479,36 +25831,36 @@
       <c r="B912" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D912" s="8" t="s">
+      <c r="D912" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="E912" s="8"/>
-      <c r="F912" s="8"/>
-      <c r="G912" s="8"/>
-      <c r="H912" s="8"/>
-      <c r="I912" s="8"/>
+      <c r="E912" s="12"/>
+      <c r="F912" s="12"/>
+      <c r="G912" s="12"/>
+      <c r="H912" s="12"/>
+      <c r="I912" s="12"/>
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
       <c r="L912" s="2"/>
     </row>
     <row r="913" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D913" s="8"/>
-      <c r="E913" s="8"/>
-      <c r="F913" s="8"/>
-      <c r="G913" s="8"/>
-      <c r="H913" s="8"/>
-      <c r="I913" s="8"/>
+      <c r="D913" s="12"/>
+      <c r="E913" s="12"/>
+      <c r="F913" s="12"/>
+      <c r="G913" s="12"/>
+      <c r="H913" s="12"/>
+      <c r="I913" s="12"/>
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
       <c r="L913" s="2"/>
     </row>
     <row r="914" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D914" s="8"/>
-      <c r="E914" s="8"/>
-      <c r="F914" s="8"/>
-      <c r="G914" s="8"/>
-      <c r="H914" s="8"/>
-      <c r="I914" s="8"/>
+      <c r="D914" s="12"/>
+      <c r="E914" s="12"/>
+      <c r="F914" s="12"/>
+      <c r="G914" s="12"/>
+      <c r="H914" s="12"/>
+      <c r="I914" s="12"/>
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
       <c r="L914" s="2"/>
@@ -25922,36 +26274,36 @@
       <c r="L932" s="2"/>
     </row>
     <row r="933" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D933" s="8" t="s">
+      <c r="D933" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="E933" s="8"/>
-      <c r="F933" s="8"/>
-      <c r="G933" s="8"/>
-      <c r="H933" s="8"/>
-      <c r="I933" s="8"/>
+      <c r="E933" s="12"/>
+      <c r="F933" s="12"/>
+      <c r="G933" s="12"/>
+      <c r="H933" s="12"/>
+      <c r="I933" s="12"/>
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
       <c r="L933" s="2"/>
     </row>
     <row r="934" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D934" s="8"/>
-      <c r="E934" s="8"/>
-      <c r="F934" s="8"/>
-      <c r="G934" s="8"/>
-      <c r="H934" s="8"/>
-      <c r="I934" s="8"/>
+      <c r="D934" s="12"/>
+      <c r="E934" s="12"/>
+      <c r="F934" s="12"/>
+      <c r="G934" s="12"/>
+      <c r="H934" s="12"/>
+      <c r="I934" s="12"/>
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
       <c r="L934" s="2"/>
     </row>
     <row r="935" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D935" s="8"/>
-      <c r="E935" s="8"/>
-      <c r="F935" s="8"/>
-      <c r="G935" s="8"/>
-      <c r="H935" s="8"/>
-      <c r="I935" s="8"/>
+      <c r="D935" s="12"/>
+      <c r="E935" s="12"/>
+      <c r="F935" s="12"/>
+      <c r="G935" s="12"/>
+      <c r="H935" s="12"/>
+      <c r="I935" s="12"/>
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
       <c r="L935" s="2"/>
@@ -26307,36 +26659,36 @@
       <c r="L952" s="2"/>
     </row>
     <row r="953" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D953" s="8" t="s">
+      <c r="D953" s="12" t="s">
         <v>1023</v>
       </c>
-      <c r="E953" s="8"/>
-      <c r="F953" s="8"/>
-      <c r="G953" s="8"/>
-      <c r="H953" s="8"/>
-      <c r="I953" s="8"/>
+      <c r="E953" s="12"/>
+      <c r="F953" s="12"/>
+      <c r="G953" s="12"/>
+      <c r="H953" s="12"/>
+      <c r="I953" s="12"/>
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
       <c r="L953" s="2"/>
     </row>
     <row r="954" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D954" s="8"/>
-      <c r="E954" s="8"/>
-      <c r="F954" s="8"/>
-      <c r="G954" s="8"/>
-      <c r="H954" s="8"/>
-      <c r="I954" s="8"/>
+      <c r="D954" s="12"/>
+      <c r="E954" s="12"/>
+      <c r="F954" s="12"/>
+      <c r="G954" s="12"/>
+      <c r="H954" s="12"/>
+      <c r="I954" s="12"/>
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
       <c r="L954" s="2"/>
     </row>
     <row r="955" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D955" s="8"/>
-      <c r="E955" s="8"/>
-      <c r="F955" s="8"/>
-      <c r="G955" s="8"/>
-      <c r="H955" s="8"/>
-      <c r="I955" s="8"/>
+      <c r="D955" s="12"/>
+      <c r="E955" s="12"/>
+      <c r="F955" s="12"/>
+      <c r="G955" s="12"/>
+      <c r="H955" s="12"/>
+      <c r="I955" s="12"/>
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
       <c r="L955" s="2"/>
@@ -26628,36 +26980,36 @@
       <c r="L969" s="2"/>
     </row>
     <row r="970" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D970" s="8" t="s">
+      <c r="D970" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="E970" s="8"/>
-      <c r="F970" s="8"/>
-      <c r="G970" s="8"/>
-      <c r="H970" s="8"/>
-      <c r="I970" s="8"/>
+      <c r="E970" s="12"/>
+      <c r="F970" s="12"/>
+      <c r="G970" s="12"/>
+      <c r="H970" s="12"/>
+      <c r="I970" s="12"/>
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
       <c r="L970" s="2"/>
     </row>
     <row r="971" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D971" s="8"/>
-      <c r="E971" s="8"/>
-      <c r="F971" s="8"/>
-      <c r="G971" s="8"/>
-      <c r="H971" s="8"/>
-      <c r="I971" s="8"/>
+      <c r="D971" s="12"/>
+      <c r="E971" s="12"/>
+      <c r="F971" s="12"/>
+      <c r="G971" s="12"/>
+      <c r="H971" s="12"/>
+      <c r="I971" s="12"/>
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
       <c r="L971" s="2"/>
     </row>
     <row r="972" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D972" s="8"/>
-      <c r="E972" s="8"/>
-      <c r="F972" s="8"/>
-      <c r="G972" s="8"/>
-      <c r="H972" s="8"/>
-      <c r="I972" s="8"/>
+      <c r="D972" s="12"/>
+      <c r="E972" s="12"/>
+      <c r="F972" s="12"/>
+      <c r="G972" s="12"/>
+      <c r="H972" s="12"/>
+      <c r="I972" s="12"/>
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
       <c r="L972" s="2"/>
@@ -27065,10 +27417,10 @@
       <c r="L990" s="2"/>
     </row>
     <row r="991" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="13">
-        <v>43263</v>
-      </c>
-      <c r="B991" s="14" t="s">
+      <c r="A991" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B991" s="11" t="s">
         <v>747</v>
       </c>
       <c r="C991" s="7" t="s">
@@ -27609,39 +27961,39 @@
       <c r="B1012" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1012" s="8" t="s">
+      <c r="D1012" s="12" t="s">
         <v>1025</v>
       </c>
-      <c r="E1012" s="8"/>
-      <c r="F1012" s="8"/>
-      <c r="G1012" s="8"/>
-      <c r="H1012" s="8"/>
-      <c r="I1012" s="8"/>
-      <c r="J1012" s="8"/>
-      <c r="K1012" s="8"/>
-      <c r="L1012" s="8"/>
+      <c r="E1012" s="12"/>
+      <c r="F1012" s="12"/>
+      <c r="G1012" s="12"/>
+      <c r="H1012" s="12"/>
+      <c r="I1012" s="12"/>
+      <c r="J1012" s="12"/>
+      <c r="K1012" s="12"/>
+      <c r="L1012" s="12"/>
     </row>
     <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1013" s="8"/>
-      <c r="E1013" s="8"/>
-      <c r="F1013" s="8"/>
-      <c r="G1013" s="8"/>
-      <c r="H1013" s="8"/>
-      <c r="I1013" s="8"/>
-      <c r="J1013" s="8"/>
-      <c r="K1013" s="8"/>
-      <c r="L1013" s="8"/>
+      <c r="D1013" s="12"/>
+      <c r="E1013" s="12"/>
+      <c r="F1013" s="12"/>
+      <c r="G1013" s="12"/>
+      <c r="H1013" s="12"/>
+      <c r="I1013" s="12"/>
+      <c r="J1013" s="12"/>
+      <c r="K1013" s="12"/>
+      <c r="L1013" s="12"/>
     </row>
     <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1014" s="8"/>
-      <c r="E1014" s="8"/>
-      <c r="F1014" s="8"/>
-      <c r="G1014" s="8"/>
-      <c r="H1014" s="8"/>
-      <c r="I1014" s="8"/>
-      <c r="J1014" s="8"/>
-      <c r="K1014" s="8"/>
-      <c r="L1014" s="8"/>
+      <c r="D1014" s="12"/>
+      <c r="E1014" s="12"/>
+      <c r="F1014" s="12"/>
+      <c r="G1014" s="12"/>
+      <c r="H1014" s="12"/>
+      <c r="I1014" s="12"/>
+      <c r="J1014" s="12"/>
+      <c r="K1014" s="12"/>
+      <c r="L1014" s="12"/>
     </row>
     <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1015" s="2"/>
@@ -27960,39 +28312,39 @@
       <c r="B1029" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1029" s="8" t="s">
+      <c r="D1029" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="E1029" s="8"/>
-      <c r="F1029" s="8"/>
-      <c r="G1029" s="8"/>
-      <c r="H1029" s="8"/>
-      <c r="I1029" s="8"/>
-      <c r="J1029" s="8"/>
-      <c r="K1029" s="8"/>
-      <c r="L1029" s="8"/>
+      <c r="E1029" s="12"/>
+      <c r="F1029" s="12"/>
+      <c r="G1029" s="12"/>
+      <c r="H1029" s="12"/>
+      <c r="I1029" s="12"/>
+      <c r="J1029" s="12"/>
+      <c r="K1029" s="12"/>
+      <c r="L1029" s="12"/>
     </row>
     <row r="1030" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1030" s="8"/>
-      <c r="E1030" s="8"/>
-      <c r="F1030" s="8"/>
-      <c r="G1030" s="8"/>
-      <c r="H1030" s="8"/>
-      <c r="I1030" s="8"/>
-      <c r="J1030" s="8"/>
-      <c r="K1030" s="8"/>
-      <c r="L1030" s="8"/>
+      <c r="D1030" s="12"/>
+      <c r="E1030" s="12"/>
+      <c r="F1030" s="12"/>
+      <c r="G1030" s="12"/>
+      <c r="H1030" s="12"/>
+      <c r="I1030" s="12"/>
+      <c r="J1030" s="12"/>
+      <c r="K1030" s="12"/>
+      <c r="L1030" s="12"/>
     </row>
     <row r="1031" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1031" s="8"/>
-      <c r="E1031" s="8"/>
-      <c r="F1031" s="8"/>
-      <c r="G1031" s="8"/>
-      <c r="H1031" s="8"/>
-      <c r="I1031" s="8"/>
-      <c r="J1031" s="8"/>
-      <c r="K1031" s="8"/>
-      <c r="L1031" s="8"/>
+      <c r="D1031" s="12"/>
+      <c r="E1031" s="12"/>
+      <c r="F1031" s="12"/>
+      <c r="G1031" s="12"/>
+      <c r="H1031" s="12"/>
+      <c r="I1031" s="12"/>
+      <c r="J1031" s="12"/>
+      <c r="K1031" s="12"/>
+      <c r="L1031" s="12"/>
     </row>
     <row r="1032" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1032" s="2"/>
@@ -29298,36 +29650,36 @@
       <c r="L1081" s="2"/>
     </row>
     <row r="1082" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1082" s="8" t="s">
+      <c r="D1082" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="E1082" s="8"/>
-      <c r="F1082" s="8"/>
-      <c r="G1082" s="8"/>
-      <c r="H1082" s="8"/>
-      <c r="I1082" s="8"/>
+      <c r="E1082" s="12"/>
+      <c r="F1082" s="12"/>
+      <c r="G1082" s="12"/>
+      <c r="H1082" s="12"/>
+      <c r="I1082" s="12"/>
       <c r="J1082" s="2"/>
       <c r="K1082" s="2"/>
       <c r="L1082" s="2"/>
     </row>
     <row r="1083" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1083" s="8"/>
-      <c r="E1083" s="8"/>
-      <c r="F1083" s="8"/>
-      <c r="G1083" s="8"/>
-      <c r="H1083" s="8"/>
-      <c r="I1083" s="8"/>
+      <c r="D1083" s="12"/>
+      <c r="E1083" s="12"/>
+      <c r="F1083" s="12"/>
+      <c r="G1083" s="12"/>
+      <c r="H1083" s="12"/>
+      <c r="I1083" s="12"/>
       <c r="J1083" s="2"/>
       <c r="K1083" s="2"/>
       <c r="L1083" s="2"/>
     </row>
     <row r="1084" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1084" s="8"/>
-      <c r="E1084" s="8"/>
-      <c r="F1084" s="8"/>
-      <c r="G1084" s="8"/>
-      <c r="H1084" s="8"/>
-      <c r="I1084" s="8"/>
+      <c r="D1084" s="12"/>
+      <c r="E1084" s="12"/>
+      <c r="F1084" s="12"/>
+      <c r="G1084" s="12"/>
+      <c r="H1084" s="12"/>
+      <c r="I1084" s="12"/>
       <c r="J1084" s="2"/>
       <c r="K1084" s="2"/>
       <c r="L1084" s="2"/>
@@ -30901,39 +31253,39 @@
       <c r="B1141" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1141" s="8" t="s">
+      <c r="D1141" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="E1141" s="8"/>
-      <c r="F1141" s="8"/>
-      <c r="G1141" s="8"/>
-      <c r="H1141" s="8"/>
-      <c r="I1141" s="8"/>
-      <c r="J1141" s="8"/>
-      <c r="K1141" s="8"/>
-      <c r="L1141" s="8"/>
+      <c r="E1141" s="12"/>
+      <c r="F1141" s="12"/>
+      <c r="G1141" s="12"/>
+      <c r="H1141" s="12"/>
+      <c r="I1141" s="12"/>
+      <c r="J1141" s="12"/>
+      <c r="K1141" s="12"/>
+      <c r="L1141" s="12"/>
     </row>
     <row r="1142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1142" s="8"/>
-      <c r="E1142" s="8"/>
-      <c r="F1142" s="8"/>
-      <c r="G1142" s="8"/>
-      <c r="H1142" s="8"/>
-      <c r="I1142" s="8"/>
-      <c r="J1142" s="8"/>
-      <c r="K1142" s="8"/>
-      <c r="L1142" s="8"/>
+      <c r="D1142" s="12"/>
+      <c r="E1142" s="12"/>
+      <c r="F1142" s="12"/>
+      <c r="G1142" s="12"/>
+      <c r="H1142" s="12"/>
+      <c r="I1142" s="12"/>
+      <c r="J1142" s="12"/>
+      <c r="K1142" s="12"/>
+      <c r="L1142" s="12"/>
     </row>
     <row r="1143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1143" s="8"/>
-      <c r="E1143" s="8"/>
-      <c r="F1143" s="8"/>
-      <c r="G1143" s="8"/>
-      <c r="H1143" s="8"/>
-      <c r="I1143" s="8"/>
-      <c r="J1143" s="8"/>
-      <c r="K1143" s="8"/>
-      <c r="L1143" s="8"/>
+      <c r="D1143" s="12"/>
+      <c r="E1143" s="12"/>
+      <c r="F1143" s="12"/>
+      <c r="G1143" s="12"/>
+      <c r="H1143" s="12"/>
+      <c r="I1143" s="12"/>
+      <c r="J1143" s="12"/>
+      <c r="K1143" s="12"/>
+      <c r="L1143" s="12"/>
     </row>
     <row r="1144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1144" s="2"/>
@@ -32142,39 +32494,39 @@
       <c r="B1189" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1189" s="8" t="s">
+      <c r="D1189" s="12" t="s">
         <v>1029</v>
       </c>
-      <c r="E1189" s="8"/>
-      <c r="F1189" s="8"/>
-      <c r="G1189" s="8"/>
-      <c r="H1189" s="8"/>
-      <c r="I1189" s="8"/>
-      <c r="J1189" s="8"/>
-      <c r="K1189" s="8"/>
-      <c r="L1189" s="8"/>
+      <c r="E1189" s="12"/>
+      <c r="F1189" s="12"/>
+      <c r="G1189" s="12"/>
+      <c r="H1189" s="12"/>
+      <c r="I1189" s="12"/>
+      <c r="J1189" s="12"/>
+      <c r="K1189" s="12"/>
+      <c r="L1189" s="12"/>
     </row>
     <row r="1190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1190" s="8"/>
-      <c r="E1190" s="8"/>
-      <c r="F1190" s="8"/>
-      <c r="G1190" s="8"/>
-      <c r="H1190" s="8"/>
-      <c r="I1190" s="8"/>
-      <c r="J1190" s="8"/>
-      <c r="K1190" s="8"/>
-      <c r="L1190" s="8"/>
+      <c r="D1190" s="12"/>
+      <c r="E1190" s="12"/>
+      <c r="F1190" s="12"/>
+      <c r="G1190" s="12"/>
+      <c r="H1190" s="12"/>
+      <c r="I1190" s="12"/>
+      <c r="J1190" s="12"/>
+      <c r="K1190" s="12"/>
+      <c r="L1190" s="12"/>
     </row>
     <row r="1191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1191" s="8"/>
-      <c r="E1191" s="8"/>
-      <c r="F1191" s="8"/>
-      <c r="G1191" s="8"/>
-      <c r="H1191" s="8"/>
-      <c r="I1191" s="8"/>
-      <c r="J1191" s="8"/>
-      <c r="K1191" s="8"/>
-      <c r="L1191" s="8"/>
+      <c r="D1191" s="12"/>
+      <c r="E1191" s="12"/>
+      <c r="F1191" s="12"/>
+      <c r="G1191" s="12"/>
+      <c r="H1191" s="12"/>
+      <c r="I1191" s="12"/>
+      <c r="J1191" s="12"/>
+      <c r="K1191" s="12"/>
+      <c r="L1191" s="12"/>
     </row>
     <row r="1192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1192" s="2"/>
@@ -32189,15 +32541,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D495:L497"/>
-    <mergeCell ref="D849:L851"/>
-    <mergeCell ref="D866:L868"/>
-    <mergeCell ref="D883:L885"/>
-    <mergeCell ref="D1012:L1014"/>
-    <mergeCell ref="D912:I914"/>
-    <mergeCell ref="D933:I935"/>
-    <mergeCell ref="D953:I955"/>
-    <mergeCell ref="D970:I972"/>
+    <mergeCell ref="D9:L11"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="D95:L97"/>
+    <mergeCell ref="D309:L311"/>
+    <mergeCell ref="D561:I563"/>
+    <mergeCell ref="D476:I478"/>
+    <mergeCell ref="D423:I425"/>
+    <mergeCell ref="D440:I442"/>
+    <mergeCell ref="D459:I461"/>
+    <mergeCell ref="D522:I524"/>
     <mergeCell ref="D1029:L1031"/>
     <mergeCell ref="D1141:L1143"/>
     <mergeCell ref="D1189:L1191"/>
@@ -32208,22 +32561,21 @@
     <mergeCell ref="D218:I220"/>
     <mergeCell ref="D269:I271"/>
     <mergeCell ref="D292:I294"/>
-    <mergeCell ref="D9:L11"/>
-    <mergeCell ref="D50:L52"/>
-    <mergeCell ref="D95:L97"/>
-    <mergeCell ref="D309:L311"/>
-    <mergeCell ref="D561:I563"/>
     <mergeCell ref="D1082:I1084"/>
-    <mergeCell ref="D476:I478"/>
     <mergeCell ref="D571:I573"/>
-    <mergeCell ref="D423:I425"/>
-    <mergeCell ref="D440:I442"/>
-    <mergeCell ref="D459:I461"/>
-    <mergeCell ref="D522:I524"/>
     <mergeCell ref="D587:I589"/>
     <mergeCell ref="D606:I608"/>
     <mergeCell ref="D623:I625"/>
     <mergeCell ref="D651:I653"/>
+    <mergeCell ref="D495:L497"/>
+    <mergeCell ref="D849:L851"/>
+    <mergeCell ref="D866:L868"/>
+    <mergeCell ref="D883:L885"/>
+    <mergeCell ref="D1012:L1014"/>
+    <mergeCell ref="D912:I914"/>
+    <mergeCell ref="D933:I935"/>
+    <mergeCell ref="D953:I955"/>
+    <mergeCell ref="D970:I972"/>
     <mergeCell ref="D789:I791"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32236,19 +32588,537 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023C68C9F20C69D48BB417A9ADFD5DC9C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29914a5778ec744f9d5d623c4355d354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a57c4080a7a73066863a39e6ec4255" ns2:_="">
     <xsd:import namespace="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
@@ -32393,7 +33263,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -32439,26 +33330,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32476,18 +33348,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -9096,9 +9096,7 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{74F0CE91-FC60-44BC-8FE0-2AEF68936F4B}" name="Martinez,James J" id="-584524543" dateTime="2018-06-27T17:14:41"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -5,20 +5,21 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martja\Data-Warehouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martja\Documents\Student_ODBC_ERD\ERD Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="Naming Rules" sheetId="2" r:id="rId2"/>
     <sheet name="Standard Abbreviations" sheetId="3" r:id="rId3"/>
+    <sheet name="Crosswalk Objects" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
-    <customWorkbookView name="Martinez,James J - Personal View" guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Martinez,James J - Personal View" guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1918" windowHeight="1038" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6146" uniqueCount="1347">
   <si>
     <t>Owner</t>
   </si>
@@ -4942,6 +4943,73 @@
   </si>
   <si>
     <t>General Ledger</t>
+  </si>
+  <si>
+    <t>WH_DEPARTMENT_TO_ACAD_ORG</t>
+  </si>
+  <si>
+    <t>UF_DEP_CD</t>
+  </si>
+  <si>
+    <t>Legacy Mainframe Department Code from WH_DEPARTMENTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: WH_DEPARTMENT_TO_ACAD_ORG contains information to crosswalk from the academic departments in WH_DEPARTMENTS to the academic departments in WH_D_ACAD_ORG</t>
+    </r>
+  </si>
+  <si>
+    <t>WH_COLLEGE_CD_TO_ACAD_GROUP</t>
+  </si>
+  <si>
+    <t>UF_COLLEGE_CD</t>
+  </si>
+  <si>
+    <t>Legacy Mainframe College Code from WH_COLLEGES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: WH_COLLEGE_CD_TO_ACAD_GROUP contains information to crosswalk from the colleges/schools in WH_COLLEGES to the academic groups in WH_D_ACAD_GROUP</t>
+    </r>
+  </si>
+  <si>
+    <t>*NOTE: Subject to change due to conflict for the State University System.</t>
   </si>
 </sst>
 </file>
@@ -5065,10 +5133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5103,7 +5171,193 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="60">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
     </dxf>
@@ -5220,7 +5474,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{74F0CE91-FC60-44BC-8FE0-2AEF68936F4B}" diskRevisions="1" revisionId="489" version="25">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{783932B7-69D7-4E01-8043-D615E66EE488}" diskRevisions="1" revisionId="537" version="5">
   <header guid="{39BACE6A-51BC-4D81-A7EB-09DB3C23E4C0}" dateTime="2018-06-27T17:14:41" maxSheetId="4" userName="Martinez,James J" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -5396,6 +5650,38 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{3190B7AC-11DF-4846-8B0C-34E0021782D2}" dateTime="2018-07-02T16:22:58" maxSheetId="5" userName="Martinez,James J" r:id="rId26" minRId="490" maxRId="517">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5CA4762E-7D87-4AA2-B7B4-69400B7279A2}" dateTime="2018-07-02T16:26:01" maxSheetId="5" userName="Martinez,James J" r:id="rId27" minRId="518" maxRId="536">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3CAC17A1-3BEF-4DA3-BAA6-2A9757D1FE9C}" dateTime="2018-07-02T16:27:13" maxSheetId="5" userName="Martinez,James J" r:id="rId28" minRId="537">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{783932B7-69D7-4E01-8043-D615E66EE488}" dateTime="2018-07-02T16:27:16" maxSheetId="5" userName="Martinez,James J" r:id="rId29">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8367,6 +8653,581 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="490" sheetId="4" name="[Reporting_Student_Data_Model_Dictionary.xlsx]Sheet1" sheetPosition="3"/>
+  <rcc rId="491" sId="4" odxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Modified Date</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="492" sId="4" odxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Modified Notes</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="493" sId="4" odxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Owner</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="494" sId="4" odxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>View Name</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="495" sId="4" odxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Column Name</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="496" sId="4" odxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>Data Type</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="497" sId="4" odxf="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Data Length</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="498" sId="4" odxf="1" dxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>Precision</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="499" sId="4" odxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>Description</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rrc rId="500" sId="4" eol="1" ref="A2:XFD2" action="insertRow"/>
+  <rcc rId="501" sId="4" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A2">
+      <v>43283</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="502" sId="4">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>New</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="503" sId="4">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>CS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="504" sId="4" xfDxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>WH_DEPARTMENT_TO_ACAD_ORG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="505" sId="4">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>UF_DEP_CD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="506" sId="4">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Varchar2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="507" sId="4">
+    <nc r="G2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="508" sId="4">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>Legacy Mainframe Department Code from WH_DEPARTMENTS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="509" sId="4" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A3">
+      <v>43283</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="510" sId="4">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>New</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="511" sId="4">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>CS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="512" sId="4">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>WH_DEPARTMENT_TO_ACAD_ORG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="513" sId="4">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>Varchar2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="514" sId="4">
+    <nc r="G3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="515" sId="4" odxf="1">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <t>Academic Organization  Code - Academic organization structure defines how an academic institution is organized from an administrative perspective. At the lowest level, an academic organization can be compared to an academic department. At the highest level, an academic organization can represent a division. This is considered the department level.</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="516" sId="4">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>ACAD_ORG_CD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="517" sId="4">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Description</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>: WH_DEPARTMENT_TO_ACAD_ORG contains information to crosswalk from the academic departments in WH_DEPARTMENTS to the academic departments in WH_D_ACAD_ORG</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="delete"/>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="518" sId="4" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A7">
+      <v>43283</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="519" sId="4">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>New</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="520" sId="4">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>CS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="521" sId="4">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>WH_COLLEGE_CD_TO_ACAD_GROUP</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="522" sId="4">
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>UF_COLLEGE_CD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="523" sId="4">
+    <nc r="G7">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="524" sId="4" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A8">
+      <v>43283</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="525" sId="4">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>New</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="526" sId="4">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>CS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="527" sId="4">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>WH_COLLEGE_CD_TO_ACAD_GROUP</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="528" sId="4" odxf="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>Varchar2</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>VARCHAR2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="529" sId="4" odxf="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t>Varchar2</t>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>VARCHAR2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="530" sId="4" odxf="1">
+    <nc r="F7" t="inlineStr">
+      <is>
+        <t>VARCHAR2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="531" sId="4" odxf="1">
+    <nc r="F8" t="inlineStr">
+      <is>
+        <t>VARCHAR2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="532" sId="4">
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>ACAD_GROUP_CD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="533" sId="4">
+    <nc r="G8">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="534" sId="4" odxf="1">
+    <nc r="I8" t="inlineStr">
+      <is>
+        <t>Academic Group Code - The code for the School / College offering the program</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="535" sId="4">
+    <nc r="I7" t="inlineStr">
+      <is>
+        <t>Legacy Mainframe College Code from WH_COLLEGES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="536" sId="4">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Description</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>: WH_COLLEGE_CD_TO_ACAD_GROUP contains information to crosswalk from the colleges/schools in WH_COLLEGES to the academic groups in WH_D_ACAD_GROUP</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="delete"/>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="537" sId="3">
+    <nc r="E56" t="inlineStr">
+      <is>
+        <t>*NOTE: Subject to change due to conflict for the State University System.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" sqref="E56" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -9367,9 +10228,9 @@
   </sheetPr>
   <dimension ref="A1:L1413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1414" sqref="G1414"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13952,7 +14813,7 @@
       <c r="B189" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D189" s="17" t="s">
+      <c r="D189" s="18" t="s">
         <v>993</v>
       </c>
       <c r="E189" s="16"/>
@@ -15018,7 +15879,7 @@
       <c r="B234" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D234" s="17" t="s">
+      <c r="D234" s="18" t="s">
         <v>992</v>
       </c>
       <c r="E234" s="16"/>
@@ -16723,36 +17584,36 @@
       <c r="L307" s="2"/>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D308" s="18" t="s">
+      <c r="D308" s="17" t="s">
         <v>1000</v>
       </c>
-      <c r="E308" s="18"/>
-      <c r="F308" s="18"/>
-      <c r="G308" s="18"/>
-      <c r="H308" s="18"/>
-      <c r="I308" s="18"/>
+      <c r="E308" s="17"/>
+      <c r="F308" s="17"/>
+      <c r="G308" s="17"/>
+      <c r="H308" s="17"/>
+      <c r="I308" s="17"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D309" s="18"/>
-      <c r="E309" s="18"/>
-      <c r="F309" s="18"/>
-      <c r="G309" s="18"/>
-      <c r="H309" s="18"/>
-      <c r="I309" s="18"/>
+      <c r="D309" s="17"/>
+      <c r="E309" s="17"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="17"/>
+      <c r="H309" s="17"/>
+      <c r="I309" s="17"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
-      <c r="F310" s="18"/>
-      <c r="G310" s="18"/>
-      <c r="H310" s="18"/>
-      <c r="I310" s="18"/>
+      <c r="D310" s="17"/>
+      <c r="E310" s="17"/>
+      <c r="F310" s="17"/>
+      <c r="G310" s="17"/>
+      <c r="H310" s="17"/>
+      <c r="I310" s="17"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
@@ -17707,36 +18568,36 @@
       <c r="L352" s="2"/>
     </row>
     <row r="353" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D353" s="18" t="s">
+      <c r="D353" s="17" t="s">
         <v>1002</v>
       </c>
-      <c r="E353" s="18"/>
-      <c r="F353" s="18"/>
-      <c r="G353" s="18"/>
-      <c r="H353" s="18"/>
-      <c r="I353" s="18"/>
+      <c r="E353" s="17"/>
+      <c r="F353" s="17"/>
+      <c r="G353" s="17"/>
+      <c r="H353" s="17"/>
+      <c r="I353" s="17"/>
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
     <row r="354" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D354" s="18"/>
-      <c r="E354" s="18"/>
-      <c r="F354" s="18"/>
-      <c r="G354" s="18"/>
-      <c r="H354" s="18"/>
-      <c r="I354" s="18"/>
+      <c r="D354" s="17"/>
+      <c r="E354" s="17"/>
+      <c r="F354" s="17"/>
+      <c r="G354" s="17"/>
+      <c r="H354" s="17"/>
+      <c r="I354" s="17"/>
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
     </row>
     <row r="355" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D355" s="18"/>
-      <c r="E355" s="18"/>
-      <c r="F355" s="18"/>
-      <c r="G355" s="18"/>
-      <c r="H355" s="18"/>
-      <c r="I355" s="18"/>
+      <c r="D355" s="17"/>
+      <c r="E355" s="17"/>
+      <c r="F355" s="17"/>
+      <c r="G355" s="17"/>
+      <c r="H355" s="17"/>
+      <c r="I355" s="17"/>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
@@ -19733,36 +20594,36 @@
       <c r="L438" s="2"/>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D439" s="18" t="s">
+      <c r="D439" s="17" t="s">
         <v>1003</v>
       </c>
-      <c r="E439" s="18"/>
-      <c r="F439" s="18"/>
-      <c r="G439" s="18"/>
-      <c r="H439" s="18"/>
-      <c r="I439" s="18"/>
+      <c r="E439" s="17"/>
+      <c r="F439" s="17"/>
+      <c r="G439" s="17"/>
+      <c r="H439" s="17"/>
+      <c r="I439" s="17"/>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
     </row>
     <row r="440" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D440" s="18"/>
-      <c r="E440" s="18"/>
-      <c r="F440" s="18"/>
-      <c r="G440" s="18"/>
-      <c r="H440" s="18"/>
-      <c r="I440" s="18"/>
+      <c r="D440" s="17"/>
+      <c r="E440" s="17"/>
+      <c r="F440" s="17"/>
+      <c r="G440" s="17"/>
+      <c r="H440" s="17"/>
+      <c r="I440" s="17"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D441" s="18"/>
-      <c r="E441" s="18"/>
-      <c r="F441" s="18"/>
-      <c r="G441" s="18"/>
-      <c r="H441" s="18"/>
-      <c r="I441" s="18"/>
+      <c r="D441" s="17"/>
+      <c r="E441" s="17"/>
+      <c r="F441" s="17"/>
+      <c r="G441" s="17"/>
+      <c r="H441" s="17"/>
+      <c r="I441" s="17"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
@@ -38393,7 +39254,7 @@
       <c r="B1230" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="D1230" s="17" t="s">
+      <c r="D1230" s="18" t="s">
         <v>1288</v>
       </c>
       <c r="E1230" s="16"/>
@@ -42249,22 +43110,34 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}">
-      <pane ySplit="1" topLeftCell="A1185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1194" sqref="A1194"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
-    <mergeCell ref="D814:I816"/>
-    <mergeCell ref="D874:L876"/>
-    <mergeCell ref="D891:L893"/>
-    <mergeCell ref="D908:L910"/>
-    <mergeCell ref="D1037:L1039"/>
-    <mergeCell ref="D937:I939"/>
-    <mergeCell ref="D958:I960"/>
-    <mergeCell ref="D978:I980"/>
-    <mergeCell ref="D995:I997"/>
+    <mergeCell ref="D1409:L1411"/>
+    <mergeCell ref="D1324:L1326"/>
+    <mergeCell ref="D1339:L1341"/>
+    <mergeCell ref="D1364:L1366"/>
+    <mergeCell ref="D1399:L1401"/>
+    <mergeCell ref="D1230:L1232"/>
+    <mergeCell ref="D1245:L1247"/>
+    <mergeCell ref="D1270:L1272"/>
+    <mergeCell ref="D1287:L1289"/>
+    <mergeCell ref="D1304:L1306"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D58:L60"/>
+    <mergeCell ref="D103:L105"/>
+    <mergeCell ref="D325:L327"/>
+    <mergeCell ref="D582:I584"/>
+    <mergeCell ref="D492:I494"/>
+    <mergeCell ref="D439:I441"/>
+    <mergeCell ref="D456:I458"/>
+    <mergeCell ref="D475:I477"/>
+    <mergeCell ref="D541:I543"/>
+    <mergeCell ref="D514:L516"/>
     <mergeCell ref="D1054:L1056"/>
     <mergeCell ref="D1166:L1168"/>
     <mergeCell ref="D1214:L1216"/>
@@ -42281,27 +43154,15 @@
     <mergeCell ref="D627:I629"/>
     <mergeCell ref="D644:I646"/>
     <mergeCell ref="D672:I674"/>
-    <mergeCell ref="D17:L19"/>
-    <mergeCell ref="D58:L60"/>
-    <mergeCell ref="D103:L105"/>
-    <mergeCell ref="D325:L327"/>
-    <mergeCell ref="D582:I584"/>
-    <mergeCell ref="D492:I494"/>
-    <mergeCell ref="D439:I441"/>
-    <mergeCell ref="D456:I458"/>
-    <mergeCell ref="D475:I477"/>
-    <mergeCell ref="D541:I543"/>
-    <mergeCell ref="D514:L516"/>
-    <mergeCell ref="D1230:L1232"/>
-    <mergeCell ref="D1245:L1247"/>
-    <mergeCell ref="D1270:L1272"/>
-    <mergeCell ref="D1287:L1289"/>
-    <mergeCell ref="D1304:L1306"/>
-    <mergeCell ref="D1409:L1411"/>
-    <mergeCell ref="D1324:L1326"/>
-    <mergeCell ref="D1339:L1341"/>
-    <mergeCell ref="D1364:L1366"/>
-    <mergeCell ref="D1399:L1401"/>
+    <mergeCell ref="D814:I816"/>
+    <mergeCell ref="D874:L876"/>
+    <mergeCell ref="D891:L893"/>
+    <mergeCell ref="D908:L910"/>
+    <mergeCell ref="D1037:L1039"/>
+    <mergeCell ref="D937:I939"/>
+    <mergeCell ref="D958:I960"/>
+    <mergeCell ref="D978:I980"/>
+    <mergeCell ref="D995:I997"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -42318,7 +43179,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42392,10 +43253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42806,7 +43667,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1116</v>
       </c>
@@ -42814,7 +43675,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1118</v>
       </c>
@@ -42822,7 +43683,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>1120</v>
       </c>
@@ -42830,7 +43691,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>1122</v>
       </c>
@@ -42838,7 +43699,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1124</v>
       </c>
@@ -42846,7 +43707,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1126</v>
       </c>
@@ -42854,7 +43715,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1128</v>
       </c>
@@ -42862,7 +43723,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1323</v>
       </c>
@@ -42875,8 +43736,11 @@
       <c r="D56" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1130</v>
       </c>
@@ -42884,7 +43748,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>1132</v>
       </c>
@@ -42892,7 +43756,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1134</v>
       </c>
@@ -42902,8 +43766,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" topLeftCell="A25">
-      <selection activeCell="C26" sqref="C26"/>
+    <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" topLeftCell="A22">
+      <selection activeCell="B26" sqref="B26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -42911,19 +43775,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="91.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E8" t="s">
+        <v>710</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023C68C9F20C69D48BB417A9ADFD5DC9C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29914a5778ec744f9d5d623c4355d354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a57c4080a7a73066863a39e6ec4255" ns2:_="">
     <xsd:import namespace="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
@@ -43068,78 +44153,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43157,18 +44199,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martja\Documents\Student_ODBC_ERD\ERD Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martja\Data-Warehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
-    <customWorkbookView name="Martinez,James J - Personal View" guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1918" windowHeight="1038" activeSheetId="4"/>
+    <customWorkbookView name="Martinez,James J - Personal View" guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6146" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6150" uniqueCount="1350">
   <si>
     <t>Owner</t>
   </si>
@@ -2955,9 +2955,6 @@
   </si>
   <si>
     <t>WH_D_TERM</t>
-  </si>
-  <si>
-    <t>PS_WH_D_DAY</t>
   </si>
   <si>
     <t>WH_D_ACAD_LEVEL</t>
@@ -4849,9 +4846,6 @@
     <t>LAB_FEE</t>
   </si>
   <si>
-    <t>SUS_FLAG</t>
-  </si>
-  <si>
     <t>Satisfactory/Unsatisfactory Flag</t>
   </si>
   <si>
@@ -4895,9 +4889,6 @@
   </si>
   <si>
     <t>Displays the six digit term display</t>
-  </si>
-  <si>
-    <t>SUS</t>
   </si>
   <si>
     <t xml:space="preserve">Satisfactory/Unsatisfactory </t>
@@ -5009,7 +5000,25 @@
     </r>
   </si>
   <si>
-    <t>*NOTE: Subject to change due to conflict for the State University System.</t>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>WH_D_UF_DAY</t>
+  </si>
+  <si>
+    <t>Updated View name</t>
+  </si>
+  <si>
+    <t>SU_FLAG</t>
+  </si>
+  <si>
+    <t>Changed SUS to SU</t>
+  </si>
+  <si>
+    <t>SU</t>
   </si>
 </sst>
 </file>
@@ -5133,10 +5142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5171,296 +5180,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5474,7 +5194,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{783932B7-69D7-4E01-8043-D615E66EE488}" diskRevisions="1" revisionId="537" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{93DE85CD-4561-4676-BF5B-C0088A805841}" diskRevisions="1" revisionId="555" version="9">
   <header guid="{39BACE6A-51BC-4D81-A7EB-09DB3C23E4C0}" dateTime="2018-06-27T17:14:41" maxSheetId="4" userName="Martinez,James J" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -5682,6 +5402,38 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{E8A12DB2-ABDE-4F1B-9659-09385689D80A}" dateTime="2018-07-05T11:05:56" maxSheetId="5" userName="Martinez,James J" r:id="rId30" minRId="538" maxRId="544">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3E0CED96-CE15-462D-8C34-5352F78ADE0F}" dateTime="2018-07-05T11:06:07" maxSheetId="5" userName="Martinez,James J" r:id="rId31" minRId="545" maxRId="548">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E2A2896E-F9E9-460B-9807-F0D9F162E74E}" dateTime="2018-07-05T11:06:23" maxSheetId="5" userName="Martinez,James J" r:id="rId32" minRId="549" maxRId="551">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{93DE85CD-4561-4676-BF5B-C0088A805841}" dateTime="2018-07-05T11:06:49" maxSheetId="5" userName="Martinez,James J" r:id="rId33" minRId="552" maxRId="555">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -9267,6 +9019,193 @@
       <v>43283</v>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="538" sId="3" ref="A18:XFD18" action="insertRow"/>
+  <rcc rId="539" sId="3">
+    <nc r="A18" t="inlineStr">
+      <is>
+        <t>Department</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="540" sId="3">
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>DEPT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="541" sId="3" odxf="1" dxf="1" numFmtId="21">
+    <nc r="C18">
+      <v>43286</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="542" sId="3">
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>New</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="543" sId="1" xfDxf="1" dxf="1">
+    <oc r="D589" t="inlineStr">
+      <is>
+        <t>PS_WH_D_DAY</t>
+      </is>
+    </oc>
+    <nc r="D589" t="inlineStr">
+      <is>
+        <t>WH_D_UF_DAY</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="544" sId="1" xfDxf="1" dxf="1">
+    <oc r="D590" t="inlineStr">
+      <is>
+        <t>PS_WH_D_DAY</t>
+      </is>
+    </oc>
+    <nc r="D590" t="inlineStr">
+      <is>
+        <t>WH_D_UF_DAY</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="545" sId="1" odxf="1" dxf="1" numFmtId="21">
+    <nc r="A589">
+      <v>43286</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="546" sId="1">
+    <nc r="B589" t="inlineStr">
+      <is>
+        <t>Updated View name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="547" sId="1" odxf="1" dxf="1" numFmtId="21">
+    <nc r="A590">
+      <v>43286</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="548" sId="1">
+    <nc r="B590" t="inlineStr">
+      <is>
+        <t>Updated View name</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="549" sId="1">
+    <oc r="E811" t="inlineStr">
+      <is>
+        <t>SUS_FLAG</t>
+      </is>
+    </oc>
+    <nc r="E811" t="inlineStr">
+      <is>
+        <t>SU_FLAG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="550" sId="1" numFmtId="19">
+    <oc r="A811">
+      <v>43283</v>
+    </oc>
+    <nc r="A811">
+      <v>43286</v>
+    </nc>
+  </rcc>
+  <rcc rId="551" sId="1">
+    <oc r="B811" t="inlineStr">
+      <is>
+        <t>New</t>
+      </is>
+    </oc>
+    <nc r="B811" t="inlineStr">
+      <is>
+        <t>Changed SUS to SU</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="552" sId="3">
+    <oc r="B57" t="inlineStr">
+      <is>
+        <t>SUS</t>
+      </is>
+    </oc>
+    <nc r="B57" t="inlineStr">
+      <is>
+        <t>SU</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="553" sId="3" numFmtId="21">
+    <oc r="C57">
+      <v>43283</v>
+    </oc>
+    <nc r="C57">
+      <v>43286</v>
+    </nc>
+  </rcc>
+  <rcc rId="554" sId="3">
+    <oc r="D57" t="inlineStr">
+      <is>
+        <t>New</t>
+      </is>
+    </oc>
+    <nc r="D57" t="inlineStr">
+      <is>
+        <t>Changed SUS to SU</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="555" sId="3">
+    <oc r="E57" t="inlineStr">
+      <is>
+        <t>*NOTE: Subject to change due to conflict for the State University System.</t>
+      </is>
+    </oc>
+    <nc r="E57"/>
+  </rcc>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="delete"/>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="add"/>
 </revisions>
 </file>
 
@@ -10228,9 +10167,9 @@
   </sheetPr>
   <dimension ref="A1:L1413"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A795" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D811" sqref="D811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10256,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>1</v>
@@ -10283,7 +10222,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -10315,7 +10254,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>678</v>
@@ -10342,7 +10281,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -10374,7 +10313,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>679</v>
@@ -10406,7 +10345,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>680</v>
@@ -10438,7 +10377,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>681</v>
@@ -10462,16 +10401,16 @@
         <v>43283</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -10481,7 +10420,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -10492,16 +10431,16 @@
         <v>43283</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -10511,7 +10450,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -10522,16 +10461,16 @@
         <v>43283</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -10541,7 +10480,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -10552,16 +10491,16 @@
         <v>43283</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -10571,7 +10510,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -10582,13 +10521,13 @@
         <v>43283</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>721</v>
@@ -10601,7 +10540,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -10612,16 +10551,16 @@
         <v>43283</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -10631,7 +10570,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -10642,16 +10581,16 @@
         <v>43283</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -10661,7 +10600,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -10672,13 +10611,13 @@
         <v>43283</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>63</v>
@@ -10718,7 +10657,7 @@
         <v>683</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -10800,7 +10739,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
@@ -10826,7 +10765,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -10852,7 +10791,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
@@ -10884,7 +10823,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>684</v>
@@ -10908,7 +10847,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -10940,7 +10879,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>194</v>
@@ -10970,7 +10909,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>685</v>
@@ -11002,7 +10941,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>197</v>
@@ -11034,7 +10973,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>109</v>
@@ -11064,7 +11003,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>686</v>
@@ -11094,7 +11033,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>38</v>
@@ -11124,7 +11063,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>44</v>
@@ -11148,7 +11087,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>30</v>
@@ -11174,7 +11113,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -11200,7 +11139,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>34</v>
@@ -11232,7 +11171,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>687</v>
@@ -11258,7 +11197,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>36</v>
@@ -11288,7 +11227,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>688</v>
@@ -11320,7 +11259,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>689</v>
@@ -11352,7 +11291,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>690</v>
@@ -11384,7 +11323,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>691</v>
@@ -11416,7 +11355,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>692</v>
@@ -11448,7 +11387,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>693</v>
@@ -11474,7 +11413,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>425</v>
@@ -11500,7 +11439,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>426</v>
@@ -11532,7 +11471,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>694</v>
@@ -11562,7 +11501,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>695</v>
@@ -11592,7 +11531,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>696</v>
@@ -11622,7 +11561,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>697</v>
@@ -11652,7 +11591,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>698</v>
@@ -11682,7 +11621,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>699</v>
@@ -11712,7 +11651,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>477</v>
@@ -11736,7 +11675,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>63</v>
@@ -11776,7 +11715,7 @@
         <v>683</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
@@ -12270,7 +12209,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D82" s="16" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
@@ -12764,7 +12703,7 @@
         <v>683</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
@@ -13300,7 +13239,7 @@
         <v>43283</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -13332,7 +13271,7 @@
         <v>43283</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -13362,7 +13301,7 @@
         <v>43283</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -13392,7 +13331,7 @@
         <v>43283</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
@@ -13430,7 +13369,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D133" s="16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
@@ -14678,7 +14617,7 @@
         <v>43283</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -14710,7 +14649,7 @@
         <v>43283</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -14740,7 +14679,7 @@
         <v>43283</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -14770,7 +14709,7 @@
         <v>43283</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -14813,8 +14752,8 @@
       <c r="B189" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D189" s="18" t="s">
-        <v>993</v>
+      <c r="D189" s="17" t="s">
+        <v>992</v>
       </c>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
@@ -15879,8 +15818,8 @@
       <c r="B234" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D234" s="18" t="s">
-        <v>992</v>
+      <c r="D234" s="17" t="s">
+        <v>991</v>
       </c>
       <c r="E234" s="16"/>
       <c r="F234" s="16"/>
@@ -17085,7 +17024,7 @@
         <v>722</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E285" s="16"/>
       <c r="F285" s="16"/>
@@ -17584,36 +17523,36 @@
       <c r="L307" s="2"/>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D308" s="17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E308" s="17"/>
-      <c r="F308" s="17"/>
-      <c r="G308" s="17"/>
-      <c r="H308" s="17"/>
-      <c r="I308" s="17"/>
+      <c r="D308" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="E308" s="18"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="18"/>
+      <c r="H308" s="18"/>
+      <c r="I308" s="18"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D309" s="17"/>
-      <c r="E309" s="17"/>
-      <c r="F309" s="17"/>
-      <c r="G309" s="17"/>
-      <c r="H309" s="17"/>
-      <c r="I309" s="17"/>
+      <c r="D309" s="18"/>
+      <c r="E309" s="18"/>
+      <c r="F309" s="18"/>
+      <c r="G309" s="18"/>
+      <c r="H309" s="18"/>
+      <c r="I309" s="18"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D310" s="17"/>
-      <c r="E310" s="17"/>
-      <c r="F310" s="17"/>
-      <c r="G310" s="17"/>
-      <c r="H310" s="17"/>
-      <c r="I310" s="17"/>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="18"/>
+      <c r="H310" s="18"/>
+      <c r="I310" s="18"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
@@ -17939,7 +17878,7 @@
         <v>683</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E325" s="16"/>
       <c r="F325" s="16"/>
@@ -18568,36 +18507,36 @@
       <c r="L352" s="2"/>
     </row>
     <row r="353" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D353" s="17" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E353" s="17"/>
-      <c r="F353" s="17"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="17"/>
-      <c r="I353" s="17"/>
+      <c r="D353" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E353" s="18"/>
+      <c r="F353" s="18"/>
+      <c r="G353" s="18"/>
+      <c r="H353" s="18"/>
+      <c r="I353" s="18"/>
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
     <row r="354" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D354" s="17"/>
-      <c r="E354" s="17"/>
-      <c r="F354" s="17"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="17"/>
-      <c r="I354" s="17"/>
+      <c r="D354" s="18"/>
+      <c r="E354" s="18"/>
+      <c r="F354" s="18"/>
+      <c r="G354" s="18"/>
+      <c r="H354" s="18"/>
+      <c r="I354" s="18"/>
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
     </row>
     <row r="355" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D355" s="17"/>
-      <c r="E355" s="17"/>
-      <c r="F355" s="17"/>
-      <c r="G355" s="17"/>
-      <c r="H355" s="17"/>
-      <c r="I355" s="17"/>
+      <c r="D355" s="18"/>
+      <c r="E355" s="18"/>
+      <c r="F355" s="18"/>
+      <c r="G355" s="18"/>
+      <c r="H355" s="18"/>
+      <c r="I355" s="18"/>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
@@ -20594,36 +20533,36 @@
       <c r="L438" s="2"/>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D439" s="17" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E439" s="17"/>
-      <c r="F439" s="17"/>
-      <c r="G439" s="17"/>
-      <c r="H439" s="17"/>
-      <c r="I439" s="17"/>
+      <c r="D439" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E439" s="18"/>
+      <c r="F439" s="18"/>
+      <c r="G439" s="18"/>
+      <c r="H439" s="18"/>
+      <c r="I439" s="18"/>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
     </row>
     <row r="440" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D440" s="17"/>
-      <c r="E440" s="17"/>
-      <c r="F440" s="17"/>
-      <c r="G440" s="17"/>
-      <c r="H440" s="17"/>
-      <c r="I440" s="17"/>
+      <c r="D440" s="18"/>
+      <c r="E440" s="18"/>
+      <c r="F440" s="18"/>
+      <c r="G440" s="18"/>
+      <c r="H440" s="18"/>
+      <c r="I440" s="18"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D441" s="17"/>
-      <c r="E441" s="17"/>
-      <c r="F441" s="17"/>
-      <c r="G441" s="17"/>
-      <c r="H441" s="17"/>
-      <c r="I441" s="17"/>
+      <c r="D441" s="18"/>
+      <c r="E441" s="18"/>
+      <c r="F441" s="18"/>
+      <c r="G441" s="18"/>
+      <c r="H441" s="18"/>
+      <c r="I441" s="18"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
@@ -20919,7 +20858,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D456" s="16" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E456" s="16"/>
       <c r="F456" s="16"/>
@@ -21297,7 +21236,7 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D475" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E475" s="16"/>
       <c r="F475" s="16"/>
@@ -21621,7 +21560,7 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D492" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E492" s="16"/>
       <c r="F492" s="16"/>
@@ -22017,7 +21956,7 @@
         <v>43283</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C510" t="s">
         <v>6</v>
@@ -22026,7 +21965,7 @@
         <v>971</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>15</v>
@@ -22036,7 +21975,7 @@
       </c>
       <c r="H510" s="2"/>
       <c r="I510" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
@@ -22047,7 +21986,7 @@
         <v>43283</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C511" t="s">
         <v>6</v>
@@ -22056,7 +21995,7 @@
         <v>971</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>15</v>
@@ -22066,7 +22005,7 @@
       </c>
       <c r="H511" s="2"/>
       <c r="I511" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
@@ -22077,7 +22016,7 @@
         <v>43283</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C512" t="s">
         <v>6</v>
@@ -22086,7 +22025,7 @@
         <v>971</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>15</v>
@@ -22096,7 +22035,7 @@
       </c>
       <c r="H512" s="2"/>
       <c r="I512" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
@@ -22121,7 +22060,7 @@
         <v>683</v>
       </c>
       <c r="D514" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E514" s="16"/>
       <c r="F514" s="16"/>
@@ -22733,7 +22672,7 @@
     </row>
     <row r="541" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D541" s="16" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E541" s="16"/>
       <c r="F541" s="16"/>
@@ -23637,7 +23576,7 @@
         <v>43283</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>6</v>
@@ -23646,7 +23585,7 @@
         <v>973</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F579" s="2" t="s">
         <v>15</v>
@@ -23656,7 +23595,7 @@
       </c>
       <c r="H579" s="2"/>
       <c r="I579" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
@@ -23667,7 +23606,7 @@
         <v>43283</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>6</v>
@@ -23676,7 +23615,7 @@
         <v>973</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F580" s="2" t="s">
         <v>15</v>
@@ -23686,7 +23625,7 @@
       </c>
       <c r="H580" s="2"/>
       <c r="I580" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
@@ -23705,7 +23644,7 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D582" s="16" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E582" s="16"/>
       <c r="F582" s="16"/>
@@ -23783,11 +23722,17 @@
       <c r="L588" s="2"/>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A589" s="15">
+        <v>43286</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>1346</v>
+      </c>
       <c r="C589" t="s">
         <v>413</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>974</v>
+        <v>1345</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>414</v>
@@ -23809,11 +23754,17 @@
       <c r="L589" s="2"/>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A590" s="15">
+        <v>43286</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>1346</v>
+      </c>
       <c r="C590" t="s">
         <v>413</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>974</v>
+        <v>1345</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>415</v>
@@ -23845,7 +23796,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D592" s="16" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E592" s="16"/>
       <c r="F592" s="16"/>
@@ -23933,7 +23884,7 @@
         <v>6</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>109</v>
@@ -23963,7 +23914,7 @@
         <v>6</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>44</v>
@@ -23993,7 +23944,7 @@
         <v>6</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>684</v>
@@ -24023,7 +23974,7 @@
         <v>6</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>194</v>
@@ -24047,7 +23998,7 @@
         <v>6</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>92</v>
@@ -24073,7 +24024,7 @@
         <v>6</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>20</v>
@@ -24099,7 +24050,7 @@
         <v>6</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>7</v>
@@ -24125,7 +24076,7 @@
         <v>6</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>63</v>
@@ -24158,7 +24109,7 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D608" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E608" s="16"/>
       <c r="F608" s="16"/>
@@ -24240,7 +24191,7 @@
         <v>6</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>431</v>
@@ -24266,7 +24217,7 @@
         <v>6</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>432</v>
@@ -24290,7 +24241,7 @@
         <v>6</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>433</v>
@@ -24314,7 +24265,7 @@
         <v>6</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>434</v>
@@ -24344,7 +24295,7 @@
         <v>6</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>708</v>
@@ -24374,7 +24325,7 @@
         <v>6</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>681</v>
@@ -24398,7 +24349,7 @@
         <v>6</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>58</v>
@@ -24422,7 +24373,7 @@
         <v>6</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>60</v>
@@ -24446,7 +24397,7 @@
         <v>6</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>63</v>
@@ -24476,7 +24427,7 @@
         <v>6</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>699</v>
@@ -24506,7 +24457,7 @@
         <v>6</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>770</v>
@@ -24539,7 +24490,7 @@
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D627" s="16" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E627" s="16"/>
       <c r="F627" s="16"/>
@@ -24621,7 +24572,7 @@
         <v>6</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>422</v>
@@ -24647,7 +24598,7 @@
         <v>6</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>435</v>
@@ -24671,7 +24622,7 @@
         <v>6</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E636" s="2" t="s">
         <v>436</v>
@@ -24695,7 +24646,7 @@
         <v>6</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E637" s="2" t="s">
         <v>437</v>
@@ -24725,7 +24676,7 @@
         <v>6</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>708</v>
@@ -24755,7 +24706,7 @@
         <v>6</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>681</v>
@@ -24779,7 +24730,7 @@
         <v>6</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E640" s="2" t="s">
         <v>58</v>
@@ -24803,7 +24754,7 @@
         <v>6</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>60</v>
@@ -24827,7 +24778,7 @@
         <v>6</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>63</v>
@@ -24860,7 +24811,7 @@
     </row>
     <row r="644" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D644" s="16" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E644" s="16"/>
       <c r="F644" s="16"/>
@@ -24942,7 +24893,7 @@
         <v>6</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>66</v>
@@ -24968,7 +24919,7 @@
         <v>6</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>11</v>
@@ -24994,7 +24945,7 @@
         <v>6</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>38</v>
@@ -25018,7 +24969,7 @@
         <v>6</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E654" s="2" t="s">
         <v>40</v>
@@ -25042,7 +24993,7 @@
         <v>6</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E655" s="2" t="s">
         <v>42</v>
@@ -25066,7 +25017,7 @@
         <v>6</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E656" s="2" t="s">
         <v>67</v>
@@ -25096,7 +25047,7 @@
         <v>6</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>708</v>
@@ -25126,7 +25077,7 @@
         <v>6</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>681</v>
@@ -25150,7 +25101,7 @@
         <v>6</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>68</v>
@@ -25174,7 +25125,7 @@
         <v>6</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>69</v>
@@ -25198,7 +25149,7 @@
         <v>6</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E661" s="2" t="s">
         <v>438</v>
@@ -25222,7 +25173,7 @@
         <v>6</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E662" s="2" t="s">
         <v>439</v>
@@ -25246,7 +25197,7 @@
         <v>6</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E663" s="2" t="s">
         <v>440</v>
@@ -25270,7 +25221,7 @@
         <v>6</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E664" s="2" t="s">
         <v>441</v>
@@ -25294,7 +25245,7 @@
         <v>6</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E665" s="2" t="s">
         <v>89</v>
@@ -25318,7 +25269,7 @@
         <v>6</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>90</v>
@@ -25348,7 +25299,7 @@
         <v>6</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E667" s="2" t="s">
         <v>721</v>
@@ -25373,7 +25324,7 @@
         <v>6</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>58</v>
@@ -25397,7 +25348,7 @@
         <v>6</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>60</v>
@@ -25421,7 +25372,7 @@
         <v>6</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E670" s="2" t="s">
         <v>63</v>
@@ -25454,7 +25405,7 @@
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D672" s="16" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E672" s="16"/>
       <c r="F672" s="16"/>
@@ -25536,7 +25487,7 @@
         <v>6</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E679" s="2" t="s">
         <v>428</v>
@@ -25566,7 +25517,7 @@
         <v>6</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E680" s="2" t="s">
         <v>771</v>
@@ -25598,7 +25549,7 @@
         <v>6</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E681" s="2" t="s">
         <v>772</v>
@@ -25628,7 +25579,7 @@
         <v>6</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E682" s="2" t="s">
         <v>773</v>
@@ -25658,7 +25609,7 @@
         <v>6</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E683" s="2" t="s">
         <v>774</v>
@@ -25684,7 +25635,7 @@
         <v>6</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E684" s="2" t="s">
         <v>442</v>
@@ -25708,7 +25659,7 @@
         <v>6</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E685" s="2" t="s">
         <v>20</v>
@@ -25734,7 +25685,7 @@
         <v>6</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E686" s="2" t="s">
         <v>194</v>
@@ -25758,7 +25709,7 @@
         <v>6</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E687" s="2" t="s">
         <v>195</v>
@@ -25782,7 +25733,7 @@
         <v>6</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E688" s="2" t="s">
         <v>196</v>
@@ -25806,7 +25757,7 @@
         <v>6</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E689" s="2" t="s">
         <v>443</v>
@@ -25832,7 +25783,7 @@
         <v>6</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E690" s="2" t="s">
         <v>444</v>
@@ -25856,7 +25807,7 @@
         <v>6</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E691" s="2" t="s">
         <v>445</v>
@@ -25880,7 +25831,7 @@
         <v>6</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E692" s="2" t="s">
         <v>446</v>
@@ -25904,7 +25855,7 @@
         <v>6</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E693" s="2" t="s">
         <v>447</v>
@@ -25928,7 +25879,7 @@
         <v>6</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E694" s="2" t="s">
         <v>11</v>
@@ -25954,7 +25905,7 @@
         <v>6</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E695" s="2" t="s">
         <v>38</v>
@@ -25978,7 +25929,7 @@
         <v>6</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E696" s="2" t="s">
         <v>40</v>
@@ -26002,7 +25953,7 @@
         <v>6</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E697" s="2" t="s">
         <v>42</v>
@@ -26032,7 +25983,7 @@
         <v>6</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E698" s="2" t="s">
         <v>709</v>
@@ -26064,7 +26015,7 @@
         <v>6</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E699" s="2" t="s">
         <v>710</v>
@@ -26094,7 +26045,7 @@
         <v>6</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E700" s="2" t="s">
         <v>711</v>
@@ -26124,7 +26075,7 @@
         <v>6</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E701" s="2" t="s">
         <v>712</v>
@@ -26154,7 +26105,7 @@
         <v>6</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E702" s="2" t="s">
         <v>775</v>
@@ -26184,7 +26135,7 @@
         <v>6</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E703" s="2" t="s">
         <v>776</v>
@@ -26214,7 +26165,7 @@
         <v>6</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E704" s="2" t="s">
         <v>777</v>
@@ -26244,7 +26195,7 @@
         <v>6</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E705" s="2" t="s">
         <v>778</v>
@@ -26268,7 +26219,7 @@
         <v>6</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E706" s="2" t="s">
         <v>448</v>
@@ -26298,7 +26249,7 @@
         <v>6</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E707" s="2" t="s">
         <v>779</v>
@@ -26322,7 +26273,7 @@
         <v>6</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E708" s="2" t="s">
         <v>17</v>
@@ -26348,7 +26299,7 @@
         <v>6</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E709" s="2" t="s">
         <v>44</v>
@@ -26372,7 +26323,7 @@
         <v>6</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E710" s="2" t="s">
         <v>48</v>
@@ -26396,7 +26347,7 @@
         <v>6</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E711" s="2" t="s">
         <v>50</v>
@@ -26420,7 +26371,7 @@
         <v>6</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E712" s="2" t="s">
         <v>65</v>
@@ -26446,7 +26397,7 @@
         <v>6</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E713" s="2" t="s">
         <v>70</v>
@@ -26470,7 +26421,7 @@
         <v>6</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>71</v>
@@ -26494,7 +26445,7 @@
         <v>6</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>72</v>
@@ -26518,7 +26469,7 @@
         <v>6</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>66</v>
@@ -26544,7 +26495,7 @@
         <v>6</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E717" s="2" t="s">
         <v>67</v>
@@ -26568,7 +26519,7 @@
         <v>6</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>69</v>
@@ -26592,7 +26543,7 @@
         <v>6</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E719" s="2" t="s">
         <v>68</v>
@@ -26622,7 +26573,7 @@
         <v>6</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E720" s="2" t="s">
         <v>780</v>
@@ -26654,7 +26605,7 @@
         <v>6</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E721" s="2" t="s">
         <v>781</v>
@@ -26684,7 +26635,7 @@
         <v>6</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E722" s="2" t="s">
         <v>782</v>
@@ -26714,7 +26665,7 @@
         <v>6</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E723" s="2" t="s">
         <v>783</v>
@@ -26744,7 +26695,7 @@
         <v>6</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>784</v>
@@ -26774,7 +26725,7 @@
         <v>6</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>785</v>
@@ -26804,7 +26755,7 @@
         <v>6</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>786</v>
@@ -26834,7 +26785,7 @@
         <v>6</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>787</v>
@@ -26864,7 +26815,7 @@
         <v>6</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>788</v>
@@ -26894,7 +26845,7 @@
         <v>6</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E729" s="2" t="s">
         <v>789</v>
@@ -26918,7 +26869,7 @@
         <v>6</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E730" s="2" t="s">
         <v>449</v>
@@ -26942,7 +26893,7 @@
         <v>6</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E731" s="2" t="s">
         <v>450</v>
@@ -26966,7 +26917,7 @@
         <v>6</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>451</v>
@@ -26990,7 +26941,7 @@
         <v>6</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>452</v>
@@ -27020,7 +26971,7 @@
         <v>6</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>790</v>
@@ -27052,7 +27003,7 @@
         <v>6</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>791</v>
@@ -27082,7 +27033,7 @@
         <v>6</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>792</v>
@@ -27112,7 +27063,7 @@
         <v>6</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E737" s="2" t="s">
         <v>793</v>
@@ -27136,7 +27087,7 @@
         <v>6</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E738" s="2" t="s">
         <v>453</v>
@@ -27160,7 +27111,7 @@
         <v>6</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E739" s="2" t="s">
         <v>454</v>
@@ -27184,7 +27135,7 @@
         <v>6</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E740" s="2" t="s">
         <v>455</v>
@@ -27208,7 +27159,7 @@
         <v>6</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E741" s="2" t="s">
         <v>456</v>
@@ -27238,7 +27189,7 @@
         <v>6</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>794</v>
@@ -27268,7 +27219,7 @@
         <v>6</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>795</v>
@@ -27292,7 +27243,7 @@
         <v>6</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>457</v>
@@ -27316,7 +27267,7 @@
         <v>6</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>458</v>
@@ -27346,7 +27297,7 @@
         <v>6</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>796</v>
@@ -27376,7 +27327,7 @@
         <v>6</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>797</v>
@@ -27406,7 +27357,7 @@
         <v>6</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E748" s="2" t="s">
         <v>798</v>
@@ -27436,7 +27387,7 @@
         <v>6</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E749" s="2" t="s">
         <v>799</v>
@@ -27466,7 +27417,7 @@
         <v>6</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E750" s="2" t="s">
         <v>800</v>
@@ -27490,7 +27441,7 @@
         <v>6</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E751" s="2" t="s">
         <v>459</v>
@@ -27514,7 +27465,7 @@
         <v>6</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E752" s="2" t="s">
         <v>460</v>
@@ -27538,7 +27489,7 @@
         <v>6</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E753" s="2" t="s">
         <v>461</v>
@@ -27568,7 +27519,7 @@
         <v>6</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E754" s="2" t="s">
         <v>801</v>
@@ -27598,7 +27549,7 @@
         <v>6</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E755" s="2" t="s">
         <v>802</v>
@@ -27628,7 +27579,7 @@
         <v>6</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E756" s="2" t="s">
         <v>803</v>
@@ -27658,7 +27609,7 @@
         <v>6</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E757" s="2" t="s">
         <v>804</v>
@@ -27688,7 +27639,7 @@
         <v>6</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E758" s="2" t="s">
         <v>805</v>
@@ -27718,7 +27669,7 @@
         <v>6</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E759" s="2" t="s">
         <v>806</v>
@@ -27748,7 +27699,7 @@
         <v>6</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E760" s="2" t="s">
         <v>807</v>
@@ -27778,7 +27729,7 @@
         <v>6</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E761" s="2" t="s">
         <v>808</v>
@@ -27808,7 +27759,7 @@
         <v>6</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E762" s="2" t="s">
         <v>809</v>
@@ -27838,7 +27789,7 @@
         <v>6</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E763" s="2" t="s">
         <v>810</v>
@@ -27868,7 +27819,7 @@
         <v>6</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E764" s="2" t="s">
         <v>811</v>
@@ -27898,7 +27849,7 @@
         <v>6</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E765" s="2" t="s">
         <v>812</v>
@@ -27928,7 +27879,7 @@
         <v>6</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E766" s="2" t="s">
         <v>813</v>
@@ -27958,7 +27909,7 @@
         <v>6</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E767" s="2" t="s">
         <v>814</v>
@@ -27988,7 +27939,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E768" s="2" t="s">
         <v>719</v>
@@ -28018,7 +27969,7 @@
         <v>6</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E769" s="2" t="s">
         <v>815</v>
@@ -28048,7 +27999,7 @@
         <v>6</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E770" s="2" t="s">
         <v>816</v>
@@ -28078,7 +28029,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E771" s="2" t="s">
         <v>817</v>
@@ -28108,7 +28059,7 @@
         <v>6</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E772" s="2" t="s">
         <v>818</v>
@@ -28138,7 +28089,7 @@
         <v>6</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E773" s="2" t="s">
         <v>819</v>
@@ -28168,7 +28119,7 @@
         <v>6</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E774" s="2" t="s">
         <v>820</v>
@@ -28198,7 +28149,7 @@
         <v>6</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E775" s="2" t="s">
         <v>821</v>
@@ -28228,7 +28179,7 @@
         <v>6</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E776" s="2" t="s">
         <v>822</v>
@@ -28258,7 +28209,7 @@
         <v>6</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E777" s="2" t="s">
         <v>823</v>
@@ -28288,7 +28239,7 @@
         <v>6</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E778" s="2" t="s">
         <v>824</v>
@@ -28318,7 +28269,7 @@
         <v>6</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E779" s="2" t="s">
         <v>825</v>
@@ -28348,7 +28299,7 @@
         <v>6</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>826</v>
@@ -28378,7 +28329,7 @@
         <v>6</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E781" s="2" t="s">
         <v>827</v>
@@ -28408,7 +28359,7 @@
         <v>6</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E782" s="2" t="s">
         <v>828</v>
@@ -28438,7 +28389,7 @@
         <v>6</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E783" s="2" t="s">
         <v>829</v>
@@ -28468,7 +28419,7 @@
         <v>6</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E784" s="2" t="s">
         <v>830</v>
@@ -28498,7 +28449,7 @@
         <v>6</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E785" s="2" t="s">
         <v>831</v>
@@ -28528,7 +28479,7 @@
         <v>6</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E786" s="2" t="s">
         <v>832</v>
@@ -28558,7 +28509,7 @@
         <v>6</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E787" s="2" t="s">
         <v>833</v>
@@ -28588,7 +28539,7 @@
         <v>6</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E788" s="2" t="s">
         <v>834</v>
@@ -28618,7 +28569,7 @@
         <v>6</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E789" s="2" t="s">
         <v>835</v>
@@ -28648,7 +28599,7 @@
         <v>6</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E790" s="2" t="s">
         <v>836</v>
@@ -28678,7 +28629,7 @@
         <v>6</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E791" s="2" t="s">
         <v>837</v>
@@ -28708,7 +28659,7 @@
         <v>6</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E792" s="2" t="s">
         <v>838</v>
@@ -28738,7 +28689,7 @@
         <v>6</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E793" s="2" t="s">
         <v>839</v>
@@ -28768,7 +28719,7 @@
         <v>6</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E794" s="2" t="s">
         <v>840</v>
@@ -28798,7 +28749,7 @@
         <v>6</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E795" s="2" t="s">
         <v>954</v>
@@ -28825,7 +28776,7 @@
         <v>6</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E796" s="2" t="s">
         <v>841</v>
@@ -28855,7 +28806,7 @@
         <v>6</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E797" s="2" t="s">
         <v>842</v>
@@ -28885,7 +28836,7 @@
         <v>6</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E798" s="2" t="s">
         <v>843</v>
@@ -28915,7 +28866,7 @@
         <v>6</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E799" s="2" t="s">
         <v>844</v>
@@ -28945,7 +28896,7 @@
         <v>6</v>
       </c>
       <c r="D800" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E800" s="2" t="s">
         <v>845</v>
@@ -28975,7 +28926,7 @@
         <v>6</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E801" s="2" t="s">
         <v>846</v>
@@ -29005,7 +28956,7 @@
         <v>6</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E802" s="2" t="s">
         <v>847</v>
@@ -29035,7 +28986,7 @@
         <v>6</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E803" s="2" t="s">
         <v>848</v>
@@ -29065,7 +29016,7 @@
         <v>6</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E804" s="2" t="s">
         <v>849</v>
@@ -29095,7 +29046,7 @@
         <v>6</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E805" s="2" t="s">
         <v>850</v>
@@ -29119,7 +29070,7 @@
         <v>6</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E806" s="2" t="s">
         <v>58</v>
@@ -29143,7 +29094,7 @@
         <v>6</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E807" s="2" t="s">
         <v>60</v>
@@ -29167,7 +29118,7 @@
         <v>6</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E808" s="2" t="s">
         <v>63</v>
@@ -29191,16 +29142,16 @@
         <v>43283</v>
       </c>
       <c r="B809" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E809" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F809" s="2" t="s">
         <v>15</v>
@@ -29210,7 +29161,7 @@
       </c>
       <c r="H809" s="2"/>
       <c r="I809" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
@@ -29221,16 +29172,16 @@
         <v>43283</v>
       </c>
       <c r="B810" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F810" s="2" t="s">
         <v>8</v>
@@ -29242,7 +29193,7 @@
         <v>2</v>
       </c>
       <c r="I810" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
@@ -29250,19 +29201,19 @@
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A811" s="4">
-        <v>43283</v>
+        <v>43286</v>
       </c>
       <c r="B811" s="6" t="s">
-        <v>1164</v>
+        <v>1348</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>1306</v>
+        <v>1347</v>
       </c>
       <c r="F811" s="2" t="s">
         <v>15</v>
@@ -29272,7 +29223,7 @@
       </c>
       <c r="H811" s="2"/>
       <c r="I811" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
@@ -29283,16 +29234,16 @@
         <v>43283</v>
       </c>
       <c r="B812" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F812" s="2" t="s">
         <v>15</v>
@@ -29302,7 +29253,7 @@
       </c>
       <c r="H812" s="2"/>
       <c r="I812" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
@@ -29322,7 +29273,7 @@
     </row>
     <row r="814" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D814" s="16" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E814" s="16"/>
       <c r="F814" s="16"/>
@@ -29410,7 +29361,7 @@
         <v>6</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E821" s="2" t="s">
         <v>771</v>
@@ -29442,7 +29393,7 @@
         <v>6</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E822" s="2" t="s">
         <v>851</v>
@@ -29472,7 +29423,7 @@
         <v>6</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E823" s="2" t="s">
         <v>708</v>
@@ -29502,7 +29453,7 @@
         <v>6</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E824" s="2" t="s">
         <v>773</v>
@@ -29532,7 +29483,7 @@
         <v>6</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>852</v>
@@ -29562,7 +29513,7 @@
         <v>6</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E826" s="2" t="s">
         <v>774</v>
@@ -29594,7 +29545,7 @@
         <v>6</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E827" s="2" t="s">
         <v>442</v>
@@ -29618,7 +29569,7 @@
         <v>6</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E828" s="2" t="s">
         <v>448</v>
@@ -29648,7 +29599,7 @@
         <v>6</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E829" s="2" t="s">
         <v>854</v>
@@ -29678,7 +29629,7 @@
         <v>6</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E830" s="2" t="s">
         <v>855</v>
@@ -29708,7 +29659,7 @@
         <v>6</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>856</v>
@@ -29732,7 +29683,7 @@
         <v>6</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E832" s="2" t="s">
         <v>11</v>
@@ -29758,7 +29709,7 @@
         <v>6</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E833" s="2" t="s">
         <v>38</v>
@@ -29782,7 +29733,7 @@
         <v>6</v>
       </c>
       <c r="D834" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E834" s="2" t="s">
         <v>40</v>
@@ -29806,7 +29757,7 @@
         <v>6</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E835" s="2" t="s">
         <v>42</v>
@@ -29830,7 +29781,7 @@
         <v>6</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E836" s="2" t="s">
         <v>67</v>
@@ -29854,7 +29805,7 @@
         <v>6</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E837" s="2" t="s">
         <v>68</v>
@@ -29878,7 +29829,7 @@
         <v>6</v>
       </c>
       <c r="D838" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E838" s="2" t="s">
         <v>69</v>
@@ -29902,7 +29853,7 @@
         <v>6</v>
       </c>
       <c r="D839" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E839" s="2" t="s">
         <v>65</v>
@@ -29928,7 +29879,7 @@
         <v>6</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E840" s="2" t="s">
         <v>70</v>
@@ -29952,7 +29903,7 @@
         <v>6</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E841" s="2" t="s">
         <v>71</v>
@@ -29976,7 +29927,7 @@
         <v>6</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E842" s="2" t="s">
         <v>72</v>
@@ -30006,7 +29957,7 @@
         <v>6</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E843" s="2" t="s">
         <v>709</v>
@@ -30038,7 +29989,7 @@
         <v>6</v>
       </c>
       <c r="D844" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E844" s="2" t="s">
         <v>710</v>
@@ -30068,7 +30019,7 @@
         <v>6</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E845" s="2" t="s">
         <v>711</v>
@@ -30098,7 +30049,7 @@
         <v>6</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E846" s="2" t="s">
         <v>712</v>
@@ -30122,7 +30073,7 @@
         <v>6</v>
       </c>
       <c r="D847" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E847" s="2" t="s">
         <v>17</v>
@@ -30148,7 +30099,7 @@
         <v>6</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E848" s="2" t="s">
         <v>44</v>
@@ -30172,7 +30123,7 @@
         <v>6</v>
       </c>
       <c r="D849" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E849" s="2" t="s">
         <v>48</v>
@@ -30196,7 +30147,7 @@
         <v>6</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E850" s="2" t="s">
         <v>50</v>
@@ -30226,7 +30177,7 @@
         <v>6</v>
       </c>
       <c r="D851" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E851" s="2" t="s">
         <v>775</v>
@@ -30256,7 +30207,7 @@
         <v>6</v>
       </c>
       <c r="D852" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E852" s="2" t="s">
         <v>776</v>
@@ -30286,7 +30237,7 @@
         <v>6</v>
       </c>
       <c r="D853" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E853" s="2" t="s">
         <v>777</v>
@@ -30316,7 +30267,7 @@
         <v>6</v>
       </c>
       <c r="D854" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E854" s="2" t="s">
         <v>857</v>
@@ -30346,7 +30297,7 @@
         <v>6</v>
       </c>
       <c r="D855" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E855" s="2" t="s">
         <v>790</v>
@@ -30378,7 +30329,7 @@
         <v>6</v>
       </c>
       <c r="D856" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E856" s="2" t="s">
         <v>791</v>
@@ -30408,7 +30359,7 @@
         <v>6</v>
       </c>
       <c r="D857" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E857" s="2" t="s">
         <v>792</v>
@@ -30438,7 +30389,7 @@
         <v>6</v>
       </c>
       <c r="D858" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E858" s="2" t="s">
         <v>793</v>
@@ -30468,7 +30419,7 @@
         <v>6</v>
       </c>
       <c r="D859" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E859" s="2" t="s">
         <v>858</v>
@@ -30492,7 +30443,7 @@
         <v>6</v>
       </c>
       <c r="D860" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E860" s="2" t="s">
         <v>85</v>
@@ -30516,7 +30467,7 @@
         <v>6</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E861" s="2" t="s">
         <v>86</v>
@@ -30540,7 +30491,7 @@
         <v>6</v>
       </c>
       <c r="D862" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E862" s="2" t="s">
         <v>87</v>
@@ -30564,7 +30515,7 @@
         <v>6</v>
       </c>
       <c r="D863" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E863" s="2" t="s">
         <v>88</v>
@@ -30594,7 +30545,7 @@
         <v>6</v>
       </c>
       <c r="D864" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E864" s="2" t="s">
         <v>859</v>
@@ -30624,7 +30575,7 @@
         <v>6</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E865" s="2" t="s">
         <v>860</v>
@@ -30656,7 +30607,7 @@
         <v>6</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E866" s="2" t="s">
         <v>861</v>
@@ -30688,7 +30639,7 @@
         <v>6</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E867" s="2" t="s">
         <v>862</v>
@@ -30720,7 +30671,7 @@
         <v>6</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E868" s="2" t="s">
         <v>863</v>
@@ -30752,7 +30703,7 @@
         <v>6</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E869" s="2" t="s">
         <v>864</v>
@@ -30778,7 +30729,7 @@
         <v>6</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E870" s="2" t="s">
         <v>58</v>
@@ -30802,7 +30753,7 @@
         <v>6</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E871" s="2" t="s">
         <v>60</v>
@@ -30826,7 +30777,7 @@
         <v>6</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E872" s="2" t="s">
         <v>63</v>
@@ -30865,7 +30816,7 @@
         <v>683</v>
       </c>
       <c r="D874" s="16" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E874" s="16"/>
       <c r="F874" s="16"/>
@@ -30953,7 +30904,7 @@
         <v>6</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E881" s="2" t="s">
         <v>865</v>
@@ -30983,7 +30934,7 @@
         <v>6</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E882" s="2" t="s">
         <v>866</v>
@@ -31013,7 +30964,7 @@
         <v>6</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E883" s="2" t="s">
         <v>867</v>
@@ -31043,7 +30994,7 @@
         <v>6</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E884" s="2" t="s">
         <v>868</v>
@@ -31073,7 +31024,7 @@
         <v>6</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E885" s="2" t="s">
         <v>681</v>
@@ -31103,7 +31054,7 @@
         <v>6</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E886" s="2" t="s">
         <v>708</v>
@@ -31127,7 +31078,7 @@
         <v>6</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E887" s="2" t="s">
         <v>58</v>
@@ -31151,7 +31102,7 @@
         <v>6</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E888" s="2" t="s">
         <v>60</v>
@@ -31175,7 +31126,7 @@
         <v>6</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E889" s="2" t="s">
         <v>63</v>
@@ -31214,7 +31165,7 @@
         <v>683</v>
       </c>
       <c r="D891" s="16" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E891" s="16"/>
       <c r="F891" s="16"/>
@@ -31302,7 +31253,7 @@
         <v>6</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E898" s="2" t="s">
         <v>869</v>
@@ -31332,7 +31283,7 @@
         <v>6</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E899" s="2" t="s">
         <v>784</v>
@@ -31362,7 +31313,7 @@
         <v>6</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E900" s="2" t="s">
         <v>785</v>
@@ -31392,7 +31343,7 @@
         <v>6</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E901" s="2" t="s">
         <v>786</v>
@@ -31422,7 +31373,7 @@
         <v>6</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E902" s="2" t="s">
         <v>681</v>
@@ -31452,7 +31403,7 @@
         <v>6</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E903" s="2" t="s">
         <v>708</v>
@@ -31476,7 +31427,7 @@
         <v>6</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E904" s="2" t="s">
         <v>58</v>
@@ -31500,7 +31451,7 @@
         <v>6</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E905" s="2" t="s">
         <v>60</v>
@@ -31524,7 +31475,7 @@
         <v>6</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E906" s="2" t="s">
         <v>63</v>
@@ -31563,7 +31514,7 @@
         <v>683</v>
       </c>
       <c r="D908" s="16" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E908" s="16"/>
       <c r="F908" s="16"/>
@@ -31645,7 +31596,7 @@
         <v>6</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E915" s="2" t="s">
         <v>429</v>
@@ -31669,7 +31620,7 @@
         <v>6</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E916" s="2" t="s">
         <v>462</v>
@@ -31699,7 +31650,7 @@
         <v>6</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E917" s="2" t="s">
         <v>708</v>
@@ -31723,7 +31674,7 @@
         <v>6</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E918" s="2" t="s">
         <v>463</v>
@@ -31747,7 +31698,7 @@
         <v>6</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E919" s="2" t="s">
         <v>464</v>
@@ -31771,7 +31722,7 @@
         <v>6</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E920" s="2" t="s">
         <v>465</v>
@@ -31795,7 +31746,7 @@
         <v>6</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E921" s="2" t="s">
         <v>466</v>
@@ -31819,7 +31770,7 @@
         <v>6</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E922" s="2" t="s">
         <v>467</v>
@@ -31843,7 +31794,7 @@
         <v>6</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E923" s="2" t="s">
         <v>468</v>
@@ -31867,7 +31818,7 @@
         <v>6</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E924" s="2" t="s">
         <v>469</v>
@@ -31897,7 +31848,7 @@
         <v>6</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E925" s="2" t="s">
         <v>870</v>
@@ -31927,7 +31878,7 @@
         <v>6</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E926" s="2" t="s">
         <v>871</v>
@@ -31957,7 +31908,7 @@
         <v>6</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E927" s="2" t="s">
         <v>872</v>
@@ -31987,7 +31938,7 @@
         <v>6</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E928" s="2" t="s">
         <v>873</v>
@@ -32017,7 +31968,7 @@
         <v>6</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E929" s="2" t="s">
         <v>423</v>
@@ -32044,7 +31995,7 @@
         <v>6</v>
       </c>
       <c r="D930" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E930" s="2" t="s">
         <v>89</v>
@@ -32068,7 +32019,7 @@
         <v>6</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E931" s="2" t="s">
         <v>90</v>
@@ -32098,7 +32049,7 @@
         <v>6</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E932" s="2" t="s">
         <v>721</v>
@@ -32122,7 +32073,7 @@
         <v>6</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E933" s="2" t="s">
         <v>58</v>
@@ -32146,7 +32097,7 @@
         <v>6</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E934" s="2" t="s">
         <v>60</v>
@@ -32170,7 +32121,7 @@
         <v>6</v>
       </c>
       <c r="D935" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E935" s="2" t="s">
         <v>63</v>
@@ -32209,7 +32160,7 @@
         <v>722</v>
       </c>
       <c r="D937" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E937" s="16"/>
       <c r="F937" s="16"/>
@@ -32297,7 +32248,7 @@
         <v>6</v>
       </c>
       <c r="D944" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E944" s="2" t="s">
         <v>780</v>
@@ -32323,7 +32274,7 @@
         <v>6</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E945" s="2" t="s">
         <v>11</v>
@@ -32349,7 +32300,7 @@
         <v>6</v>
       </c>
       <c r="D946" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E946" s="2" t="s">
         <v>38</v>
@@ -32373,7 +32324,7 @@
         <v>6</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E947" s="2" t="s">
         <v>40</v>
@@ -32397,7 +32348,7 @@
         <v>6</v>
       </c>
       <c r="D948" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E948" s="2" t="s">
         <v>42</v>
@@ -32427,7 +32378,7 @@
         <v>6</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E949" s="2" t="s">
         <v>781</v>
@@ -32457,7 +32408,7 @@
         <v>6</v>
       </c>
       <c r="D950" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E950" s="2" t="s">
         <v>708</v>
@@ -32487,7 +32438,7 @@
         <v>6</v>
       </c>
       <c r="D951" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E951" s="2" t="s">
         <v>681</v>
@@ -32517,7 +32468,7 @@
         <v>6</v>
       </c>
       <c r="D952" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E952" s="2" t="s">
         <v>782</v>
@@ -32547,7 +32498,7 @@
         <v>6</v>
       </c>
       <c r="D953" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E953" s="2" t="s">
         <v>783</v>
@@ -32571,7 +32522,7 @@
         <v>6</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E954" s="2" t="s">
         <v>58</v>
@@ -32595,7 +32546,7 @@
         <v>6</v>
       </c>
       <c r="D955" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E955" s="2" t="s">
         <v>60</v>
@@ -32619,7 +32570,7 @@
         <v>6</v>
       </c>
       <c r="D956" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E956" s="2" t="s">
         <v>63</v>
@@ -32652,7 +32603,7 @@
     </row>
     <row r="958" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D958" s="16" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E958" s="16"/>
       <c r="F958" s="16"/>
@@ -32734,7 +32685,7 @@
         <v>6</v>
       </c>
       <c r="D965" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E965" s="2" t="s">
         <v>430</v>
@@ -32758,7 +32709,7 @@
         <v>6</v>
       </c>
       <c r="D966" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E966" s="2" t="s">
         <v>470</v>
@@ -32782,7 +32733,7 @@
         <v>6</v>
       </c>
       <c r="D967" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E967" s="2" t="s">
         <v>471</v>
@@ -32806,7 +32757,7 @@
         <v>6</v>
       </c>
       <c r="D968" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E968" s="2" t="s">
         <v>472</v>
@@ -32830,7 +32781,7 @@
         <v>6</v>
       </c>
       <c r="D969" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E969" s="2" t="s">
         <v>473</v>
@@ -32860,7 +32811,7 @@
         <v>6</v>
       </c>
       <c r="D970" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E970" s="2" t="s">
         <v>708</v>
@@ -32884,7 +32835,7 @@
         <v>6</v>
       </c>
       <c r="D971" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E971" s="2" t="s">
         <v>474</v>
@@ -32908,7 +32859,7 @@
         <v>6</v>
       </c>
       <c r="D972" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E972" s="2" t="s">
         <v>475</v>
@@ -32932,7 +32883,7 @@
         <v>6</v>
       </c>
       <c r="D973" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E973" s="2" t="s">
         <v>476</v>
@@ -32956,7 +32907,7 @@
         <v>6</v>
       </c>
       <c r="D974" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E974" s="2" t="s">
         <v>58</v>
@@ -32980,7 +32931,7 @@
         <v>6</v>
       </c>
       <c r="D975" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E975" s="2" t="s">
         <v>60</v>
@@ -33004,7 +32955,7 @@
         <v>6</v>
       </c>
       <c r="D976" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E976" s="2" t="s">
         <v>63</v>
@@ -33037,7 +32988,7 @@
     </row>
     <row r="978" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D978" s="16" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E978" s="16"/>
       <c r="F978" s="16"/>
@@ -33119,7 +33070,7 @@
         <v>6</v>
       </c>
       <c r="D985" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E985" s="2" t="s">
         <v>427</v>
@@ -33145,7 +33096,7 @@
         <v>6</v>
       </c>
       <c r="D986" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E986" s="2" t="s">
         <v>477</v>
@@ -33169,7 +33120,7 @@
         <v>6</v>
       </c>
       <c r="D987" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E987" s="2" t="s">
         <v>478</v>
@@ -33193,7 +33144,7 @@
         <v>6</v>
       </c>
       <c r="D988" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E988" s="2" t="s">
         <v>479</v>
@@ -33223,7 +33174,7 @@
         <v>6</v>
       </c>
       <c r="D989" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E989" s="2" t="s">
         <v>708</v>
@@ -33253,7 +33204,7 @@
         <v>6</v>
       </c>
       <c r="D990" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E990" s="2" t="s">
         <v>681</v>
@@ -33277,7 +33228,7 @@
         <v>6</v>
       </c>
       <c r="D991" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E991" s="2" t="s">
         <v>58</v>
@@ -33301,7 +33252,7 @@
         <v>6</v>
       </c>
       <c r="D992" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E992" s="2" t="s">
         <v>60</v>
@@ -33325,7 +33276,7 @@
         <v>6</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E993" s="2" t="s">
         <v>63</v>
@@ -33358,7 +33309,7 @@
     </row>
     <row r="995" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D995" s="16" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E995" s="16"/>
       <c r="F995" s="16"/>
@@ -33446,7 +33397,7 @@
         <v>6</v>
       </c>
       <c r="D1002" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1002" s="2" t="s">
         <v>443</v>
@@ -33472,7 +33423,7 @@
         <v>6</v>
       </c>
       <c r="D1003" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1003" s="2" t="s">
         <v>11</v>
@@ -33498,7 +33449,7 @@
         <v>6</v>
       </c>
       <c r="D1004" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1004" s="2" t="s">
         <v>38</v>
@@ -33522,7 +33473,7 @@
         <v>6</v>
       </c>
       <c r="D1005" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1005" s="2" t="s">
         <v>40</v>
@@ -33546,7 +33497,7 @@
         <v>6</v>
       </c>
       <c r="D1006" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1006" s="2" t="s">
         <v>42</v>
@@ -33570,7 +33521,7 @@
         <v>6</v>
       </c>
       <c r="D1007" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1007" s="2" t="s">
         <v>17</v>
@@ -33596,7 +33547,7 @@
         <v>6</v>
       </c>
       <c r="D1008" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1008" s="2" t="s">
         <v>44</v>
@@ -33620,7 +33571,7 @@
         <v>6</v>
       </c>
       <c r="D1009" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1009" s="2" t="s">
         <v>48</v>
@@ -33644,7 +33595,7 @@
         <v>6</v>
       </c>
       <c r="D1010" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1010" s="2" t="s">
         <v>50</v>
@@ -33668,7 +33619,7 @@
         <v>6</v>
       </c>
       <c r="D1011" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1011" s="2" t="s">
         <v>20</v>
@@ -33694,7 +33645,7 @@
         <v>6</v>
       </c>
       <c r="D1012" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1012" s="2" t="s">
         <v>194</v>
@@ -33718,7 +33669,7 @@
         <v>6</v>
       </c>
       <c r="D1013" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1013" s="2" t="s">
         <v>195</v>
@@ -33742,7 +33693,7 @@
         <v>6</v>
       </c>
       <c r="D1014" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1014" s="2" t="s">
         <v>196</v>
@@ -33772,7 +33723,7 @@
         <v>6</v>
       </c>
       <c r="D1015" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1015" s="2" t="s">
         <v>761</v>
@@ -33804,7 +33755,7 @@
         <v>6</v>
       </c>
       <c r="D1016" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1016" s="7" t="s">
         <v>480</v>
@@ -33824,7 +33775,7 @@
         <v>6</v>
       </c>
       <c r="D1017" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1017" s="2" t="s">
         <v>444</v>
@@ -33848,7 +33799,7 @@
         <v>6</v>
       </c>
       <c r="D1018" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1018" s="2" t="s">
         <v>446</v>
@@ -33872,7 +33823,7 @@
         <v>6</v>
       </c>
       <c r="D1019" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1019" s="2" t="s">
         <v>445</v>
@@ -33902,7 +33853,7 @@
         <v>6</v>
       </c>
       <c r="D1020" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1020" s="2" t="s">
         <v>874</v>
@@ -33932,7 +33883,7 @@
         <v>6</v>
       </c>
       <c r="D1021" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1021" s="2" t="s">
         <v>875</v>
@@ -33956,7 +33907,7 @@
         <v>6</v>
       </c>
       <c r="D1022" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1022" s="2" t="s">
         <v>481</v>
@@ -33986,7 +33937,7 @@
         <v>6</v>
       </c>
       <c r="D1023" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1023" s="2" t="s">
         <v>685</v>
@@ -34010,7 +33961,7 @@
         <v>6</v>
       </c>
       <c r="D1024" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1024" s="2" t="s">
         <v>197</v>
@@ -34040,7 +33991,7 @@
         <v>6</v>
       </c>
       <c r="D1025" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1025" s="2" t="s">
         <v>762</v>
@@ -34070,7 +34021,7 @@
         <v>6</v>
       </c>
       <c r="D1026" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1026" s="2" t="s">
         <v>763</v>
@@ -34100,7 +34051,7 @@
         <v>6</v>
       </c>
       <c r="D1027" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1027" s="2" t="s">
         <v>764</v>
@@ -34124,7 +34075,7 @@
         <v>6</v>
       </c>
       <c r="D1028" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1028" s="2" t="s">
         <v>198</v>
@@ -34148,7 +34099,7 @@
         <v>6</v>
       </c>
       <c r="D1029" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1029" s="2" t="s">
         <v>199</v>
@@ -34172,7 +34123,7 @@
         <v>6</v>
       </c>
       <c r="D1030" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1030" s="2" t="s">
         <v>200</v>
@@ -34202,7 +34153,7 @@
         <v>6</v>
       </c>
       <c r="D1031" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1031" s="2" t="s">
         <v>765</v>
@@ -34228,7 +34179,7 @@
         <v>6</v>
       </c>
       <c r="D1032" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1032" s="2" t="s">
         <v>201</v>
@@ -34252,7 +34203,7 @@
         <v>6</v>
       </c>
       <c r="D1033" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1033" s="2" t="s">
         <v>58</v>
@@ -34276,7 +34227,7 @@
         <v>6</v>
       </c>
       <c r="D1034" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1034" s="2" t="s">
         <v>60</v>
@@ -34300,7 +34251,7 @@
         <v>6</v>
       </c>
       <c r="D1035" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E1035" s="2" t="s">
         <v>63</v>
@@ -34339,7 +34290,7 @@
         <v>683</v>
       </c>
       <c r="D1037" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E1037" s="16"/>
       <c r="F1037" s="16"/>
@@ -34427,7 +34378,7 @@
         <v>6</v>
       </c>
       <c r="D1044" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1044" s="2" t="s">
         <v>790</v>
@@ -34459,7 +34410,7 @@
         <v>6</v>
       </c>
       <c r="D1045" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1045" s="2" t="s">
         <v>791</v>
@@ -34489,7 +34440,7 @@
         <v>6</v>
       </c>
       <c r="D1046" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1046" s="2" t="s">
         <v>792</v>
@@ -34519,7 +34470,7 @@
         <v>6</v>
       </c>
       <c r="D1047" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1047" s="2" t="s">
         <v>793</v>
@@ -34549,7 +34500,7 @@
         <v>6</v>
       </c>
       <c r="D1048" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1048" s="2" t="s">
         <v>708</v>
@@ -34579,7 +34530,7 @@
         <v>6</v>
       </c>
       <c r="D1049" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1049" s="2" t="s">
         <v>681</v>
@@ -34603,7 +34554,7 @@
         <v>6</v>
       </c>
       <c r="D1050" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1050" s="2" t="s">
         <v>58</v>
@@ -34627,7 +34578,7 @@
         <v>6</v>
       </c>
       <c r="D1051" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1051" s="2" t="s">
         <v>60</v>
@@ -34651,7 +34602,7 @@
         <v>6</v>
       </c>
       <c r="D1052" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1052" s="2" t="s">
         <v>63</v>
@@ -34690,7 +34641,7 @@
         <v>683</v>
       </c>
       <c r="D1054" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E1054" s="16"/>
       <c r="F1054" s="16"/>
@@ -36090,7 +36041,7 @@
     </row>
     <row r="1107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1107" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E1107" s="16"/>
       <c r="F1107" s="16"/>
@@ -36560,7 +36511,7 @@
       </c>
       <c r="H1127" s="2"/>
       <c r="I1127" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J1127" s="2"/>
       <c r="K1127" s="2"/>
@@ -36590,7 +36541,7 @@
       </c>
       <c r="H1128" s="2"/>
       <c r="I1128" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J1128" s="2"/>
       <c r="K1128" s="2"/>
@@ -37693,7 +37644,7 @@
         <v>683</v>
       </c>
       <c r="D1166" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E1166" s="16"/>
       <c r="F1166" s="16"/>
@@ -38934,7 +38885,7 @@
         <v>683</v>
       </c>
       <c r="D1214" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E1214" s="16"/>
       <c r="F1214" s="16"/>
@@ -38986,13 +38937,13 @@
         <v>43279</v>
       </c>
       <c r="B1219" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1219" t="s">
         <v>6</v>
       </c>
       <c r="D1219" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1219" s="2" t="s">
         <v>38</v>
@@ -39012,13 +38963,13 @@
         <v>43283</v>
       </c>
       <c r="B1220" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1220" t="s">
         <v>6</v>
       </c>
       <c r="D1220" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1220" s="2" t="s">
         <v>11</v>
@@ -39041,16 +38992,16 @@
         <v>43279</v>
       </c>
       <c r="B1221" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1221" t="s">
         <v>6</v>
       </c>
       <c r="D1221" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1221" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F1221" t="s">
         <v>15</v>
@@ -39059,7 +39010,7 @@
         <v>3</v>
       </c>
       <c r="I1221" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1222" spans="1:12" x14ac:dyDescent="0.25">
@@ -39067,16 +39018,16 @@
         <v>43279</v>
       </c>
       <c r="B1222" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1222" t="s">
         <v>6</v>
       </c>
       <c r="D1222" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1222" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F1222" t="s">
         <v>15</v>
@@ -39085,7 +39036,7 @@
         <v>5</v>
       </c>
       <c r="I1222" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1223" spans="1:12" x14ac:dyDescent="0.25">
@@ -39093,16 +39044,16 @@
         <v>43279</v>
       </c>
       <c r="B1223" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1223" t="s">
         <v>6</v>
       </c>
       <c r="D1223" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1223" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F1223" t="s">
         <v>15</v>
@@ -39111,7 +39062,7 @@
         <v>1</v>
       </c>
       <c r="I1223" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1224" spans="1:12" x14ac:dyDescent="0.25">
@@ -39119,13 +39070,13 @@
         <v>43279</v>
       </c>
       <c r="B1224" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1224" t="s">
         <v>6</v>
       </c>
       <c r="D1224" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1224" s="2" t="s">
         <v>708</v>
@@ -39145,13 +39096,13 @@
         <v>43279</v>
       </c>
       <c r="B1225" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1225" t="s">
         <v>6</v>
       </c>
       <c r="D1225" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1225" s="2" t="s">
         <v>63</v>
@@ -39171,16 +39122,16 @@
         <v>43279</v>
       </c>
       <c r="B1226" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1226" t="s">
         <v>6</v>
       </c>
       <c r="D1226" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1226" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F1226" t="s">
         <v>8</v>
@@ -39189,7 +39140,7 @@
         <v>22</v>
       </c>
       <c r="I1226" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1227" spans="1:12" x14ac:dyDescent="0.25">
@@ -39197,16 +39148,16 @@
         <v>43279</v>
       </c>
       <c r="B1227" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1227" t="s">
         <v>6</v>
       </c>
       <c r="D1227" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1227" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F1227" t="s">
         <v>8</v>
@@ -39215,7 +39166,7 @@
         <v>22</v>
       </c>
       <c r="I1227" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1228" spans="1:12" x14ac:dyDescent="0.25">
@@ -39223,13 +39174,13 @@
         <v>43279</v>
       </c>
       <c r="B1228" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1228" t="s">
         <v>6</v>
       </c>
       <c r="D1228" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E1228" t="s">
         <v>764</v>
@@ -39252,10 +39203,10 @@
         <v>43279</v>
       </c>
       <c r="B1230" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D1230" s="18" t="s">
-        <v>1288</v>
+        <v>1163</v>
+      </c>
+      <c r="D1230" s="17" t="s">
+        <v>1287</v>
       </c>
       <c r="E1230" s="16"/>
       <c r="F1230" s="16"/>
@@ -39307,16 +39258,16 @@
         <v>43279</v>
       </c>
       <c r="B1235" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1235" t="s">
         <v>6</v>
       </c>
       <c r="D1235" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1235" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F1235" t="s">
         <v>8</v>
@@ -39328,7 +39279,7 @@
         <v>10</v>
       </c>
       <c r="I1235" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1236" spans="1:12" x14ac:dyDescent="0.25">
@@ -39336,16 +39287,16 @@
         <v>43279</v>
       </c>
       <c r="B1236" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1236" t="s">
         <v>6</v>
       </c>
       <c r="D1236" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1236" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F1236" t="s">
         <v>15</v>
@@ -39354,7 +39305,7 @@
         <v>4</v>
       </c>
       <c r="I1236" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1237" spans="1:12" x14ac:dyDescent="0.25">
@@ -39362,13 +39313,13 @@
         <v>43279</v>
       </c>
       <c r="B1237" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1237" t="s">
         <v>6</v>
       </c>
       <c r="D1237" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1237" s="2" t="s">
         <v>708</v>
@@ -39388,13 +39339,13 @@
         <v>43279</v>
       </c>
       <c r="B1238" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1238" t="s">
         <v>6</v>
       </c>
       <c r="D1238" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1238" t="s">
         <v>681</v>
@@ -39414,16 +39365,16 @@
         <v>43279</v>
       </c>
       <c r="B1239" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1239" t="s">
         <v>6</v>
       </c>
       <c r="D1239" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1239" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F1239" t="s">
         <v>15</v>
@@ -39432,7 +39383,7 @@
         <v>10</v>
       </c>
       <c r="I1239" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1240" spans="1:12" x14ac:dyDescent="0.25">
@@ -39440,16 +39391,16 @@
         <v>43279</v>
       </c>
       <c r="B1240" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1240" t="s">
         <v>6</v>
       </c>
       <c r="D1240" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1240" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F1240" t="s">
         <v>15</v>
@@ -39458,7 +39409,7 @@
         <v>30</v>
       </c>
       <c r="I1240" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1241" spans="1:12" x14ac:dyDescent="0.25">
@@ -39466,13 +39417,13 @@
         <v>43279</v>
       </c>
       <c r="B1241" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1241" t="s">
         <v>6</v>
       </c>
       <c r="D1241" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1241" t="s">
         <v>58</v>
@@ -39492,13 +39443,13 @@
         <v>43279</v>
       </c>
       <c r="B1242" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1242" t="s">
         <v>6</v>
       </c>
       <c r="D1242" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1242" t="s">
         <v>60</v>
@@ -39518,13 +39469,13 @@
         <v>43279</v>
       </c>
       <c r="B1243" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1243" t="s">
         <v>6</v>
       </c>
       <c r="D1243" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E1243" t="s">
         <v>63</v>
@@ -39547,10 +39498,10 @@
         <v>43279</v>
       </c>
       <c r="B1245" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1245" s="16" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E1245" s="16"/>
       <c r="F1245" s="16"/>
@@ -39602,16 +39553,16 @@
         <v>43279</v>
       </c>
       <c r="B1250" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E1250" t="s">
         <v>1164</v>
-      </c>
-      <c r="C1250" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1250" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E1250" t="s">
-        <v>1165</v>
       </c>
       <c r="F1250" t="s">
         <v>8</v>
@@ -39623,7 +39574,7 @@
         <v>10</v>
       </c>
       <c r="I1250" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1251" spans="1:9" x14ac:dyDescent="0.25">
@@ -39631,16 +39582,16 @@
         <v>43279</v>
       </c>
       <c r="B1251" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1251" t="s">
         <v>6</v>
       </c>
       <c r="D1251" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1251" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F1251" t="s">
         <v>15</v>
@@ -39649,7 +39600,7 @@
         <v>11</v>
       </c>
       <c r="I1251" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1252" spans="1:9" x14ac:dyDescent="0.25">
@@ -39657,16 +39608,16 @@
         <v>43279</v>
       </c>
       <c r="B1252" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1252" t="s">
         <v>6</v>
       </c>
       <c r="D1252" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1252" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F1252" t="s">
         <v>15</v>
@@ -39675,7 +39626,7 @@
         <v>5</v>
       </c>
       <c r="I1252" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1253" spans="1:9" x14ac:dyDescent="0.25">
@@ -39683,13 +39634,13 @@
         <v>43279</v>
       </c>
       <c r="B1253" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1253" t="s">
         <v>6</v>
       </c>
       <c r="D1253" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1253" s="2" t="s">
         <v>708</v>
@@ -39709,16 +39660,16 @@
         <v>43279</v>
       </c>
       <c r="B1254" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1254" t="s">
         <v>6</v>
       </c>
       <c r="D1254" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1254" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F1254" t="s">
         <v>15</v>
@@ -39727,7 +39678,7 @@
         <v>10</v>
       </c>
       <c r="I1254" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1255" spans="1:9" x14ac:dyDescent="0.25">
@@ -39735,16 +39686,16 @@
         <v>43279</v>
       </c>
       <c r="B1255" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1255" t="s">
         <v>6</v>
       </c>
       <c r="D1255" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1255" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F1255" t="s">
         <v>15</v>
@@ -39753,7 +39704,7 @@
         <v>30</v>
       </c>
       <c r="I1255" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1256" spans="1:9" x14ac:dyDescent="0.25">
@@ -39761,16 +39712,16 @@
         <v>43279</v>
       </c>
       <c r="B1256" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1256" t="s">
         <v>6</v>
       </c>
       <c r="D1256" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1256" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F1256" t="s">
         <v>15</v>
@@ -39779,7 +39730,7 @@
         <v>10</v>
       </c>
       <c r="I1256" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1257" spans="1:9" x14ac:dyDescent="0.25">
@@ -39787,16 +39738,16 @@
         <v>43279</v>
       </c>
       <c r="B1257" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1257" t="s">
         <v>6</v>
       </c>
       <c r="D1257" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1257" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1257" t="s">
         <v>15</v>
@@ -39805,7 +39756,7 @@
         <v>30</v>
       </c>
       <c r="I1257" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1258" spans="1:9" x14ac:dyDescent="0.25">
@@ -39813,16 +39764,16 @@
         <v>43279</v>
       </c>
       <c r="B1258" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1258" t="s">
         <v>6</v>
       </c>
       <c r="D1258" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1258" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F1258" t="s">
         <v>8</v>
@@ -39834,7 +39785,7 @@
         <v>6</v>
       </c>
       <c r="I1258" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1259" spans="1:9" x14ac:dyDescent="0.25">
@@ -39842,16 +39793,16 @@
         <v>43279</v>
       </c>
       <c r="B1259" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1259" t="s">
         <v>6</v>
       </c>
       <c r="D1259" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1259" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F1259" t="s">
         <v>8</v>
@@ -39863,7 +39814,7 @@
         <v>6</v>
       </c>
       <c r="I1259" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1260" spans="1:9" x14ac:dyDescent="0.25">
@@ -39871,16 +39822,16 @@
         <v>43279</v>
       </c>
       <c r="B1260" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1260" t="s">
         <v>6</v>
       </c>
       <c r="D1260" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1260" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F1260" t="s">
         <v>15</v>
@@ -39889,7 +39840,7 @@
         <v>3</v>
       </c>
       <c r="I1260" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1261" spans="1:9" x14ac:dyDescent="0.25">
@@ -39897,16 +39848,16 @@
         <v>43279</v>
       </c>
       <c r="B1261" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1261" t="s">
         <v>6</v>
       </c>
       <c r="D1261" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1261" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F1261" t="s">
         <v>15</v>
@@ -39915,7 +39866,7 @@
         <v>10</v>
       </c>
       <c r="I1261" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1262" spans="1:9" x14ac:dyDescent="0.25">
@@ -39923,16 +39874,16 @@
         <v>43279</v>
       </c>
       <c r="B1262" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1262" t="s">
         <v>6</v>
       </c>
       <c r="D1262" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1262" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F1262" t="s">
         <v>15</v>
@@ -39941,7 +39892,7 @@
         <v>30</v>
       </c>
       <c r="I1262" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1263" spans="1:9" x14ac:dyDescent="0.25">
@@ -39949,13 +39900,13 @@
         <v>43279</v>
       </c>
       <c r="B1263" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1263" t="s">
         <v>6</v>
       </c>
       <c r="D1263" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1263" t="s">
         <v>89</v>
@@ -39975,13 +39926,13 @@
         <v>43279</v>
       </c>
       <c r="B1264" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1264" t="s">
         <v>6</v>
       </c>
       <c r="D1264" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1264" t="s">
         <v>90</v>
@@ -40001,13 +39952,13 @@
         <v>43279</v>
       </c>
       <c r="B1265" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1265" t="s">
         <v>6</v>
       </c>
       <c r="D1265" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1265" s="2" t="s">
         <v>721</v>
@@ -40027,13 +39978,13 @@
         <v>43279</v>
       </c>
       <c r="B1266" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1266" t="s">
         <v>6</v>
       </c>
       <c r="D1266" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1266" t="s">
         <v>58</v>
@@ -40053,13 +40004,13 @@
         <v>43279</v>
       </c>
       <c r="B1267" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1267" t="s">
         <v>6</v>
       </c>
       <c r="D1267" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1267" t="s">
         <v>60</v>
@@ -40079,13 +40030,13 @@
         <v>43279</v>
       </c>
       <c r="B1268" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1268" t="s">
         <v>6</v>
       </c>
       <c r="D1268" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E1268" t="s">
         <v>63</v>
@@ -40109,10 +40060,10 @@
         <v>43279</v>
       </c>
       <c r="B1270" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1270" s="16" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E1270" s="16"/>
       <c r="F1270" s="16"/>
@@ -40164,16 +40115,16 @@
         <v>43279</v>
       </c>
       <c r="B1275" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1275" t="s">
         <v>6</v>
       </c>
       <c r="D1275" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1275" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F1275" t="s">
         <v>8</v>
@@ -40182,7 +40133,7 @@
         <v>22</v>
       </c>
       <c r="I1275" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1276" spans="1:12" x14ac:dyDescent="0.25">
@@ -40190,13 +40141,13 @@
         <v>43279</v>
       </c>
       <c r="B1276" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1276" t="s">
         <v>6</v>
       </c>
       <c r="D1276" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1276" s="2" t="s">
         <v>38</v>
@@ -40216,13 +40167,13 @@
         <v>43283</v>
       </c>
       <c r="B1277" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1277" t="s">
         <v>6</v>
       </c>
       <c r="D1277" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1277" s="2" t="s">
         <v>11</v>
@@ -40245,16 +40196,16 @@
         <v>43279</v>
       </c>
       <c r="B1278" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1278" t="s">
         <v>6</v>
       </c>
       <c r="D1278" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1278" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F1278" t="s">
         <v>15</v>
@@ -40263,7 +40214,7 @@
         <v>5</v>
       </c>
       <c r="I1278" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1279" spans="1:12" x14ac:dyDescent="0.25">
@@ -40271,13 +40222,13 @@
         <v>43279</v>
       </c>
       <c r="B1279" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1279" t="s">
         <v>6</v>
       </c>
       <c r="D1279" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1279" s="2" t="s">
         <v>708</v>
@@ -40297,13 +40248,13 @@
         <v>43279</v>
       </c>
       <c r="B1280" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1280" t="s">
         <v>6</v>
       </c>
       <c r="D1280" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1280" t="s">
         <v>681</v>
@@ -40323,16 +40274,16 @@
         <v>43279</v>
       </c>
       <c r="B1281" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1281" t="s">
         <v>6</v>
       </c>
       <c r="D1281" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1281" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F1281" t="s">
         <v>15</v>
@@ -40341,7 +40292,7 @@
         <v>10</v>
       </c>
       <c r="I1281" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1282" spans="1:12" x14ac:dyDescent="0.25">
@@ -40349,16 +40300,16 @@
         <v>43279</v>
       </c>
       <c r="B1282" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1282" t="s">
         <v>6</v>
       </c>
       <c r="D1282" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1282" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F1282" t="s">
         <v>15</v>
@@ -40367,7 +40318,7 @@
         <v>30</v>
       </c>
       <c r="I1282" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1283" spans="1:12" x14ac:dyDescent="0.25">
@@ -40375,13 +40326,13 @@
         <v>43279</v>
       </c>
       <c r="B1283" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1283" t="s">
         <v>6</v>
       </c>
       <c r="D1283" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1283" t="s">
         <v>58</v>
@@ -40401,13 +40352,13 @@
         <v>43279</v>
       </c>
       <c r="B1284" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1284" t="s">
         <v>6</v>
       </c>
       <c r="D1284" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1284" t="s">
         <v>60</v>
@@ -40427,13 +40378,13 @@
         <v>43279</v>
       </c>
       <c r="B1285" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1285" t="s">
         <v>6</v>
       </c>
       <c r="D1285" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E1285" s="2" t="s">
         <v>63</v>
@@ -40457,10 +40408,10 @@
         <v>43279</v>
       </c>
       <c r="B1287" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1287" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E1287" s="16"/>
       <c r="F1287" s="16"/>
@@ -40512,16 +40463,16 @@
         <v>43279</v>
       </c>
       <c r="B1292" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1292" t="s">
         <v>6</v>
       </c>
       <c r="D1292" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1292" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F1292" t="s">
         <v>8</v>
@@ -40530,7 +40481,7 @@
         <v>22</v>
       </c>
       <c r="I1292" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1293" spans="1:12" x14ac:dyDescent="0.25">
@@ -40538,13 +40489,13 @@
         <v>43279</v>
       </c>
       <c r="B1293" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1293" t="s">
         <v>6</v>
       </c>
       <c r="D1293" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1293" s="2" t="s">
         <v>38</v>
@@ -40564,13 +40515,13 @@
         <v>43283</v>
       </c>
       <c r="B1294" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1294" t="s">
         <v>6</v>
       </c>
       <c r="D1294" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1294" s="2" t="s">
         <v>11</v>
@@ -40593,16 +40544,16 @@
         <v>43279</v>
       </c>
       <c r="B1295" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1295" t="s">
         <v>6</v>
       </c>
       <c r="D1295" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1295" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F1295" t="s">
         <v>15</v>
@@ -40611,7 +40562,7 @@
         <v>3</v>
       </c>
       <c r="I1295" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1296" spans="1:12" x14ac:dyDescent="0.25">
@@ -40619,13 +40570,13 @@
         <v>43279</v>
       </c>
       <c r="B1296" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1296" t="s">
         <v>6</v>
       </c>
       <c r="D1296" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1296" s="2" t="s">
         <v>708</v>
@@ -40645,13 +40596,13 @@
         <v>43279</v>
       </c>
       <c r="B1297" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1297" t="s">
         <v>6</v>
       </c>
       <c r="D1297" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1297" s="2" t="s">
         <v>681</v>
@@ -40671,16 +40622,16 @@
         <v>43279</v>
       </c>
       <c r="B1298" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1298" t="s">
         <v>6</v>
       </c>
       <c r="D1298" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1298" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F1298" t="s">
         <v>15</v>
@@ -40689,7 +40640,7 @@
         <v>10</v>
       </c>
       <c r="I1298" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1299" spans="1:12" x14ac:dyDescent="0.25">
@@ -40697,16 +40648,16 @@
         <v>43279</v>
       </c>
       <c r="B1299" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1299" t="s">
         <v>6</v>
       </c>
       <c r="D1299" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1299" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F1299" t="s">
         <v>15</v>
@@ -40715,7 +40666,7 @@
         <v>30</v>
       </c>
       <c r="I1299" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1300" spans="1:12" x14ac:dyDescent="0.25">
@@ -40723,13 +40674,13 @@
         <v>43279</v>
       </c>
       <c r="B1300" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1300" t="s">
         <v>6</v>
       </c>
       <c r="D1300" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1300" t="s">
         <v>58</v>
@@ -40749,13 +40700,13 @@
         <v>43279</v>
       </c>
       <c r="B1301" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1301" t="s">
         <v>6</v>
       </c>
       <c r="D1301" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1301" s="2" t="s">
         <v>60</v>
@@ -40775,13 +40726,13 @@
         <v>43279</v>
       </c>
       <c r="B1302" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1302" t="s">
         <v>6</v>
       </c>
       <c r="D1302" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E1302" s="2" t="s">
         <v>63</v>
@@ -40805,10 +40756,10 @@
         <v>43279</v>
       </c>
       <c r="B1304" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1304" s="16" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E1304" s="16"/>
       <c r="F1304" s="16"/>
@@ -40860,16 +40811,16 @@
         <v>43279</v>
       </c>
       <c r="B1309" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1309" t="s">
         <v>6</v>
       </c>
       <c r="D1309" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1309" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F1309" t="s">
         <v>8</v>
@@ -40878,7 +40829,7 @@
         <v>22</v>
       </c>
       <c r="I1309" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1310" spans="1:12" x14ac:dyDescent="0.25">
@@ -40886,13 +40837,13 @@
         <v>43279</v>
       </c>
       <c r="B1310" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1310" t="s">
         <v>6</v>
       </c>
       <c r="D1310" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1310" s="2" t="s">
         <v>38</v>
@@ -40912,13 +40863,13 @@
         <v>43283</v>
       </c>
       <c r="B1311" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1311" t="s">
         <v>6</v>
       </c>
       <c r="D1311" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1311" s="2" t="s">
         <v>11</v>
@@ -40941,16 +40892,16 @@
         <v>43279</v>
       </c>
       <c r="B1312" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1312" t="s">
         <v>6</v>
       </c>
       <c r="D1312" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1312" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F1312" t="s">
         <v>15</v>
@@ -40959,7 +40910,7 @@
         <v>3</v>
       </c>
       <c r="I1312" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1313" spans="1:12" x14ac:dyDescent="0.25">
@@ -40967,16 +40918,16 @@
         <v>43283</v>
       </c>
       <c r="B1313" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1313" t="s">
         <v>6</v>
       </c>
       <c r="D1313" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1313" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F1313" t="s">
         <v>8</v>
@@ -40985,7 +40936,7 @@
         <v>22</v>
       </c>
       <c r="I1313" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1314" spans="1:12" x14ac:dyDescent="0.25">
@@ -40993,13 +40944,13 @@
         <v>43279</v>
       </c>
       <c r="B1314" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1314" t="s">
         <v>6</v>
       </c>
       <c r="D1314" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1314" s="2" t="s">
         <v>708</v>
@@ -41019,16 +40970,16 @@
         <v>43279</v>
       </c>
       <c r="B1315" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1315" t="s">
         <v>6</v>
       </c>
       <c r="D1315" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1315" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F1315" t="s">
         <v>15</v>
@@ -41037,7 +40988,7 @@
         <v>5</v>
       </c>
       <c r="I1315" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1316" spans="1:12" x14ac:dyDescent="0.25">
@@ -41045,16 +40996,16 @@
         <v>43279</v>
       </c>
       <c r="B1316" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1316" t="s">
         <v>6</v>
       </c>
       <c r="D1316" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1316" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F1316" t="s">
         <v>15</v>
@@ -41063,7 +41014,7 @@
         <v>30</v>
       </c>
       <c r="I1316" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1317" spans="1:12" x14ac:dyDescent="0.25">
@@ -41071,16 +41022,16 @@
         <v>43279</v>
       </c>
       <c r="B1317" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1317" t="s">
         <v>6</v>
       </c>
       <c r="D1317" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1317" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F1317" t="s">
         <v>15</v>
@@ -41089,7 +41040,7 @@
         <v>10</v>
       </c>
       <c r="I1317" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1318" spans="1:12" x14ac:dyDescent="0.25">
@@ -41097,16 +41048,16 @@
         <v>43279</v>
       </c>
       <c r="B1318" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1318" t="s">
         <v>6</v>
       </c>
       <c r="D1318" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1318" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F1318" t="s">
         <v>15</v>
@@ -41115,7 +41066,7 @@
         <v>10</v>
       </c>
       <c r="I1318" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1319" spans="1:12" x14ac:dyDescent="0.25">
@@ -41123,16 +41074,16 @@
         <v>43283</v>
       </c>
       <c r="B1319" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1319" t="s">
         <v>6</v>
       </c>
       <c r="D1319" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1319" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F1319" t="s">
         <v>8</v>
@@ -41141,7 +41092,7 @@
         <v>22</v>
       </c>
       <c r="I1319" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1320" spans="1:12" x14ac:dyDescent="0.25">
@@ -41149,13 +41100,13 @@
         <v>43279</v>
       </c>
       <c r="B1320" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1320" t="s">
         <v>6</v>
       </c>
       <c r="D1320" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1320" t="s">
         <v>58</v>
@@ -41175,13 +41126,13 @@
         <v>43279</v>
       </c>
       <c r="B1321" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1321" t="s">
         <v>6</v>
       </c>
       <c r="D1321" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1321" t="s">
         <v>60</v>
@@ -41201,13 +41152,13 @@
         <v>43279</v>
       </c>
       <c r="B1322" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1322" t="s">
         <v>6</v>
       </c>
       <c r="D1322" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E1322" t="s">
         <v>63</v>
@@ -41230,10 +41181,10 @@
         <v>43279</v>
       </c>
       <c r="B1324" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1324" s="16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E1324" s="16"/>
       <c r="F1324" s="16"/>
@@ -41285,16 +41236,16 @@
         <v>43279</v>
       </c>
       <c r="B1329" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1329" t="s">
         <v>6</v>
       </c>
       <c r="D1329" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1329" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F1329" t="s">
         <v>8</v>
@@ -41306,7 +41257,7 @@
         <v>10</v>
       </c>
       <c r="I1329" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1330" spans="1:12" x14ac:dyDescent="0.25">
@@ -41314,16 +41265,16 @@
         <v>43279</v>
       </c>
       <c r="B1330" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1330" t="s">
         <v>6</v>
       </c>
       <c r="D1330" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1330" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F1330" t="s">
         <v>15</v>
@@ -41332,7 +41283,7 @@
         <v>4</v>
       </c>
       <c r="I1330" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1331" spans="1:12" x14ac:dyDescent="0.25">
@@ -41340,13 +41291,13 @@
         <v>43279</v>
       </c>
       <c r="B1331" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1331" t="s">
         <v>6</v>
       </c>
       <c r="D1331" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1331" s="2" t="s">
         <v>708</v>
@@ -41366,13 +41317,13 @@
         <v>43279</v>
       </c>
       <c r="B1332" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1332" t="s">
         <v>6</v>
       </c>
       <c r="D1332" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1332" t="s">
         <v>681</v>
@@ -41392,16 +41343,16 @@
         <v>43279</v>
       </c>
       <c r="B1333" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1333" t="s">
         <v>6</v>
       </c>
       <c r="D1333" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1333" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F1333" t="s">
         <v>15</v>
@@ -41410,7 +41361,7 @@
         <v>10</v>
       </c>
       <c r="I1333" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1334" spans="1:12" x14ac:dyDescent="0.25">
@@ -41418,16 +41369,16 @@
         <v>43279</v>
       </c>
       <c r="B1334" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1334" t="s">
         <v>6</v>
       </c>
       <c r="D1334" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1334" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F1334" t="s">
         <v>15</v>
@@ -41436,7 +41387,7 @@
         <v>30</v>
       </c>
       <c r="I1334" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1335" spans="1:12" x14ac:dyDescent="0.25">
@@ -41444,13 +41395,13 @@
         <v>43279</v>
       </c>
       <c r="B1335" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1335" t="s">
         <v>6</v>
       </c>
       <c r="D1335" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1335" t="s">
         <v>58</v>
@@ -41470,13 +41421,13 @@
         <v>43279</v>
       </c>
       <c r="B1336" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1336" t="s">
         <v>6</v>
       </c>
       <c r="D1336" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1336" t="s">
         <v>60</v>
@@ -41496,13 +41447,13 @@
         <v>43279</v>
       </c>
       <c r="B1337" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1337" t="s">
         <v>6</v>
       </c>
       <c r="D1337" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E1337" t="s">
         <v>63</v>
@@ -41525,10 +41476,10 @@
         <v>43279</v>
       </c>
       <c r="B1339" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1339" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E1339" s="16"/>
       <c r="F1339" s="16"/>
@@ -41580,13 +41531,13 @@
         <v>43279</v>
       </c>
       <c r="B1344" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1344" t="s">
         <v>6</v>
       </c>
       <c r="D1344" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1344" t="s">
         <v>109</v>
@@ -41606,16 +41557,16 @@
         <v>43283</v>
       </c>
       <c r="B1345" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1345" t="s">
         <v>6</v>
       </c>
       <c r="D1345" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1345" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F1345" t="s">
         <v>15</v>
@@ -41624,7 +41575,7 @@
         <v>11</v>
       </c>
       <c r="I1345" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1346" spans="1:9" x14ac:dyDescent="0.25">
@@ -41632,16 +41583,16 @@
         <v>43283</v>
       </c>
       <c r="B1346" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1346" t="s">
         <v>6</v>
       </c>
       <c r="D1346" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1346" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F1346" t="s">
         <v>15</v>
@@ -41650,7 +41601,7 @@
         <v>5</v>
       </c>
       <c r="I1346" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1347" spans="1:9" x14ac:dyDescent="0.25">
@@ -41658,16 +41609,16 @@
         <v>43279</v>
       </c>
       <c r="B1347" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1347" t="s">
         <v>6</v>
       </c>
       <c r="D1347" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1347" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F1347" t="s">
         <v>26</v>
@@ -41676,7 +41627,7 @@
         <v>7</v>
       </c>
       <c r="I1347" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1348" spans="1:9" x14ac:dyDescent="0.25">
@@ -41684,16 +41635,16 @@
         <v>43283</v>
       </c>
       <c r="B1348" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1348" t="s">
         <v>6</v>
       </c>
       <c r="D1348" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1348" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F1348" t="s">
         <v>15</v>
@@ -41702,7 +41653,7 @@
         <v>4</v>
       </c>
       <c r="I1348" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1349" spans="1:9" x14ac:dyDescent="0.25">
@@ -41710,13 +41661,13 @@
         <v>43279</v>
       </c>
       <c r="B1349" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1349" t="s">
         <v>6</v>
       </c>
       <c r="D1349" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1349" t="s">
         <v>7</v>
@@ -41736,16 +41687,16 @@
         <v>43279</v>
       </c>
       <c r="B1350" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E1350" t="s">
         <v>1164</v>
-      </c>
-      <c r="C1350" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1350" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E1350" t="s">
-        <v>1165</v>
       </c>
       <c r="F1350" t="s">
         <v>8</v>
@@ -41754,7 +41705,7 @@
         <v>22</v>
       </c>
       <c r="I1350" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1351" spans="1:9" x14ac:dyDescent="0.25">
@@ -41762,16 +41713,16 @@
         <v>43279</v>
       </c>
       <c r="B1351" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1351" t="s">
         <v>6</v>
       </c>
       <c r="D1351" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1351" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F1351" t="s">
         <v>8</v>
@@ -41780,7 +41731,7 @@
         <v>22</v>
       </c>
       <c r="I1351" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1352" spans="1:9" x14ac:dyDescent="0.25">
@@ -41788,16 +41739,16 @@
         <v>43279</v>
       </c>
       <c r="B1352" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1352" t="s">
         <v>6</v>
       </c>
       <c r="D1352" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1352" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F1352" t="s">
         <v>8</v>
@@ -41806,7 +41757,7 @@
         <v>22</v>
       </c>
       <c r="I1352" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1353" spans="1:9" x14ac:dyDescent="0.25">
@@ -41814,16 +41765,16 @@
         <v>43279</v>
       </c>
       <c r="B1353" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1353" t="s">
         <v>6</v>
       </c>
       <c r="D1353" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1353" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F1353" t="s">
         <v>8</v>
@@ -41832,7 +41783,7 @@
         <v>22</v>
       </c>
       <c r="I1353" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1354" spans="1:9" x14ac:dyDescent="0.25">
@@ -41840,16 +41791,16 @@
         <v>43279</v>
       </c>
       <c r="B1354" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1354" t="s">
         <v>6</v>
       </c>
       <c r="D1354" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1354" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F1354" t="s">
         <v>8</v>
@@ -41861,7 +41812,7 @@
         <v>8</v>
       </c>
       <c r="I1354" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1355" spans="1:9" x14ac:dyDescent="0.25">
@@ -41869,16 +41820,16 @@
         <v>43279</v>
       </c>
       <c r="B1355" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1355" t="s">
         <v>6</v>
       </c>
       <c r="D1355" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1355" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F1355" t="s">
         <v>15</v>
@@ -41887,7 +41838,7 @@
         <v>4</v>
       </c>
       <c r="I1355" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1356" spans="1:9" x14ac:dyDescent="0.25">
@@ -41895,16 +41846,16 @@
         <v>43279</v>
       </c>
       <c r="B1356" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1356" t="s">
         <v>6</v>
       </c>
       <c r="D1356" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1356" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F1356" t="s">
         <v>8</v>
@@ -41913,7 +41864,7 @@
         <v>22</v>
       </c>
       <c r="I1356" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1357" spans="1:9" x14ac:dyDescent="0.25">
@@ -41921,16 +41872,16 @@
         <v>43279</v>
       </c>
       <c r="B1357" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1357" t="s">
         <v>6</v>
       </c>
       <c r="D1357" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1357" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F1357" t="s">
         <v>15</v>
@@ -41939,7 +41890,7 @@
         <v>1</v>
       </c>
       <c r="I1357" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1358" spans="1:9" x14ac:dyDescent="0.25">
@@ -41947,16 +41898,16 @@
         <v>43279</v>
       </c>
       <c r="B1358" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1358" t="s">
         <v>6</v>
       </c>
       <c r="D1358" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1358" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F1358" t="s">
         <v>15</v>
@@ -41965,7 +41916,7 @@
         <v>1</v>
       </c>
       <c r="I1358" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1359" spans="1:9" x14ac:dyDescent="0.25">
@@ -41973,16 +41924,16 @@
         <v>43279</v>
       </c>
       <c r="B1359" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1359" t="s">
         <v>6</v>
       </c>
       <c r="D1359" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1359" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F1359" t="s">
         <v>15</v>
@@ -41991,7 +41942,7 @@
         <v>1</v>
       </c>
       <c r="I1359" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1360" spans="1:9" x14ac:dyDescent="0.25">
@@ -41999,16 +41950,16 @@
         <v>43279</v>
       </c>
       <c r="B1360" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1360" t="s">
         <v>6</v>
       </c>
       <c r="D1360" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1360" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F1360" t="s">
         <v>15</v>
@@ -42017,7 +41968,7 @@
         <v>1</v>
       </c>
       <c r="I1360" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1361" spans="1:12" x14ac:dyDescent="0.25">
@@ -42025,16 +41976,16 @@
         <v>43279</v>
       </c>
       <c r="B1361" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1361" t="s">
         <v>6</v>
       </c>
       <c r="D1361" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1361" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F1361" t="s">
         <v>8</v>
@@ -42046,7 +41997,7 @@
         <v>8</v>
       </c>
       <c r="I1361" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1362" spans="1:12" x14ac:dyDescent="0.25">
@@ -42054,13 +42005,13 @@
         <v>43279</v>
       </c>
       <c r="B1362" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1362" t="s">
         <v>6</v>
       </c>
       <c r="D1362" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E1362" t="s">
         <v>63</v>
@@ -42083,10 +42034,10 @@
         <v>43279</v>
       </c>
       <c r="B1364" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1364" s="16" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E1364" s="16"/>
       <c r="F1364" s="16"/>
@@ -42138,13 +42089,13 @@
         <v>43279</v>
       </c>
       <c r="B1369" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1369" t="s">
         <v>6</v>
       </c>
       <c r="D1369" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1369" t="s">
         <v>109</v>
@@ -42164,13 +42115,13 @@
         <v>43279</v>
       </c>
       <c r="B1370" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1370" t="s">
         <v>6</v>
       </c>
       <c r="D1370" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1370" t="s">
         <v>7</v>
@@ -42190,16 +42141,16 @@
         <v>43279</v>
       </c>
       <c r="B1371" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1371" t="s">
         <v>6</v>
       </c>
       <c r="D1371" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1371" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F1371" t="s">
         <v>61</v>
@@ -42208,7 +42159,7 @@
         <v>11</v>
       </c>
       <c r="I1371" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1372" spans="1:12" x14ac:dyDescent="0.25">
@@ -42216,16 +42167,16 @@
         <v>43279</v>
       </c>
       <c r="B1372" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1372" t="s">
         <v>6</v>
       </c>
       <c r="D1372" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1372" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F1372" t="s">
         <v>8</v>
@@ -42234,7 +42185,7 @@
         <v>22</v>
       </c>
       <c r="I1372" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1373" spans="1:12" x14ac:dyDescent="0.25">
@@ -42242,16 +42193,16 @@
         <v>43279</v>
       </c>
       <c r="B1373" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1373" t="s">
         <v>6</v>
       </c>
       <c r="D1373" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1373" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F1373" t="s">
         <v>15</v>
@@ -42260,7 +42211,7 @@
         <v>30</v>
       </c>
       <c r="I1373" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1374" spans="1:12" x14ac:dyDescent="0.25">
@@ -42268,13 +42219,13 @@
         <v>43279</v>
       </c>
       <c r="B1374" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1374" t="s">
         <v>6</v>
       </c>
       <c r="D1374" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1374" t="s">
         <v>11</v>
@@ -42297,16 +42248,16 @@
         <v>43279</v>
       </c>
       <c r="B1375" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1375" t="s">
         <v>6</v>
       </c>
       <c r="D1375" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1375" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F1375" t="s">
         <v>8</v>
@@ -42315,7 +42266,7 @@
         <v>22</v>
       </c>
       <c r="I1375" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1376" spans="1:12" x14ac:dyDescent="0.25">
@@ -42323,16 +42274,16 @@
         <v>43279</v>
       </c>
       <c r="B1376" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1376" t="s">
         <v>6</v>
       </c>
       <c r="D1376" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1376" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F1376" t="s">
         <v>8</v>
@@ -42341,7 +42292,7 @@
         <v>22</v>
       </c>
       <c r="I1376" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
@@ -42349,16 +42300,16 @@
         <v>43279</v>
       </c>
       <c r="B1377" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1377" t="s">
         <v>6</v>
       </c>
       <c r="D1377" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1377" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F1377" t="s">
         <v>15</v>
@@ -42367,7 +42318,7 @@
         <v>4</v>
       </c>
       <c r="I1377" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
@@ -42375,16 +42326,16 @@
         <v>43279</v>
       </c>
       <c r="B1378" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1378" t="s">
         <v>6</v>
       </c>
       <c r="D1378" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1378" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F1378" t="s">
         <v>8</v>
@@ -42393,7 +42344,7 @@
         <v>22</v>
       </c>
       <c r="I1378" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
@@ -42401,16 +42352,16 @@
         <v>43279</v>
       </c>
       <c r="B1379" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1379" t="s">
         <v>6</v>
       </c>
       <c r="D1379" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1379" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F1379" t="s">
         <v>15</v>
@@ -42419,7 +42370,7 @@
         <v>4</v>
       </c>
       <c r="I1379" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
@@ -42427,16 +42378,16 @@
         <v>43279</v>
       </c>
       <c r="B1380" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1380" t="s">
         <v>6</v>
       </c>
       <c r="D1380" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1380" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F1380" t="s">
         <v>8</v>
@@ -42445,7 +42396,7 @@
         <v>22</v>
       </c>
       <c r="I1380" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
@@ -42453,16 +42404,16 @@
         <v>43279</v>
       </c>
       <c r="B1381" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1381" t="s">
         <v>6</v>
       </c>
       <c r="D1381" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1381" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F1381" t="s">
         <v>15</v>
@@ -42471,7 +42422,7 @@
         <v>30</v>
       </c>
       <c r="I1381" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
@@ -42479,16 +42430,16 @@
         <v>43279</v>
       </c>
       <c r="B1382" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1382" t="s">
         <v>6</v>
       </c>
       <c r="D1382" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1382" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F1382" t="s">
         <v>8</v>
@@ -42497,7 +42448,7 @@
         <v>22</v>
       </c>
       <c r="I1382" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
@@ -42505,16 +42456,16 @@
         <v>43279</v>
       </c>
       <c r="B1383" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1383" t="s">
         <v>6</v>
       </c>
       <c r="D1383" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1383" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F1383" t="s">
         <v>15</v>
@@ -42523,7 +42474,7 @@
         <v>30</v>
       </c>
       <c r="I1383" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
@@ -42531,16 +42482,16 @@
         <v>43279</v>
       </c>
       <c r="B1384" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1384" t="s">
         <v>6</v>
       </c>
       <c r="D1384" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1384" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F1384" t="s">
         <v>15</v>
@@ -42549,7 +42500,7 @@
         <v>15</v>
       </c>
       <c r="I1384" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
@@ -42557,16 +42508,16 @@
         <v>43279</v>
       </c>
       <c r="B1385" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1385" t="s">
         <v>6</v>
       </c>
       <c r="D1385" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1385" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F1385" t="s">
         <v>15</v>
@@ -42575,7 +42526,7 @@
         <v>30</v>
       </c>
       <c r="I1385" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
@@ -42583,16 +42534,16 @@
         <v>43279</v>
       </c>
       <c r="B1386" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1386" t="s">
         <v>6</v>
       </c>
       <c r="D1386" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1386" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F1386" t="s">
         <v>8</v>
@@ -42601,7 +42552,7 @@
         <v>22</v>
       </c>
       <c r="I1386" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
@@ -42609,16 +42560,16 @@
         <v>43279</v>
       </c>
       <c r="B1387" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1387" t="s">
         <v>6</v>
       </c>
       <c r="D1387" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1387" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F1387" t="s">
         <v>15</v>
@@ -42627,7 +42578,7 @@
         <v>8</v>
       </c>
       <c r="I1387" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1388" spans="1:9" x14ac:dyDescent="0.25">
@@ -42635,16 +42586,16 @@
         <v>43279</v>
       </c>
       <c r="B1388" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1388" t="s">
         <v>6</v>
       </c>
       <c r="D1388" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1388" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F1388" t="s">
         <v>15</v>
@@ -42653,7 +42604,7 @@
         <v>8</v>
       </c>
       <c r="I1388" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
@@ -42661,16 +42612,16 @@
         <v>43279</v>
       </c>
       <c r="B1389" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1389" t="s">
         <v>6</v>
       </c>
       <c r="D1389" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1389" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F1389" t="s">
         <v>15</v>
@@ -42679,7 +42630,7 @@
         <v>30</v>
       </c>
       <c r="I1389" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
@@ -42687,16 +42638,16 @@
         <v>43279</v>
       </c>
       <c r="B1390" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1390" t="s">
         <v>6</v>
       </c>
       <c r="D1390" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1390" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F1390" t="s">
         <v>15</v>
@@ -42705,7 +42656,7 @@
         <v>1</v>
       </c>
       <c r="I1390" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
@@ -42713,16 +42664,16 @@
         <v>43279</v>
       </c>
       <c r="B1391" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1391" t="s">
         <v>6</v>
       </c>
       <c r="D1391" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1391" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F1391" t="s">
         <v>61</v>
@@ -42731,7 +42682,7 @@
         <v>11</v>
       </c>
       <c r="I1391" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
@@ -42739,16 +42690,16 @@
         <v>43279</v>
       </c>
       <c r="B1392" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1392" t="s">
         <v>6</v>
       </c>
       <c r="D1392" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1392" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F1392" t="s">
         <v>15</v>
@@ -42757,7 +42708,7 @@
         <v>3</v>
       </c>
       <c r="I1392" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1393" spans="1:12" x14ac:dyDescent="0.25">
@@ -42765,16 +42716,16 @@
         <v>43279</v>
       </c>
       <c r="B1393" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1393" t="s">
         <v>6</v>
       </c>
       <c r="D1393" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1393" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F1393" t="s">
         <v>8</v>
@@ -42786,7 +42737,7 @@
         <v>26</v>
       </c>
       <c r="I1393" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1394" spans="1:12" x14ac:dyDescent="0.25">
@@ -42794,16 +42745,16 @@
         <v>43279</v>
       </c>
       <c r="B1394" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1394" t="s">
         <v>6</v>
       </c>
       <c r="D1394" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1394" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F1394" t="s">
         <v>8</v>
@@ -42812,7 +42763,7 @@
         <v>22</v>
       </c>
       <c r="I1394" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1395" spans="1:12" x14ac:dyDescent="0.25">
@@ -42820,13 +42771,13 @@
         <v>43279</v>
       </c>
       <c r="B1395" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1395" t="s">
         <v>6</v>
       </c>
       <c r="D1395" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1395" s="2" t="s">
         <v>721</v>
@@ -42846,16 +42797,16 @@
         <v>43279</v>
       </c>
       <c r="B1396" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1396" t="s">
         <v>6</v>
       </c>
       <c r="D1396" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1396" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F1396" t="s">
         <v>15</v>
@@ -42864,7 +42815,7 @@
         <v>4000</v>
       </c>
       <c r="I1396" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1397" spans="1:12" x14ac:dyDescent="0.25">
@@ -42872,13 +42823,13 @@
         <v>43279</v>
       </c>
       <c r="B1397" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1397" t="s">
         <v>6</v>
       </c>
       <c r="D1397" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1397" t="s">
         <v>63</v>
@@ -42898,10 +42849,10 @@
         <v>43279</v>
       </c>
       <c r="B1399" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1399" s="16" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E1399" s="16"/>
       <c r="F1399" s="16"/>
@@ -42953,16 +42904,16 @@
         <v>43279</v>
       </c>
       <c r="B1404" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C1404" t="s">
         <v>413</v>
       </c>
       <c r="D1404" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E1404" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F1404" t="s">
         <v>8</v>
@@ -42971,7 +42922,7 @@
         <v>22</v>
       </c>
       <c r="I1404" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1405" spans="1:12" x14ac:dyDescent="0.25">
@@ -42979,16 +42930,16 @@
         <v>43279</v>
       </c>
       <c r="B1405" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C1405" t="s">
         <v>413</v>
       </c>
       <c r="D1405" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E1405" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F1405" t="s">
         <v>15</v>
@@ -42997,7 +42948,7 @@
         <v>12</v>
       </c>
       <c r="I1405" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1406" spans="1:12" x14ac:dyDescent="0.25">
@@ -43005,16 +42956,16 @@
         <v>43279</v>
       </c>
       <c r="B1406" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C1406" t="s">
         <v>413</v>
       </c>
       <c r="D1406" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E1406" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F1406" t="s">
         <v>15</v>
@@ -43023,7 +42974,7 @@
         <v>30</v>
       </c>
       <c r="I1406" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1407" spans="1:12" x14ac:dyDescent="0.25">
@@ -43031,16 +42982,16 @@
         <v>43279</v>
       </c>
       <c r="B1407" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C1407" t="s">
         <v>413</v>
       </c>
       <c r="D1407" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E1407" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F1407" t="s">
         <v>15</v>
@@ -43049,7 +43000,7 @@
         <v>10</v>
       </c>
       <c r="I1407" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1409" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -43057,10 +43008,10 @@
         <v>43279</v>
       </c>
       <c r="B1409" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D1409" s="16" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E1409" s="16"/>
       <c r="F1409" s="16"/>
@@ -43110,34 +43061,22 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
+      <pane ySplit="1" topLeftCell="A795" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B811" sqref="B811"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
-    <mergeCell ref="D1409:L1411"/>
-    <mergeCell ref="D1324:L1326"/>
-    <mergeCell ref="D1339:L1341"/>
-    <mergeCell ref="D1364:L1366"/>
-    <mergeCell ref="D1399:L1401"/>
-    <mergeCell ref="D1230:L1232"/>
-    <mergeCell ref="D1245:L1247"/>
-    <mergeCell ref="D1270:L1272"/>
-    <mergeCell ref="D1287:L1289"/>
-    <mergeCell ref="D1304:L1306"/>
-    <mergeCell ref="D17:L19"/>
-    <mergeCell ref="D58:L60"/>
-    <mergeCell ref="D103:L105"/>
-    <mergeCell ref="D325:L327"/>
-    <mergeCell ref="D582:I584"/>
-    <mergeCell ref="D492:I494"/>
-    <mergeCell ref="D439:I441"/>
-    <mergeCell ref="D456:I458"/>
-    <mergeCell ref="D475:I477"/>
-    <mergeCell ref="D541:I543"/>
-    <mergeCell ref="D514:L516"/>
+    <mergeCell ref="D814:I816"/>
+    <mergeCell ref="D874:L876"/>
+    <mergeCell ref="D891:L893"/>
+    <mergeCell ref="D908:L910"/>
+    <mergeCell ref="D1037:L1039"/>
+    <mergeCell ref="D937:I939"/>
+    <mergeCell ref="D958:I960"/>
+    <mergeCell ref="D978:I980"/>
+    <mergeCell ref="D995:I997"/>
     <mergeCell ref="D1054:L1056"/>
     <mergeCell ref="D1166:L1168"/>
     <mergeCell ref="D1214:L1216"/>
@@ -43154,15 +43093,27 @@
     <mergeCell ref="D627:I629"/>
     <mergeCell ref="D644:I646"/>
     <mergeCell ref="D672:I674"/>
-    <mergeCell ref="D814:I816"/>
-    <mergeCell ref="D874:L876"/>
-    <mergeCell ref="D891:L893"/>
-    <mergeCell ref="D908:L910"/>
-    <mergeCell ref="D1037:L1039"/>
-    <mergeCell ref="D937:I939"/>
-    <mergeCell ref="D958:I960"/>
-    <mergeCell ref="D978:I980"/>
-    <mergeCell ref="D995:I997"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D58:L60"/>
+    <mergeCell ref="D103:L105"/>
+    <mergeCell ref="D325:L327"/>
+    <mergeCell ref="D582:I584"/>
+    <mergeCell ref="D492:I494"/>
+    <mergeCell ref="D439:I441"/>
+    <mergeCell ref="D456:I458"/>
+    <mergeCell ref="D475:I477"/>
+    <mergeCell ref="D541:I543"/>
+    <mergeCell ref="D514:L516"/>
+    <mergeCell ref="D1230:L1232"/>
+    <mergeCell ref="D1245:L1247"/>
+    <mergeCell ref="D1270:L1272"/>
+    <mergeCell ref="D1287:L1289"/>
+    <mergeCell ref="D1304:L1306"/>
+    <mergeCell ref="D1409:L1411"/>
+    <mergeCell ref="D1324:L1326"/>
+    <mergeCell ref="D1339:L1341"/>
+    <mergeCell ref="D1364:L1366"/>
+    <mergeCell ref="D1399:L1401"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -43179,7 +43130,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43189,7 +43140,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -43197,7 +43148,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -43205,7 +43156,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -43213,7 +43164,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -43221,7 +43172,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -43229,7 +43180,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -43237,13 +43188,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -43253,136 +43204,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1028</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1030</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1032</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1036</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1040</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>1054</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -43390,384 +43342,396 @@
         <v>416</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>1059</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>5</v>
+        <v>1343</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1061</v>
+        <v>1344</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43286</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>1062</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>1170</v>
+        <v>1073</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C26" s="15">
-        <v>43264</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1164</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>1076</v>
+        <v>1169</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1077</v>
+        <v>1168</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43264</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>1337</v>
+        <v>1077</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C29" s="15">
-        <v>43283</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1164</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>1080</v>
+        <v>1334</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1081</v>
+        <v>1333</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43283</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>1202</v>
+        <v>1099</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C41" s="15">
-        <v>43264</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1164</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>1102</v>
+        <v>1201</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1103</v>
+        <v>1150</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43264</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>1323</v>
+        <v>1127</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C56" s="15">
-        <v>43283</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>1346</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1130</v>
+        <v>1320</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1131</v>
-      </c>
+        <v>1349</v>
+      </c>
+      <c r="C57" s="15">
+        <v>43286</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>1135</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" topLeftCell="A22">
-      <selection activeCell="B26" sqref="B26"/>
+    <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" topLeftCell="A31">
+      <selection activeCell="E45" sqref="E45"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -43779,9 +43743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43807,7 +43771,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>1</v>
@@ -43830,16 +43794,16 @@
         <v>43283</v>
       </c>
       <c r="B2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="E2" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -43848,7 +43812,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -43856,13 +43820,13 @@
         <v>43283</v>
       </c>
       <c r="B3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
@@ -43879,7 +43843,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -43887,16 +43851,16 @@
         <v>43283</v>
       </c>
       <c r="B7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="E7" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -43905,7 +43869,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -43913,13 +43877,13 @@
         <v>43283</v>
       </c>
       <c r="B8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="E8" t="s">
         <v>710</v>
@@ -43936,7 +43900,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -43954,61 +43918,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023C68C9F20C69D48BB417A9ADFD5DC9C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29914a5778ec744f9d5d623c4355d354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a57c4080a7a73066863a39e6ec4255" ns2:_="">
     <xsd:import namespace="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
@@ -44153,35 +44074,78 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44199,18 +44163,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="Naming Rules" sheetId="2" r:id="rId2"/>
     <sheet name="Standard Abbreviations" sheetId="3" r:id="rId3"/>
     <sheet name="Crosswalk Objects" sheetId="4" r:id="rId4"/>
+    <sheet name="WH_STUDENT_STATUS_TERM" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
-    <customWorkbookView name="Martinez,James J - Personal View" guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" mergeInterval="0" personalView="1" xWindow="139" yWindow="125" windowWidth="2015" windowHeight="1129" activeSheetId="1"/>
+    <customWorkbookView name="Martinez,James J - Personal View" guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" mergeInterval="0" personalView="1" xWindow="1395" yWindow="221" windowWidth="2015" windowHeight="1129" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6270" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6564" uniqueCount="1575">
   <si>
     <t>Owner</t>
   </si>
@@ -5127,6 +5128,573 @@
   </si>
   <si>
     <t>First Entry Matriculation Summer Flag Indicator (A/B). Summer A flag indicates start of term, for A and C. Summer B entry for second half of summer</t>
+  </si>
+  <si>
+    <t>UF_UFID</t>
+  </si>
+  <si>
+    <t>UF_REG_CD</t>
+  </si>
+  <si>
+    <t>UF_DUAL_ENROLL</t>
+  </si>
+  <si>
+    <t>UF_UF_GPA</t>
+  </si>
+  <si>
+    <t>UF_XFR_HRS_ACPT</t>
+  </si>
+  <si>
+    <t>UF_TOT_HRS_ERND</t>
+  </si>
+  <si>
+    <t>UF_UF_GRD_PTS</t>
+  </si>
+  <si>
+    <t>UF_UF_HRS_CARR</t>
+  </si>
+  <si>
+    <t>UF_VALID_STU</t>
+  </si>
+  <si>
+    <t>UF_HALF_TIME</t>
+  </si>
+  <si>
+    <t>UF_FULL_PART</t>
+  </si>
+  <si>
+    <t>UF_CUR_CTLG_YR</t>
+  </si>
+  <si>
+    <t>UF_CURRENT_TERM</t>
+  </si>
+  <si>
+    <t>UF_CURR_ABC</t>
+  </si>
+  <si>
+    <t>UF_CURR_STAT</t>
+  </si>
+  <si>
+    <t>UF_CURR_CLASS</t>
+  </si>
+  <si>
+    <t>UF_CURR_COLLEGE</t>
+  </si>
+  <si>
+    <t>UF_CURR_MAJOR</t>
+  </si>
+  <si>
+    <t>UF_CURRENT_LOAD</t>
+  </si>
+  <si>
+    <t>UF_CURR_TRAK</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_CAREER</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_PROG</t>
+  </si>
+  <si>
+    <t>UF_CUR_DEG_TERM</t>
+  </si>
+  <si>
+    <t>UF_CUR_DEG_ABC</t>
+  </si>
+  <si>
+    <t>UF_MINOR</t>
+  </si>
+  <si>
+    <t>UF_CLASS</t>
+  </si>
+  <si>
+    <t>UF_1ST_DEG_TERM</t>
+  </si>
+  <si>
+    <t>UF_1ST_DEG_ABC</t>
+  </si>
+  <si>
+    <t>UF_1ST_DEG_STAT</t>
+  </si>
+  <si>
+    <t>UF_HI_DEG</t>
+  </si>
+  <si>
+    <t>UF_STATE_CD</t>
+  </si>
+  <si>
+    <t>UF_COUNTY_CD</t>
+  </si>
+  <si>
+    <t>UF_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>UF_VISA</t>
+  </si>
+  <si>
+    <t>UF_VISA_NO</t>
+  </si>
+  <si>
+    <t>UF_MATRIC_STAT</t>
+  </si>
+  <si>
+    <t>UF_MATRIC_TERM</t>
+  </si>
+  <si>
+    <t>UF_MATRIC_ABC</t>
+  </si>
+  <si>
+    <t>UF_REAL_CTLG_YR</t>
+  </si>
+  <si>
+    <t>UF_CTLG_YR_FLG</t>
+  </si>
+  <si>
+    <t>UF_CTLG_COLLEGE</t>
+  </si>
+  <si>
+    <t>UF_CTLG_MAJOR</t>
+  </si>
+  <si>
+    <t>UF_CTLG_AA</t>
+  </si>
+  <si>
+    <t>UF_CTLG_TRACK</t>
+  </si>
+  <si>
+    <t>UF_GRAD_MATR_TRM</t>
+  </si>
+  <si>
+    <t>UF_PROF_MATR_TRM</t>
+  </si>
+  <si>
+    <t>UF_GENDER</t>
+  </si>
+  <si>
+    <t>UF_RESIDENCY</t>
+  </si>
+  <si>
+    <t>UF_ETHNICITY</t>
+  </si>
+  <si>
+    <t>UF_CITZENSHIP</t>
+  </si>
+  <si>
+    <t>UF_SUMMER_A_FLG</t>
+  </si>
+  <si>
+    <t>UF_SUMMER_B_FLG</t>
+  </si>
+  <si>
+    <t>UF_SUMMER_C_FLG</t>
+  </si>
+  <si>
+    <t>UF_SPCL_PROGRAM</t>
+  </si>
+  <si>
+    <t>UF_MULTI_ETHN</t>
+  </si>
+  <si>
+    <t>UF_NATL_MERIT</t>
+  </si>
+  <si>
+    <t>UF_HRS_ATTMPT</t>
+  </si>
+  <si>
+    <t>UF_60_HRS_TERM</t>
+  </si>
+  <si>
+    <t>UF_CURR_PRIM_DEG</t>
+  </si>
+  <si>
+    <t>UF_CURR_MINOR_2</t>
+  </si>
+  <si>
+    <t>UF_CURR_MINOR_3</t>
+  </si>
+  <si>
+    <t>UF_CURR_MINOR_4</t>
+  </si>
+  <si>
+    <t>UF_CURR_MINOR_5</t>
+  </si>
+  <si>
+    <t>UF_CURR_COLLEGE_2</t>
+  </si>
+  <si>
+    <t>UF_CURR_MAJOR_2</t>
+  </si>
+  <si>
+    <t>UF_CURR_TRACK_2</t>
+  </si>
+  <si>
+    <t>UF_CURR_DEG_2</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_CAREER_2</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_PROG_2</t>
+  </si>
+  <si>
+    <t>UF_CURR_COLLEGE_3</t>
+  </si>
+  <si>
+    <t>UF_CURR_MAJOR_3</t>
+  </si>
+  <si>
+    <t>UF_CURR_TRACK_3</t>
+  </si>
+  <si>
+    <t>UF_CURR_DEG_3</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_CAREER_3</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_PROG_3</t>
+  </si>
+  <si>
+    <t>UF_CURR_COLLEGE_4</t>
+  </si>
+  <si>
+    <t>UF_CURR_MAJOR_4</t>
+  </si>
+  <si>
+    <t>UF_CURR_TRACK_4</t>
+  </si>
+  <si>
+    <t>UF_CURR_DEG_4</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_CAREER_4</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_PROG_4</t>
+  </si>
+  <si>
+    <t>UF_CURR_COLLEGE_5</t>
+  </si>
+  <si>
+    <t>UF_CURR_MAJOR_5</t>
+  </si>
+  <si>
+    <t>UF_CURR_TRACK_5</t>
+  </si>
+  <si>
+    <t>UF_CURR_DEG_5</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_CAREER_5</t>
+  </si>
+  <si>
+    <t>UF_CURR_ACAD_PROG_5</t>
+  </si>
+  <si>
+    <t>UF_CURR_CTLG_YR_2</t>
+  </si>
+  <si>
+    <t>UF_CURR_CTLG_YR_3</t>
+  </si>
+  <si>
+    <t>UF_CURR_CTLG_YR_4</t>
+  </si>
+  <si>
+    <t>UF_CURR_CTLG_YR_5</t>
+  </si>
+  <si>
+    <t>UF_BIRTH_DATE</t>
+  </si>
+  <si>
+    <t>IA_FLAG</t>
+  </si>
+  <si>
+    <t>Hours carried</t>
+  </si>
+  <si>
+    <t>Registration Code during the current term</t>
+  </si>
+  <si>
+    <t>Dual enrollment flag.</t>
+  </si>
+  <si>
+    <t>UF GPA during this term</t>
+  </si>
+  <si>
+    <t>Transfer hours accepted</t>
+  </si>
+  <si>
+    <t>Total hours earned, including transfer hours</t>
+  </si>
+  <si>
+    <t>Grade points from courses taken </t>
+  </si>
+  <si>
+    <t>Valid student flag</t>
+  </si>
+  <si>
+    <t>At least Half-time flag</t>
+  </si>
+  <si>
+    <t>Full-time flag</t>
+  </si>
+  <si>
+    <t>Current catalog year</t>
+  </si>
+  <si>
+    <t>Current term</t>
+  </si>
+  <si>
+    <t>Current Term Summer ABC Flag</t>
+  </si>
+  <si>
+    <t>Current Term Student Status</t>
+  </si>
+  <si>
+    <t>Current college</t>
+  </si>
+  <si>
+    <t>The student's current "primary" major code</t>
+  </si>
+  <si>
+    <t>The current number of credits the student is registered for</t>
+  </si>
+  <si>
+    <t>Current Term Degree Track</t>
+  </si>
+  <si>
+    <t>Current Academic Career</t>
+  </si>
+  <si>
+    <t>Current Academic Program</t>
+  </si>
+  <si>
+    <t>Current Term Degree Summer ABC Flag</t>
+  </si>
+  <si>
+    <t>First minor</t>
+  </si>
+  <si>
+    <t>Student classification level</t>
+  </si>
+  <si>
+    <t>Student classification - BOG</t>
+  </si>
+  <si>
+    <t>1st Degree Seeking Term </t>
+  </si>
+  <si>
+    <t>First degree seeking term Summer A/B/C flag</t>
+  </si>
+  <si>
+    <t>First degree status</t>
+  </si>
+  <si>
+    <t>Highest degree held as of the beginning of the term</t>
+  </si>
+  <si>
+    <t>Matriculation State Code (Legal)</t>
+  </si>
+  <si>
+    <t>Matriculation Country code (Legal)</t>
+  </si>
+  <si>
+    <t>Matriculation County Code (Legal)</t>
+  </si>
+  <si>
+    <t>Matriculation status type</t>
+  </si>
+  <si>
+    <t>Matriculation term</t>
+  </si>
+  <si>
+    <t>Matriculation term Summer A/B/C flag</t>
+  </si>
+  <si>
+    <t>Real Catalog Year</t>
+  </si>
+  <si>
+    <t>Catalog Year Flag</t>
+  </si>
+  <si>
+    <t>Catalog college</t>
+  </si>
+  <si>
+    <t>Catalog Minor</t>
+  </si>
+  <si>
+    <t>Catalog AA</t>
+  </si>
+  <si>
+    <t>Catalog Track</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Graduate Matriculation Term</t>
+  </si>
+  <si>
+    <t>Professional Matriculation Term</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Residency Status</t>
+  </si>
+  <si>
+    <t>Ethnicity (Primary)</t>
+  </si>
+  <si>
+    <t>Nation of citizenship</t>
+  </si>
+  <si>
+    <t>Summer A enrollment flag</t>
+  </si>
+  <si>
+    <t>Summer B enrollment flag</t>
+  </si>
+  <si>
+    <t>Summer C enrollment flag</t>
+  </si>
+  <si>
+    <t>Special Program</t>
+  </si>
+  <si>
+    <t>National Merit Scholar</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Multi-Ethnicity Flag</t>
+  </si>
+  <si>
+    <t>Hours Attempted</t>
+  </si>
+  <si>
+    <t>Term in which student achieved 60 Hours</t>
+  </si>
+  <si>
+    <t>Primary degree pursued</t>
+  </si>
+  <si>
+    <t>Second minor</t>
+  </si>
+  <si>
+    <t>Third Minor</t>
+  </si>
+  <si>
+    <t>Fourth Minor</t>
+  </si>
+  <si>
+    <t>Fifth Minor</t>
+  </si>
+  <si>
+    <t>Second College</t>
+  </si>
+  <si>
+    <t>Second Major</t>
+  </si>
+  <si>
+    <t>Second Track</t>
+  </si>
+  <si>
+    <t>Second Degree</t>
+  </si>
+  <si>
+    <t>Second Academic Career</t>
+  </si>
+  <si>
+    <t>Second Academic Program</t>
+  </si>
+  <si>
+    <t>Fifth College</t>
+  </si>
+  <si>
+    <t>Fifth Major</t>
+  </si>
+  <si>
+    <t>Fifth Track</t>
+  </si>
+  <si>
+    <t>Fifth Degree</t>
+  </si>
+  <si>
+    <t>Fifth Academic Program</t>
+  </si>
+  <si>
+    <t>Fifth Academic Career</t>
+  </si>
+  <si>
+    <t>Fourth Academic Program</t>
+  </si>
+  <si>
+    <t>Fourth Degree</t>
+  </si>
+  <si>
+    <t>Fourth Academic Career</t>
+  </si>
+  <si>
+    <t>Fourth Track</t>
+  </si>
+  <si>
+    <t>Fourth Major</t>
+  </si>
+  <si>
+    <t>Fourth College</t>
+  </si>
+  <si>
+    <t>Third Academic Program</t>
+  </si>
+  <si>
+    <t>Third Academic Career</t>
+  </si>
+  <si>
+    <t>Third Degree</t>
+  </si>
+  <si>
+    <t>Third Major</t>
+  </si>
+  <si>
+    <t>Third Track</t>
+  </si>
+  <si>
+    <t>Third College</t>
+  </si>
+  <si>
+    <t>Second concurrent catalog year</t>
+  </si>
+  <si>
+    <t>Third concurrent catalog year</t>
+  </si>
+  <si>
+    <t>Fourth concurrent catalog year</t>
+  </si>
+  <si>
+    <t>Fifth concurrent catalog year</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>PACE Flag for the term</t>
+  </si>
+  <si>
+    <t>Innovation Academy for the term</t>
+  </si>
+  <si>
+    <t>UF Online Flag for the term</t>
+  </si>
+  <si>
+    <t>"CD" College Code for the term (Professional and Graduate)</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -5302,7 +5870,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{149A9AE4-ABE8-4F34-BD5F-B93187638C7E}" diskRevisions="1" revisionId="730" version="13">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9F181F9D-8C5E-451E-97BF-47F5F61E68FF}" diskRevisions="1" revisionId="1025" version="16">
   <header guid="{39BACE6A-51BC-4D81-A7EB-09DB3C23E4C0}" dateTime="2018-06-27T17:14:41" maxSheetId="4" userName="Martinez,James J" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -5574,6 +6142,33 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{0CC9CF09-7F5B-4C61-9C7C-D3E76FBE970D}" dateTime="2018-07-22T17:44:30" maxSheetId="6" userName="Martinez,James J" r:id="rId38" minRId="731" maxRId="929">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3BAE8B27-DA8B-4A35-8CE8-B97DDCFB7000}" dateTime="2018-07-22T17:46:30" maxSheetId="6" userName="Martinez,James J" r:id="rId39" minRId="930" maxRId="1025">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9F181F9D-8C5E-451E-97BF-47F5F61E68FF}" dateTime="2018-07-22T17:46:37" maxSheetId="6" userName="Martinez,James J" r:id="rId40">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -10925,6 +11520,4238 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="731" sheetId="5" name="[Reporting_Student_Data_Model_Dictionary.xlsx]Sheet1" sheetPosition="4"/>
+  <rcc rId="732" sId="5" xfDxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>UF_UFID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="733" sId="5" xfDxf="1" dxf="1">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>UF_REG_CD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="734" sId="5" xfDxf="1" dxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>UF_DUAL_ENROLL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="735" sId="5" xfDxf="1" dxf="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>UF_UF_GPA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="736" sId="5" xfDxf="1" dxf="1">
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>UF_XFR_HRS_ACPT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="737" sId="5" xfDxf="1" dxf="1">
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>UF_TOT_HRS_ERND</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="738" sId="5" xfDxf="1" dxf="1">
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>UF_UF_GRD_PTS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="739" sId="5" xfDxf="1" dxf="1">
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>UF_UF_HRS_CARR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="740" sId="5" xfDxf="1" dxf="1">
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>UF_VALID_STU</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="741" sId="5" xfDxf="1" dxf="1">
+    <nc r="A11" t="inlineStr">
+      <is>
+        <t>UF_HALF_TIME</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="742" sId="5" xfDxf="1" dxf="1">
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>UF_FULL_PART</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="743" sId="5" xfDxf="1" dxf="1">
+    <nc r="A13" t="inlineStr">
+      <is>
+        <t>UF_CUR_CTLG_YR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="744" sId="5" xfDxf="1" dxf="1">
+    <nc r="A14" t="inlineStr">
+      <is>
+        <t>UF_CURRENT_TERM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="745" sId="5" xfDxf="1" dxf="1">
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>UF_CURR_ABC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="746" sId="5" xfDxf="1" dxf="1">
+    <nc r="A16" t="inlineStr">
+      <is>
+        <t>UF_CURR_STAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="747" sId="5" xfDxf="1" dxf="1">
+    <nc r="A17" t="inlineStr">
+      <is>
+        <t>UF_CURR_CLASS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="748" sId="5" xfDxf="1" dxf="1">
+    <nc r="A18" t="inlineStr">
+      <is>
+        <t>UF_CURR_COLLEGE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="749" sId="5" xfDxf="1" dxf="1">
+    <nc r="A19" t="inlineStr">
+      <is>
+        <t>UF_CURR_MAJOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="750" sId="5" xfDxf="1" dxf="1">
+    <nc r="A20" t="inlineStr">
+      <is>
+        <t>UF_CURRENT_LOAD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="751" sId="5" xfDxf="1" dxf="1">
+    <nc r="A21" t="inlineStr">
+      <is>
+        <t>UF_CURR_TRAK</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="752" sId="5" xfDxf="1" dxf="1">
+    <nc r="A22" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_CAREER</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="753" sId="5" xfDxf="1" dxf="1">
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_PROG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="754" sId="5" xfDxf="1" dxf="1">
+    <nc r="A24" t="inlineStr">
+      <is>
+        <t>UF_CUR_DEG_TERM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="755" sId="5" xfDxf="1" dxf="1">
+    <nc r="A25" t="inlineStr">
+      <is>
+        <t>UF_CUR_DEG_ABC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="756" sId="5" xfDxf="1" dxf="1">
+    <nc r="A26" t="inlineStr">
+      <is>
+        <t>UF_MINOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="757" sId="5" xfDxf="1" dxf="1">
+    <nc r="A27" t="inlineStr">
+      <is>
+        <t>UF_CLASS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="758" sId="5" xfDxf="1" dxf="1">
+    <nc r="A28" t="inlineStr">
+      <is>
+        <t>UF_1ST_DEG_TERM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="759" sId="5" xfDxf="1" dxf="1">
+    <nc r="A29" t="inlineStr">
+      <is>
+        <t>UF_1ST_DEG_ABC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="760" sId="5" xfDxf="1" dxf="1">
+    <nc r="A30" t="inlineStr">
+      <is>
+        <t>UF_1ST_DEG_STAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="761" sId="5" xfDxf="1" dxf="1">
+    <nc r="A31" t="inlineStr">
+      <is>
+        <t>UF_HI_DEG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="762" sId="5" xfDxf="1" dxf="1">
+    <nc r="A32" t="inlineStr">
+      <is>
+        <t>UF_STATE_CD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="763" sId="5" xfDxf="1" dxf="1">
+    <nc r="A33" t="inlineStr">
+      <is>
+        <t>UF_COUNTY_CD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="764" sId="5" xfDxf="1" dxf="1">
+    <nc r="A34" t="inlineStr">
+      <is>
+        <t>UF_COUNTRY_CD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="765" sId="5" xfDxf="1" dxf="1">
+    <nc r="A35" t="inlineStr">
+      <is>
+        <t>UF_VISA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="766" sId="5" xfDxf="1" dxf="1">
+    <nc r="A36" t="inlineStr">
+      <is>
+        <t>UF_VISA_NO</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="767" sId="5" xfDxf="1" dxf="1">
+    <nc r="A37" t="inlineStr">
+      <is>
+        <t>UF_MATRIC_STAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="768" sId="5" xfDxf="1" dxf="1">
+    <nc r="A38" t="inlineStr">
+      <is>
+        <t>UF_MATRIC_TERM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="769" sId="5" xfDxf="1" dxf="1">
+    <nc r="A39" t="inlineStr">
+      <is>
+        <t>UF_MATRIC_ABC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="770" sId="5" xfDxf="1" dxf="1">
+    <nc r="A40" t="inlineStr">
+      <is>
+        <t>UF_REAL_CTLG_YR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="771" sId="5" xfDxf="1" dxf="1">
+    <nc r="A41" t="inlineStr">
+      <is>
+        <t>UF_CTLG_YR_FLG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="772" sId="5" xfDxf="1" dxf="1">
+    <nc r="A42" t="inlineStr">
+      <is>
+        <t>UF_CTLG_COLLEGE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="773" sId="5" xfDxf="1" dxf="1">
+    <nc r="A43" t="inlineStr">
+      <is>
+        <t>UF_CTLG_MAJOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="774" sId="5" xfDxf="1" dxf="1">
+    <nc r="A44" t="inlineStr">
+      <is>
+        <t>UF_CTLG_AA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="775" sId="5" xfDxf="1" dxf="1">
+    <nc r="A45" t="inlineStr">
+      <is>
+        <t>UF_CTLG_TRACK</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="776" sId="5" xfDxf="1" dxf="1">
+    <nc r="A46" t="inlineStr">
+      <is>
+        <t>UF_GRAD_MATR_TRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="777" sId="5" xfDxf="1" dxf="1">
+    <nc r="A47" t="inlineStr">
+      <is>
+        <t>UF_PROF_MATR_TRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="778" sId="5" xfDxf="1" dxf="1">
+    <nc r="A48" t="inlineStr">
+      <is>
+        <t>UF_GENDER</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="779" sId="5" xfDxf="1" dxf="1">
+    <nc r="A49" t="inlineStr">
+      <is>
+        <t>UF_RESIDENCY</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="780" sId="5" xfDxf="1" dxf="1">
+    <nc r="A50" t="inlineStr">
+      <is>
+        <t>UF_ETHNICITY</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="781" sId="5" xfDxf="1" dxf="1">
+    <nc r="A51" t="inlineStr">
+      <is>
+        <t>UF_CITZENSHIP</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="782" sId="5" xfDxf="1" dxf="1">
+    <nc r="A52" t="inlineStr">
+      <is>
+        <t>UF_SUMMER_A_FLG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="783" sId="5" xfDxf="1" dxf="1">
+    <nc r="A53" t="inlineStr">
+      <is>
+        <t>UF_SUMMER_B_FLG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="784" sId="5" xfDxf="1" dxf="1">
+    <nc r="A54" t="inlineStr">
+      <is>
+        <t>UF_SUMMER_C_FLG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="785" sId="5" xfDxf="1" dxf="1">
+    <nc r="A55" t="inlineStr">
+      <is>
+        <t>UF_SPCL_PROGRAM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="786" sId="5" xfDxf="1" dxf="1">
+    <nc r="A56" t="inlineStr">
+      <is>
+        <t>UF_MULTI_ETHN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="787" sId="5" xfDxf="1" dxf="1">
+    <nc r="A57" t="inlineStr">
+      <is>
+        <t>UF_NATL_MERIT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="788" sId="5" xfDxf="1" dxf="1">
+    <nc r="A58" t="inlineStr">
+      <is>
+        <t>UF_HRS_ATTMPT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="789" sId="5" xfDxf="1" dxf="1">
+    <nc r="A59" t="inlineStr">
+      <is>
+        <t>UF_60_HRS_TERM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="790" sId="5" xfDxf="1" dxf="1">
+    <nc r="A60" t="inlineStr">
+      <is>
+        <t>UF_CURR_PRIM_DEG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="791" sId="5" xfDxf="1" dxf="1">
+    <nc r="A61" t="inlineStr">
+      <is>
+        <t>UF_CURR_MINOR_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="792" sId="5" xfDxf="1" dxf="1">
+    <nc r="A62" t="inlineStr">
+      <is>
+        <t>UF_CURR_MINOR_3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="793" sId="5" xfDxf="1" dxf="1">
+    <nc r="A63" t="inlineStr">
+      <is>
+        <t>UF_CURR_MINOR_4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="794" sId="5" xfDxf="1" dxf="1">
+    <nc r="A64" t="inlineStr">
+      <is>
+        <t>UF_CURR_MINOR_5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="795" sId="5" xfDxf="1" dxf="1">
+    <nc r="A65" t="inlineStr">
+      <is>
+        <t>UF_CURR_COLLEGE_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="796" sId="5" xfDxf="1" dxf="1">
+    <nc r="A66" t="inlineStr">
+      <is>
+        <t>UF_CURR_MAJOR_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="797" sId="5" xfDxf="1" dxf="1">
+    <nc r="A67" t="inlineStr">
+      <is>
+        <t>UF_CURR_TRACK_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="798" sId="5" xfDxf="1" dxf="1">
+    <nc r="A68" t="inlineStr">
+      <is>
+        <t>UF_CURR_DEG_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="799" sId="5" xfDxf="1" dxf="1">
+    <nc r="A69" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_CAREER_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="800" sId="5" xfDxf="1" dxf="1">
+    <nc r="A70" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_PROG_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="801" sId="5" xfDxf="1" dxf="1">
+    <nc r="A71" t="inlineStr">
+      <is>
+        <t>UF_CURR_COLLEGE_3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="802" sId="5" xfDxf="1" dxf="1">
+    <nc r="A72" t="inlineStr">
+      <is>
+        <t>UF_CURR_MAJOR_3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="803" sId="5" xfDxf="1" dxf="1">
+    <nc r="A73" t="inlineStr">
+      <is>
+        <t>UF_CURR_TRACK_3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="804" sId="5" xfDxf="1" dxf="1">
+    <nc r="A74" t="inlineStr">
+      <is>
+        <t>UF_CURR_DEG_3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="805" sId="5" xfDxf="1" dxf="1">
+    <nc r="A75" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_CAREER_3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="806" sId="5" xfDxf="1" dxf="1">
+    <nc r="A76" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_PROG_3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="807" sId="5" xfDxf="1" dxf="1">
+    <nc r="A77" t="inlineStr">
+      <is>
+        <t>UF_CURR_COLLEGE_4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="808" sId="5" xfDxf="1" dxf="1">
+    <nc r="A78" t="inlineStr">
+      <is>
+        <t>UF_CURR_MAJOR_4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="809" sId="5" xfDxf="1" dxf="1">
+    <nc r="A79" t="inlineStr">
+      <is>
+        <t>UF_CURR_TRACK_4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="810" sId="5" xfDxf="1" dxf="1">
+    <nc r="A80" t="inlineStr">
+      <is>
+        <t>UF_CURR_DEG_4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="811" sId="5" xfDxf="1" dxf="1">
+    <nc r="A81" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_CAREER_4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="812" sId="5" xfDxf="1" dxf="1">
+    <nc r="A82" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_PROG_4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="813" sId="5" xfDxf="1" dxf="1">
+    <nc r="A83" t="inlineStr">
+      <is>
+        <t>UF_CURR_COLLEGE_5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="814" sId="5" xfDxf="1" dxf="1">
+    <nc r="A84" t="inlineStr">
+      <is>
+        <t>UF_CURR_MAJOR_5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="815" sId="5" xfDxf="1" dxf="1">
+    <nc r="A85" t="inlineStr">
+      <is>
+        <t>UF_CURR_TRACK_5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="816" sId="5" xfDxf="1" dxf="1">
+    <nc r="A86" t="inlineStr">
+      <is>
+        <t>UF_CURR_DEG_5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="817" sId="5" xfDxf="1" dxf="1">
+    <nc r="A87" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_CAREER_5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="818" sId="5" xfDxf="1" dxf="1">
+    <nc r="A88" t="inlineStr">
+      <is>
+        <t>UF_CURR_ACAD_PROG_5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="819" sId="5" xfDxf="1" dxf="1">
+    <nc r="A89" t="inlineStr">
+      <is>
+        <t>UF_CURR_CTLG_YR_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="820" sId="5" xfDxf="1" dxf="1">
+    <nc r="A90" t="inlineStr">
+      <is>
+        <t>UF_CURR_CTLG_YR_3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="821" sId="5" xfDxf="1" dxf="1">
+    <nc r="A91" t="inlineStr">
+      <is>
+        <t>UF_CURR_CTLG_YR_4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="822" sId="5" xfDxf="1" dxf="1">
+    <nc r="A92" t="inlineStr">
+      <is>
+        <t>UF_CURR_CTLG_YR_5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="823" sId="5" xfDxf="1" dxf="1">
+    <nc r="A93" t="inlineStr">
+      <is>
+        <t>UF_BIRTH_DATE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="824" sId="5" xfDxf="1" dxf="1">
+    <nc r="A94" t="inlineStr">
+      <is>
+        <t>UFO_FLAG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="825" sId="5" xfDxf="1" dxf="1">
+    <nc r="A95" t="inlineStr">
+      <is>
+        <t>PACE_FLAG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="826" sId="5" xfDxf="1" dxf="1">
+    <nc r="A96" t="inlineStr">
+      <is>
+        <t>IA_FLAG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="827" sId="5" xfDxf="1" dxf="1">
+    <nc r="A97" t="inlineStr">
+      <is>
+        <t>PROF_GRAD_FLAG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="828" sId="5" xfDxf="1" dxf="1">
+    <nc r="A98" t="inlineStr">
+      <is>
+        <t>LASTUPD_EW_DTTM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="829" sId="5">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>UFID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="830" sId="5" xfDxf="1" dxf="1">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>Hours carried</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="831" sId="5" xfDxf="1" dxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>Registration Code during the current term</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="832" sId="5" xfDxf="1" dxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>Dual enrollment flag.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B5" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="833" sId="5">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>UF GPA during this term</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="834" sId="5" xfDxf="1" dxf="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Transfer hours accepted</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="835" sId="5" xfDxf="1" dxf="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Total hours earned, including transfer hours</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="836" sId="5" xfDxf="1" dxf="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>Grade points from courses taken </t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="837" sId="5" xfDxf="1" dxf="1">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>Valid student flag</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B11" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="838" sId="5">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>At least Half-time flag</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="839" sId="5" xfDxf="1" dxf="1">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>Full-time flag</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="840" sId="5" xfDxf="1" dxf="1">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>Current catalog year</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="841" sId="5" xfDxf="1" dxf="1">
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>Current term</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="842" sId="5" xfDxf="1" dxf="1">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>Current Term Summer ABC Flag</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="843" sId="5" xfDxf="1" dxf="1">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>Current Term Student Status</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B17" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="844" sId="5" xfDxf="1" dxf="1">
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>Current college</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B19" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="845" sId="5">
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>The student's current "primary" major code</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="846" sId="5" xfDxf="1" dxf="1">
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>The current number of credits the student is registered for</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="847" sId="5" xfDxf="1" dxf="1">
+    <nc r="B21" t="inlineStr">
+      <is>
+        <t>Current Term Degree Track</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="848" sId="5">
+    <nc r="B22" t="inlineStr">
+      <is>
+        <t>Current Academic Career</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="849" sId="5">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>Current Academic Program</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="850" sId="5" xfDxf="1" dxf="1">
+    <nc r="B24" t="inlineStr">
+      <is>
+        <t>Current Term Degree Track</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="851" sId="5" xfDxf="1" dxf="1">
+    <nc r="B25" t="inlineStr">
+      <is>
+        <t>Current Term Degree Summer ABC Flag</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="852" sId="5" xfDxf="1" dxf="1">
+    <nc r="B26" t="inlineStr">
+      <is>
+        <t>First minor</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B27" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="853" sId="5">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>Student classification level</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="854" sId="5">
+    <nc r="B27" t="inlineStr">
+      <is>
+        <t>Student classification - BOG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="855" sId="5" xfDxf="1" dxf="1">
+    <nc r="B28" t="inlineStr">
+      <is>
+        <t>1st Degree Seeking Term </t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="856" sId="5" xfDxf="1" dxf="1">
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>First degree seeking term Summer A/B/C flag</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="857" sId="5" xfDxf="1" dxf="1">
+    <nc r="B30" t="inlineStr">
+      <is>
+        <t>First degree status</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B31" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="858" sId="5">
+    <nc r="B31" t="inlineStr">
+      <is>
+        <t>Highest degree held as of the beginning of the term</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B32" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="859" sId="5">
+    <nc r="B32" t="inlineStr">
+      <is>
+        <t>Matriculation State Code (Legal)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B33" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDFE2E5"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDFE2E5"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFDFE2E5"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFDFE2E5"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" xfDxf="1" sqref="B34" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="860" sId="5">
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>Matriculation Country code (Legal)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="861" sId="5" xfDxf="1" dxf="1">
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>UF_VISA</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="862" sId="5" xfDxf="1" dxf="1">
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>UF_VISA_NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" sqref="B33" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" indent="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="863" sId="5">
+    <nc r="B33" t="inlineStr">
+      <is>
+        <t>Matriculation County Code (Legal)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="864" sId="5" xfDxf="1" dxf="1">
+    <nc r="B37" t="inlineStr">
+      <is>
+        <t>Matriculation status type</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="865" sId="5" xfDxf="1" dxf="1">
+    <nc r="B38" t="inlineStr">
+      <is>
+        <t>Matriculation term</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="866" sId="5" xfDxf="1" dxf="1">
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>Matriculation term Summer A/B/C flag</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="867" sId="5" xfDxf="1" dxf="1">
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>Real Catalog Year</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="868" sId="5" xfDxf="1" dxf="1">
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>Catalog Year Flag</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="869" sId="5" xfDxf="1" dxf="1">
+    <nc r="B42" t="inlineStr">
+      <is>
+        <t>Catalog college</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="870" sId="5">
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>Catalog Minor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B43">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="871" sId="5">
+    <nc r="B44" t="inlineStr">
+      <is>
+        <t>Catalog AA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B44">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="872" sId="5">
+    <nc r="B45" t="inlineStr">
+      <is>
+        <t>Catalog Track</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B45">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="873" sId="5">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Field</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="874" sId="5">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Description</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="875" sId="5">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Status</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="A1:XFD1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="876" sId="5">
+    <nc r="B46" t="inlineStr">
+      <is>
+        <t>Graduate Matriculation Term</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B46">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="877" sId="5">
+    <nc r="B47" t="inlineStr">
+      <is>
+        <t>Professional Matriculation Term</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B47">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="878" sId="5" xfDxf="1" dxf="1">
+    <nc r="B48" t="inlineStr">
+      <is>
+        <t>Gender</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B49" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="879" sId="5">
+    <nc r="B49" t="inlineStr">
+      <is>
+        <t>Residency Status</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B50" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="880" sId="5">
+    <nc r="B50" t="inlineStr">
+      <is>
+        <t>Ethnicity (Primary)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="881" sId="5" xfDxf="1" dxf="1">
+    <nc r="B51" t="inlineStr">
+      <is>
+        <t>Nation of citizenship</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="882" sId="5">
+    <nc r="B52" t="inlineStr">
+      <is>
+        <t>Summer A enrollment flag</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B52">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="883" sId="5">
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t>Summer B enrollment flag</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B53">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="884" sId="5">
+    <nc r="B54" t="inlineStr">
+      <is>
+        <t>Summer C enrollment flag</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B54">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="885" sId="5" xfDxf="1" dxf="1">
+    <nc r="B55" t="inlineStr">
+      <is>
+        <t>Special Program</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="886" sId="5">
+    <nc r="B57" t="inlineStr">
+      <is>
+        <t>National Merit Scholar</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B57">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="887" sId="5">
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t>Pending</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="888" sId="5">
+    <nc r="B56" t="inlineStr">
+      <is>
+        <t>Multi-Ethnicity Flag</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B56">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="889" sId="5" xfDxf="1" dxf="1">
+    <nc r="B58" t="inlineStr">
+      <is>
+        <t>Hours Attempted</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B59" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="890" sId="5">
+    <nc r="B59" t="inlineStr">
+      <is>
+        <t>Term in which student achieved 60 Hours</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="891" sId="5" xfDxf="1" dxf="1">
+    <nc r="B60" t="inlineStr">
+      <is>
+        <t>Primary degree pursued</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="892" sId="5" xfDxf="1" dxf="1">
+    <nc r="B61" t="inlineStr">
+      <is>
+        <t>Second minor</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="893" sId="5">
+    <nc r="B62" t="inlineStr">
+      <is>
+        <t>Third Minor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B62">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="894" sId="5">
+    <nc r="B63" t="inlineStr">
+      <is>
+        <t>Fourth Minor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B63">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="895" sId="5">
+    <nc r="B64" t="inlineStr">
+      <is>
+        <t>Fifth Minor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B64">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="896" sId="5">
+    <nc r="B65" t="inlineStr">
+      <is>
+        <t>Second College</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B65">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="897" sId="5">
+    <nc r="B66" t="inlineStr">
+      <is>
+        <t>Second Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B66">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="898" sId="5">
+    <nc r="B67" t="inlineStr">
+      <is>
+        <t>Second Track</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B67">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="899" sId="5">
+    <nc r="B68" t="inlineStr">
+      <is>
+        <t>Second Degree</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B68">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="900" sId="5">
+    <nc r="B69" t="inlineStr">
+      <is>
+        <t>Second Academic Career</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B69">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="901" sId="5">
+    <nc r="B70" t="inlineStr">
+      <is>
+        <t>Second Academic Program</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B70">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B71" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B72" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B73" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B74" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B75" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B76" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B77" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B78" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B79" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B80" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B81" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B82" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B83" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B84" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B85" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B86" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B87" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B88" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="902" sId="5">
+    <nc r="B83" t="inlineStr">
+      <is>
+        <t>Fifth College</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="903" sId="5">
+    <nc r="B84" t="inlineStr">
+      <is>
+        <t>Fifth Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="904" sId="5">
+    <nc r="B85" t="inlineStr">
+      <is>
+        <t>Fifth Track</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="905" sId="5">
+    <nc r="B86" t="inlineStr">
+      <is>
+        <t>Fifth Degree</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="906" sId="5">
+    <nc r="B88" t="inlineStr">
+      <is>
+        <t>Fifth Academic Program</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="907" sId="5">
+    <nc r="B87" t="inlineStr">
+      <is>
+        <t>Fifth Academic Career</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="908" sId="5">
+    <nc r="B82" t="inlineStr">
+      <is>
+        <t>Fourth Academic Program</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="909" sId="5">
+    <nc r="B80" t="inlineStr">
+      <is>
+        <t>Fourth Degree</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="910" sId="5">
+    <nc r="B81" t="inlineStr">
+      <is>
+        <t>Fourth Academic Career</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="911" sId="5">
+    <nc r="B79" t="inlineStr">
+      <is>
+        <t>Fourth Track</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="912" sId="5">
+    <nc r="B78" t="inlineStr">
+      <is>
+        <t>Fourth Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="913" sId="5">
+    <nc r="B77" t="inlineStr">
+      <is>
+        <t>Fourth College</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="914" sId="5">
+    <nc r="B76" t="inlineStr">
+      <is>
+        <t>Third Academic Program</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="915" sId="5">
+    <nc r="B75" t="inlineStr">
+      <is>
+        <t>Third Academic Career</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="916" sId="5">
+    <nc r="B74" t="inlineStr">
+      <is>
+        <t>Third Degree</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="917" sId="5">
+    <nc r="B72" t="inlineStr">
+      <is>
+        <t>Third Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="918" sId="5">
+    <nc r="B73" t="inlineStr">
+      <is>
+        <t>Third Track</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="919" sId="5">
+    <nc r="B71" t="inlineStr">
+      <is>
+        <t>Third College</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="920" sId="5" xfDxf="1" dxf="1">
+    <nc r="B89" t="inlineStr">
+      <is>
+        <t>Second concurrent catalog year</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="921" sId="5" xfDxf="1" dxf="1">
+    <nc r="B90" t="inlineStr">
+      <is>
+        <t>Third concurrent catalog year</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="922" sId="5" xfDxf="1" dxf="1">
+    <nc r="B91" t="inlineStr">
+      <is>
+        <t>Fourth concurrent catalog year</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="923" sId="5" xfDxf="1" dxf="1">
+    <nc r="B92" t="inlineStr">
+      <is>
+        <t>Fifth concurrent catalog year</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="924" sId="5" xfDxf="1" dxf="1">
+    <nc r="B93" t="inlineStr">
+      <is>
+        <t>Date of birth</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" sqref="B94">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="925" sId="5">
+    <nc r="B95" t="inlineStr">
+      <is>
+        <t>PACE Flag for the term</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B95">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="926" sId="5">
+    <nc r="B96" t="inlineStr">
+      <is>
+        <t>Innovation Academy for the term</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B96">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="927" sId="5">
+    <nc r="B94" t="inlineStr">
+      <is>
+        <t>UF Online Flag for the term</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="928" sId="5">
+    <nc r="B97" t="inlineStr">
+      <is>
+        <t>"CD" College Code for the term (Professional and Graduate)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="B97">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="929" sId="5" odxf="1">
+    <nc r="B98" t="inlineStr">
+      <is>
+        <t>Last updated timestamp - Warehousing column and indicates when the row was last updated from a transaction commit time on the source</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="delete"/>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="5" sqref="B3" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B4" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B5" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B6" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B7" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B8" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B9" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B10" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B11" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B12" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B13" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B14" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B15" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B16" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B17" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B18" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B19" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B20" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B21" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B22" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B23" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B24" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B26" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B27" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B28" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B29" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B30" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B31" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B32" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B33" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B34" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B35" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B36" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B37" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B38" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B39" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B40" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B41" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B42" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B43" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B44" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B45" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B46" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B47" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B48" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B49" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B50" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B51" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B52" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B53" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B54" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B55" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B56" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B57" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B58" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B59" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B60" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B61" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B62" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B63" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B64" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B65" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B66" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B67" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B68" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B69" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B70" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B71" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B72" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B73" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B74" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B75" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B76" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B77" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B78" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B79" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B80" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B81" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B82" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B83" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B84" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B85" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B86" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B87" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B88" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B89" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B90" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B91" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B92" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B93" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B94" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B95" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B96" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="B97" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="930" sId="5">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="931" sId="5">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="932" sId="5">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="933" sId="5">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="934" sId="5">
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="935" sId="5">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="936" sId="5">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="937" sId="5">
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="938" sId="5">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="939" sId="5">
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="940" sId="5">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="941" sId="5">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="942" sId="5">
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="943" sId="5">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="944" sId="5">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="945" sId="5">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="946" sId="5">
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="947" sId="5">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="948" sId="5">
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="949" sId="5">
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="950" sId="5">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="951" sId="5">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="952" sId="5">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="953" sId="5">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="954" sId="5">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="955" sId="5">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="956" sId="5">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="957" sId="5">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>Pending</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="C29">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="958" sId="5">
+    <nc r="C30" t="inlineStr">
+      <is>
+        <t>Pending</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="C30">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="959" sId="5">
+    <nc r="C31" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="960" sId="5">
+    <nc r="C32" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="961" sId="5">
+    <nc r="C33" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="962" sId="5">
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="963" sId="5">
+    <nc r="C35" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="964" sId="5">
+    <nc r="C36" t="inlineStr">
+      <is>
+        <t>Pending</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="C36">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="965" sId="5">
+    <nc r="C37" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="966" sId="5">
+    <nc r="C38" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="967" sId="5">
+    <nc r="C39" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="968" sId="5">
+    <nc r="C40" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="969" sId="5">
+    <nc r="C41" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="970" sId="5">
+    <nc r="C42" t="inlineStr">
+      <is>
+        <t>Pending</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="C42">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="971" sId="5">
+    <nc r="C43" t="inlineStr">
+      <is>
+        <t>Pending</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="C43">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="972" sId="5">
+    <nc r="C44" t="inlineStr">
+      <is>
+        <t>Pending</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="C44">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="973" sId="5">
+    <nc r="C45" t="inlineStr">
+      <is>
+        <t>Pending</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="C45">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="974" sId="5">
+    <nc r="C46" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="975" sId="5">
+    <nc r="C47" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="976" sId="5">
+    <nc r="C48" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="977" sId="5">
+    <nc r="C49" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="978" sId="5">
+    <nc r="C50" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="979" sId="5">
+    <nc r="C51" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="980" sId="5">
+    <nc r="C52" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="981" sId="5">
+    <nc r="C53" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="982" sId="5">
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="983" sId="5">
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="984" sId="5">
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="985" sId="5">
+    <nc r="C58" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="986" sId="5">
+    <nc r="C59" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="987" sId="5">
+    <nc r="C60" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="988" sId="5">
+    <nc r="C61" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="989" sId="5">
+    <nc r="C62" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="990" sId="5">
+    <nc r="C63" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="991" sId="5">
+    <nc r="C64" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="992" sId="5">
+    <nc r="C65" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="993" sId="5">
+    <nc r="C66" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="994" sId="5">
+    <nc r="C67" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="995" sId="5">
+    <nc r="C68" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="996" sId="5">
+    <nc r="C69" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="997" sId="5">
+    <nc r="C70" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="998" sId="5">
+    <nc r="C71" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="999" sId="5">
+    <nc r="C72" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1000" sId="5">
+    <nc r="C73" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1001" sId="5">
+    <nc r="C74" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1002" sId="5">
+    <nc r="C75" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1003" sId="5">
+    <nc r="C76" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1004" sId="5">
+    <nc r="C77" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1005" sId="5">
+    <nc r="C78" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1006" sId="5">
+    <nc r="C79" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1007" sId="5">
+    <nc r="C80" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1008" sId="5">
+    <nc r="C81" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1009" sId="5">
+    <nc r="C82" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1010" sId="5">
+    <nc r="C83" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1011" sId="5">
+    <nc r="C84" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1012" sId="5">
+    <nc r="C85" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1013" sId="5">
+    <nc r="C86" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1014" sId="5">
+    <nc r="C87" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1015" sId="5">
+    <nc r="C88" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1016" sId="5">
+    <nc r="C89" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1017" sId="5">
+    <nc r="C90" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1018" sId="5">
+    <nc r="C91" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1019" sId="5">
+    <nc r="C92" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1020" sId="5">
+    <nc r="C93" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1021" sId="5">
+    <nc r="C94" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1022" sId="5">
+    <nc r="C95" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1023" sId="5">
+    <nc r="C96" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1024" sId="5">
+    <nc r="C97" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1025" sId="5">
+    <nc r="C98" t="inlineStr">
+      <is>
+        <t>Working</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="delete"/>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="178" sId="1" numFmtId="19">
@@ -11219,6 +16046,13 @@
     </nc>
     <odxf/>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="delete"/>
+  <rcv guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" action="add"/>
 </revisions>
 </file>
 
@@ -11613,7 +16447,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{149A9AE4-ABE8-4F34-BD5F-B93187638C7E}" name="Martinez,James J" id="-584564047" dateTime="2018-07-22T16:33:37"/>
+  <userInfo guid="{9F181F9D-8C5E-451E-97BF-47F5F61E68FF}" name="Martinez,James J" id="-584564047" dateTime="2018-07-22T16:33:37"/>
 </users>
 </file>
 
@@ -11885,9 +16719,9 @@
   </sheetPr>
   <dimension ref="A1:L1432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A540" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G558" sqref="G558"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I592" sqref="I592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45361,9 +50195,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
+    <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" topLeftCell="C1">
+      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I592" sqref="I592"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
     </customSheetView>
@@ -46074,7 +50908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46236,7 +51070,1113 @@
   <customSheetViews>
     <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}">
+      <selection activeCell="B91" sqref="B91"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>

--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7038" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="1763">
   <si>
     <t>Owner</t>
   </si>
@@ -6008,9 +6005,6 @@
     <t>UF_FOR_LAN_TRK</t>
   </si>
   <si>
-    <t>Not Functioning</t>
-  </si>
-  <si>
     <t>UF_COMB_DEG_IND</t>
   </si>
   <si>
@@ -6033,6 +6027,279 @@
   </si>
   <si>
     <t>During Term Action</t>
+  </si>
+  <si>
+    <t>New Field Name</t>
+  </si>
+  <si>
+    <t>REGISTRATION_CD</t>
+  </si>
+  <si>
+    <t>DUAL_ENRLMT_FLAG</t>
+  </si>
+  <si>
+    <t>UF_GPA</t>
+  </si>
+  <si>
+    <t>TRANSFER_HOURS_ACCEPTED</t>
+  </si>
+  <si>
+    <t>TOT_HOURS_EARNED</t>
+  </si>
+  <si>
+    <t>TOT_UF_GRADE_POINTS</t>
+  </si>
+  <si>
+    <t>TOT_UF_HOURS_CARRIED</t>
+  </si>
+  <si>
+    <t>VALID_STU_FLAG</t>
+  </si>
+  <si>
+    <t>HALF_TIME_FLAG</t>
+  </si>
+  <si>
+    <t>FULL_TIME_FLAG</t>
+  </si>
+  <si>
+    <t>CATALOG_YEAR</t>
+  </si>
+  <si>
+    <t>STUDENT_STATUS</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ACAD_LEVEL_BOT_CD</t>
+  </si>
+  <si>
+    <t>Academic Level Code at Beginning of Term (this value is decoded into CLASS). This value can be joined to WH_D_ACAD_LEVEL</t>
+  </si>
+  <si>
+    <t>TERM_REGISTERED_HOURS</t>
+  </si>
+  <si>
+    <t>DURING_TERM_ACTION</t>
+  </si>
+  <si>
+    <t>END_OF_TERM_ACTION</t>
+  </si>
+  <si>
+    <t>HIGH_DEGREE_TERM_CD</t>
+  </si>
+  <si>
+    <t>HIGH_DEGREE_ABC_FLAG</t>
+  </si>
+  <si>
+    <t>NEXT_DEGREE_SOUGHT</t>
+  </si>
+  <si>
+    <t>MINOR_ACAD_PLAN_CD</t>
+  </si>
+  <si>
+    <t>CLASS_BOG</t>
+  </si>
+  <si>
+    <t>FIRST_DEGREE_SEEKING_ABC_FLAG</t>
+  </si>
+  <si>
+    <t>FIRST_DEGREE_STATUS</t>
+  </si>
+  <si>
+    <t>HIGH_DEGREE</t>
+  </si>
+  <si>
+    <t>HIGHEST_DEGREE_FICE</t>
+  </si>
+  <si>
+    <t>HIGHEST_DEGREE_ATP</t>
+  </si>
+  <si>
+    <t>FOREIGN_LANGUAGE_TRACK</t>
+  </si>
+  <si>
+    <t>COUNTY_CD</t>
+  </si>
+  <si>
+    <t>VISA_TYPE_CD</t>
+  </si>
+  <si>
+    <t>VISA_NUMBER</t>
+  </si>
+  <si>
+    <t>MATRIC_STATUS_CD</t>
+  </si>
+  <si>
+    <t>MATRIC_TERM_CD</t>
+  </si>
+  <si>
+    <t>MATRIC_ABC_FLAG</t>
+  </si>
+  <si>
+    <t>REAL_CATALOG_YEAR</t>
+  </si>
+  <si>
+    <t>CATALOG_YEAR_FLAG</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+  </si>
+  <si>
+    <t>Not Functioning - To be Removed</t>
+  </si>
+  <si>
+    <t>GRAD_MATRIC_TERM_CD</t>
+  </si>
+  <si>
+    <t>PROF_MATRIC_TERM_CD</t>
+  </si>
+  <si>
+    <t>GENDER_CD</t>
+  </si>
+  <si>
+    <t>RESIDENCY_STATUS_CD</t>
+  </si>
+  <si>
+    <t>ETHNICITY_CD</t>
+  </si>
+  <si>
+    <t>CITIZENSHIP_CD</t>
+  </si>
+  <si>
+    <t>SUMMER_A_ENRLMT_FLAG</t>
+  </si>
+  <si>
+    <t>SUMMER_B_ENRLMT_FLAG</t>
+  </si>
+  <si>
+    <t>SUMMER_C_ENRLMT_FLAG</t>
+  </si>
+  <si>
+    <t>MULTI_ETHNICITY_FLAG</t>
+  </si>
+  <si>
+    <t>NATIONAL_MERIT_SCHOLAR_FLAG</t>
+  </si>
+  <si>
+    <t>HOURS_ATTEMPTED</t>
+  </si>
+  <si>
+    <t>SIXTY_HOURS_TERM_CD</t>
+  </si>
+  <si>
+    <t>PRIMARY_DEGREE_CD</t>
+  </si>
+  <si>
+    <t>MINOR_ACAD_PLAN_CD_2</t>
+  </si>
+  <si>
+    <t>MINOR_ACAD_PLAN_CD_3</t>
+  </si>
+  <si>
+    <t>MINOR_ACAD_PLAN_CD_4</t>
+  </si>
+  <si>
+    <t>MINOR_ACAD_PLAN_CD_5</t>
+  </si>
+  <si>
+    <t>ACAD_GROUP_CD_2</t>
+  </si>
+  <si>
+    <t>ACAD_PLAN_CD_2</t>
+  </si>
+  <si>
+    <t>ACAD_SPLAN_CD_2</t>
+  </si>
+  <si>
+    <t>DEGREE_CD_2</t>
+  </si>
+  <si>
+    <t>ACAD_CAR_CD_2</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_CD_2</t>
+  </si>
+  <si>
+    <t>ACAD_GROUP_CD_3</t>
+  </si>
+  <si>
+    <t>ACAD_PLAN_CD_3</t>
+  </si>
+  <si>
+    <t>ACAD_SPLAN_CD_3</t>
+  </si>
+  <si>
+    <t>DEGREE_CD_3</t>
+  </si>
+  <si>
+    <t>ACAD_CAR_CD_3</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_CD_3</t>
+  </si>
+  <si>
+    <t>ACAD_GROUP_CD_4</t>
+  </si>
+  <si>
+    <t>ACAD_PLAN_CD_4</t>
+  </si>
+  <si>
+    <t>ACAD_SPLAN_CD_4</t>
+  </si>
+  <si>
+    <t>DEGREE_CD_4</t>
+  </si>
+  <si>
+    <t>ACAD_CAR_CD_4</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_CD_4</t>
+  </si>
+  <si>
+    <t>ACAD_GROUP_CD_5</t>
+  </si>
+  <si>
+    <t>ACAD_PLAN_CD_5</t>
+  </si>
+  <si>
+    <t>ACAD_SPLAN_CD_5</t>
+  </si>
+  <si>
+    <t>DEGREE_CD_5</t>
+  </si>
+  <si>
+    <t>ACAD_CAR_CD_5</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_CD_5</t>
+  </si>
+  <si>
+    <t>CATALOG_YEAR_2</t>
+  </si>
+  <si>
+    <t>Not Functioning - ' ' values populated, same as CSTAT, future place holder</t>
+  </si>
+  <si>
+    <t>CATALOG_YEAR_3</t>
+  </si>
+  <si>
+    <t>CATALOG_YEAR_4</t>
+  </si>
+  <si>
+    <t>CATALOG_YEAR_5</t>
+  </si>
+  <si>
+    <t>COMBINED_DEGREE_CD</t>
+  </si>
+  <si>
+    <t>DEFICIT_POINTS</t>
+  </si>
+  <si>
+    <t>A grade point deficit is defined as the number of grade points below a C average on credits attempted at UF. If the grade point average is less than 2.0, there is a grade point deficit. Only grades higher than C (2.0) will lower a deficit.</t>
   </si>
 </sst>
 </file>
@@ -6132,7 +6399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6157,17 +6424,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6481,7 +6754,7 @@
   </sheetPr>
   <dimension ref="A1:L1524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1431" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B1449" sqref="B1449"/>
@@ -6972,39 +7245,39 @@
       <c r="B17" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>997</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
@@ -8317,39 +8590,39 @@
       <c r="B68" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="19" t="s">
         <v>996</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
@@ -8811,36 +9084,36 @@
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="19" t="s">
         <v>995</v>
       </c>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -9305,39 +9578,39 @@
       <c r="B113" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="19" t="s">
         <v>994</v>
       </c>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D116" s="2"/>
@@ -9971,36 +10244,36 @@
       <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -11358,33 +11631,33 @@
       <c r="D199" s="18" t="s">
         <v>992</v>
       </c>
-      <c r="E199" s="17"/>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="17"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -12424,33 +12697,33 @@
       <c r="D244" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="E244" s="17"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
-      <c r="I244" s="17"/>
+      <c r="E244" s="19"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="19"/>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D245" s="17"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
-      <c r="I245" s="17"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="19"/>
+      <c r="F245" s="19"/>
+      <c r="G245" s="19"/>
+      <c r="H245" s="19"/>
+      <c r="I245" s="19"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D246" s="17"/>
-      <c r="E246" s="17"/>
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="17"/>
-      <c r="I246" s="17"/>
+      <c r="D246" s="19"/>
+      <c r="E246" s="19"/>
+      <c r="F246" s="19"/>
+      <c r="G246" s="19"/>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -13626,36 +13899,36 @@
       <c r="B295" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D295" s="17" t="s">
+      <c r="D295" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="E295" s="17"/>
-      <c r="F295" s="17"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="17"/>
-      <c r="I295" s="17"/>
+      <c r="E295" s="19"/>
+      <c r="F295" s="19"/>
+      <c r="G295" s="19"/>
+      <c r="H295" s="19"/>
+      <c r="I295" s="19"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D296" s="17"/>
-      <c r="E296" s="17"/>
-      <c r="F296" s="17"/>
-      <c r="G296" s="17"/>
-      <c r="H296" s="17"/>
-      <c r="I296" s="17"/>
+      <c r="D296" s="19"/>
+      <c r="E296" s="19"/>
+      <c r="F296" s="19"/>
+      <c r="G296" s="19"/>
+      <c r="H296" s="19"/>
+      <c r="I296" s="19"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D297" s="17"/>
-      <c r="E297" s="17"/>
-      <c r="F297" s="17"/>
-      <c r="G297" s="17"/>
-      <c r="H297" s="17"/>
-      <c r="I297" s="17"/>
+      <c r="D297" s="19"/>
+      <c r="E297" s="19"/>
+      <c r="F297" s="19"/>
+      <c r="G297" s="19"/>
+      <c r="H297" s="19"/>
+      <c r="I297" s="19"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -14126,36 +14399,36 @@
       <c r="L317" s="2"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D318" s="19" t="s">
+      <c r="D318" s="20" t="s">
         <v>999</v>
       </c>
-      <c r="E318" s="19"/>
-      <c r="F318" s="19"/>
-      <c r="G318" s="19"/>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
+      <c r="E318" s="20"/>
+      <c r="F318" s="20"/>
+      <c r="G318" s="20"/>
+      <c r="H318" s="20"/>
+      <c r="I318" s="20"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D319" s="19"/>
-      <c r="E319" s="19"/>
-      <c r="F319" s="19"/>
-      <c r="G319" s="19"/>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
+      <c r="D319" s="20"/>
+      <c r="E319" s="20"/>
+      <c r="F319" s="20"/>
+      <c r="G319" s="20"/>
+      <c r="H319" s="20"/>
+      <c r="I319" s="20"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D320" s="19"/>
-      <c r="E320" s="19"/>
-      <c r="F320" s="19"/>
-      <c r="G320" s="19"/>
-      <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
+      <c r="D320" s="20"/>
+      <c r="E320" s="20"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="20"/>
+      <c r="H320" s="20"/>
+      <c r="I320" s="20"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
@@ -14480,39 +14753,39 @@
       <c r="B335" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D335" s="17" t="s">
+      <c r="D335" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="E335" s="17"/>
-      <c r="F335" s="17"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="17"/>
-      <c r="I335" s="17"/>
-      <c r="J335" s="17"/>
-      <c r="K335" s="17"/>
-      <c r="L335" s="17"/>
+      <c r="E335" s="19"/>
+      <c r="F335" s="19"/>
+      <c r="G335" s="19"/>
+      <c r="H335" s="19"/>
+      <c r="I335" s="19"/>
+      <c r="J335" s="19"/>
+      <c r="K335" s="19"/>
+      <c r="L335" s="19"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D336" s="17"/>
-      <c r="E336" s="17"/>
-      <c r="F336" s="17"/>
-      <c r="G336" s="17"/>
-      <c r="H336" s="17"/>
-      <c r="I336" s="17"/>
-      <c r="J336" s="17"/>
-      <c r="K336" s="17"/>
-      <c r="L336" s="17"/>
+      <c r="D336" s="19"/>
+      <c r="E336" s="19"/>
+      <c r="F336" s="19"/>
+      <c r="G336" s="19"/>
+      <c r="H336" s="19"/>
+      <c r="I336" s="19"/>
+      <c r="J336" s="19"/>
+      <c r="K336" s="19"/>
+      <c r="L336" s="19"/>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D337" s="17"/>
-      <c r="E337" s="17"/>
-      <c r="F337" s="17"/>
-      <c r="G337" s="17"/>
-      <c r="H337" s="17"/>
-      <c r="I337" s="17"/>
-      <c r="J337" s="17"/>
-      <c r="K337" s="17"/>
-      <c r="L337" s="17"/>
+      <c r="D337" s="19"/>
+      <c r="E337" s="19"/>
+      <c r="F337" s="19"/>
+      <c r="G337" s="19"/>
+      <c r="H337" s="19"/>
+      <c r="I337" s="19"/>
+      <c r="J337" s="19"/>
+      <c r="K337" s="19"/>
+      <c r="L337" s="19"/>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D338" s="2"/>
@@ -15110,36 +15383,36 @@
       <c r="L362" s="2"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D363" s="19" t="s">
+      <c r="D363" s="20" t="s">
         <v>1001</v>
       </c>
-      <c r="E363" s="19"/>
-      <c r="F363" s="19"/>
-      <c r="G363" s="19"/>
-      <c r="H363" s="19"/>
-      <c r="I363" s="19"/>
+      <c r="E363" s="20"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="20"/>
+      <c r="H363" s="20"/>
+      <c r="I363" s="20"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D364" s="19"/>
-      <c r="E364" s="19"/>
-      <c r="F364" s="19"/>
-      <c r="G364" s="19"/>
-      <c r="H364" s="19"/>
-      <c r="I364" s="19"/>
+      <c r="D364" s="20"/>
+      <c r="E364" s="20"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="20"/>
+      <c r="H364" s="20"/>
+      <c r="I364" s="20"/>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D365" s="19"/>
-      <c r="E365" s="19"/>
-      <c r="F365" s="19"/>
-      <c r="G365" s="19"/>
-      <c r="H365" s="19"/>
-      <c r="I365" s="19"/>
+      <c r="D365" s="20"/>
+      <c r="E365" s="20"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="20"/>
+      <c r="H365" s="20"/>
+      <c r="I365" s="20"/>
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -17136,36 +17409,36 @@
       <c r="L448" s="2"/>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D449" s="19" t="s">
+      <c r="D449" s="20" t="s">
         <v>1002</v>
       </c>
-      <c r="E449" s="19"/>
-      <c r="F449" s="19"/>
-      <c r="G449" s="19"/>
-      <c r="H449" s="19"/>
-      <c r="I449" s="19"/>
+      <c r="E449" s="20"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="20"/>
+      <c r="H449" s="20"/>
+      <c r="I449" s="20"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
     </row>
     <row r="450" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D450" s="19"/>
-      <c r="E450" s="19"/>
-      <c r="F450" s="19"/>
-      <c r="G450" s="19"/>
-      <c r="H450" s="19"/>
-      <c r="I450" s="19"/>
+      <c r="D450" s="20"/>
+      <c r="E450" s="20"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="20"/>
+      <c r="H450" s="20"/>
+      <c r="I450" s="20"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D451" s="19"/>
-      <c r="E451" s="19"/>
-      <c r="F451" s="19"/>
-      <c r="G451" s="19"/>
-      <c r="H451" s="19"/>
-      <c r="I451" s="19"/>
+      <c r="D451" s="20"/>
+      <c r="E451" s="20"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="20"/>
+      <c r="H451" s="20"/>
+      <c r="I451" s="20"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
@@ -17460,36 +17733,36 @@
       <c r="L465" s="2"/>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D466" s="17" t="s">
+      <c r="D466" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="E466" s="17"/>
-      <c r="F466" s="17"/>
-      <c r="G466" s="17"/>
-      <c r="H466" s="17"/>
-      <c r="I466" s="17"/>
+      <c r="E466" s="19"/>
+      <c r="F466" s="19"/>
+      <c r="G466" s="19"/>
+      <c r="H466" s="19"/>
+      <c r="I466" s="19"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
     <row r="467" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D467" s="17"/>
-      <c r="E467" s="17"/>
-      <c r="F467" s="17"/>
-      <c r="G467" s="17"/>
-      <c r="H467" s="17"/>
-      <c r="I467" s="17"/>
+      <c r="D467" s="19"/>
+      <c r="E467" s="19"/>
+      <c r="F467" s="19"/>
+      <c r="G467" s="19"/>
+      <c r="H467" s="19"/>
+      <c r="I467" s="19"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D468" s="17"/>
-      <c r="E468" s="17"/>
-      <c r="F468" s="17"/>
-      <c r="G468" s="17"/>
-      <c r="H468" s="17"/>
-      <c r="I468" s="17"/>
+      <c r="D468" s="19"/>
+      <c r="E468" s="19"/>
+      <c r="F468" s="19"/>
+      <c r="G468" s="19"/>
+      <c r="H468" s="19"/>
+      <c r="I468" s="19"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
@@ -17838,36 +18111,36 @@
       <c r="L484" s="2"/>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D485" s="17" t="s">
+      <c r="D485" s="19" t="s">
         <v>1004</v>
       </c>
-      <c r="E485" s="17"/>
-      <c r="F485" s="17"/>
-      <c r="G485" s="17"/>
-      <c r="H485" s="17"/>
-      <c r="I485" s="17"/>
+      <c r="E485" s="19"/>
+      <c r="F485" s="19"/>
+      <c r="G485" s="19"/>
+      <c r="H485" s="19"/>
+      <c r="I485" s="19"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
     <row r="486" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D486" s="17"/>
-      <c r="E486" s="17"/>
-      <c r="F486" s="17"/>
-      <c r="G486" s="17"/>
-      <c r="H486" s="17"/>
-      <c r="I486" s="17"/>
+      <c r="D486" s="19"/>
+      <c r="E486" s="19"/>
+      <c r="F486" s="19"/>
+      <c r="G486" s="19"/>
+      <c r="H486" s="19"/>
+      <c r="I486" s="19"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D487" s="17"/>
-      <c r="E487" s="17"/>
-      <c r="F487" s="17"/>
-      <c r="G487" s="17"/>
-      <c r="H487" s="17"/>
-      <c r="I487" s="17"/>
+      <c r="D487" s="19"/>
+      <c r="E487" s="19"/>
+      <c r="F487" s="19"/>
+      <c r="G487" s="19"/>
+      <c r="H487" s="19"/>
+      <c r="I487" s="19"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
@@ -18162,36 +18435,36 @@
       <c r="L501" s="2"/>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D502" s="17" t="s">
+      <c r="D502" s="19" t="s">
         <v>1005</v>
       </c>
-      <c r="E502" s="17"/>
-      <c r="F502" s="17"/>
-      <c r="G502" s="17"/>
-      <c r="H502" s="17"/>
-      <c r="I502" s="17"/>
+      <c r="E502" s="19"/>
+      <c r="F502" s="19"/>
+      <c r="G502" s="19"/>
+      <c r="H502" s="19"/>
+      <c r="I502" s="19"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D503" s="17"/>
-      <c r="E503" s="17"/>
-      <c r="F503" s="17"/>
-      <c r="G503" s="17"/>
-      <c r="H503" s="17"/>
-      <c r="I503" s="17"/>
+      <c r="D503" s="19"/>
+      <c r="E503" s="19"/>
+      <c r="F503" s="19"/>
+      <c r="G503" s="19"/>
+      <c r="H503" s="19"/>
+      <c r="I503" s="19"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D504" s="17"/>
-      <c r="E504" s="17"/>
-      <c r="F504" s="17"/>
-      <c r="G504" s="17"/>
-      <c r="H504" s="17"/>
-      <c r="I504" s="17"/>
+      <c r="D504" s="19"/>
+      <c r="E504" s="19"/>
+      <c r="F504" s="19"/>
+      <c r="G504" s="19"/>
+      <c r="H504" s="19"/>
+      <c r="I504" s="19"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
@@ -18662,39 +18935,39 @@
       <c r="B524" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D524" s="17" t="s">
+      <c r="D524" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="E524" s="17"/>
-      <c r="F524" s="17"/>
-      <c r="G524" s="17"/>
-      <c r="H524" s="17"/>
-      <c r="I524" s="17"/>
-      <c r="J524" s="17"/>
-      <c r="K524" s="17"/>
-      <c r="L524" s="17"/>
+      <c r="E524" s="19"/>
+      <c r="F524" s="19"/>
+      <c r="G524" s="19"/>
+      <c r="H524" s="19"/>
+      <c r="I524" s="19"/>
+      <c r="J524" s="19"/>
+      <c r="K524" s="19"/>
+      <c r="L524" s="19"/>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D525" s="17"/>
-      <c r="E525" s="17"/>
-      <c r="F525" s="17"/>
-      <c r="G525" s="17"/>
-      <c r="H525" s="17"/>
-      <c r="I525" s="17"/>
-      <c r="J525" s="17"/>
-      <c r="K525" s="17"/>
-      <c r="L525" s="17"/>
+      <c r="D525" s="19"/>
+      <c r="E525" s="19"/>
+      <c r="F525" s="19"/>
+      <c r="G525" s="19"/>
+      <c r="H525" s="19"/>
+      <c r="I525" s="19"/>
+      <c r="J525" s="19"/>
+      <c r="K525" s="19"/>
+      <c r="L525" s="19"/>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D526" s="17"/>
-      <c r="E526" s="17"/>
-      <c r="F526" s="17"/>
-      <c r="G526" s="17"/>
-      <c r="H526" s="17"/>
-      <c r="I526" s="17"/>
-      <c r="J526" s="17"/>
-      <c r="K526" s="17"/>
-      <c r="L526" s="17"/>
+      <c r="D526" s="19"/>
+      <c r="E526" s="19"/>
+      <c r="F526" s="19"/>
+      <c r="G526" s="19"/>
+      <c r="H526" s="19"/>
+      <c r="I526" s="19"/>
+      <c r="J526" s="19"/>
+      <c r="K526" s="19"/>
+      <c r="L526" s="19"/>
     </row>
     <row r="527" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D527" s="2"/>
@@ -19613,36 +19886,36 @@
       <c r="L561" s="2"/>
     </row>
     <row r="562" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D562" s="17" t="s">
+      <c r="D562" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="E562" s="17"/>
-      <c r="F562" s="17"/>
-      <c r="G562" s="17"/>
-      <c r="H562" s="17"/>
-      <c r="I562" s="17"/>
+      <c r="E562" s="19"/>
+      <c r="F562" s="19"/>
+      <c r="G562" s="19"/>
+      <c r="H562" s="19"/>
+      <c r="I562" s="19"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
     <row r="563" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D563" s="17"/>
-      <c r="E563" s="17"/>
-      <c r="F563" s="17"/>
-      <c r="G563" s="17"/>
-      <c r="H563" s="17"/>
-      <c r="I563" s="17"/>
+      <c r="D563" s="19"/>
+      <c r="E563" s="19"/>
+      <c r="F563" s="19"/>
+      <c r="G563" s="19"/>
+      <c r="H563" s="19"/>
+      <c r="I563" s="19"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
     <row r="564" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D564" s="17"/>
-      <c r="E564" s="17"/>
-      <c r="F564" s="17"/>
-      <c r="G564" s="17"/>
-      <c r="H564" s="17"/>
-      <c r="I564" s="17"/>
+      <c r="D564" s="19"/>
+      <c r="E564" s="19"/>
+      <c r="F564" s="19"/>
+      <c r="G564" s="19"/>
+      <c r="H564" s="19"/>
+      <c r="I564" s="19"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
@@ -20585,36 +20858,36 @@
       <c r="L602" s="2"/>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D603" s="17" t="s">
+      <c r="D603" s="19" t="s">
         <v>1008</v>
       </c>
-      <c r="E603" s="17"/>
-      <c r="F603" s="17"/>
-      <c r="G603" s="17"/>
-      <c r="H603" s="17"/>
-      <c r="I603" s="17"/>
+      <c r="E603" s="19"/>
+      <c r="F603" s="19"/>
+      <c r="G603" s="19"/>
+      <c r="H603" s="19"/>
+      <c r="I603" s="19"/>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D604" s="17"/>
-      <c r="E604" s="17"/>
-      <c r="F604" s="17"/>
-      <c r="G604" s="17"/>
-      <c r="H604" s="17"/>
-      <c r="I604" s="17"/>
+      <c r="D604" s="19"/>
+      <c r="E604" s="19"/>
+      <c r="F604" s="19"/>
+      <c r="G604" s="19"/>
+      <c r="H604" s="19"/>
+      <c r="I604" s="19"/>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D605" s="17"/>
-      <c r="E605" s="17"/>
-      <c r="F605" s="17"/>
-      <c r="G605" s="17"/>
-      <c r="H605" s="17"/>
-      <c r="I605" s="17"/>
+      <c r="D605" s="19"/>
+      <c r="E605" s="19"/>
+      <c r="F605" s="19"/>
+      <c r="G605" s="19"/>
+      <c r="H605" s="19"/>
+      <c r="I605" s="19"/>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
@@ -20737,36 +21010,36 @@
       <c r="L612" s="2"/>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D613" s="17" t="s">
+      <c r="D613" s="19" t="s">
         <v>1009</v>
       </c>
-      <c r="E613" s="17"/>
-      <c r="F613" s="17"/>
-      <c r="G613" s="17"/>
-      <c r="H613" s="17"/>
-      <c r="I613" s="17"/>
+      <c r="E613" s="19"/>
+      <c r="F613" s="19"/>
+      <c r="G613" s="19"/>
+      <c r="H613" s="19"/>
+      <c r="I613" s="19"/>
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D614" s="17"/>
-      <c r="E614" s="17"/>
-      <c r="F614" s="17"/>
-      <c r="G614" s="17"/>
-      <c r="H614" s="17"/>
-      <c r="I614" s="17"/>
+      <c r="D614" s="19"/>
+      <c r="E614" s="19"/>
+      <c r="F614" s="19"/>
+      <c r="G614" s="19"/>
+      <c r="H614" s="19"/>
+      <c r="I614" s="19"/>
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D615" s="17"/>
-      <c r="E615" s="17"/>
-      <c r="F615" s="17"/>
-      <c r="G615" s="17"/>
-      <c r="H615" s="17"/>
-      <c r="I615" s="17"/>
+      <c r="D615" s="19"/>
+      <c r="E615" s="19"/>
+      <c r="F615" s="19"/>
+      <c r="G615" s="19"/>
+      <c r="H615" s="19"/>
+      <c r="I615" s="19"/>
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
@@ -21050,36 +21323,36 @@
       <c r="L628" s="2"/>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D629" s="17" t="s">
+      <c r="D629" s="19" t="s">
         <v>1010</v>
       </c>
-      <c r="E629" s="17"/>
-      <c r="F629" s="17"/>
-      <c r="G629" s="17"/>
-      <c r="H629" s="17"/>
-      <c r="I629" s="17"/>
+      <c r="E629" s="19"/>
+      <c r="F629" s="19"/>
+      <c r="G629" s="19"/>
+      <c r="H629" s="19"/>
+      <c r="I629" s="19"/>
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D630" s="17"/>
-      <c r="E630" s="17"/>
-      <c r="F630" s="17"/>
-      <c r="G630" s="17"/>
-      <c r="H630" s="17"/>
-      <c r="I630" s="17"/>
+      <c r="D630" s="19"/>
+      <c r="E630" s="19"/>
+      <c r="F630" s="19"/>
+      <c r="G630" s="19"/>
+      <c r="H630" s="19"/>
+      <c r="I630" s="19"/>
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D631" s="17"/>
-      <c r="E631" s="17"/>
-      <c r="F631" s="17"/>
-      <c r="G631" s="17"/>
-      <c r="H631" s="17"/>
-      <c r="I631" s="17"/>
+      <c r="D631" s="19"/>
+      <c r="E631" s="19"/>
+      <c r="F631" s="19"/>
+      <c r="G631" s="19"/>
+      <c r="H631" s="19"/>
+      <c r="I631" s="19"/>
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
@@ -21431,36 +21704,36 @@
       <c r="L647" s="2"/>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D648" s="17" t="s">
+      <c r="D648" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="E648" s="17"/>
-      <c r="F648" s="17"/>
-      <c r="G648" s="17"/>
-      <c r="H648" s="17"/>
-      <c r="I648" s="17"/>
+      <c r="E648" s="19"/>
+      <c r="F648" s="19"/>
+      <c r="G648" s="19"/>
+      <c r="H648" s="19"/>
+      <c r="I648" s="19"/>
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D649" s="17"/>
-      <c r="E649" s="17"/>
-      <c r="F649" s="17"/>
-      <c r="G649" s="17"/>
-      <c r="H649" s="17"/>
-      <c r="I649" s="17"/>
+      <c r="D649" s="19"/>
+      <c r="E649" s="19"/>
+      <c r="F649" s="19"/>
+      <c r="G649" s="19"/>
+      <c r="H649" s="19"/>
+      <c r="I649" s="19"/>
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D650" s="17"/>
-      <c r="E650" s="17"/>
-      <c r="F650" s="17"/>
-      <c r="G650" s="17"/>
-      <c r="H650" s="17"/>
-      <c r="I650" s="17"/>
+      <c r="D650" s="19"/>
+      <c r="E650" s="19"/>
+      <c r="F650" s="19"/>
+      <c r="G650" s="19"/>
+      <c r="H650" s="19"/>
+      <c r="I650" s="19"/>
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
@@ -21752,36 +22025,36 @@
       <c r="L664" s="2"/>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D665" s="17" t="s">
+      <c r="D665" s="19" t="s">
         <v>1012</v>
       </c>
-      <c r="E665" s="17"/>
-      <c r="F665" s="17"/>
-      <c r="G665" s="17"/>
-      <c r="H665" s="17"/>
-      <c r="I665" s="17"/>
+      <c r="E665" s="19"/>
+      <c r="F665" s="19"/>
+      <c r="G665" s="19"/>
+      <c r="H665" s="19"/>
+      <c r="I665" s="19"/>
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D666" s="17"/>
-      <c r="E666" s="17"/>
-      <c r="F666" s="17"/>
-      <c r="G666" s="17"/>
-      <c r="H666" s="17"/>
-      <c r="I666" s="17"/>
+      <c r="D666" s="19"/>
+      <c r="E666" s="19"/>
+      <c r="F666" s="19"/>
+      <c r="G666" s="19"/>
+      <c r="H666" s="19"/>
+      <c r="I666" s="19"/>
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
       <c r="L666" s="2"/>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D667" s="17"/>
-      <c r="E667" s="17"/>
-      <c r="F667" s="17"/>
-      <c r="G667" s="17"/>
-      <c r="H667" s="17"/>
-      <c r="I667" s="17"/>
+      <c r="D667" s="19"/>
+      <c r="E667" s="19"/>
+      <c r="F667" s="19"/>
+      <c r="G667" s="19"/>
+      <c r="H667" s="19"/>
+      <c r="I667" s="19"/>
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
       <c r="L667" s="2"/>
@@ -22346,36 +22619,36 @@
       <c r="L692" s="2"/>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D693" s="17" t="s">
+      <c r="D693" s="19" t="s">
         <v>1013</v>
       </c>
-      <c r="E693" s="17"/>
-      <c r="F693" s="17"/>
-      <c r="G693" s="17"/>
-      <c r="H693" s="17"/>
-      <c r="I693" s="17"/>
+      <c r="E693" s="19"/>
+      <c r="F693" s="19"/>
+      <c r="G693" s="19"/>
+      <c r="H693" s="19"/>
+      <c r="I693" s="19"/>
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
       <c r="L693" s="2"/>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D694" s="17"/>
-      <c r="E694" s="17"/>
-      <c r="F694" s="17"/>
-      <c r="G694" s="17"/>
-      <c r="H694" s="17"/>
-      <c r="I694" s="17"/>
+      <c r="D694" s="19"/>
+      <c r="E694" s="19"/>
+      <c r="F694" s="19"/>
+      <c r="G694" s="19"/>
+      <c r="H694" s="19"/>
+      <c r="I694" s="19"/>
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D695" s="17"/>
-      <c r="E695" s="17"/>
-      <c r="F695" s="17"/>
-      <c r="G695" s="17"/>
-      <c r="H695" s="17"/>
-      <c r="I695" s="17"/>
+      <c r="D695" s="19"/>
+      <c r="E695" s="19"/>
+      <c r="F695" s="19"/>
+      <c r="G695" s="19"/>
+      <c r="H695" s="19"/>
+      <c r="I695" s="19"/>
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
       <c r="L695" s="2"/>
@@ -26214,36 +26487,36 @@
       <c r="L834" s="2"/>
     </row>
     <row r="835" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D835" s="17" t="s">
+      <c r="D835" s="19" t="s">
         <v>1014</v>
       </c>
-      <c r="E835" s="17"/>
-      <c r="F835" s="17"/>
-      <c r="G835" s="17"/>
-      <c r="H835" s="17"/>
-      <c r="I835" s="17"/>
+      <c r="E835" s="19"/>
+      <c r="F835" s="19"/>
+      <c r="G835" s="19"/>
+      <c r="H835" s="19"/>
+      <c r="I835" s="19"/>
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
       <c r="L835" s="2"/>
     </row>
     <row r="836" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D836" s="17"/>
-      <c r="E836" s="17"/>
-      <c r="F836" s="17"/>
-      <c r="G836" s="17"/>
-      <c r="H836" s="17"/>
-      <c r="I836" s="17"/>
+      <c r="D836" s="19"/>
+      <c r="E836" s="19"/>
+      <c r="F836" s="19"/>
+      <c r="G836" s="19"/>
+      <c r="H836" s="19"/>
+      <c r="I836" s="19"/>
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
       <c r="L836" s="2"/>
     </row>
     <row r="837" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D837" s="17"/>
-      <c r="E837" s="17"/>
-      <c r="F837" s="17"/>
-      <c r="G837" s="17"/>
-      <c r="H837" s="17"/>
-      <c r="I837" s="17"/>
+      <c r="D837" s="19"/>
+      <c r="E837" s="19"/>
+      <c r="F837" s="19"/>
+      <c r="G837" s="19"/>
+      <c r="H837" s="19"/>
+      <c r="I837" s="19"/>
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
       <c r="L837" s="2"/>
@@ -27757,39 +28030,39 @@
       <c r="B895" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D895" s="17" t="s">
+      <c r="D895" s="19" t="s">
         <v>1015</v>
       </c>
-      <c r="E895" s="17"/>
-      <c r="F895" s="17"/>
-      <c r="G895" s="17"/>
-      <c r="H895" s="17"/>
-      <c r="I895" s="17"/>
-      <c r="J895" s="17"/>
-      <c r="K895" s="17"/>
-      <c r="L895" s="17"/>
+      <c r="E895" s="19"/>
+      <c r="F895" s="19"/>
+      <c r="G895" s="19"/>
+      <c r="H895" s="19"/>
+      <c r="I895" s="19"/>
+      <c r="J895" s="19"/>
+      <c r="K895" s="19"/>
+      <c r="L895" s="19"/>
     </row>
     <row r="896" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D896" s="17"/>
-      <c r="E896" s="17"/>
-      <c r="F896" s="17"/>
-      <c r="G896" s="17"/>
-      <c r="H896" s="17"/>
-      <c r="I896" s="17"/>
-      <c r="J896" s="17"/>
-      <c r="K896" s="17"/>
-      <c r="L896" s="17"/>
+      <c r="D896" s="19"/>
+      <c r="E896" s="19"/>
+      <c r="F896" s="19"/>
+      <c r="G896" s="19"/>
+      <c r="H896" s="19"/>
+      <c r="I896" s="19"/>
+      <c r="J896" s="19"/>
+      <c r="K896" s="19"/>
+      <c r="L896" s="19"/>
     </row>
     <row r="897" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D897" s="17"/>
-      <c r="E897" s="17"/>
-      <c r="F897" s="17"/>
-      <c r="G897" s="17"/>
-      <c r="H897" s="17"/>
-      <c r="I897" s="17"/>
-      <c r="J897" s="17"/>
-      <c r="K897" s="17"/>
-      <c r="L897" s="17"/>
+      <c r="D897" s="19"/>
+      <c r="E897" s="19"/>
+      <c r="F897" s="19"/>
+      <c r="G897" s="19"/>
+      <c r="H897" s="19"/>
+      <c r="I897" s="19"/>
+      <c r="J897" s="19"/>
+      <c r="K897" s="19"/>
+      <c r="L897" s="19"/>
     </row>
     <row r="898" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D898" s="2"/>
@@ -28106,39 +28379,39 @@
       <c r="B912" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D912" s="17" t="s">
+      <c r="D912" s="19" t="s">
         <v>1016</v>
       </c>
-      <c r="E912" s="17"/>
-      <c r="F912" s="17"/>
-      <c r="G912" s="17"/>
-      <c r="H912" s="17"/>
-      <c r="I912" s="17"/>
-      <c r="J912" s="17"/>
-      <c r="K912" s="17"/>
-      <c r="L912" s="17"/>
+      <c r="E912" s="19"/>
+      <c r="F912" s="19"/>
+      <c r="G912" s="19"/>
+      <c r="H912" s="19"/>
+      <c r="I912" s="19"/>
+      <c r="J912" s="19"/>
+      <c r="K912" s="19"/>
+      <c r="L912" s="19"/>
     </row>
     <row r="913" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D913" s="17"/>
-      <c r="E913" s="17"/>
-      <c r="F913" s="17"/>
-      <c r="G913" s="17"/>
-      <c r="H913" s="17"/>
-      <c r="I913" s="17"/>
-      <c r="J913" s="17"/>
-      <c r="K913" s="17"/>
-      <c r="L913" s="17"/>
+      <c r="D913" s="19"/>
+      <c r="E913" s="19"/>
+      <c r="F913" s="19"/>
+      <c r="G913" s="19"/>
+      <c r="H913" s="19"/>
+      <c r="I913" s="19"/>
+      <c r="J913" s="19"/>
+      <c r="K913" s="19"/>
+      <c r="L913" s="19"/>
     </row>
     <row r="914" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D914" s="17"/>
-      <c r="E914" s="17"/>
-      <c r="F914" s="17"/>
-      <c r="G914" s="17"/>
-      <c r="H914" s="17"/>
-      <c r="I914" s="17"/>
-      <c r="J914" s="17"/>
-      <c r="K914" s="17"/>
-      <c r="L914" s="17"/>
+      <c r="D914" s="19"/>
+      <c r="E914" s="19"/>
+      <c r="F914" s="19"/>
+      <c r="G914" s="19"/>
+      <c r="H914" s="19"/>
+      <c r="I914" s="19"/>
+      <c r="J914" s="19"/>
+      <c r="K914" s="19"/>
+      <c r="L914" s="19"/>
     </row>
     <row r="915" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D915" s="2"/>
@@ -28455,39 +28728,39 @@
       <c r="B929" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D929" s="17" t="s">
+      <c r="D929" s="19" t="s">
         <v>1017</v>
       </c>
-      <c r="E929" s="17"/>
-      <c r="F929" s="17"/>
-      <c r="G929" s="17"/>
-      <c r="H929" s="17"/>
-      <c r="I929" s="17"/>
-      <c r="J929" s="17"/>
-      <c r="K929" s="17"/>
-      <c r="L929" s="17"/>
+      <c r="E929" s="19"/>
+      <c r="F929" s="19"/>
+      <c r="G929" s="19"/>
+      <c r="H929" s="19"/>
+      <c r="I929" s="19"/>
+      <c r="J929" s="19"/>
+      <c r="K929" s="19"/>
+      <c r="L929" s="19"/>
     </row>
     <row r="930" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D930" s="17"/>
-      <c r="E930" s="17"/>
-      <c r="F930" s="17"/>
-      <c r="G930" s="17"/>
-      <c r="H930" s="17"/>
-      <c r="I930" s="17"/>
-      <c r="J930" s="17"/>
-      <c r="K930" s="17"/>
-      <c r="L930" s="17"/>
+      <c r="D930" s="19"/>
+      <c r="E930" s="19"/>
+      <c r="F930" s="19"/>
+      <c r="G930" s="19"/>
+      <c r="H930" s="19"/>
+      <c r="I930" s="19"/>
+      <c r="J930" s="19"/>
+      <c r="K930" s="19"/>
+      <c r="L930" s="19"/>
     </row>
     <row r="931" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D931" s="17"/>
-      <c r="E931" s="17"/>
-      <c r="F931" s="17"/>
-      <c r="G931" s="17"/>
-      <c r="H931" s="17"/>
-      <c r="I931" s="17"/>
-      <c r="J931" s="17"/>
-      <c r="K931" s="17"/>
-      <c r="L931" s="17"/>
+      <c r="D931" s="19"/>
+      <c r="E931" s="19"/>
+      <c r="F931" s="19"/>
+      <c r="G931" s="19"/>
+      <c r="H931" s="19"/>
+      <c r="I931" s="19"/>
+      <c r="J931" s="19"/>
+      <c r="K931" s="19"/>
+      <c r="L931" s="19"/>
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D932" s="2"/>
@@ -29101,36 +29374,36 @@
       <c r="B958" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D958" s="17" t="s">
+      <c r="D958" s="19" t="s">
         <v>1018</v>
       </c>
-      <c r="E958" s="17"/>
-      <c r="F958" s="17"/>
-      <c r="G958" s="17"/>
-      <c r="H958" s="17"/>
-      <c r="I958" s="17"/>
+      <c r="E958" s="19"/>
+      <c r="F958" s="19"/>
+      <c r="G958" s="19"/>
+      <c r="H958" s="19"/>
+      <c r="I958" s="19"/>
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
       <c r="L958" s="2"/>
     </row>
     <row r="959" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D959" s="17"/>
-      <c r="E959" s="17"/>
-      <c r="F959" s="17"/>
-      <c r="G959" s="17"/>
-      <c r="H959" s="17"/>
-      <c r="I959" s="17"/>
+      <c r="D959" s="19"/>
+      <c r="E959" s="19"/>
+      <c r="F959" s="19"/>
+      <c r="G959" s="19"/>
+      <c r="H959" s="19"/>
+      <c r="I959" s="19"/>
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
       <c r="L959" s="2"/>
     </row>
     <row r="960" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D960" s="17"/>
-      <c r="E960" s="17"/>
-      <c r="F960" s="17"/>
-      <c r="G960" s="17"/>
-      <c r="H960" s="17"/>
-      <c r="I960" s="17"/>
+      <c r="D960" s="19"/>
+      <c r="E960" s="19"/>
+      <c r="F960" s="19"/>
+      <c r="G960" s="19"/>
+      <c r="H960" s="19"/>
+      <c r="I960" s="19"/>
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
       <c r="L960" s="2"/>
@@ -29544,36 +29817,36 @@
       <c r="L978" s="2"/>
     </row>
     <row r="979" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D979" s="17" t="s">
+      <c r="D979" s="19" t="s">
         <v>1019</v>
       </c>
-      <c r="E979" s="17"/>
-      <c r="F979" s="17"/>
-      <c r="G979" s="17"/>
-      <c r="H979" s="17"/>
-      <c r="I979" s="17"/>
+      <c r="E979" s="19"/>
+      <c r="F979" s="19"/>
+      <c r="G979" s="19"/>
+      <c r="H979" s="19"/>
+      <c r="I979" s="19"/>
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
       <c r="L979" s="2"/>
     </row>
     <row r="980" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D980" s="17"/>
-      <c r="E980" s="17"/>
-      <c r="F980" s="17"/>
-      <c r="G980" s="17"/>
-      <c r="H980" s="17"/>
-      <c r="I980" s="17"/>
+      <c r="D980" s="19"/>
+      <c r="E980" s="19"/>
+      <c r="F980" s="19"/>
+      <c r="G980" s="19"/>
+      <c r="H980" s="19"/>
+      <c r="I980" s="19"/>
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
       <c r="L980" s="2"/>
     </row>
     <row r="981" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D981" s="17"/>
-      <c r="E981" s="17"/>
-      <c r="F981" s="17"/>
-      <c r="G981" s="17"/>
-      <c r="H981" s="17"/>
-      <c r="I981" s="17"/>
+      <c r="D981" s="19"/>
+      <c r="E981" s="19"/>
+      <c r="F981" s="19"/>
+      <c r="G981" s="19"/>
+      <c r="H981" s="19"/>
+      <c r="I981" s="19"/>
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
       <c r="L981" s="2"/>
@@ -29929,36 +30202,36 @@
       <c r="L998" s="2"/>
     </row>
     <row r="999" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D999" s="17" t="s">
+      <c r="D999" s="19" t="s">
         <v>1020</v>
       </c>
-      <c r="E999" s="17"/>
-      <c r="F999" s="17"/>
-      <c r="G999" s="17"/>
-      <c r="H999" s="17"/>
-      <c r="I999" s="17"/>
+      <c r="E999" s="19"/>
+      <c r="F999" s="19"/>
+      <c r="G999" s="19"/>
+      <c r="H999" s="19"/>
+      <c r="I999" s="19"/>
       <c r="J999" s="2"/>
       <c r="K999" s="2"/>
       <c r="L999" s="2"/>
     </row>
     <row r="1000" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D1000" s="17"/>
-      <c r="E1000" s="17"/>
-      <c r="F1000" s="17"/>
-      <c r="G1000" s="17"/>
-      <c r="H1000" s="17"/>
-      <c r="I1000" s="17"/>
+      <c r="D1000" s="19"/>
+      <c r="E1000" s="19"/>
+      <c r="F1000" s="19"/>
+      <c r="G1000" s="19"/>
+      <c r="H1000" s="19"/>
+      <c r="I1000" s="19"/>
       <c r="J1000" s="2"/>
       <c r="K1000" s="2"/>
       <c r="L1000" s="2"/>
     </row>
     <row r="1001" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D1001" s="17"/>
-      <c r="E1001" s="17"/>
-      <c r="F1001" s="17"/>
-      <c r="G1001" s="17"/>
-      <c r="H1001" s="17"/>
-      <c r="I1001" s="17"/>
+      <c r="D1001" s="19"/>
+      <c r="E1001" s="19"/>
+      <c r="F1001" s="19"/>
+      <c r="G1001" s="19"/>
+      <c r="H1001" s="19"/>
+      <c r="I1001" s="19"/>
       <c r="J1001" s="2"/>
       <c r="K1001" s="2"/>
       <c r="L1001" s="2"/>
@@ -30250,36 +30523,36 @@
       <c r="L1015" s="2"/>
     </row>
     <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1016" s="17" t="s">
+      <c r="D1016" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="E1016" s="17"/>
-      <c r="F1016" s="17"/>
-      <c r="G1016" s="17"/>
-      <c r="H1016" s="17"/>
-      <c r="I1016" s="17"/>
+      <c r="E1016" s="19"/>
+      <c r="F1016" s="19"/>
+      <c r="G1016" s="19"/>
+      <c r="H1016" s="19"/>
+      <c r="I1016" s="19"/>
       <c r="J1016" s="2"/>
       <c r="K1016" s="2"/>
       <c r="L1016" s="2"/>
     </row>
     <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1017" s="17"/>
-      <c r="E1017" s="17"/>
-      <c r="F1017" s="17"/>
-      <c r="G1017" s="17"/>
-      <c r="H1017" s="17"/>
-      <c r="I1017" s="17"/>
+      <c r="D1017" s="19"/>
+      <c r="E1017" s="19"/>
+      <c r="F1017" s="19"/>
+      <c r="G1017" s="19"/>
+      <c r="H1017" s="19"/>
+      <c r="I1017" s="19"/>
       <c r="J1017" s="2"/>
       <c r="K1017" s="2"/>
       <c r="L1017" s="2"/>
     </row>
     <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1018" s="17"/>
-      <c r="E1018" s="17"/>
-      <c r="F1018" s="17"/>
-      <c r="G1018" s="17"/>
-      <c r="H1018" s="17"/>
-      <c r="I1018" s="17"/>
+      <c r="D1018" s="19"/>
+      <c r="E1018" s="19"/>
+      <c r="F1018" s="19"/>
+      <c r="G1018" s="19"/>
+      <c r="H1018" s="19"/>
+      <c r="I1018" s="19"/>
       <c r="J1018" s="2"/>
       <c r="K1018" s="2"/>
       <c r="L1018" s="2"/>
@@ -31261,39 +31534,39 @@
       <c r="B1059" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1059" s="17" t="s">
+      <c r="D1059" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="E1059" s="17"/>
-      <c r="F1059" s="17"/>
-      <c r="G1059" s="17"/>
-      <c r="H1059" s="17"/>
-      <c r="I1059" s="17"/>
-      <c r="J1059" s="17"/>
-      <c r="K1059" s="17"/>
-      <c r="L1059" s="17"/>
+      <c r="E1059" s="19"/>
+      <c r="F1059" s="19"/>
+      <c r="G1059" s="19"/>
+      <c r="H1059" s="19"/>
+      <c r="I1059" s="19"/>
+      <c r="J1059" s="19"/>
+      <c r="K1059" s="19"/>
+      <c r="L1059" s="19"/>
     </row>
     <row r="1060" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1060" s="17"/>
-      <c r="E1060" s="17"/>
-      <c r="F1060" s="17"/>
-      <c r="G1060" s="17"/>
-      <c r="H1060" s="17"/>
-      <c r="I1060" s="17"/>
-      <c r="J1060" s="17"/>
-      <c r="K1060" s="17"/>
-      <c r="L1060" s="17"/>
+      <c r="D1060" s="19"/>
+      <c r="E1060" s="19"/>
+      <c r="F1060" s="19"/>
+      <c r="G1060" s="19"/>
+      <c r="H1060" s="19"/>
+      <c r="I1060" s="19"/>
+      <c r="J1060" s="19"/>
+      <c r="K1060" s="19"/>
+      <c r="L1060" s="19"/>
     </row>
     <row r="1061" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1061" s="17"/>
-      <c r="E1061" s="17"/>
-      <c r="F1061" s="17"/>
-      <c r="G1061" s="17"/>
-      <c r="H1061" s="17"/>
-      <c r="I1061" s="17"/>
-      <c r="J1061" s="17"/>
-      <c r="K1061" s="17"/>
-      <c r="L1061" s="17"/>
+      <c r="D1061" s="19"/>
+      <c r="E1061" s="19"/>
+      <c r="F1061" s="19"/>
+      <c r="G1061" s="19"/>
+      <c r="H1061" s="19"/>
+      <c r="I1061" s="19"/>
+      <c r="J1061" s="19"/>
+      <c r="K1061" s="19"/>
+      <c r="L1061" s="19"/>
     </row>
     <row r="1062" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1062" s="2"/>
@@ -31612,39 +31885,39 @@
       <c r="B1076" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1076" s="17" t="s">
+      <c r="D1076" s="19" t="s">
         <v>1023</v>
       </c>
-      <c r="E1076" s="17"/>
-      <c r="F1076" s="17"/>
-      <c r="G1076" s="17"/>
-      <c r="H1076" s="17"/>
-      <c r="I1076" s="17"/>
-      <c r="J1076" s="17"/>
-      <c r="K1076" s="17"/>
-      <c r="L1076" s="17"/>
+      <c r="E1076" s="19"/>
+      <c r="F1076" s="19"/>
+      <c r="G1076" s="19"/>
+      <c r="H1076" s="19"/>
+      <c r="I1076" s="19"/>
+      <c r="J1076" s="19"/>
+      <c r="K1076" s="19"/>
+      <c r="L1076" s="19"/>
     </row>
     <row r="1077" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1077" s="17"/>
-      <c r="E1077" s="17"/>
-      <c r="F1077" s="17"/>
-      <c r="G1077" s="17"/>
-      <c r="H1077" s="17"/>
-      <c r="I1077" s="17"/>
-      <c r="J1077" s="17"/>
-      <c r="K1077" s="17"/>
-      <c r="L1077" s="17"/>
+      <c r="D1077" s="19"/>
+      <c r="E1077" s="19"/>
+      <c r="F1077" s="19"/>
+      <c r="G1077" s="19"/>
+      <c r="H1077" s="19"/>
+      <c r="I1077" s="19"/>
+      <c r="J1077" s="19"/>
+      <c r="K1077" s="19"/>
+      <c r="L1077" s="19"/>
     </row>
     <row r="1078" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1078" s="17"/>
-      <c r="E1078" s="17"/>
-      <c r="F1078" s="17"/>
-      <c r="G1078" s="17"/>
-      <c r="H1078" s="17"/>
-      <c r="I1078" s="17"/>
-      <c r="J1078" s="17"/>
-      <c r="K1078" s="17"/>
-      <c r="L1078" s="17"/>
+      <c r="D1078" s="19"/>
+      <c r="E1078" s="19"/>
+      <c r="F1078" s="19"/>
+      <c r="G1078" s="19"/>
+      <c r="H1078" s="19"/>
+      <c r="I1078" s="19"/>
+      <c r="J1078" s="19"/>
+      <c r="K1078" s="19"/>
+      <c r="L1078" s="19"/>
     </row>
     <row r="1079" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1079" s="2"/>
@@ -33012,36 +33285,36 @@
       <c r="L1128" s="2"/>
     </row>
     <row r="1129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1129" s="17" t="s">
+      <c r="D1129" s="19" t="s">
         <v>1024</v>
       </c>
-      <c r="E1129" s="17"/>
-      <c r="F1129" s="17"/>
-      <c r="G1129" s="17"/>
-      <c r="H1129" s="17"/>
-      <c r="I1129" s="17"/>
+      <c r="E1129" s="19"/>
+      <c r="F1129" s="19"/>
+      <c r="G1129" s="19"/>
+      <c r="H1129" s="19"/>
+      <c r="I1129" s="19"/>
       <c r="J1129" s="2"/>
       <c r="K1129" s="2"/>
       <c r="L1129" s="2"/>
     </row>
     <row r="1130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1130" s="17"/>
-      <c r="E1130" s="17"/>
-      <c r="F1130" s="17"/>
-      <c r="G1130" s="17"/>
-      <c r="H1130" s="17"/>
-      <c r="I1130" s="17"/>
+      <c r="D1130" s="19"/>
+      <c r="E1130" s="19"/>
+      <c r="F1130" s="19"/>
+      <c r="G1130" s="19"/>
+      <c r="H1130" s="19"/>
+      <c r="I1130" s="19"/>
       <c r="J1130" s="2"/>
       <c r="K1130" s="2"/>
       <c r="L1130" s="2"/>
     </row>
     <row r="1131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1131" s="17"/>
-      <c r="E1131" s="17"/>
-      <c r="F1131" s="17"/>
-      <c r="G1131" s="17"/>
-      <c r="H1131" s="17"/>
-      <c r="I1131" s="17"/>
+      <c r="D1131" s="19"/>
+      <c r="E1131" s="19"/>
+      <c r="F1131" s="19"/>
+      <c r="G1131" s="19"/>
+      <c r="H1131" s="19"/>
+      <c r="I1131" s="19"/>
       <c r="J1131" s="2"/>
       <c r="K1131" s="2"/>
       <c r="L1131" s="2"/>
@@ -34615,39 +34888,39 @@
       <c r="B1188" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1188" s="17" t="s">
+      <c r="D1188" s="19" t="s">
         <v>1025</v>
       </c>
-      <c r="E1188" s="17"/>
-      <c r="F1188" s="17"/>
-      <c r="G1188" s="17"/>
-      <c r="H1188" s="17"/>
-      <c r="I1188" s="17"/>
-      <c r="J1188" s="17"/>
-      <c r="K1188" s="17"/>
-      <c r="L1188" s="17"/>
+      <c r="E1188" s="19"/>
+      <c r="F1188" s="19"/>
+      <c r="G1188" s="19"/>
+      <c r="H1188" s="19"/>
+      <c r="I1188" s="19"/>
+      <c r="J1188" s="19"/>
+      <c r="K1188" s="19"/>
+      <c r="L1188" s="19"/>
     </row>
     <row r="1189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1189" s="17"/>
-      <c r="E1189" s="17"/>
-      <c r="F1189" s="17"/>
-      <c r="G1189" s="17"/>
-      <c r="H1189" s="17"/>
-      <c r="I1189" s="17"/>
-      <c r="J1189" s="17"/>
-      <c r="K1189" s="17"/>
-      <c r="L1189" s="17"/>
+      <c r="D1189" s="19"/>
+      <c r="E1189" s="19"/>
+      <c r="F1189" s="19"/>
+      <c r="G1189" s="19"/>
+      <c r="H1189" s="19"/>
+      <c r="I1189" s="19"/>
+      <c r="J1189" s="19"/>
+      <c r="K1189" s="19"/>
+      <c r="L1189" s="19"/>
     </row>
     <row r="1190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1190" s="17"/>
-      <c r="E1190" s="17"/>
-      <c r="F1190" s="17"/>
-      <c r="G1190" s="17"/>
-      <c r="H1190" s="17"/>
-      <c r="I1190" s="17"/>
-      <c r="J1190" s="17"/>
-      <c r="K1190" s="17"/>
-      <c r="L1190" s="17"/>
+      <c r="D1190" s="19"/>
+      <c r="E1190" s="19"/>
+      <c r="F1190" s="19"/>
+      <c r="G1190" s="19"/>
+      <c r="H1190" s="19"/>
+      <c r="I1190" s="19"/>
+      <c r="J1190" s="19"/>
+      <c r="K1190" s="19"/>
+      <c r="L1190" s="19"/>
     </row>
     <row r="1191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1191" s="2"/>
@@ -35856,39 +36129,39 @@
       <c r="B1236" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1236" s="17" t="s">
+      <c r="D1236" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="E1236" s="17"/>
-      <c r="F1236" s="17"/>
-      <c r="G1236" s="17"/>
-      <c r="H1236" s="17"/>
-      <c r="I1236" s="17"/>
-      <c r="J1236" s="17"/>
-      <c r="K1236" s="17"/>
-      <c r="L1236" s="17"/>
+      <c r="E1236" s="19"/>
+      <c r="F1236" s="19"/>
+      <c r="G1236" s="19"/>
+      <c r="H1236" s="19"/>
+      <c r="I1236" s="19"/>
+      <c r="J1236" s="19"/>
+      <c r="K1236" s="19"/>
+      <c r="L1236" s="19"/>
     </row>
     <row r="1237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1237" s="17"/>
-      <c r="E1237" s="17"/>
-      <c r="F1237" s="17"/>
-      <c r="G1237" s="17"/>
-      <c r="H1237" s="17"/>
-      <c r="I1237" s="17"/>
-      <c r="J1237" s="17"/>
-      <c r="K1237" s="17"/>
-      <c r="L1237" s="17"/>
+      <c r="D1237" s="19"/>
+      <c r="E1237" s="19"/>
+      <c r="F1237" s="19"/>
+      <c r="G1237" s="19"/>
+      <c r="H1237" s="19"/>
+      <c r="I1237" s="19"/>
+      <c r="J1237" s="19"/>
+      <c r="K1237" s="19"/>
+      <c r="L1237" s="19"/>
     </row>
     <row r="1238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1238" s="17"/>
-      <c r="E1238" s="17"/>
-      <c r="F1238" s="17"/>
-      <c r="G1238" s="17"/>
-      <c r="H1238" s="17"/>
-      <c r="I1238" s="17"/>
-      <c r="J1238" s="17"/>
-      <c r="K1238" s="17"/>
-      <c r="L1238" s="17"/>
+      <c r="D1238" s="19"/>
+      <c r="E1238" s="19"/>
+      <c r="F1238" s="19"/>
+      <c r="G1238" s="19"/>
+      <c r="H1238" s="19"/>
+      <c r="I1238" s="19"/>
+      <c r="J1238" s="19"/>
+      <c r="K1238" s="19"/>
+      <c r="L1238" s="19"/>
     </row>
     <row r="1239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1239" s="2"/>
@@ -36180,36 +36453,36 @@
       <c r="D1252" s="18" t="s">
         <v>1287</v>
       </c>
-      <c r="E1252" s="17"/>
-      <c r="F1252" s="17"/>
-      <c r="G1252" s="17"/>
-      <c r="H1252" s="17"/>
-      <c r="I1252" s="17"/>
-      <c r="J1252" s="17"/>
-      <c r="K1252" s="17"/>
-      <c r="L1252" s="17"/>
+      <c r="E1252" s="19"/>
+      <c r="F1252" s="19"/>
+      <c r="G1252" s="19"/>
+      <c r="H1252" s="19"/>
+      <c r="I1252" s="19"/>
+      <c r="J1252" s="19"/>
+      <c r="K1252" s="19"/>
+      <c r="L1252" s="19"/>
     </row>
     <row r="1253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1253" s="17"/>
-      <c r="E1253" s="17"/>
-      <c r="F1253" s="17"/>
-      <c r="G1253" s="17"/>
-      <c r="H1253" s="17"/>
-      <c r="I1253" s="17"/>
-      <c r="J1253" s="17"/>
-      <c r="K1253" s="17"/>
-      <c r="L1253" s="17"/>
+      <c r="D1253" s="19"/>
+      <c r="E1253" s="19"/>
+      <c r="F1253" s="19"/>
+      <c r="G1253" s="19"/>
+      <c r="H1253" s="19"/>
+      <c r="I1253" s="19"/>
+      <c r="J1253" s="19"/>
+      <c r="K1253" s="19"/>
+      <c r="L1253" s="19"/>
     </row>
     <row r="1254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1254" s="17"/>
-      <c r="E1254" s="17"/>
-      <c r="F1254" s="17"/>
-      <c r="G1254" s="17"/>
-      <c r="H1254" s="17"/>
-      <c r="I1254" s="17"/>
-      <c r="J1254" s="17"/>
-      <c r="K1254" s="17"/>
-      <c r="L1254" s="17"/>
+      <c r="D1254" s="19"/>
+      <c r="E1254" s="19"/>
+      <c r="F1254" s="19"/>
+      <c r="G1254" s="19"/>
+      <c r="H1254" s="19"/>
+      <c r="I1254" s="19"/>
+      <c r="J1254" s="19"/>
+      <c r="K1254" s="19"/>
+      <c r="L1254" s="19"/>
     </row>
     <row r="1255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1255" s="2"/>
@@ -36472,39 +36745,39 @@
       <c r="B1267" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1267" s="17" t="s">
+      <c r="D1267" s="19" t="s">
         <v>1288</v>
       </c>
-      <c r="E1267" s="17"/>
-      <c r="F1267" s="17"/>
-      <c r="G1267" s="17"/>
-      <c r="H1267" s="17"/>
-      <c r="I1267" s="17"/>
-      <c r="J1267" s="17"/>
-      <c r="K1267" s="17"/>
-      <c r="L1267" s="17"/>
+      <c r="E1267" s="19"/>
+      <c r="F1267" s="19"/>
+      <c r="G1267" s="19"/>
+      <c r="H1267" s="19"/>
+      <c r="I1267" s="19"/>
+      <c r="J1267" s="19"/>
+      <c r="K1267" s="19"/>
+      <c r="L1267" s="19"/>
     </row>
     <row r="1268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1268" s="17"/>
-      <c r="E1268" s="17"/>
-      <c r="F1268" s="17"/>
-      <c r="G1268" s="17"/>
-      <c r="H1268" s="17"/>
-      <c r="I1268" s="17"/>
-      <c r="J1268" s="17"/>
-      <c r="K1268" s="17"/>
-      <c r="L1268" s="17"/>
+      <c r="D1268" s="19"/>
+      <c r="E1268" s="19"/>
+      <c r="F1268" s="19"/>
+      <c r="G1268" s="19"/>
+      <c r="H1268" s="19"/>
+      <c r="I1268" s="19"/>
+      <c r="J1268" s="19"/>
+      <c r="K1268" s="19"/>
+      <c r="L1268" s="19"/>
     </row>
     <row r="1269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1269" s="17"/>
-      <c r="E1269" s="17"/>
-      <c r="F1269" s="17"/>
-      <c r="G1269" s="17"/>
-      <c r="H1269" s="17"/>
-      <c r="I1269" s="17"/>
-      <c r="J1269" s="17"/>
-      <c r="K1269" s="17"/>
-      <c r="L1269" s="17"/>
+      <c r="D1269" s="19"/>
+      <c r="E1269" s="19"/>
+      <c r="F1269" s="19"/>
+      <c r="G1269" s="19"/>
+      <c r="H1269" s="19"/>
+      <c r="I1269" s="19"/>
+      <c r="J1269" s="19"/>
+      <c r="K1269" s="19"/>
+      <c r="L1269" s="19"/>
     </row>
     <row r="1270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1270" s="2"/>
@@ -37034,39 +37307,39 @@
       <c r="B1292" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1292" s="17" t="s">
+      <c r="D1292" s="19" t="s">
         <v>1296</v>
       </c>
-      <c r="E1292" s="17"/>
-      <c r="F1292" s="17"/>
-      <c r="G1292" s="17"/>
-      <c r="H1292" s="17"/>
-      <c r="I1292" s="17"/>
-      <c r="J1292" s="17"/>
-      <c r="K1292" s="17"/>
-      <c r="L1292" s="17"/>
+      <c r="E1292" s="19"/>
+      <c r="F1292" s="19"/>
+      <c r="G1292" s="19"/>
+      <c r="H1292" s="19"/>
+      <c r="I1292" s="19"/>
+      <c r="J1292" s="19"/>
+      <c r="K1292" s="19"/>
+      <c r="L1292" s="19"/>
     </row>
     <row r="1293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1293" s="17"/>
-      <c r="E1293" s="17"/>
-      <c r="F1293" s="17"/>
-      <c r="G1293" s="17"/>
-      <c r="H1293" s="17"/>
-      <c r="I1293" s="17"/>
-      <c r="J1293" s="17"/>
-      <c r="K1293" s="17"/>
-      <c r="L1293" s="17"/>
+      <c r="D1293" s="19"/>
+      <c r="E1293" s="19"/>
+      <c r="F1293" s="19"/>
+      <c r="G1293" s="19"/>
+      <c r="H1293" s="19"/>
+      <c r="I1293" s="19"/>
+      <c r="J1293" s="19"/>
+      <c r="K1293" s="19"/>
+      <c r="L1293" s="19"/>
     </row>
     <row r="1294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1294" s="17"/>
-      <c r="E1294" s="17"/>
-      <c r="F1294" s="17"/>
-      <c r="G1294" s="17"/>
-      <c r="H1294" s="17"/>
-      <c r="I1294" s="17"/>
-      <c r="J1294" s="17"/>
-      <c r="K1294" s="17"/>
-      <c r="L1294" s="17"/>
+      <c r="D1294" s="19"/>
+      <c r="E1294" s="19"/>
+      <c r="F1294" s="19"/>
+      <c r="G1294" s="19"/>
+      <c r="H1294" s="19"/>
+      <c r="I1294" s="19"/>
+      <c r="J1294" s="19"/>
+      <c r="K1294" s="19"/>
+      <c r="L1294" s="19"/>
     </row>
     <row r="1295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1295" s="2"/>
@@ -37382,39 +37655,39 @@
       <c r="B1309" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1309" s="17" t="s">
+      <c r="D1309" s="19" t="s">
         <v>1289</v>
       </c>
-      <c r="E1309" s="17"/>
-      <c r="F1309" s="17"/>
-      <c r="G1309" s="17"/>
-      <c r="H1309" s="17"/>
-      <c r="I1309" s="17"/>
-      <c r="J1309" s="17"/>
-      <c r="K1309" s="17"/>
-      <c r="L1309" s="17"/>
+      <c r="E1309" s="19"/>
+      <c r="F1309" s="19"/>
+      <c r="G1309" s="19"/>
+      <c r="H1309" s="19"/>
+      <c r="I1309" s="19"/>
+      <c r="J1309" s="19"/>
+      <c r="K1309" s="19"/>
+      <c r="L1309" s="19"/>
     </row>
     <row r="1310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1310" s="17"/>
-      <c r="E1310" s="17"/>
-      <c r="F1310" s="17"/>
-      <c r="G1310" s="17"/>
-      <c r="H1310" s="17"/>
-      <c r="I1310" s="17"/>
-      <c r="J1310" s="17"/>
-      <c r="K1310" s="17"/>
-      <c r="L1310" s="17"/>
+      <c r="D1310" s="19"/>
+      <c r="E1310" s="19"/>
+      <c r="F1310" s="19"/>
+      <c r="G1310" s="19"/>
+      <c r="H1310" s="19"/>
+      <c r="I1310" s="19"/>
+      <c r="J1310" s="19"/>
+      <c r="K1310" s="19"/>
+      <c r="L1310" s="19"/>
     </row>
     <row r="1311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1311" s="17"/>
-      <c r="E1311" s="17"/>
-      <c r="F1311" s="17"/>
-      <c r="G1311" s="17"/>
-      <c r="H1311" s="17"/>
-      <c r="I1311" s="17"/>
-      <c r="J1311" s="17"/>
-      <c r="K1311" s="17"/>
-      <c r="L1311" s="17"/>
+      <c r="D1311" s="19"/>
+      <c r="E1311" s="19"/>
+      <c r="F1311" s="19"/>
+      <c r="G1311" s="19"/>
+      <c r="H1311" s="19"/>
+      <c r="I1311" s="19"/>
+      <c r="J1311" s="19"/>
+      <c r="K1311" s="19"/>
+      <c r="L1311" s="19"/>
     </row>
     <row r="1312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1312" s="2"/>
@@ -37730,39 +38003,39 @@
       <c r="B1326" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1326" s="17" t="s">
+      <c r="D1326" s="19" t="s">
         <v>1291</v>
       </c>
-      <c r="E1326" s="17"/>
-      <c r="F1326" s="17"/>
-      <c r="G1326" s="17"/>
-      <c r="H1326" s="17"/>
-      <c r="I1326" s="17"/>
-      <c r="J1326" s="17"/>
-      <c r="K1326" s="17"/>
-      <c r="L1326" s="17"/>
+      <c r="E1326" s="19"/>
+      <c r="F1326" s="19"/>
+      <c r="G1326" s="19"/>
+      <c r="H1326" s="19"/>
+      <c r="I1326" s="19"/>
+      <c r="J1326" s="19"/>
+      <c r="K1326" s="19"/>
+      <c r="L1326" s="19"/>
     </row>
     <row r="1327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1327" s="17"/>
-      <c r="E1327" s="17"/>
-      <c r="F1327" s="17"/>
-      <c r="G1327" s="17"/>
-      <c r="H1327" s="17"/>
-      <c r="I1327" s="17"/>
-      <c r="J1327" s="17"/>
-      <c r="K1327" s="17"/>
-      <c r="L1327" s="17"/>
+      <c r="D1327" s="19"/>
+      <c r="E1327" s="19"/>
+      <c r="F1327" s="19"/>
+      <c r="G1327" s="19"/>
+      <c r="H1327" s="19"/>
+      <c r="I1327" s="19"/>
+      <c r="J1327" s="19"/>
+      <c r="K1327" s="19"/>
+      <c r="L1327" s="19"/>
     </row>
     <row r="1328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1328" s="17"/>
-      <c r="E1328" s="17"/>
-      <c r="F1328" s="17"/>
-      <c r="G1328" s="17"/>
-      <c r="H1328" s="17"/>
-      <c r="I1328" s="17"/>
-      <c r="J1328" s="17"/>
-      <c r="K1328" s="17"/>
-      <c r="L1328" s="17"/>
+      <c r="D1328" s="19"/>
+      <c r="E1328" s="19"/>
+      <c r="F1328" s="19"/>
+      <c r="G1328" s="19"/>
+      <c r="H1328" s="19"/>
+      <c r="I1328" s="19"/>
+      <c r="J1328" s="19"/>
+      <c r="K1328" s="19"/>
+      <c r="L1328" s="19"/>
     </row>
     <row r="1329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1329" s="2"/>
@@ -38155,39 +38428,39 @@
       <c r="B1346" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1346" s="17" t="s">
+      <c r="D1346" s="19" t="s">
         <v>1290</v>
       </c>
-      <c r="E1346" s="17"/>
-      <c r="F1346" s="17"/>
-      <c r="G1346" s="17"/>
-      <c r="H1346" s="17"/>
-      <c r="I1346" s="17"/>
-      <c r="J1346" s="17"/>
-      <c r="K1346" s="17"/>
-      <c r="L1346" s="17"/>
+      <c r="E1346" s="19"/>
+      <c r="F1346" s="19"/>
+      <c r="G1346" s="19"/>
+      <c r="H1346" s="19"/>
+      <c r="I1346" s="19"/>
+      <c r="J1346" s="19"/>
+      <c r="K1346" s="19"/>
+      <c r="L1346" s="19"/>
     </row>
     <row r="1347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1347" s="17"/>
-      <c r="E1347" s="17"/>
-      <c r="F1347" s="17"/>
-      <c r="G1347" s="17"/>
-      <c r="H1347" s="17"/>
-      <c r="I1347" s="17"/>
-      <c r="J1347" s="17"/>
-      <c r="K1347" s="17"/>
-      <c r="L1347" s="17"/>
+      <c r="D1347" s="19"/>
+      <c r="E1347" s="19"/>
+      <c r="F1347" s="19"/>
+      <c r="G1347" s="19"/>
+      <c r="H1347" s="19"/>
+      <c r="I1347" s="19"/>
+      <c r="J1347" s="19"/>
+      <c r="K1347" s="19"/>
+      <c r="L1347" s="19"/>
     </row>
     <row r="1348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1348" s="17"/>
-      <c r="E1348" s="17"/>
-      <c r="F1348" s="17"/>
-      <c r="G1348" s="17"/>
-      <c r="H1348" s="17"/>
-      <c r="I1348" s="17"/>
-      <c r="J1348" s="17"/>
-      <c r="K1348" s="17"/>
-      <c r="L1348" s="17"/>
+      <c r="D1348" s="19"/>
+      <c r="E1348" s="19"/>
+      <c r="F1348" s="19"/>
+      <c r="G1348" s="19"/>
+      <c r="H1348" s="19"/>
+      <c r="I1348" s="19"/>
+      <c r="J1348" s="19"/>
+      <c r="K1348" s="19"/>
+      <c r="L1348" s="19"/>
     </row>
     <row r="1349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1349" s="2"/>
@@ -38450,39 +38723,39 @@
       <c r="B1361" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1361" s="17" t="s">
+      <c r="D1361" s="19" t="s">
         <v>1292</v>
       </c>
-      <c r="E1361" s="17"/>
-      <c r="F1361" s="17"/>
-      <c r="G1361" s="17"/>
-      <c r="H1361" s="17"/>
-      <c r="I1361" s="17"/>
-      <c r="J1361" s="17"/>
-      <c r="K1361" s="17"/>
-      <c r="L1361" s="17"/>
+      <c r="E1361" s="19"/>
+      <c r="F1361" s="19"/>
+      <c r="G1361" s="19"/>
+      <c r="H1361" s="19"/>
+      <c r="I1361" s="19"/>
+      <c r="J1361" s="19"/>
+      <c r="K1361" s="19"/>
+      <c r="L1361" s="19"/>
     </row>
     <row r="1362" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1362" s="17"/>
-      <c r="E1362" s="17"/>
-      <c r="F1362" s="17"/>
-      <c r="G1362" s="17"/>
-      <c r="H1362" s="17"/>
-      <c r="I1362" s="17"/>
-      <c r="J1362" s="17"/>
-      <c r="K1362" s="17"/>
-      <c r="L1362" s="17"/>
+      <c r="D1362" s="19"/>
+      <c r="E1362" s="19"/>
+      <c r="F1362" s="19"/>
+      <c r="G1362" s="19"/>
+      <c r="H1362" s="19"/>
+      <c r="I1362" s="19"/>
+      <c r="J1362" s="19"/>
+      <c r="K1362" s="19"/>
+      <c r="L1362" s="19"/>
     </row>
     <row r="1363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1363" s="17"/>
-      <c r="E1363" s="17"/>
-      <c r="F1363" s="17"/>
-      <c r="G1363" s="17"/>
-      <c r="H1363" s="17"/>
-      <c r="I1363" s="17"/>
-      <c r="J1363" s="17"/>
-      <c r="K1363" s="17"/>
-      <c r="L1363" s="17"/>
+      <c r="D1363" s="19"/>
+      <c r="E1363" s="19"/>
+      <c r="F1363" s="19"/>
+      <c r="G1363" s="19"/>
+      <c r="H1363" s="19"/>
+      <c r="I1363" s="19"/>
+      <c r="J1363" s="19"/>
+      <c r="K1363" s="19"/>
+      <c r="L1363" s="19"/>
     </row>
     <row r="1364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1364" s="2"/>
@@ -39008,39 +39281,39 @@
       <c r="B1386" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1386" s="17" t="s">
+      <c r="D1386" s="19" t="s">
         <v>1293</v>
       </c>
-      <c r="E1386" s="17"/>
-      <c r="F1386" s="17"/>
-      <c r="G1386" s="17"/>
-      <c r="H1386" s="17"/>
-      <c r="I1386" s="17"/>
-      <c r="J1386" s="17"/>
-      <c r="K1386" s="17"/>
-      <c r="L1386" s="17"/>
+      <c r="E1386" s="19"/>
+      <c r="F1386" s="19"/>
+      <c r="G1386" s="19"/>
+      <c r="H1386" s="19"/>
+      <c r="I1386" s="19"/>
+      <c r="J1386" s="19"/>
+      <c r="K1386" s="19"/>
+      <c r="L1386" s="19"/>
     </row>
     <row r="1387" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1387" s="17"/>
-      <c r="E1387" s="17"/>
-      <c r="F1387" s="17"/>
-      <c r="G1387" s="17"/>
-      <c r="H1387" s="17"/>
-      <c r="I1387" s="17"/>
-      <c r="J1387" s="17"/>
-      <c r="K1387" s="17"/>
-      <c r="L1387" s="17"/>
+      <c r="D1387" s="19"/>
+      <c r="E1387" s="19"/>
+      <c r="F1387" s="19"/>
+      <c r="G1387" s="19"/>
+      <c r="H1387" s="19"/>
+      <c r="I1387" s="19"/>
+      <c r="J1387" s="19"/>
+      <c r="K1387" s="19"/>
+      <c r="L1387" s="19"/>
     </row>
     <row r="1388" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1388" s="17"/>
-      <c r="E1388" s="17"/>
-      <c r="F1388" s="17"/>
-      <c r="G1388" s="17"/>
-      <c r="H1388" s="17"/>
-      <c r="I1388" s="17"/>
-      <c r="J1388" s="17"/>
-      <c r="K1388" s="17"/>
-      <c r="L1388" s="17"/>
+      <c r="D1388" s="19"/>
+      <c r="E1388" s="19"/>
+      <c r="F1388" s="19"/>
+      <c r="G1388" s="19"/>
+      <c r="H1388" s="19"/>
+      <c r="I1388" s="19"/>
+      <c r="J1388" s="19"/>
+      <c r="K1388" s="19"/>
+      <c r="L1388" s="19"/>
     </row>
     <row r="1389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1389" s="2"/>
@@ -39823,39 +40096,39 @@
       <c r="B1421" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1421" s="17" t="s">
+      <c r="D1421" s="19" t="s">
         <v>1294</v>
       </c>
-      <c r="E1421" s="17"/>
-      <c r="F1421" s="17"/>
-      <c r="G1421" s="17"/>
-      <c r="H1421" s="17"/>
-      <c r="I1421" s="17"/>
-      <c r="J1421" s="17"/>
-      <c r="K1421" s="17"/>
-      <c r="L1421" s="17"/>
+      <c r="E1421" s="19"/>
+      <c r="F1421" s="19"/>
+      <c r="G1421" s="19"/>
+      <c r="H1421" s="19"/>
+      <c r="I1421" s="19"/>
+      <c r="J1421" s="19"/>
+      <c r="K1421" s="19"/>
+      <c r="L1421" s="19"/>
     </row>
     <row r="1422" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1422" s="17"/>
-      <c r="E1422" s="17"/>
-      <c r="F1422" s="17"/>
-      <c r="G1422" s="17"/>
-      <c r="H1422" s="17"/>
-      <c r="I1422" s="17"/>
-      <c r="J1422" s="17"/>
-      <c r="K1422" s="17"/>
-      <c r="L1422" s="17"/>
+      <c r="D1422" s="19"/>
+      <c r="E1422" s="19"/>
+      <c r="F1422" s="19"/>
+      <c r="G1422" s="19"/>
+      <c r="H1422" s="19"/>
+      <c r="I1422" s="19"/>
+      <c r="J1422" s="19"/>
+      <c r="K1422" s="19"/>
+      <c r="L1422" s="19"/>
     </row>
     <row r="1423" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1423" s="17"/>
-      <c r="E1423" s="17"/>
-      <c r="F1423" s="17"/>
-      <c r="G1423" s="17"/>
-      <c r="H1423" s="17"/>
-      <c r="I1423" s="17"/>
-      <c r="J1423" s="17"/>
-      <c r="K1423" s="17"/>
-      <c r="L1423" s="17"/>
+      <c r="D1423" s="19"/>
+      <c r="E1423" s="19"/>
+      <c r="F1423" s="19"/>
+      <c r="G1423" s="19"/>
+      <c r="H1423" s="19"/>
+      <c r="I1423" s="19"/>
+      <c r="J1423" s="19"/>
+      <c r="K1423" s="19"/>
+      <c r="L1423" s="19"/>
     </row>
     <row r="1424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1424" s="2"/>
@@ -39982,39 +40255,39 @@
       <c r="B1431" s="6" t="s">
         <v>1286</v>
       </c>
-      <c r="D1431" s="17" t="s">
+      <c r="D1431" s="19" t="s">
         <v>1302</v>
       </c>
-      <c r="E1431" s="17"/>
-      <c r="F1431" s="17"/>
-      <c r="G1431" s="17"/>
-      <c r="H1431" s="17"/>
-      <c r="I1431" s="17"/>
-      <c r="J1431" s="17"/>
-      <c r="K1431" s="17"/>
-      <c r="L1431" s="17"/>
+      <c r="E1431" s="19"/>
+      <c r="F1431" s="19"/>
+      <c r="G1431" s="19"/>
+      <c r="H1431" s="19"/>
+      <c r="I1431" s="19"/>
+      <c r="J1431" s="19"/>
+      <c r="K1431" s="19"/>
+      <c r="L1431" s="19"/>
     </row>
     <row r="1432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1432" s="17"/>
-      <c r="E1432" s="17"/>
-      <c r="F1432" s="17"/>
-      <c r="G1432" s="17"/>
-      <c r="H1432" s="17"/>
-      <c r="I1432" s="17"/>
-      <c r="J1432" s="17"/>
-      <c r="K1432" s="17"/>
-      <c r="L1432" s="17"/>
+      <c r="D1432" s="19"/>
+      <c r="E1432" s="19"/>
+      <c r="F1432" s="19"/>
+      <c r="G1432" s="19"/>
+      <c r="H1432" s="19"/>
+      <c r="I1432" s="19"/>
+      <c r="J1432" s="19"/>
+      <c r="K1432" s="19"/>
+      <c r="L1432" s="19"/>
     </row>
     <row r="1433" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1433" s="17"/>
-      <c r="E1433" s="17"/>
-      <c r="F1433" s="17"/>
-      <c r="G1433" s="17"/>
-      <c r="H1433" s="17"/>
-      <c r="I1433" s="17"/>
-      <c r="J1433" s="17"/>
-      <c r="K1433" s="17"/>
-      <c r="L1433" s="17"/>
+      <c r="D1433" s="19"/>
+      <c r="E1433" s="19"/>
+      <c r="F1433" s="19"/>
+      <c r="G1433" s="19"/>
+      <c r="H1433" s="19"/>
+      <c r="I1433" s="19"/>
+      <c r="J1433" s="19"/>
+      <c r="K1433" s="19"/>
+      <c r="L1433" s="19"/>
     </row>
     <row r="1434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1434" s="16"/>
@@ -40860,9 +41133,9 @@
       <c r="G1468" s="18"/>
       <c r="H1468" s="18"/>
       <c r="I1468" s="18"/>
-      <c r="J1468" s="20"/>
-      <c r="K1468" s="20"/>
-      <c r="L1468" s="20"/>
+      <c r="J1468" s="17"/>
+      <c r="K1468" s="17"/>
+      <c r="L1468" s="17"/>
     </row>
     <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1469" s="4"/>
@@ -40872,9 +41145,9 @@
       <c r="G1469" s="18"/>
       <c r="H1469" s="18"/>
       <c r="I1469" s="18"/>
-      <c r="J1469" s="20"/>
-      <c r="K1469" s="20"/>
-      <c r="L1469" s="20"/>
+      <c r="J1469" s="17"/>
+      <c r="K1469" s="17"/>
+      <c r="L1469" s="17"/>
     </row>
     <row r="1470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1470" s="4"/>
@@ -40884,9 +41157,9 @@
       <c r="G1470" s="18"/>
       <c r="H1470" s="18"/>
       <c r="I1470" s="18"/>
-      <c r="J1470" s="20"/>
-      <c r="K1470" s="20"/>
-      <c r="L1470" s="20"/>
+      <c r="J1470" s="17"/>
+      <c r="K1470" s="17"/>
+      <c r="L1470" s="17"/>
     </row>
     <row r="1471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1471" s="4"/>
@@ -41162,41 +41435,41 @@
     </row>
     <row r="1484" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1484" s="4"/>
-      <c r="D1484" s="17" t="s">
+      <c r="D1484" s="19" t="s">
         <v>1655</v>
       </c>
-      <c r="E1484" s="17"/>
-      <c r="F1484" s="17"/>
-      <c r="G1484" s="17"/>
-      <c r="H1484" s="17"/>
-      <c r="I1484" s="17"/>
-      <c r="J1484" s="20"/>
-      <c r="K1484" s="20"/>
-      <c r="L1484" s="20"/>
+      <c r="E1484" s="19"/>
+      <c r="F1484" s="19"/>
+      <c r="G1484" s="19"/>
+      <c r="H1484" s="19"/>
+      <c r="I1484" s="19"/>
+      <c r="J1484" s="17"/>
+      <c r="K1484" s="17"/>
+      <c r="L1484" s="17"/>
     </row>
     <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1485" s="4"/>
-      <c r="D1485" s="17"/>
-      <c r="E1485" s="17"/>
-      <c r="F1485" s="17"/>
-      <c r="G1485" s="17"/>
-      <c r="H1485" s="17"/>
-      <c r="I1485" s="17"/>
-      <c r="J1485" s="20"/>
-      <c r="K1485" s="20"/>
-      <c r="L1485" s="20"/>
+      <c r="D1485" s="19"/>
+      <c r="E1485" s="19"/>
+      <c r="F1485" s="19"/>
+      <c r="G1485" s="19"/>
+      <c r="H1485" s="19"/>
+      <c r="I1485" s="19"/>
+      <c r="J1485" s="17"/>
+      <c r="K1485" s="17"/>
+      <c r="L1485" s="17"/>
     </row>
     <row r="1486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1486" s="4"/>
-      <c r="D1486" s="17"/>
-      <c r="E1486" s="17"/>
-      <c r="F1486" s="17"/>
-      <c r="G1486" s="17"/>
-      <c r="H1486" s="17"/>
-      <c r="I1486" s="17"/>
-      <c r="J1486" s="20"/>
-      <c r="K1486" s="20"/>
-      <c r="L1486" s="20"/>
+      <c r="D1486" s="19"/>
+      <c r="E1486" s="19"/>
+      <c r="F1486" s="19"/>
+      <c r="G1486" s="19"/>
+      <c r="H1486" s="19"/>
+      <c r="I1486" s="19"/>
+      <c r="J1486" s="17"/>
+      <c r="K1486" s="17"/>
+      <c r="L1486" s="17"/>
     </row>
     <row r="1487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1487" s="4"/>
@@ -42094,36 +42367,36 @@
       <c r="D1522" s="18" t="s">
         <v>1654</v>
       </c>
-      <c r="E1522" s="17"/>
-      <c r="F1522" s="17"/>
-      <c r="G1522" s="17"/>
-      <c r="H1522" s="17"/>
-      <c r="I1522" s="17"/>
-      <c r="J1522" s="20"/>
-      <c r="K1522" s="20"/>
-      <c r="L1522" s="20"/>
+      <c r="E1522" s="19"/>
+      <c r="F1522" s="19"/>
+      <c r="G1522" s="19"/>
+      <c r="H1522" s="19"/>
+      <c r="I1522" s="19"/>
+      <c r="J1522" s="17"/>
+      <c r="K1522" s="17"/>
+      <c r="L1522" s="17"/>
     </row>
     <row r="1523" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D1523" s="17"/>
-      <c r="E1523" s="17"/>
-      <c r="F1523" s="17"/>
-      <c r="G1523" s="17"/>
-      <c r="H1523" s="17"/>
-      <c r="I1523" s="17"/>
-      <c r="J1523" s="20"/>
-      <c r="K1523" s="20"/>
-      <c r="L1523" s="20"/>
+      <c r="D1523" s="19"/>
+      <c r="E1523" s="19"/>
+      <c r="F1523" s="19"/>
+      <c r="G1523" s="19"/>
+      <c r="H1523" s="19"/>
+      <c r="I1523" s="19"/>
+      <c r="J1523" s="17"/>
+      <c r="K1523" s="17"/>
+      <c r="L1523" s="17"/>
     </row>
     <row r="1524" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D1524" s="17"/>
-      <c r="E1524" s="17"/>
-      <c r="F1524" s="17"/>
-      <c r="G1524" s="17"/>
-      <c r="H1524" s="17"/>
-      <c r="I1524" s="17"/>
-      <c r="J1524" s="20"/>
-      <c r="K1524" s="20"/>
-      <c r="L1524" s="20"/>
+      <c r="D1524" s="19"/>
+      <c r="E1524" s="19"/>
+      <c r="F1524" s="19"/>
+      <c r="G1524" s="19"/>
+      <c r="H1524" s="19"/>
+      <c r="I1524" s="19"/>
+      <c r="J1524" s="17"/>
+      <c r="K1524" s="17"/>
+      <c r="L1524" s="17"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -42135,6 +42408,39 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
+    <mergeCell ref="D1431:L1433"/>
+    <mergeCell ref="D1346:L1348"/>
+    <mergeCell ref="D1361:L1363"/>
+    <mergeCell ref="D1386:L1388"/>
+    <mergeCell ref="D1421:L1423"/>
+    <mergeCell ref="D1252:L1254"/>
+    <mergeCell ref="D1267:L1269"/>
+    <mergeCell ref="D1292:L1294"/>
+    <mergeCell ref="D1309:L1311"/>
+    <mergeCell ref="D1326:L1328"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D68:L70"/>
+    <mergeCell ref="D113:L115"/>
+    <mergeCell ref="D335:L337"/>
+    <mergeCell ref="D603:I605"/>
+    <mergeCell ref="D502:I504"/>
+    <mergeCell ref="D449:I451"/>
+    <mergeCell ref="D466:I468"/>
+    <mergeCell ref="D485:I487"/>
+    <mergeCell ref="D562:I564"/>
+    <mergeCell ref="D524:L526"/>
+    <mergeCell ref="D613:I615"/>
+    <mergeCell ref="D629:I631"/>
+    <mergeCell ref="D648:I650"/>
+    <mergeCell ref="D665:I667"/>
+    <mergeCell ref="D693:I695"/>
+    <mergeCell ref="D363:I365"/>
+    <mergeCell ref="D92:I94"/>
+    <mergeCell ref="D143:I145"/>
+    <mergeCell ref="D199:I201"/>
+    <mergeCell ref="D244:I246"/>
+    <mergeCell ref="D295:I297"/>
+    <mergeCell ref="D318:I320"/>
     <mergeCell ref="D1468:I1470"/>
     <mergeCell ref="D1484:I1486"/>
     <mergeCell ref="D1522:I1524"/>
@@ -42150,40 +42456,7 @@
     <mergeCell ref="D1076:L1078"/>
     <mergeCell ref="D1188:L1190"/>
     <mergeCell ref="D1236:L1238"/>
-    <mergeCell ref="D363:I365"/>
-    <mergeCell ref="D92:I94"/>
-    <mergeCell ref="D143:I145"/>
-    <mergeCell ref="D199:I201"/>
-    <mergeCell ref="D244:I246"/>
-    <mergeCell ref="D295:I297"/>
-    <mergeCell ref="D318:I320"/>
     <mergeCell ref="D1129:I1131"/>
-    <mergeCell ref="D613:I615"/>
-    <mergeCell ref="D629:I631"/>
-    <mergeCell ref="D648:I650"/>
-    <mergeCell ref="D665:I667"/>
-    <mergeCell ref="D693:I695"/>
-    <mergeCell ref="D17:L19"/>
-    <mergeCell ref="D68:L70"/>
-    <mergeCell ref="D113:L115"/>
-    <mergeCell ref="D335:L337"/>
-    <mergeCell ref="D603:I605"/>
-    <mergeCell ref="D502:I504"/>
-    <mergeCell ref="D449:I451"/>
-    <mergeCell ref="D466:I468"/>
-    <mergeCell ref="D485:I487"/>
-    <mergeCell ref="D562:I564"/>
-    <mergeCell ref="D524:L526"/>
-    <mergeCell ref="D1252:L1254"/>
-    <mergeCell ref="D1267:L1269"/>
-    <mergeCell ref="D1292:L1294"/>
-    <mergeCell ref="D1309:L1311"/>
-    <mergeCell ref="D1326:L1328"/>
-    <mergeCell ref="D1431:L1433"/>
-    <mergeCell ref="D1346:L1348"/>
-    <mergeCell ref="D1361:L1363"/>
-    <mergeCell ref="D1386:L1388"/>
-    <mergeCell ref="D1421:L1423"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -43017,1171 +43290,1515 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.85546875" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>1519</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>1386</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>1387</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="24" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>1480</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>1388</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="24" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1481</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>1389</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="24" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>1482</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>1390</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="24" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>1483</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>1391</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="24" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>1484</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="24" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>1485</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>1393</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="24" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>1479</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>1394</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="24" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>1486</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>1395</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="24" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>1487</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>1396</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="24" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>1488</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>1397</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="24" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>1489</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>1398</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>1490</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>1399</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>1491</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>1400</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="24" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>1492</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>1401</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="24" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>1501</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>1402</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>1493</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>1403</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>1494</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>1404</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="24" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>1495</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D21" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>1658</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="24" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>1659</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="24" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>1405</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>1496</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D24" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>1406</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>1497</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D25" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>1407</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>1498</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D26" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>1408</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="24" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>1496</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D27" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>1409</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="24" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>1499</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D28" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>1660</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="24" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>1410</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="24" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>1500</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D30" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>1411</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="24" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>1502</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D31" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>1412</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="24" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>1503</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D32" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>1413</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="24" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>1504</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D33" s="24" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>1414</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="24" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>1505</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D34" s="24" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>1415</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="24" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>1506</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D35" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>1661</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="24" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>1667</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D37" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>1668</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D38" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C41" s="2" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C43" s="2" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C47" s="2" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D69" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C48" s="2" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="24" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="24" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="24" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="24" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="24" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="24" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="24" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="24" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B101" s="24" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C53" s="2" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D103" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C55" s="2" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="24" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D104" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C56" s="2" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D105" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="2" t="s">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D107" s="24" t="s">
         <v>1574</v>
       </c>
     </row>
@@ -44344,6 +44961,27 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -44389,27 +45027,6 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
@@ -44429,9 +45046,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44445,17 +45070,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="1762">
   <si>
     <t>Owner</t>
   </si>
@@ -6072,9 +6072,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>ACAD_LEVEL_BOT_CD</t>
   </si>
   <si>
     <t>Academic Level Code at Beginning of Term (this value is decoded into CLASS). This value can be joined to WH_D_ACAD_LEVEL</t>
@@ -6426,21 +6423,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7245,39 +7242,39 @@
       <c r="B17" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
@@ -8590,39 +8587,39 @@
       <c r="B68" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="22" t="s">
         <v>996</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
@@ -9084,36 +9081,36 @@
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="22" t="s">
         <v>995</v>
       </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -9578,39 +9575,39 @@
       <c r="B113" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D113" s="19" t="s">
+      <c r="D113" s="22" t="s">
         <v>994</v>
       </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D116" s="2"/>
@@ -10244,36 +10241,36 @@
       <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D143" s="19" t="s">
+      <c r="D143" s="22" t="s">
         <v>993</v>
       </c>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -11628,36 +11625,36 @@
       <c r="B199" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D199" s="18" t="s">
+      <c r="D199" s="23" t="s">
         <v>992</v>
       </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
+      <c r="I199" s="22"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="22"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -12694,36 +12691,36 @@
       <c r="B244" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D244" s="18" t="s">
+      <c r="D244" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="E244" s="19"/>
-      <c r="F244" s="19"/>
-      <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="22"/>
+      <c r="I244" s="22"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="19"/>
-      <c r="G245" s="19"/>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
+      <c r="D245" s="22"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22"/>
+      <c r="G245" s="22"/>
+      <c r="H245" s="22"/>
+      <c r="I245" s="22"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D246" s="19"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="19"/>
-      <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
+      <c r="D246" s="22"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="22"/>
+      <c r="G246" s="22"/>
+      <c r="H246" s="22"/>
+      <c r="I246" s="22"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -13899,36 +13896,36 @@
       <c r="B295" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D295" s="19" t="s">
+      <c r="D295" s="22" t="s">
         <v>998</v>
       </c>
-      <c r="E295" s="19"/>
-      <c r="F295" s="19"/>
-      <c r="G295" s="19"/>
-      <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="22"/>
+      <c r="G295" s="22"/>
+      <c r="H295" s="22"/>
+      <c r="I295" s="22"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D296" s="19"/>
-      <c r="E296" s="19"/>
-      <c r="F296" s="19"/>
-      <c r="G296" s="19"/>
-      <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
+      <c r="D296" s="22"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="22"/>
+      <c r="G296" s="22"/>
+      <c r="H296" s="22"/>
+      <c r="I296" s="22"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D297" s="19"/>
-      <c r="E297" s="19"/>
-      <c r="F297" s="19"/>
-      <c r="G297" s="19"/>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
+      <c r="D297" s="22"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
+      <c r="H297" s="22"/>
+      <c r="I297" s="22"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -14399,36 +14396,36 @@
       <c r="L317" s="2"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D318" s="20" t="s">
+      <c r="D318" s="24" t="s">
         <v>999</v>
       </c>
-      <c r="E318" s="20"/>
-      <c r="F318" s="20"/>
-      <c r="G318" s="20"/>
-      <c r="H318" s="20"/>
-      <c r="I318" s="20"/>
+      <c r="E318" s="24"/>
+      <c r="F318" s="24"/>
+      <c r="G318" s="24"/>
+      <c r="H318" s="24"/>
+      <c r="I318" s="24"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D319" s="20"/>
-      <c r="E319" s="20"/>
-      <c r="F319" s="20"/>
-      <c r="G319" s="20"/>
-      <c r="H319" s="20"/>
-      <c r="I319" s="20"/>
+      <c r="D319" s="24"/>
+      <c r="E319" s="24"/>
+      <c r="F319" s="24"/>
+      <c r="G319" s="24"/>
+      <c r="H319" s="24"/>
+      <c r="I319" s="24"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D320" s="20"/>
-      <c r="E320" s="20"/>
-      <c r="F320" s="20"/>
-      <c r="G320" s="20"/>
-      <c r="H320" s="20"/>
-      <c r="I320" s="20"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="24"/>
+      <c r="F320" s="24"/>
+      <c r="G320" s="24"/>
+      <c r="H320" s="24"/>
+      <c r="I320" s="24"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
@@ -14753,39 +14750,39 @@
       <c r="B335" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D335" s="19" t="s">
+      <c r="D335" s="22" t="s">
         <v>1000</v>
       </c>
-      <c r="E335" s="19"/>
-      <c r="F335" s="19"/>
-      <c r="G335" s="19"/>
-      <c r="H335" s="19"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="19"/>
-      <c r="K335" s="19"/>
-      <c r="L335" s="19"/>
+      <c r="E335" s="22"/>
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
+      <c r="H335" s="22"/>
+      <c r="I335" s="22"/>
+      <c r="J335" s="22"/>
+      <c r="K335" s="22"/>
+      <c r="L335" s="22"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D336" s="19"/>
-      <c r="E336" s="19"/>
-      <c r="F336" s="19"/>
-      <c r="G336" s="19"/>
-      <c r="H336" s="19"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="19"/>
-      <c r="K336" s="19"/>
-      <c r="L336" s="19"/>
+      <c r="D336" s="22"/>
+      <c r="E336" s="22"/>
+      <c r="F336" s="22"/>
+      <c r="G336" s="22"/>
+      <c r="H336" s="22"/>
+      <c r="I336" s="22"/>
+      <c r="J336" s="22"/>
+      <c r="K336" s="22"/>
+      <c r="L336" s="22"/>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D337" s="19"/>
-      <c r="E337" s="19"/>
-      <c r="F337" s="19"/>
-      <c r="G337" s="19"/>
-      <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="19"/>
-      <c r="K337" s="19"/>
-      <c r="L337" s="19"/>
+      <c r="D337" s="22"/>
+      <c r="E337" s="22"/>
+      <c r="F337" s="22"/>
+      <c r="G337" s="22"/>
+      <c r="H337" s="22"/>
+      <c r="I337" s="22"/>
+      <c r="J337" s="22"/>
+      <c r="K337" s="22"/>
+      <c r="L337" s="22"/>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D338" s="2"/>
@@ -15383,36 +15380,36 @@
       <c r="L362" s="2"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D363" s="20" t="s">
+      <c r="D363" s="24" t="s">
         <v>1001</v>
       </c>
-      <c r="E363" s="20"/>
-      <c r="F363" s="20"/>
-      <c r="G363" s="20"/>
-      <c r="H363" s="20"/>
-      <c r="I363" s="20"/>
+      <c r="E363" s="24"/>
+      <c r="F363" s="24"/>
+      <c r="G363" s="24"/>
+      <c r="H363" s="24"/>
+      <c r="I363" s="24"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D364" s="20"/>
-      <c r="E364" s="20"/>
-      <c r="F364" s="20"/>
-      <c r="G364" s="20"/>
-      <c r="H364" s="20"/>
-      <c r="I364" s="20"/>
+      <c r="D364" s="24"/>
+      <c r="E364" s="24"/>
+      <c r="F364" s="24"/>
+      <c r="G364" s="24"/>
+      <c r="H364" s="24"/>
+      <c r="I364" s="24"/>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D365" s="20"/>
-      <c r="E365" s="20"/>
-      <c r="F365" s="20"/>
-      <c r="G365" s="20"/>
-      <c r="H365" s="20"/>
-      <c r="I365" s="20"/>
+      <c r="D365" s="24"/>
+      <c r="E365" s="24"/>
+      <c r="F365" s="24"/>
+      <c r="G365" s="24"/>
+      <c r="H365" s="24"/>
+      <c r="I365" s="24"/>
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -17409,36 +17406,36 @@
       <c r="L448" s="2"/>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D449" s="20" t="s">
+      <c r="D449" s="24" t="s">
         <v>1002</v>
       </c>
-      <c r="E449" s="20"/>
-      <c r="F449" s="20"/>
-      <c r="G449" s="20"/>
-      <c r="H449" s="20"/>
-      <c r="I449" s="20"/>
+      <c r="E449" s="24"/>
+      <c r="F449" s="24"/>
+      <c r="G449" s="24"/>
+      <c r="H449" s="24"/>
+      <c r="I449" s="24"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
     </row>
     <row r="450" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D450" s="20"/>
-      <c r="E450" s="20"/>
-      <c r="F450" s="20"/>
-      <c r="G450" s="20"/>
-      <c r="H450" s="20"/>
-      <c r="I450" s="20"/>
+      <c r="D450" s="24"/>
+      <c r="E450" s="24"/>
+      <c r="F450" s="24"/>
+      <c r="G450" s="24"/>
+      <c r="H450" s="24"/>
+      <c r="I450" s="24"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D451" s="20"/>
-      <c r="E451" s="20"/>
-      <c r="F451" s="20"/>
-      <c r="G451" s="20"/>
-      <c r="H451" s="20"/>
-      <c r="I451" s="20"/>
+      <c r="D451" s="24"/>
+      <c r="E451" s="24"/>
+      <c r="F451" s="24"/>
+      <c r="G451" s="24"/>
+      <c r="H451" s="24"/>
+      <c r="I451" s="24"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
@@ -17733,36 +17730,36 @@
       <c r="L465" s="2"/>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D466" s="19" t="s">
+      <c r="D466" s="22" t="s">
         <v>1003</v>
       </c>
-      <c r="E466" s="19"/>
-      <c r="F466" s="19"/>
-      <c r="G466" s="19"/>
-      <c r="H466" s="19"/>
-      <c r="I466" s="19"/>
+      <c r="E466" s="22"/>
+      <c r="F466" s="22"/>
+      <c r="G466" s="22"/>
+      <c r="H466" s="22"/>
+      <c r="I466" s="22"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
     <row r="467" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D467" s="19"/>
-      <c r="E467" s="19"/>
-      <c r="F467" s="19"/>
-      <c r="G467" s="19"/>
-      <c r="H467" s="19"/>
-      <c r="I467" s="19"/>
+      <c r="D467" s="22"/>
+      <c r="E467" s="22"/>
+      <c r="F467" s="22"/>
+      <c r="G467" s="22"/>
+      <c r="H467" s="22"/>
+      <c r="I467" s="22"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D468" s="19"/>
-      <c r="E468" s="19"/>
-      <c r="F468" s="19"/>
-      <c r="G468" s="19"/>
-      <c r="H468" s="19"/>
-      <c r="I468" s="19"/>
+      <c r="D468" s="22"/>
+      <c r="E468" s="22"/>
+      <c r="F468" s="22"/>
+      <c r="G468" s="22"/>
+      <c r="H468" s="22"/>
+      <c r="I468" s="22"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
@@ -18111,36 +18108,36 @@
       <c r="L484" s="2"/>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D485" s="19" t="s">
+      <c r="D485" s="22" t="s">
         <v>1004</v>
       </c>
-      <c r="E485" s="19"/>
-      <c r="F485" s="19"/>
-      <c r="G485" s="19"/>
-      <c r="H485" s="19"/>
-      <c r="I485" s="19"/>
+      <c r="E485" s="22"/>
+      <c r="F485" s="22"/>
+      <c r="G485" s="22"/>
+      <c r="H485" s="22"/>
+      <c r="I485" s="22"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
     <row r="486" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D486" s="19"/>
-      <c r="E486" s="19"/>
-      <c r="F486" s="19"/>
-      <c r="G486" s="19"/>
-      <c r="H486" s="19"/>
-      <c r="I486" s="19"/>
+      <c r="D486" s="22"/>
+      <c r="E486" s="22"/>
+      <c r="F486" s="22"/>
+      <c r="G486" s="22"/>
+      <c r="H486" s="22"/>
+      <c r="I486" s="22"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D487" s="19"/>
-      <c r="E487" s="19"/>
-      <c r="F487" s="19"/>
-      <c r="G487" s="19"/>
-      <c r="H487" s="19"/>
-      <c r="I487" s="19"/>
+      <c r="D487" s="22"/>
+      <c r="E487" s="22"/>
+      <c r="F487" s="22"/>
+      <c r="G487" s="22"/>
+      <c r="H487" s="22"/>
+      <c r="I487" s="22"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
@@ -18435,36 +18432,36 @@
       <c r="L501" s="2"/>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D502" s="19" t="s">
+      <c r="D502" s="22" t="s">
         <v>1005</v>
       </c>
-      <c r="E502" s="19"/>
-      <c r="F502" s="19"/>
-      <c r="G502" s="19"/>
-      <c r="H502" s="19"/>
-      <c r="I502" s="19"/>
+      <c r="E502" s="22"/>
+      <c r="F502" s="22"/>
+      <c r="G502" s="22"/>
+      <c r="H502" s="22"/>
+      <c r="I502" s="22"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D503" s="19"/>
-      <c r="E503" s="19"/>
-      <c r="F503" s="19"/>
-      <c r="G503" s="19"/>
-      <c r="H503" s="19"/>
-      <c r="I503" s="19"/>
+      <c r="D503" s="22"/>
+      <c r="E503" s="22"/>
+      <c r="F503" s="22"/>
+      <c r="G503" s="22"/>
+      <c r="H503" s="22"/>
+      <c r="I503" s="22"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D504" s="19"/>
-      <c r="E504" s="19"/>
-      <c r="F504" s="19"/>
-      <c r="G504" s="19"/>
-      <c r="H504" s="19"/>
-      <c r="I504" s="19"/>
+      <c r="D504" s="22"/>
+      <c r="E504" s="22"/>
+      <c r="F504" s="22"/>
+      <c r="G504" s="22"/>
+      <c r="H504" s="22"/>
+      <c r="I504" s="22"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
@@ -18935,39 +18932,39 @@
       <c r="B524" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D524" s="19" t="s">
+      <c r="D524" s="22" t="s">
         <v>1006</v>
       </c>
-      <c r="E524" s="19"/>
-      <c r="F524" s="19"/>
-      <c r="G524" s="19"/>
-      <c r="H524" s="19"/>
-      <c r="I524" s="19"/>
-      <c r="J524" s="19"/>
-      <c r="K524" s="19"/>
-      <c r="L524" s="19"/>
+      <c r="E524" s="22"/>
+      <c r="F524" s="22"/>
+      <c r="G524" s="22"/>
+      <c r="H524" s="22"/>
+      <c r="I524" s="22"/>
+      <c r="J524" s="22"/>
+      <c r="K524" s="22"/>
+      <c r="L524" s="22"/>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D525" s="19"/>
-      <c r="E525" s="19"/>
-      <c r="F525" s="19"/>
-      <c r="G525" s="19"/>
-      <c r="H525" s="19"/>
-      <c r="I525" s="19"/>
-      <c r="J525" s="19"/>
-      <c r="K525" s="19"/>
-      <c r="L525" s="19"/>
+      <c r="D525" s="22"/>
+      <c r="E525" s="22"/>
+      <c r="F525" s="22"/>
+      <c r="G525" s="22"/>
+      <c r="H525" s="22"/>
+      <c r="I525" s="22"/>
+      <c r="J525" s="22"/>
+      <c r="K525" s="22"/>
+      <c r="L525" s="22"/>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D526" s="19"/>
-      <c r="E526" s="19"/>
-      <c r="F526" s="19"/>
-      <c r="G526" s="19"/>
-      <c r="H526" s="19"/>
-      <c r="I526" s="19"/>
-      <c r="J526" s="19"/>
-      <c r="K526" s="19"/>
-      <c r="L526" s="19"/>
+      <c r="D526" s="22"/>
+      <c r="E526" s="22"/>
+      <c r="F526" s="22"/>
+      <c r="G526" s="22"/>
+      <c r="H526" s="22"/>
+      <c r="I526" s="22"/>
+      <c r="J526" s="22"/>
+      <c r="K526" s="22"/>
+      <c r="L526" s="22"/>
     </row>
     <row r="527" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D527" s="2"/>
@@ -19886,36 +19883,36 @@
       <c r="L561" s="2"/>
     </row>
     <row r="562" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D562" s="19" t="s">
+      <c r="D562" s="22" t="s">
         <v>1007</v>
       </c>
-      <c r="E562" s="19"/>
-      <c r="F562" s="19"/>
-      <c r="G562" s="19"/>
-      <c r="H562" s="19"/>
-      <c r="I562" s="19"/>
+      <c r="E562" s="22"/>
+      <c r="F562" s="22"/>
+      <c r="G562" s="22"/>
+      <c r="H562" s="22"/>
+      <c r="I562" s="22"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
     <row r="563" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D563" s="19"/>
-      <c r="E563" s="19"/>
-      <c r="F563" s="19"/>
-      <c r="G563" s="19"/>
-      <c r="H563" s="19"/>
-      <c r="I563" s="19"/>
+      <c r="D563" s="22"/>
+      <c r="E563" s="22"/>
+      <c r="F563" s="22"/>
+      <c r="G563" s="22"/>
+      <c r="H563" s="22"/>
+      <c r="I563" s="22"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
     <row r="564" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D564" s="19"/>
-      <c r="E564" s="19"/>
-      <c r="F564" s="19"/>
-      <c r="G564" s="19"/>
-      <c r="H564" s="19"/>
-      <c r="I564" s="19"/>
+      <c r="D564" s="22"/>
+      <c r="E564" s="22"/>
+      <c r="F564" s="22"/>
+      <c r="G564" s="22"/>
+      <c r="H564" s="22"/>
+      <c r="I564" s="22"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
@@ -20858,36 +20855,36 @@
       <c r="L602" s="2"/>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D603" s="19" t="s">
+      <c r="D603" s="22" t="s">
         <v>1008</v>
       </c>
-      <c r="E603" s="19"/>
-      <c r="F603" s="19"/>
-      <c r="G603" s="19"/>
-      <c r="H603" s="19"/>
-      <c r="I603" s="19"/>
+      <c r="E603" s="22"/>
+      <c r="F603" s="22"/>
+      <c r="G603" s="22"/>
+      <c r="H603" s="22"/>
+      <c r="I603" s="22"/>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D604" s="19"/>
-      <c r="E604" s="19"/>
-      <c r="F604" s="19"/>
-      <c r="G604" s="19"/>
-      <c r="H604" s="19"/>
-      <c r="I604" s="19"/>
+      <c r="D604" s="22"/>
+      <c r="E604" s="22"/>
+      <c r="F604" s="22"/>
+      <c r="G604" s="22"/>
+      <c r="H604" s="22"/>
+      <c r="I604" s="22"/>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D605" s="19"/>
-      <c r="E605" s="19"/>
-      <c r="F605" s="19"/>
-      <c r="G605" s="19"/>
-      <c r="H605" s="19"/>
-      <c r="I605" s="19"/>
+      <c r="D605" s="22"/>
+      <c r="E605" s="22"/>
+      <c r="F605" s="22"/>
+      <c r="G605" s="22"/>
+      <c r="H605" s="22"/>
+      <c r="I605" s="22"/>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
@@ -21010,36 +21007,36 @@
       <c r="L612" s="2"/>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D613" s="19" t="s">
+      <c r="D613" s="22" t="s">
         <v>1009</v>
       </c>
-      <c r="E613" s="19"/>
-      <c r="F613" s="19"/>
-      <c r="G613" s="19"/>
-      <c r="H613" s="19"/>
-      <c r="I613" s="19"/>
+      <c r="E613" s="22"/>
+      <c r="F613" s="22"/>
+      <c r="G613" s="22"/>
+      <c r="H613" s="22"/>
+      <c r="I613" s="22"/>
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D614" s="19"/>
-      <c r="E614" s="19"/>
-      <c r="F614" s="19"/>
-      <c r="G614" s="19"/>
-      <c r="H614" s="19"/>
-      <c r="I614" s="19"/>
+      <c r="D614" s="22"/>
+      <c r="E614" s="22"/>
+      <c r="F614" s="22"/>
+      <c r="G614" s="22"/>
+      <c r="H614" s="22"/>
+      <c r="I614" s="22"/>
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D615" s="19"/>
-      <c r="E615" s="19"/>
-      <c r="F615" s="19"/>
-      <c r="G615" s="19"/>
-      <c r="H615" s="19"/>
-      <c r="I615" s="19"/>
+      <c r="D615" s="22"/>
+      <c r="E615" s="22"/>
+      <c r="F615" s="22"/>
+      <c r="G615" s="22"/>
+      <c r="H615" s="22"/>
+      <c r="I615" s="22"/>
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
@@ -21323,36 +21320,36 @@
       <c r="L628" s="2"/>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D629" s="19" t="s">
+      <c r="D629" s="22" t="s">
         <v>1010</v>
       </c>
-      <c r="E629" s="19"/>
-      <c r="F629" s="19"/>
-      <c r="G629" s="19"/>
-      <c r="H629" s="19"/>
-      <c r="I629" s="19"/>
+      <c r="E629" s="22"/>
+      <c r="F629" s="22"/>
+      <c r="G629" s="22"/>
+      <c r="H629" s="22"/>
+      <c r="I629" s="22"/>
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D630" s="19"/>
-      <c r="E630" s="19"/>
-      <c r="F630" s="19"/>
-      <c r="G630" s="19"/>
-      <c r="H630" s="19"/>
-      <c r="I630" s="19"/>
+      <c r="D630" s="22"/>
+      <c r="E630" s="22"/>
+      <c r="F630" s="22"/>
+      <c r="G630" s="22"/>
+      <c r="H630" s="22"/>
+      <c r="I630" s="22"/>
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D631" s="19"/>
-      <c r="E631" s="19"/>
-      <c r="F631" s="19"/>
-      <c r="G631" s="19"/>
-      <c r="H631" s="19"/>
-      <c r="I631" s="19"/>
+      <c r="D631" s="22"/>
+      <c r="E631" s="22"/>
+      <c r="F631" s="22"/>
+      <c r="G631" s="22"/>
+      <c r="H631" s="22"/>
+      <c r="I631" s="22"/>
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
@@ -21704,36 +21701,36 @@
       <c r="L647" s="2"/>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D648" s="19" t="s">
+      <c r="D648" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="E648" s="19"/>
-      <c r="F648" s="19"/>
-      <c r="G648" s="19"/>
-      <c r="H648" s="19"/>
-      <c r="I648" s="19"/>
+      <c r="E648" s="22"/>
+      <c r="F648" s="22"/>
+      <c r="G648" s="22"/>
+      <c r="H648" s="22"/>
+      <c r="I648" s="22"/>
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D649" s="19"/>
-      <c r="E649" s="19"/>
-      <c r="F649" s="19"/>
-      <c r="G649" s="19"/>
-      <c r="H649" s="19"/>
-      <c r="I649" s="19"/>
+      <c r="D649" s="22"/>
+      <c r="E649" s="22"/>
+      <c r="F649" s="22"/>
+      <c r="G649" s="22"/>
+      <c r="H649" s="22"/>
+      <c r="I649" s="22"/>
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D650" s="19"/>
-      <c r="E650" s="19"/>
-      <c r="F650" s="19"/>
-      <c r="G650" s="19"/>
-      <c r="H650" s="19"/>
-      <c r="I650" s="19"/>
+      <c r="D650" s="22"/>
+      <c r="E650" s="22"/>
+      <c r="F650" s="22"/>
+      <c r="G650" s="22"/>
+      <c r="H650" s="22"/>
+      <c r="I650" s="22"/>
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
@@ -22025,36 +22022,36 @@
       <c r="L664" s="2"/>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D665" s="19" t="s">
+      <c r="D665" s="22" t="s">
         <v>1012</v>
       </c>
-      <c r="E665" s="19"/>
-      <c r="F665" s="19"/>
-      <c r="G665" s="19"/>
-      <c r="H665" s="19"/>
-      <c r="I665" s="19"/>
+      <c r="E665" s="22"/>
+      <c r="F665" s="22"/>
+      <c r="G665" s="22"/>
+      <c r="H665" s="22"/>
+      <c r="I665" s="22"/>
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D666" s="19"/>
-      <c r="E666" s="19"/>
-      <c r="F666" s="19"/>
-      <c r="G666" s="19"/>
-      <c r="H666" s="19"/>
-      <c r="I666" s="19"/>
+      <c r="D666" s="22"/>
+      <c r="E666" s="22"/>
+      <c r="F666" s="22"/>
+      <c r="G666" s="22"/>
+      <c r="H666" s="22"/>
+      <c r="I666" s="22"/>
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
       <c r="L666" s="2"/>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D667" s="19"/>
-      <c r="E667" s="19"/>
-      <c r="F667" s="19"/>
-      <c r="G667" s="19"/>
-      <c r="H667" s="19"/>
-      <c r="I667" s="19"/>
+      <c r="D667" s="22"/>
+      <c r="E667" s="22"/>
+      <c r="F667" s="22"/>
+      <c r="G667" s="22"/>
+      <c r="H667" s="22"/>
+      <c r="I667" s="22"/>
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
       <c r="L667" s="2"/>
@@ -22619,36 +22616,36 @@
       <c r="L692" s="2"/>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D693" s="19" t="s">
+      <c r="D693" s="22" t="s">
         <v>1013</v>
       </c>
-      <c r="E693" s="19"/>
-      <c r="F693" s="19"/>
-      <c r="G693" s="19"/>
-      <c r="H693" s="19"/>
-      <c r="I693" s="19"/>
+      <c r="E693" s="22"/>
+      <c r="F693" s="22"/>
+      <c r="G693" s="22"/>
+      <c r="H693" s="22"/>
+      <c r="I693" s="22"/>
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
       <c r="L693" s="2"/>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D694" s="19"/>
-      <c r="E694" s="19"/>
-      <c r="F694" s="19"/>
-      <c r="G694" s="19"/>
-      <c r="H694" s="19"/>
-      <c r="I694" s="19"/>
+      <c r="D694" s="22"/>
+      <c r="E694" s="22"/>
+      <c r="F694" s="22"/>
+      <c r="G694" s="22"/>
+      <c r="H694" s="22"/>
+      <c r="I694" s="22"/>
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D695" s="19"/>
-      <c r="E695" s="19"/>
-      <c r="F695" s="19"/>
-      <c r="G695" s="19"/>
-      <c r="H695" s="19"/>
-      <c r="I695" s="19"/>
+      <c r="D695" s="22"/>
+      <c r="E695" s="22"/>
+      <c r="F695" s="22"/>
+      <c r="G695" s="22"/>
+      <c r="H695" s="22"/>
+      <c r="I695" s="22"/>
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
       <c r="L695" s="2"/>
@@ -26487,36 +26484,36 @@
       <c r="L834" s="2"/>
     </row>
     <row r="835" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D835" s="19" t="s">
+      <c r="D835" s="22" t="s">
         <v>1014</v>
       </c>
-      <c r="E835" s="19"/>
-      <c r="F835" s="19"/>
-      <c r="G835" s="19"/>
-      <c r="H835" s="19"/>
-      <c r="I835" s="19"/>
+      <c r="E835" s="22"/>
+      <c r="F835" s="22"/>
+      <c r="G835" s="22"/>
+      <c r="H835" s="22"/>
+      <c r="I835" s="22"/>
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
       <c r="L835" s="2"/>
     </row>
     <row r="836" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D836" s="19"/>
-      <c r="E836" s="19"/>
-      <c r="F836" s="19"/>
-      <c r="G836" s="19"/>
-      <c r="H836" s="19"/>
-      <c r="I836" s="19"/>
+      <c r="D836" s="22"/>
+      <c r="E836" s="22"/>
+      <c r="F836" s="22"/>
+      <c r="G836" s="22"/>
+      <c r="H836" s="22"/>
+      <c r="I836" s="22"/>
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
       <c r="L836" s="2"/>
     </row>
     <row r="837" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D837" s="19"/>
-      <c r="E837" s="19"/>
-      <c r="F837" s="19"/>
-      <c r="G837" s="19"/>
-      <c r="H837" s="19"/>
-      <c r="I837" s="19"/>
+      <c r="D837" s="22"/>
+      <c r="E837" s="22"/>
+      <c r="F837" s="22"/>
+      <c r="G837" s="22"/>
+      <c r="H837" s="22"/>
+      <c r="I837" s="22"/>
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
       <c r="L837" s="2"/>
@@ -28030,39 +28027,39 @@
       <c r="B895" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D895" s="19" t="s">
+      <c r="D895" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="E895" s="19"/>
-      <c r="F895" s="19"/>
-      <c r="G895" s="19"/>
-      <c r="H895" s="19"/>
-      <c r="I895" s="19"/>
-      <c r="J895" s="19"/>
-      <c r="K895" s="19"/>
-      <c r="L895" s="19"/>
+      <c r="E895" s="22"/>
+      <c r="F895" s="22"/>
+      <c r="G895" s="22"/>
+      <c r="H895" s="22"/>
+      <c r="I895" s="22"/>
+      <c r="J895" s="22"/>
+      <c r="K895" s="22"/>
+      <c r="L895" s="22"/>
     </row>
     <row r="896" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D896" s="19"/>
-      <c r="E896" s="19"/>
-      <c r="F896" s="19"/>
-      <c r="G896" s="19"/>
-      <c r="H896" s="19"/>
-      <c r="I896" s="19"/>
-      <c r="J896" s="19"/>
-      <c r="K896" s="19"/>
-      <c r="L896" s="19"/>
+      <c r="D896" s="22"/>
+      <c r="E896" s="22"/>
+      <c r="F896" s="22"/>
+      <c r="G896" s="22"/>
+      <c r="H896" s="22"/>
+      <c r="I896" s="22"/>
+      <c r="J896" s="22"/>
+      <c r="K896" s="22"/>
+      <c r="L896" s="22"/>
     </row>
     <row r="897" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D897" s="19"/>
-      <c r="E897" s="19"/>
-      <c r="F897" s="19"/>
-      <c r="G897" s="19"/>
-      <c r="H897" s="19"/>
-      <c r="I897" s="19"/>
-      <c r="J897" s="19"/>
-      <c r="K897" s="19"/>
-      <c r="L897" s="19"/>
+      <c r="D897" s="22"/>
+      <c r="E897" s="22"/>
+      <c r="F897" s="22"/>
+      <c r="G897" s="22"/>
+      <c r="H897" s="22"/>
+      <c r="I897" s="22"/>
+      <c r="J897" s="22"/>
+      <c r="K897" s="22"/>
+      <c r="L897" s="22"/>
     </row>
     <row r="898" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D898" s="2"/>
@@ -28379,39 +28376,39 @@
       <c r="B912" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D912" s="19" t="s">
+      <c r="D912" s="22" t="s">
         <v>1016</v>
       </c>
-      <c r="E912" s="19"/>
-      <c r="F912" s="19"/>
-      <c r="G912" s="19"/>
-      <c r="H912" s="19"/>
-      <c r="I912" s="19"/>
-      <c r="J912" s="19"/>
-      <c r="K912" s="19"/>
-      <c r="L912" s="19"/>
+      <c r="E912" s="22"/>
+      <c r="F912" s="22"/>
+      <c r="G912" s="22"/>
+      <c r="H912" s="22"/>
+      <c r="I912" s="22"/>
+      <c r="J912" s="22"/>
+      <c r="K912" s="22"/>
+      <c r="L912" s="22"/>
     </row>
     <row r="913" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D913" s="19"/>
-      <c r="E913" s="19"/>
-      <c r="F913" s="19"/>
-      <c r="G913" s="19"/>
-      <c r="H913" s="19"/>
-      <c r="I913" s="19"/>
-      <c r="J913" s="19"/>
-      <c r="K913" s="19"/>
-      <c r="L913" s="19"/>
+      <c r="D913" s="22"/>
+      <c r="E913" s="22"/>
+      <c r="F913" s="22"/>
+      <c r="G913" s="22"/>
+      <c r="H913" s="22"/>
+      <c r="I913" s="22"/>
+      <c r="J913" s="22"/>
+      <c r="K913" s="22"/>
+      <c r="L913" s="22"/>
     </row>
     <row r="914" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D914" s="19"/>
-      <c r="E914" s="19"/>
-      <c r="F914" s="19"/>
-      <c r="G914" s="19"/>
-      <c r="H914" s="19"/>
-      <c r="I914" s="19"/>
-      <c r="J914" s="19"/>
-      <c r="K914" s="19"/>
-      <c r="L914" s="19"/>
+      <c r="D914" s="22"/>
+      <c r="E914" s="22"/>
+      <c r="F914" s="22"/>
+      <c r="G914" s="22"/>
+      <c r="H914" s="22"/>
+      <c r="I914" s="22"/>
+      <c r="J914" s="22"/>
+      <c r="K914" s="22"/>
+      <c r="L914" s="22"/>
     </row>
     <row r="915" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D915" s="2"/>
@@ -28728,39 +28725,39 @@
       <c r="B929" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D929" s="19" t="s">
+      <c r="D929" s="22" t="s">
         <v>1017</v>
       </c>
-      <c r="E929" s="19"/>
-      <c r="F929" s="19"/>
-      <c r="G929" s="19"/>
-      <c r="H929" s="19"/>
-      <c r="I929" s="19"/>
-      <c r="J929" s="19"/>
-      <c r="K929" s="19"/>
-      <c r="L929" s="19"/>
+      <c r="E929" s="22"/>
+      <c r="F929" s="22"/>
+      <c r="G929" s="22"/>
+      <c r="H929" s="22"/>
+      <c r="I929" s="22"/>
+      <c r="J929" s="22"/>
+      <c r="K929" s="22"/>
+      <c r="L929" s="22"/>
     </row>
     <row r="930" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D930" s="19"/>
-      <c r="E930" s="19"/>
-      <c r="F930" s="19"/>
-      <c r="G930" s="19"/>
-      <c r="H930" s="19"/>
-      <c r="I930" s="19"/>
-      <c r="J930" s="19"/>
-      <c r="K930" s="19"/>
-      <c r="L930" s="19"/>
+      <c r="D930" s="22"/>
+      <c r="E930" s="22"/>
+      <c r="F930" s="22"/>
+      <c r="G930" s="22"/>
+      <c r="H930" s="22"/>
+      <c r="I930" s="22"/>
+      <c r="J930" s="22"/>
+      <c r="K930" s="22"/>
+      <c r="L930" s="22"/>
     </row>
     <row r="931" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D931" s="19"/>
-      <c r="E931" s="19"/>
-      <c r="F931" s="19"/>
-      <c r="G931" s="19"/>
-      <c r="H931" s="19"/>
-      <c r="I931" s="19"/>
-      <c r="J931" s="19"/>
-      <c r="K931" s="19"/>
-      <c r="L931" s="19"/>
+      <c r="D931" s="22"/>
+      <c r="E931" s="22"/>
+      <c r="F931" s="22"/>
+      <c r="G931" s="22"/>
+      <c r="H931" s="22"/>
+      <c r="I931" s="22"/>
+      <c r="J931" s="22"/>
+      <c r="K931" s="22"/>
+      <c r="L931" s="22"/>
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D932" s="2"/>
@@ -29374,36 +29371,36 @@
       <c r="B958" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D958" s="19" t="s">
+      <c r="D958" s="22" t="s">
         <v>1018</v>
       </c>
-      <c r="E958" s="19"/>
-      <c r="F958" s="19"/>
-      <c r="G958" s="19"/>
-      <c r="H958" s="19"/>
-      <c r="I958" s="19"/>
+      <c r="E958" s="22"/>
+      <c r="F958" s="22"/>
+      <c r="G958" s="22"/>
+      <c r="H958" s="22"/>
+      <c r="I958" s="22"/>
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
       <c r="L958" s="2"/>
     </row>
     <row r="959" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D959" s="19"/>
-      <c r="E959" s="19"/>
-      <c r="F959" s="19"/>
-      <c r="G959" s="19"/>
-      <c r="H959" s="19"/>
-      <c r="I959" s="19"/>
+      <c r="D959" s="22"/>
+      <c r="E959" s="22"/>
+      <c r="F959" s="22"/>
+      <c r="G959" s="22"/>
+      <c r="H959" s="22"/>
+      <c r="I959" s="22"/>
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
       <c r="L959" s="2"/>
     </row>
     <row r="960" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D960" s="19"/>
-      <c r="E960" s="19"/>
-      <c r="F960" s="19"/>
-      <c r="G960" s="19"/>
-      <c r="H960" s="19"/>
-      <c r="I960" s="19"/>
+      <c r="D960" s="22"/>
+      <c r="E960" s="22"/>
+      <c r="F960" s="22"/>
+      <c r="G960" s="22"/>
+      <c r="H960" s="22"/>
+      <c r="I960" s="22"/>
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
       <c r="L960" s="2"/>
@@ -29817,36 +29814,36 @@
       <c r="L978" s="2"/>
     </row>
     <row r="979" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D979" s="19" t="s">
+      <c r="D979" s="22" t="s">
         <v>1019</v>
       </c>
-      <c r="E979" s="19"/>
-      <c r="F979" s="19"/>
-      <c r="G979" s="19"/>
-      <c r="H979" s="19"/>
-      <c r="I979" s="19"/>
+      <c r="E979" s="22"/>
+      <c r="F979" s="22"/>
+      <c r="G979" s="22"/>
+      <c r="H979" s="22"/>
+      <c r="I979" s="22"/>
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
       <c r="L979" s="2"/>
     </row>
     <row r="980" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D980" s="19"/>
-      <c r="E980" s="19"/>
-      <c r="F980" s="19"/>
-      <c r="G980" s="19"/>
-      <c r="H980" s="19"/>
-      <c r="I980" s="19"/>
+      <c r="D980" s="22"/>
+      <c r="E980" s="22"/>
+      <c r="F980" s="22"/>
+      <c r="G980" s="22"/>
+      <c r="H980" s="22"/>
+      <c r="I980" s="22"/>
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
       <c r="L980" s="2"/>
     </row>
     <row r="981" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D981" s="19"/>
-      <c r="E981" s="19"/>
-      <c r="F981" s="19"/>
-      <c r="G981" s="19"/>
-      <c r="H981" s="19"/>
-      <c r="I981" s="19"/>
+      <c r="D981" s="22"/>
+      <c r="E981" s="22"/>
+      <c r="F981" s="22"/>
+      <c r="G981" s="22"/>
+      <c r="H981" s="22"/>
+      <c r="I981" s="22"/>
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
       <c r="L981" s="2"/>
@@ -30202,36 +30199,36 @@
       <c r="L998" s="2"/>
     </row>
     <row r="999" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D999" s="19" t="s">
+      <c r="D999" s="22" t="s">
         <v>1020</v>
       </c>
-      <c r="E999" s="19"/>
-      <c r="F999" s="19"/>
-      <c r="G999" s="19"/>
-      <c r="H999" s="19"/>
-      <c r="I999" s="19"/>
+      <c r="E999" s="22"/>
+      <c r="F999" s="22"/>
+      <c r="G999" s="22"/>
+      <c r="H999" s="22"/>
+      <c r="I999" s="22"/>
       <c r="J999" s="2"/>
       <c r="K999" s="2"/>
       <c r="L999" s="2"/>
     </row>
     <row r="1000" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D1000" s="19"/>
-      <c r="E1000" s="19"/>
-      <c r="F1000" s="19"/>
-      <c r="G1000" s="19"/>
-      <c r="H1000" s="19"/>
-      <c r="I1000" s="19"/>
+      <c r="D1000" s="22"/>
+      <c r="E1000" s="22"/>
+      <c r="F1000" s="22"/>
+      <c r="G1000" s="22"/>
+      <c r="H1000" s="22"/>
+      <c r="I1000" s="22"/>
       <c r="J1000" s="2"/>
       <c r="K1000" s="2"/>
       <c r="L1000" s="2"/>
     </row>
     <row r="1001" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D1001" s="19"/>
-      <c r="E1001" s="19"/>
-      <c r="F1001" s="19"/>
-      <c r="G1001" s="19"/>
-      <c r="H1001" s="19"/>
-      <c r="I1001" s="19"/>
+      <c r="D1001" s="22"/>
+      <c r="E1001" s="22"/>
+      <c r="F1001" s="22"/>
+      <c r="G1001" s="22"/>
+      <c r="H1001" s="22"/>
+      <c r="I1001" s="22"/>
       <c r="J1001" s="2"/>
       <c r="K1001" s="2"/>
       <c r="L1001" s="2"/>
@@ -30523,36 +30520,36 @@
       <c r="L1015" s="2"/>
     </row>
     <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1016" s="19" t="s">
+      <c r="D1016" s="22" t="s">
         <v>1021</v>
       </c>
-      <c r="E1016" s="19"/>
-      <c r="F1016" s="19"/>
-      <c r="G1016" s="19"/>
-      <c r="H1016" s="19"/>
-      <c r="I1016" s="19"/>
+      <c r="E1016" s="22"/>
+      <c r="F1016" s="22"/>
+      <c r="G1016" s="22"/>
+      <c r="H1016" s="22"/>
+      <c r="I1016" s="22"/>
       <c r="J1016" s="2"/>
       <c r="K1016" s="2"/>
       <c r="L1016" s="2"/>
     </row>
     <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1017" s="19"/>
-      <c r="E1017" s="19"/>
-      <c r="F1017" s="19"/>
-      <c r="G1017" s="19"/>
-      <c r="H1017" s="19"/>
-      <c r="I1017" s="19"/>
+      <c r="D1017" s="22"/>
+      <c r="E1017" s="22"/>
+      <c r="F1017" s="22"/>
+      <c r="G1017" s="22"/>
+      <c r="H1017" s="22"/>
+      <c r="I1017" s="22"/>
       <c r="J1017" s="2"/>
       <c r="K1017" s="2"/>
       <c r="L1017" s="2"/>
     </row>
     <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1018" s="19"/>
-      <c r="E1018" s="19"/>
-      <c r="F1018" s="19"/>
-      <c r="G1018" s="19"/>
-      <c r="H1018" s="19"/>
-      <c r="I1018" s="19"/>
+      <c r="D1018" s="22"/>
+      <c r="E1018" s="22"/>
+      <c r="F1018" s="22"/>
+      <c r="G1018" s="22"/>
+      <c r="H1018" s="22"/>
+      <c r="I1018" s="22"/>
       <c r="J1018" s="2"/>
       <c r="K1018" s="2"/>
       <c r="L1018" s="2"/>
@@ -31534,39 +31531,39 @@
       <c r="B1059" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1059" s="19" t="s">
+      <c r="D1059" s="22" t="s">
         <v>1022</v>
       </c>
-      <c r="E1059" s="19"/>
-      <c r="F1059" s="19"/>
-      <c r="G1059" s="19"/>
-      <c r="H1059" s="19"/>
-      <c r="I1059" s="19"/>
-      <c r="J1059" s="19"/>
-      <c r="K1059" s="19"/>
-      <c r="L1059" s="19"/>
+      <c r="E1059" s="22"/>
+      <c r="F1059" s="22"/>
+      <c r="G1059" s="22"/>
+      <c r="H1059" s="22"/>
+      <c r="I1059" s="22"/>
+      <c r="J1059" s="22"/>
+      <c r="K1059" s="22"/>
+      <c r="L1059" s="22"/>
     </row>
     <row r="1060" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1060" s="19"/>
-      <c r="E1060" s="19"/>
-      <c r="F1060" s="19"/>
-      <c r="G1060" s="19"/>
-      <c r="H1060" s="19"/>
-      <c r="I1060" s="19"/>
-      <c r="J1060" s="19"/>
-      <c r="K1060" s="19"/>
-      <c r="L1060" s="19"/>
+      <c r="D1060" s="22"/>
+      <c r="E1060" s="22"/>
+      <c r="F1060" s="22"/>
+      <c r="G1060" s="22"/>
+      <c r="H1060" s="22"/>
+      <c r="I1060" s="22"/>
+      <c r="J1060" s="22"/>
+      <c r="K1060" s="22"/>
+      <c r="L1060" s="22"/>
     </row>
     <row r="1061" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1061" s="19"/>
-      <c r="E1061" s="19"/>
-      <c r="F1061" s="19"/>
-      <c r="G1061" s="19"/>
-      <c r="H1061" s="19"/>
-      <c r="I1061" s="19"/>
-      <c r="J1061" s="19"/>
-      <c r="K1061" s="19"/>
-      <c r="L1061" s="19"/>
+      <c r="D1061" s="22"/>
+      <c r="E1061" s="22"/>
+      <c r="F1061" s="22"/>
+      <c r="G1061" s="22"/>
+      <c r="H1061" s="22"/>
+      <c r="I1061" s="22"/>
+      <c r="J1061" s="22"/>
+      <c r="K1061" s="22"/>
+      <c r="L1061" s="22"/>
     </row>
     <row r="1062" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1062" s="2"/>
@@ -31885,39 +31882,39 @@
       <c r="B1076" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1076" s="19" t="s">
+      <c r="D1076" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="E1076" s="19"/>
-      <c r="F1076" s="19"/>
-      <c r="G1076" s="19"/>
-      <c r="H1076" s="19"/>
-      <c r="I1076" s="19"/>
-      <c r="J1076" s="19"/>
-      <c r="K1076" s="19"/>
-      <c r="L1076" s="19"/>
+      <c r="E1076" s="22"/>
+      <c r="F1076" s="22"/>
+      <c r="G1076" s="22"/>
+      <c r="H1076" s="22"/>
+      <c r="I1076" s="22"/>
+      <c r="J1076" s="22"/>
+      <c r="K1076" s="22"/>
+      <c r="L1076" s="22"/>
     </row>
     <row r="1077" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1077" s="19"/>
-      <c r="E1077" s="19"/>
-      <c r="F1077" s="19"/>
-      <c r="G1077" s="19"/>
-      <c r="H1077" s="19"/>
-      <c r="I1077" s="19"/>
-      <c r="J1077" s="19"/>
-      <c r="K1077" s="19"/>
-      <c r="L1077" s="19"/>
+      <c r="D1077" s="22"/>
+      <c r="E1077" s="22"/>
+      <c r="F1077" s="22"/>
+      <c r="G1077" s="22"/>
+      <c r="H1077" s="22"/>
+      <c r="I1077" s="22"/>
+      <c r="J1077" s="22"/>
+      <c r="K1077" s="22"/>
+      <c r="L1077" s="22"/>
     </row>
     <row r="1078" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1078" s="19"/>
-      <c r="E1078" s="19"/>
-      <c r="F1078" s="19"/>
-      <c r="G1078" s="19"/>
-      <c r="H1078" s="19"/>
-      <c r="I1078" s="19"/>
-      <c r="J1078" s="19"/>
-      <c r="K1078" s="19"/>
-      <c r="L1078" s="19"/>
+      <c r="D1078" s="22"/>
+      <c r="E1078" s="22"/>
+      <c r="F1078" s="22"/>
+      <c r="G1078" s="22"/>
+      <c r="H1078" s="22"/>
+      <c r="I1078" s="22"/>
+      <c r="J1078" s="22"/>
+      <c r="K1078" s="22"/>
+      <c r="L1078" s="22"/>
     </row>
     <row r="1079" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1079" s="2"/>
@@ -33285,36 +33282,36 @@
       <c r="L1128" s="2"/>
     </row>
     <row r="1129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1129" s="19" t="s">
+      <c r="D1129" s="22" t="s">
         <v>1024</v>
       </c>
-      <c r="E1129" s="19"/>
-      <c r="F1129" s="19"/>
-      <c r="G1129" s="19"/>
-      <c r="H1129" s="19"/>
-      <c r="I1129" s="19"/>
+      <c r="E1129" s="22"/>
+      <c r="F1129" s="22"/>
+      <c r="G1129" s="22"/>
+      <c r="H1129" s="22"/>
+      <c r="I1129" s="22"/>
       <c r="J1129" s="2"/>
       <c r="K1129" s="2"/>
       <c r="L1129" s="2"/>
     </row>
     <row r="1130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1130" s="19"/>
-      <c r="E1130" s="19"/>
-      <c r="F1130" s="19"/>
-      <c r="G1130" s="19"/>
-      <c r="H1130" s="19"/>
-      <c r="I1130" s="19"/>
+      <c r="D1130" s="22"/>
+      <c r="E1130" s="22"/>
+      <c r="F1130" s="22"/>
+      <c r="G1130" s="22"/>
+      <c r="H1130" s="22"/>
+      <c r="I1130" s="22"/>
       <c r="J1130" s="2"/>
       <c r="K1130" s="2"/>
       <c r="L1130" s="2"/>
     </row>
     <row r="1131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1131" s="19"/>
-      <c r="E1131" s="19"/>
-      <c r="F1131" s="19"/>
-      <c r="G1131" s="19"/>
-      <c r="H1131" s="19"/>
-      <c r="I1131" s="19"/>
+      <c r="D1131" s="22"/>
+      <c r="E1131" s="22"/>
+      <c r="F1131" s="22"/>
+      <c r="G1131" s="22"/>
+      <c r="H1131" s="22"/>
+      <c r="I1131" s="22"/>
       <c r="J1131" s="2"/>
       <c r="K1131" s="2"/>
       <c r="L1131" s="2"/>
@@ -34888,39 +34885,39 @@
       <c r="B1188" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1188" s="19" t="s">
+      <c r="D1188" s="22" t="s">
         <v>1025</v>
       </c>
-      <c r="E1188" s="19"/>
-      <c r="F1188" s="19"/>
-      <c r="G1188" s="19"/>
-      <c r="H1188" s="19"/>
-      <c r="I1188" s="19"/>
-      <c r="J1188" s="19"/>
-      <c r="K1188" s="19"/>
-      <c r="L1188" s="19"/>
+      <c r="E1188" s="22"/>
+      <c r="F1188" s="22"/>
+      <c r="G1188" s="22"/>
+      <c r="H1188" s="22"/>
+      <c r="I1188" s="22"/>
+      <c r="J1188" s="22"/>
+      <c r="K1188" s="22"/>
+      <c r="L1188" s="22"/>
     </row>
     <row r="1189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1189" s="19"/>
-      <c r="E1189" s="19"/>
-      <c r="F1189" s="19"/>
-      <c r="G1189" s="19"/>
-      <c r="H1189" s="19"/>
-      <c r="I1189" s="19"/>
-      <c r="J1189" s="19"/>
-      <c r="K1189" s="19"/>
-      <c r="L1189" s="19"/>
+      <c r="D1189" s="22"/>
+      <c r="E1189" s="22"/>
+      <c r="F1189" s="22"/>
+      <c r="G1189" s="22"/>
+      <c r="H1189" s="22"/>
+      <c r="I1189" s="22"/>
+      <c r="J1189" s="22"/>
+      <c r="K1189" s="22"/>
+      <c r="L1189" s="22"/>
     </row>
     <row r="1190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1190" s="19"/>
-      <c r="E1190" s="19"/>
-      <c r="F1190" s="19"/>
-      <c r="G1190" s="19"/>
-      <c r="H1190" s="19"/>
-      <c r="I1190" s="19"/>
-      <c r="J1190" s="19"/>
-      <c r="K1190" s="19"/>
-      <c r="L1190" s="19"/>
+      <c r="D1190" s="22"/>
+      <c r="E1190" s="22"/>
+      <c r="F1190" s="22"/>
+      <c r="G1190" s="22"/>
+      <c r="H1190" s="22"/>
+      <c r="I1190" s="22"/>
+      <c r="J1190" s="22"/>
+      <c r="K1190" s="22"/>
+      <c r="L1190" s="22"/>
     </row>
     <row r="1191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1191" s="2"/>
@@ -36129,39 +36126,39 @@
       <c r="B1236" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1236" s="19" t="s">
+      <c r="D1236" s="22" t="s">
         <v>1026</v>
       </c>
-      <c r="E1236" s="19"/>
-      <c r="F1236" s="19"/>
-      <c r="G1236" s="19"/>
-      <c r="H1236" s="19"/>
-      <c r="I1236" s="19"/>
-      <c r="J1236" s="19"/>
-      <c r="K1236" s="19"/>
-      <c r="L1236" s="19"/>
+      <c r="E1236" s="22"/>
+      <c r="F1236" s="22"/>
+      <c r="G1236" s="22"/>
+      <c r="H1236" s="22"/>
+      <c r="I1236" s="22"/>
+      <c r="J1236" s="22"/>
+      <c r="K1236" s="22"/>
+      <c r="L1236" s="22"/>
     </row>
     <row r="1237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1237" s="19"/>
-      <c r="E1237" s="19"/>
-      <c r="F1237" s="19"/>
-      <c r="G1237" s="19"/>
-      <c r="H1237" s="19"/>
-      <c r="I1237" s="19"/>
-      <c r="J1237" s="19"/>
-      <c r="K1237" s="19"/>
-      <c r="L1237" s="19"/>
+      <c r="D1237" s="22"/>
+      <c r="E1237" s="22"/>
+      <c r="F1237" s="22"/>
+      <c r="G1237" s="22"/>
+      <c r="H1237" s="22"/>
+      <c r="I1237" s="22"/>
+      <c r="J1237" s="22"/>
+      <c r="K1237" s="22"/>
+      <c r="L1237" s="22"/>
     </row>
     <row r="1238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1238" s="19"/>
-      <c r="E1238" s="19"/>
-      <c r="F1238" s="19"/>
-      <c r="G1238" s="19"/>
-      <c r="H1238" s="19"/>
-      <c r="I1238" s="19"/>
-      <c r="J1238" s="19"/>
-      <c r="K1238" s="19"/>
-      <c r="L1238" s="19"/>
+      <c r="D1238" s="22"/>
+      <c r="E1238" s="22"/>
+      <c r="F1238" s="22"/>
+      <c r="G1238" s="22"/>
+      <c r="H1238" s="22"/>
+      <c r="I1238" s="22"/>
+      <c r="J1238" s="22"/>
+      <c r="K1238" s="22"/>
+      <c r="L1238" s="22"/>
     </row>
     <row r="1239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1239" s="2"/>
@@ -36450,39 +36447,39 @@
       <c r="B1252" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1252" s="18" t="s">
+      <c r="D1252" s="23" t="s">
         <v>1287</v>
       </c>
-      <c r="E1252" s="19"/>
-      <c r="F1252" s="19"/>
-      <c r="G1252" s="19"/>
-      <c r="H1252" s="19"/>
-      <c r="I1252" s="19"/>
-      <c r="J1252" s="19"/>
-      <c r="K1252" s="19"/>
-      <c r="L1252" s="19"/>
+      <c r="E1252" s="22"/>
+      <c r="F1252" s="22"/>
+      <c r="G1252" s="22"/>
+      <c r="H1252" s="22"/>
+      <c r="I1252" s="22"/>
+      <c r="J1252" s="22"/>
+      <c r="K1252" s="22"/>
+      <c r="L1252" s="22"/>
     </row>
     <row r="1253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1253" s="19"/>
-      <c r="E1253" s="19"/>
-      <c r="F1253" s="19"/>
-      <c r="G1253" s="19"/>
-      <c r="H1253" s="19"/>
-      <c r="I1253" s="19"/>
-      <c r="J1253" s="19"/>
-      <c r="K1253" s="19"/>
-      <c r="L1253" s="19"/>
+      <c r="D1253" s="22"/>
+      <c r="E1253" s="22"/>
+      <c r="F1253" s="22"/>
+      <c r="G1253" s="22"/>
+      <c r="H1253" s="22"/>
+      <c r="I1253" s="22"/>
+      <c r="J1253" s="22"/>
+      <c r="K1253" s="22"/>
+      <c r="L1253" s="22"/>
     </row>
     <row r="1254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1254" s="19"/>
-      <c r="E1254" s="19"/>
-      <c r="F1254" s="19"/>
-      <c r="G1254" s="19"/>
-      <c r="H1254" s="19"/>
-      <c r="I1254" s="19"/>
-      <c r="J1254" s="19"/>
-      <c r="K1254" s="19"/>
-      <c r="L1254" s="19"/>
+      <c r="D1254" s="22"/>
+      <c r="E1254" s="22"/>
+      <c r="F1254" s="22"/>
+      <c r="G1254" s="22"/>
+      <c r="H1254" s="22"/>
+      <c r="I1254" s="22"/>
+      <c r="J1254" s="22"/>
+      <c r="K1254" s="22"/>
+      <c r="L1254" s="22"/>
     </row>
     <row r="1255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1255" s="2"/>
@@ -36745,39 +36742,39 @@
       <c r="B1267" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1267" s="19" t="s">
+      <c r="D1267" s="22" t="s">
         <v>1288</v>
       </c>
-      <c r="E1267" s="19"/>
-      <c r="F1267" s="19"/>
-      <c r="G1267" s="19"/>
-      <c r="H1267" s="19"/>
-      <c r="I1267" s="19"/>
-      <c r="J1267" s="19"/>
-      <c r="K1267" s="19"/>
-      <c r="L1267" s="19"/>
+      <c r="E1267" s="22"/>
+      <c r="F1267" s="22"/>
+      <c r="G1267" s="22"/>
+      <c r="H1267" s="22"/>
+      <c r="I1267" s="22"/>
+      <c r="J1267" s="22"/>
+      <c r="K1267" s="22"/>
+      <c r="L1267" s="22"/>
     </row>
     <row r="1268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1268" s="19"/>
-      <c r="E1268" s="19"/>
-      <c r="F1268" s="19"/>
-      <c r="G1268" s="19"/>
-      <c r="H1268" s="19"/>
-      <c r="I1268" s="19"/>
-      <c r="J1268" s="19"/>
-      <c r="K1268" s="19"/>
-      <c r="L1268" s="19"/>
+      <c r="D1268" s="22"/>
+      <c r="E1268" s="22"/>
+      <c r="F1268" s="22"/>
+      <c r="G1268" s="22"/>
+      <c r="H1268" s="22"/>
+      <c r="I1268" s="22"/>
+      <c r="J1268" s="22"/>
+      <c r="K1268" s="22"/>
+      <c r="L1268" s="22"/>
     </row>
     <row r="1269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1269" s="19"/>
-      <c r="E1269" s="19"/>
-      <c r="F1269" s="19"/>
-      <c r="G1269" s="19"/>
-      <c r="H1269" s="19"/>
-      <c r="I1269" s="19"/>
-      <c r="J1269" s="19"/>
-      <c r="K1269" s="19"/>
-      <c r="L1269" s="19"/>
+      <c r="D1269" s="22"/>
+      <c r="E1269" s="22"/>
+      <c r="F1269" s="22"/>
+      <c r="G1269" s="22"/>
+      <c r="H1269" s="22"/>
+      <c r="I1269" s="22"/>
+      <c r="J1269" s="22"/>
+      <c r="K1269" s="22"/>
+      <c r="L1269" s="22"/>
     </row>
     <row r="1270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1270" s="2"/>
@@ -37307,39 +37304,39 @@
       <c r="B1292" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1292" s="19" t="s">
+      <c r="D1292" s="22" t="s">
         <v>1296</v>
       </c>
-      <c r="E1292" s="19"/>
-      <c r="F1292" s="19"/>
-      <c r="G1292" s="19"/>
-      <c r="H1292" s="19"/>
-      <c r="I1292" s="19"/>
-      <c r="J1292" s="19"/>
-      <c r="K1292" s="19"/>
-      <c r="L1292" s="19"/>
+      <c r="E1292" s="22"/>
+      <c r="F1292" s="22"/>
+      <c r="G1292" s="22"/>
+      <c r="H1292" s="22"/>
+      <c r="I1292" s="22"/>
+      <c r="J1292" s="22"/>
+      <c r="K1292" s="22"/>
+      <c r="L1292" s="22"/>
     </row>
     <row r="1293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1293" s="19"/>
-      <c r="E1293" s="19"/>
-      <c r="F1293" s="19"/>
-      <c r="G1293" s="19"/>
-      <c r="H1293" s="19"/>
-      <c r="I1293" s="19"/>
-      <c r="J1293" s="19"/>
-      <c r="K1293" s="19"/>
-      <c r="L1293" s="19"/>
+      <c r="D1293" s="22"/>
+      <c r="E1293" s="22"/>
+      <c r="F1293" s="22"/>
+      <c r="G1293" s="22"/>
+      <c r="H1293" s="22"/>
+      <c r="I1293" s="22"/>
+      <c r="J1293" s="22"/>
+      <c r="K1293" s="22"/>
+      <c r="L1293" s="22"/>
     </row>
     <row r="1294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1294" s="19"/>
-      <c r="E1294" s="19"/>
-      <c r="F1294" s="19"/>
-      <c r="G1294" s="19"/>
-      <c r="H1294" s="19"/>
-      <c r="I1294" s="19"/>
-      <c r="J1294" s="19"/>
-      <c r="K1294" s="19"/>
-      <c r="L1294" s="19"/>
+      <c r="D1294" s="22"/>
+      <c r="E1294" s="22"/>
+      <c r="F1294" s="22"/>
+      <c r="G1294" s="22"/>
+      <c r="H1294" s="22"/>
+      <c r="I1294" s="22"/>
+      <c r="J1294" s="22"/>
+      <c r="K1294" s="22"/>
+      <c r="L1294" s="22"/>
     </row>
     <row r="1295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1295" s="2"/>
@@ -37655,39 +37652,39 @@
       <c r="B1309" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1309" s="19" t="s">
+      <c r="D1309" s="22" t="s">
         <v>1289</v>
       </c>
-      <c r="E1309" s="19"/>
-      <c r="F1309" s="19"/>
-      <c r="G1309" s="19"/>
-      <c r="H1309" s="19"/>
-      <c r="I1309" s="19"/>
-      <c r="J1309" s="19"/>
-      <c r="K1309" s="19"/>
-      <c r="L1309" s="19"/>
+      <c r="E1309" s="22"/>
+      <c r="F1309" s="22"/>
+      <c r="G1309" s="22"/>
+      <c r="H1309" s="22"/>
+      <c r="I1309" s="22"/>
+      <c r="J1309" s="22"/>
+      <c r="K1309" s="22"/>
+      <c r="L1309" s="22"/>
     </row>
     <row r="1310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1310" s="19"/>
-      <c r="E1310" s="19"/>
-      <c r="F1310" s="19"/>
-      <c r="G1310" s="19"/>
-      <c r="H1310" s="19"/>
-      <c r="I1310" s="19"/>
-      <c r="J1310" s="19"/>
-      <c r="K1310" s="19"/>
-      <c r="L1310" s="19"/>
+      <c r="D1310" s="22"/>
+      <c r="E1310" s="22"/>
+      <c r="F1310" s="22"/>
+      <c r="G1310" s="22"/>
+      <c r="H1310" s="22"/>
+      <c r="I1310" s="22"/>
+      <c r="J1310" s="22"/>
+      <c r="K1310" s="22"/>
+      <c r="L1310" s="22"/>
     </row>
     <row r="1311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1311" s="19"/>
-      <c r="E1311" s="19"/>
-      <c r="F1311" s="19"/>
-      <c r="G1311" s="19"/>
-      <c r="H1311" s="19"/>
-      <c r="I1311" s="19"/>
-      <c r="J1311" s="19"/>
-      <c r="K1311" s="19"/>
-      <c r="L1311" s="19"/>
+      <c r="D1311" s="22"/>
+      <c r="E1311" s="22"/>
+      <c r="F1311" s="22"/>
+      <c r="G1311" s="22"/>
+      <c r="H1311" s="22"/>
+      <c r="I1311" s="22"/>
+      <c r="J1311" s="22"/>
+      <c r="K1311" s="22"/>
+      <c r="L1311" s="22"/>
     </row>
     <row r="1312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1312" s="2"/>
@@ -38003,39 +38000,39 @@
       <c r="B1326" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1326" s="19" t="s">
+      <c r="D1326" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="E1326" s="19"/>
-      <c r="F1326" s="19"/>
-      <c r="G1326" s="19"/>
-      <c r="H1326" s="19"/>
-      <c r="I1326" s="19"/>
-      <c r="J1326" s="19"/>
-      <c r="K1326" s="19"/>
-      <c r="L1326" s="19"/>
+      <c r="E1326" s="22"/>
+      <c r="F1326" s="22"/>
+      <c r="G1326" s="22"/>
+      <c r="H1326" s="22"/>
+      <c r="I1326" s="22"/>
+      <c r="J1326" s="22"/>
+      <c r="K1326" s="22"/>
+      <c r="L1326" s="22"/>
     </row>
     <row r="1327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1327" s="19"/>
-      <c r="E1327" s="19"/>
-      <c r="F1327" s="19"/>
-      <c r="G1327" s="19"/>
-      <c r="H1327" s="19"/>
-      <c r="I1327" s="19"/>
-      <c r="J1327" s="19"/>
-      <c r="K1327" s="19"/>
-      <c r="L1327" s="19"/>
+      <c r="D1327" s="22"/>
+      <c r="E1327" s="22"/>
+      <c r="F1327" s="22"/>
+      <c r="G1327" s="22"/>
+      <c r="H1327" s="22"/>
+      <c r="I1327" s="22"/>
+      <c r="J1327" s="22"/>
+      <c r="K1327" s="22"/>
+      <c r="L1327" s="22"/>
     </row>
     <row r="1328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1328" s="19"/>
-      <c r="E1328" s="19"/>
-      <c r="F1328" s="19"/>
-      <c r="G1328" s="19"/>
-      <c r="H1328" s="19"/>
-      <c r="I1328" s="19"/>
-      <c r="J1328" s="19"/>
-      <c r="K1328" s="19"/>
-      <c r="L1328" s="19"/>
+      <c r="D1328" s="22"/>
+      <c r="E1328" s="22"/>
+      <c r="F1328" s="22"/>
+      <c r="G1328" s="22"/>
+      <c r="H1328" s="22"/>
+      <c r="I1328" s="22"/>
+      <c r="J1328" s="22"/>
+      <c r="K1328" s="22"/>
+      <c r="L1328" s="22"/>
     </row>
     <row r="1329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1329" s="2"/>
@@ -38428,39 +38425,39 @@
       <c r="B1346" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1346" s="19" t="s">
+      <c r="D1346" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="E1346" s="19"/>
-      <c r="F1346" s="19"/>
-      <c r="G1346" s="19"/>
-      <c r="H1346" s="19"/>
-      <c r="I1346" s="19"/>
-      <c r="J1346" s="19"/>
-      <c r="K1346" s="19"/>
-      <c r="L1346" s="19"/>
+      <c r="E1346" s="22"/>
+      <c r="F1346" s="22"/>
+      <c r="G1346" s="22"/>
+      <c r="H1346" s="22"/>
+      <c r="I1346" s="22"/>
+      <c r="J1346" s="22"/>
+      <c r="K1346" s="22"/>
+      <c r="L1346" s="22"/>
     </row>
     <row r="1347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1347" s="19"/>
-      <c r="E1347" s="19"/>
-      <c r="F1347" s="19"/>
-      <c r="G1347" s="19"/>
-      <c r="H1347" s="19"/>
-      <c r="I1347" s="19"/>
-      <c r="J1347" s="19"/>
-      <c r="K1347" s="19"/>
-      <c r="L1347" s="19"/>
+      <c r="D1347" s="22"/>
+      <c r="E1347" s="22"/>
+      <c r="F1347" s="22"/>
+      <c r="G1347" s="22"/>
+      <c r="H1347" s="22"/>
+      <c r="I1347" s="22"/>
+      <c r="J1347" s="22"/>
+      <c r="K1347" s="22"/>
+      <c r="L1347" s="22"/>
     </row>
     <row r="1348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1348" s="19"/>
-      <c r="E1348" s="19"/>
-      <c r="F1348" s="19"/>
-      <c r="G1348" s="19"/>
-      <c r="H1348" s="19"/>
-      <c r="I1348" s="19"/>
-      <c r="J1348" s="19"/>
-      <c r="K1348" s="19"/>
-      <c r="L1348" s="19"/>
+      <c r="D1348" s="22"/>
+      <c r="E1348" s="22"/>
+      <c r="F1348" s="22"/>
+      <c r="G1348" s="22"/>
+      <c r="H1348" s="22"/>
+      <c r="I1348" s="22"/>
+      <c r="J1348" s="22"/>
+      <c r="K1348" s="22"/>
+      <c r="L1348" s="22"/>
     </row>
     <row r="1349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1349" s="2"/>
@@ -38723,39 +38720,39 @@
       <c r="B1361" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1361" s="19" t="s">
+      <c r="D1361" s="22" t="s">
         <v>1292</v>
       </c>
-      <c r="E1361" s="19"/>
-      <c r="F1361" s="19"/>
-      <c r="G1361" s="19"/>
-      <c r="H1361" s="19"/>
-      <c r="I1361" s="19"/>
-      <c r="J1361" s="19"/>
-      <c r="K1361" s="19"/>
-      <c r="L1361" s="19"/>
+      <c r="E1361" s="22"/>
+      <c r="F1361" s="22"/>
+      <c r="G1361" s="22"/>
+      <c r="H1361" s="22"/>
+      <c r="I1361" s="22"/>
+      <c r="J1361" s="22"/>
+      <c r="K1361" s="22"/>
+      <c r="L1361" s="22"/>
     </row>
     <row r="1362" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1362" s="19"/>
-      <c r="E1362" s="19"/>
-      <c r="F1362" s="19"/>
-      <c r="G1362" s="19"/>
-      <c r="H1362" s="19"/>
-      <c r="I1362" s="19"/>
-      <c r="J1362" s="19"/>
-      <c r="K1362" s="19"/>
-      <c r="L1362" s="19"/>
+      <c r="D1362" s="22"/>
+      <c r="E1362" s="22"/>
+      <c r="F1362" s="22"/>
+      <c r="G1362" s="22"/>
+      <c r="H1362" s="22"/>
+      <c r="I1362" s="22"/>
+      <c r="J1362" s="22"/>
+      <c r="K1362" s="22"/>
+      <c r="L1362" s="22"/>
     </row>
     <row r="1363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1363" s="19"/>
-      <c r="E1363" s="19"/>
-      <c r="F1363" s="19"/>
-      <c r="G1363" s="19"/>
-      <c r="H1363" s="19"/>
-      <c r="I1363" s="19"/>
-      <c r="J1363" s="19"/>
-      <c r="K1363" s="19"/>
-      <c r="L1363" s="19"/>
+      <c r="D1363" s="22"/>
+      <c r="E1363" s="22"/>
+      <c r="F1363" s="22"/>
+      <c r="G1363" s="22"/>
+      <c r="H1363" s="22"/>
+      <c r="I1363" s="22"/>
+      <c r="J1363" s="22"/>
+      <c r="K1363" s="22"/>
+      <c r="L1363" s="22"/>
     </row>
     <row r="1364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1364" s="2"/>
@@ -39281,39 +39278,39 @@
       <c r="B1386" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1386" s="19" t="s">
+      <c r="D1386" s="22" t="s">
         <v>1293</v>
       </c>
-      <c r="E1386" s="19"/>
-      <c r="F1386" s="19"/>
-      <c r="G1386" s="19"/>
-      <c r="H1386" s="19"/>
-      <c r="I1386" s="19"/>
-      <c r="J1386" s="19"/>
-      <c r="K1386" s="19"/>
-      <c r="L1386" s="19"/>
+      <c r="E1386" s="22"/>
+      <c r="F1386" s="22"/>
+      <c r="G1386" s="22"/>
+      <c r="H1386" s="22"/>
+      <c r="I1386" s="22"/>
+      <c r="J1386" s="22"/>
+      <c r="K1386" s="22"/>
+      <c r="L1386" s="22"/>
     </row>
     <row r="1387" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1387" s="19"/>
-      <c r="E1387" s="19"/>
-      <c r="F1387" s="19"/>
-      <c r="G1387" s="19"/>
-      <c r="H1387" s="19"/>
-      <c r="I1387" s="19"/>
-      <c r="J1387" s="19"/>
-      <c r="K1387" s="19"/>
-      <c r="L1387" s="19"/>
+      <c r="D1387" s="22"/>
+      <c r="E1387" s="22"/>
+      <c r="F1387" s="22"/>
+      <c r="G1387" s="22"/>
+      <c r="H1387" s="22"/>
+      <c r="I1387" s="22"/>
+      <c r="J1387" s="22"/>
+      <c r="K1387" s="22"/>
+      <c r="L1387" s="22"/>
     </row>
     <row r="1388" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1388" s="19"/>
-      <c r="E1388" s="19"/>
-      <c r="F1388" s="19"/>
-      <c r="G1388" s="19"/>
-      <c r="H1388" s="19"/>
-      <c r="I1388" s="19"/>
-      <c r="J1388" s="19"/>
-      <c r="K1388" s="19"/>
-      <c r="L1388" s="19"/>
+      <c r="D1388" s="22"/>
+      <c r="E1388" s="22"/>
+      <c r="F1388" s="22"/>
+      <c r="G1388" s="22"/>
+      <c r="H1388" s="22"/>
+      <c r="I1388" s="22"/>
+      <c r="J1388" s="22"/>
+      <c r="K1388" s="22"/>
+      <c r="L1388" s="22"/>
     </row>
     <row r="1389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1389" s="2"/>
@@ -40096,39 +40093,39 @@
       <c r="B1421" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1421" s="19" t="s">
+      <c r="D1421" s="22" t="s">
         <v>1294</v>
       </c>
-      <c r="E1421" s="19"/>
-      <c r="F1421" s="19"/>
-      <c r="G1421" s="19"/>
-      <c r="H1421" s="19"/>
-      <c r="I1421" s="19"/>
-      <c r="J1421" s="19"/>
-      <c r="K1421" s="19"/>
-      <c r="L1421" s="19"/>
+      <c r="E1421" s="22"/>
+      <c r="F1421" s="22"/>
+      <c r="G1421" s="22"/>
+      <c r="H1421" s="22"/>
+      <c r="I1421" s="22"/>
+      <c r="J1421" s="22"/>
+      <c r="K1421" s="22"/>
+      <c r="L1421" s="22"/>
     </row>
     <row r="1422" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1422" s="19"/>
-      <c r="E1422" s="19"/>
-      <c r="F1422" s="19"/>
-      <c r="G1422" s="19"/>
-      <c r="H1422" s="19"/>
-      <c r="I1422" s="19"/>
-      <c r="J1422" s="19"/>
-      <c r="K1422" s="19"/>
-      <c r="L1422" s="19"/>
+      <c r="D1422" s="22"/>
+      <c r="E1422" s="22"/>
+      <c r="F1422" s="22"/>
+      <c r="G1422" s="22"/>
+      <c r="H1422" s="22"/>
+      <c r="I1422" s="22"/>
+      <c r="J1422" s="22"/>
+      <c r="K1422" s="22"/>
+      <c r="L1422" s="22"/>
     </row>
     <row r="1423" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1423" s="19"/>
-      <c r="E1423" s="19"/>
-      <c r="F1423" s="19"/>
-      <c r="G1423" s="19"/>
-      <c r="H1423" s="19"/>
-      <c r="I1423" s="19"/>
-      <c r="J1423" s="19"/>
-      <c r="K1423" s="19"/>
-      <c r="L1423" s="19"/>
+      <c r="D1423" s="22"/>
+      <c r="E1423" s="22"/>
+      <c r="F1423" s="22"/>
+      <c r="G1423" s="22"/>
+      <c r="H1423" s="22"/>
+      <c r="I1423" s="22"/>
+      <c r="J1423" s="22"/>
+      <c r="K1423" s="22"/>
+      <c r="L1423" s="22"/>
     </row>
     <row r="1424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1424" s="2"/>
@@ -40255,39 +40252,39 @@
       <c r="B1431" s="6" t="s">
         <v>1286</v>
       </c>
-      <c r="D1431" s="19" t="s">
+      <c r="D1431" s="22" t="s">
         <v>1302</v>
       </c>
-      <c r="E1431" s="19"/>
-      <c r="F1431" s="19"/>
-      <c r="G1431" s="19"/>
-      <c r="H1431" s="19"/>
-      <c r="I1431" s="19"/>
-      <c r="J1431" s="19"/>
-      <c r="K1431" s="19"/>
-      <c r="L1431" s="19"/>
+      <c r="E1431" s="22"/>
+      <c r="F1431" s="22"/>
+      <c r="G1431" s="22"/>
+      <c r="H1431" s="22"/>
+      <c r="I1431" s="22"/>
+      <c r="J1431" s="22"/>
+      <c r="K1431" s="22"/>
+      <c r="L1431" s="22"/>
     </row>
     <row r="1432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1432" s="19"/>
-      <c r="E1432" s="19"/>
-      <c r="F1432" s="19"/>
-      <c r="G1432" s="19"/>
-      <c r="H1432" s="19"/>
-      <c r="I1432" s="19"/>
-      <c r="J1432" s="19"/>
-      <c r="K1432" s="19"/>
-      <c r="L1432" s="19"/>
+      <c r="D1432" s="22"/>
+      <c r="E1432" s="22"/>
+      <c r="F1432" s="22"/>
+      <c r="G1432" s="22"/>
+      <c r="H1432" s="22"/>
+      <c r="I1432" s="22"/>
+      <c r="J1432" s="22"/>
+      <c r="K1432" s="22"/>
+      <c r="L1432" s="22"/>
     </row>
     <row r="1433" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1433" s="19"/>
-      <c r="E1433" s="19"/>
-      <c r="F1433" s="19"/>
-      <c r="G1433" s="19"/>
-      <c r="H1433" s="19"/>
-      <c r="I1433" s="19"/>
-      <c r="J1433" s="19"/>
-      <c r="K1433" s="19"/>
-      <c r="L1433" s="19"/>
+      <c r="D1433" s="22"/>
+      <c r="E1433" s="22"/>
+      <c r="F1433" s="22"/>
+      <c r="G1433" s="22"/>
+      <c r="H1433" s="22"/>
+      <c r="I1433" s="22"/>
+      <c r="J1433" s="22"/>
+      <c r="K1433" s="22"/>
+      <c r="L1433" s="22"/>
     </row>
     <row r="1434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1434" s="16"/>
@@ -41125,38 +41122,38 @@
     </row>
     <row r="1468" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1468" s="4"/>
-      <c r="D1468" s="18" t="s">
+      <c r="D1468" s="23" t="s">
         <v>1653</v>
       </c>
-      <c r="E1468" s="18"/>
-      <c r="F1468" s="18"/>
-      <c r="G1468" s="18"/>
-      <c r="H1468" s="18"/>
-      <c r="I1468" s="18"/>
+      <c r="E1468" s="23"/>
+      <c r="F1468" s="23"/>
+      <c r="G1468" s="23"/>
+      <c r="H1468" s="23"/>
+      <c r="I1468" s="23"/>
       <c r="J1468" s="17"/>
       <c r="K1468" s="17"/>
       <c r="L1468" s="17"/>
     </row>
     <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1469" s="4"/>
-      <c r="D1469" s="18"/>
-      <c r="E1469" s="18"/>
-      <c r="F1469" s="18"/>
-      <c r="G1469" s="18"/>
-      <c r="H1469" s="18"/>
-      <c r="I1469" s="18"/>
+      <c r="D1469" s="23"/>
+      <c r="E1469" s="23"/>
+      <c r="F1469" s="23"/>
+      <c r="G1469" s="23"/>
+      <c r="H1469" s="23"/>
+      <c r="I1469" s="23"/>
       <c r="J1469" s="17"/>
       <c r="K1469" s="17"/>
       <c r="L1469" s="17"/>
     </row>
     <row r="1470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1470" s="4"/>
-      <c r="D1470" s="18"/>
-      <c r="E1470" s="18"/>
-      <c r="F1470" s="18"/>
-      <c r="G1470" s="18"/>
-      <c r="H1470" s="18"/>
-      <c r="I1470" s="18"/>
+      <c r="D1470" s="23"/>
+      <c r="E1470" s="23"/>
+      <c r="F1470" s="23"/>
+      <c r="G1470" s="23"/>
+      <c r="H1470" s="23"/>
+      <c r="I1470" s="23"/>
       <c r="J1470" s="17"/>
       <c r="K1470" s="17"/>
       <c r="L1470" s="17"/>
@@ -41435,38 +41432,38 @@
     </row>
     <row r="1484" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1484" s="4"/>
-      <c r="D1484" s="19" t="s">
+      <c r="D1484" s="22" t="s">
         <v>1655</v>
       </c>
-      <c r="E1484" s="19"/>
-      <c r="F1484" s="19"/>
-      <c r="G1484" s="19"/>
-      <c r="H1484" s="19"/>
-      <c r="I1484" s="19"/>
+      <c r="E1484" s="22"/>
+      <c r="F1484" s="22"/>
+      <c r="G1484" s="22"/>
+      <c r="H1484" s="22"/>
+      <c r="I1484" s="22"/>
       <c r="J1484" s="17"/>
       <c r="K1484" s="17"/>
       <c r="L1484" s="17"/>
     </row>
     <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1485" s="4"/>
-      <c r="D1485" s="19"/>
-      <c r="E1485" s="19"/>
-      <c r="F1485" s="19"/>
-      <c r="G1485" s="19"/>
-      <c r="H1485" s="19"/>
-      <c r="I1485" s="19"/>
+      <c r="D1485" s="22"/>
+      <c r="E1485" s="22"/>
+      <c r="F1485" s="22"/>
+      <c r="G1485" s="22"/>
+      <c r="H1485" s="22"/>
+      <c r="I1485" s="22"/>
       <c r="J1485" s="17"/>
       <c r="K1485" s="17"/>
       <c r="L1485" s="17"/>
     </row>
     <row r="1486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1486" s="4"/>
-      <c r="D1486" s="19"/>
-      <c r="E1486" s="19"/>
-      <c r="F1486" s="19"/>
-      <c r="G1486" s="19"/>
-      <c r="H1486" s="19"/>
-      <c r="I1486" s="19"/>
+      <c r="D1486" s="22"/>
+      <c r="E1486" s="22"/>
+      <c r="F1486" s="22"/>
+      <c r="G1486" s="22"/>
+      <c r="H1486" s="22"/>
+      <c r="I1486" s="22"/>
       <c r="J1486" s="17"/>
       <c r="K1486" s="17"/>
       <c r="L1486" s="17"/>
@@ -42364,36 +42361,36 @@
       </c>
     </row>
     <row r="1522" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1522" s="18" t="s">
+      <c r="D1522" s="23" t="s">
         <v>1654</v>
       </c>
-      <c r="E1522" s="19"/>
-      <c r="F1522" s="19"/>
-      <c r="G1522" s="19"/>
-      <c r="H1522" s="19"/>
-      <c r="I1522" s="19"/>
+      <c r="E1522" s="22"/>
+      <c r="F1522" s="22"/>
+      <c r="G1522" s="22"/>
+      <c r="H1522" s="22"/>
+      <c r="I1522" s="22"/>
       <c r="J1522" s="17"/>
       <c r="K1522" s="17"/>
       <c r="L1522" s="17"/>
     </row>
     <row r="1523" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D1523" s="19"/>
-      <c r="E1523" s="19"/>
-      <c r="F1523" s="19"/>
-      <c r="G1523" s="19"/>
-      <c r="H1523" s="19"/>
-      <c r="I1523" s="19"/>
+      <c r="D1523" s="22"/>
+      <c r="E1523" s="22"/>
+      <c r="F1523" s="22"/>
+      <c r="G1523" s="22"/>
+      <c r="H1523" s="22"/>
+      <c r="I1523" s="22"/>
       <c r="J1523" s="17"/>
       <c r="K1523" s="17"/>
       <c r="L1523" s="17"/>
     </row>
     <row r="1524" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D1524" s="19"/>
-      <c r="E1524" s="19"/>
-      <c r="F1524" s="19"/>
-      <c r="G1524" s="19"/>
-      <c r="H1524" s="19"/>
-      <c r="I1524" s="19"/>
+      <c r="D1524" s="22"/>
+      <c r="E1524" s="22"/>
+      <c r="F1524" s="22"/>
+      <c r="G1524" s="22"/>
+      <c r="H1524" s="22"/>
+      <c r="I1524" s="22"/>
       <c r="J1524" s="17"/>
       <c r="K1524" s="17"/>
       <c r="L1524" s="17"/>
@@ -42408,37 +42405,8 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="D1431:L1433"/>
-    <mergeCell ref="D1346:L1348"/>
-    <mergeCell ref="D1361:L1363"/>
-    <mergeCell ref="D1386:L1388"/>
-    <mergeCell ref="D1421:L1423"/>
-    <mergeCell ref="D1252:L1254"/>
-    <mergeCell ref="D1267:L1269"/>
-    <mergeCell ref="D1292:L1294"/>
-    <mergeCell ref="D1309:L1311"/>
-    <mergeCell ref="D1326:L1328"/>
-    <mergeCell ref="D17:L19"/>
-    <mergeCell ref="D68:L70"/>
-    <mergeCell ref="D113:L115"/>
-    <mergeCell ref="D335:L337"/>
-    <mergeCell ref="D603:I605"/>
-    <mergeCell ref="D502:I504"/>
-    <mergeCell ref="D449:I451"/>
-    <mergeCell ref="D466:I468"/>
-    <mergeCell ref="D485:I487"/>
-    <mergeCell ref="D562:I564"/>
-    <mergeCell ref="D524:L526"/>
-    <mergeCell ref="D613:I615"/>
-    <mergeCell ref="D629:I631"/>
-    <mergeCell ref="D648:I650"/>
-    <mergeCell ref="D665:I667"/>
-    <mergeCell ref="D693:I695"/>
-    <mergeCell ref="D363:I365"/>
-    <mergeCell ref="D92:I94"/>
-    <mergeCell ref="D143:I145"/>
-    <mergeCell ref="D199:I201"/>
-    <mergeCell ref="D244:I246"/>
+    <mergeCell ref="D1236:L1238"/>
+    <mergeCell ref="D1129:I1131"/>
     <mergeCell ref="D295:I297"/>
     <mergeCell ref="D318:I320"/>
     <mergeCell ref="D1468:I1470"/>
@@ -42455,8 +42423,37 @@
     <mergeCell ref="D1016:I1018"/>
     <mergeCell ref="D1076:L1078"/>
     <mergeCell ref="D1188:L1190"/>
-    <mergeCell ref="D1236:L1238"/>
-    <mergeCell ref="D1129:I1131"/>
+    <mergeCell ref="D613:I615"/>
+    <mergeCell ref="D629:I631"/>
+    <mergeCell ref="D648:I650"/>
+    <mergeCell ref="D665:I667"/>
+    <mergeCell ref="D693:I695"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D68:L70"/>
+    <mergeCell ref="D113:L115"/>
+    <mergeCell ref="D335:L337"/>
+    <mergeCell ref="D603:I605"/>
+    <mergeCell ref="D502:I504"/>
+    <mergeCell ref="D449:I451"/>
+    <mergeCell ref="D466:I468"/>
+    <mergeCell ref="D485:I487"/>
+    <mergeCell ref="D562:I564"/>
+    <mergeCell ref="D524:L526"/>
+    <mergeCell ref="D363:I365"/>
+    <mergeCell ref="D92:I94"/>
+    <mergeCell ref="D143:I145"/>
+    <mergeCell ref="D199:I201"/>
+    <mergeCell ref="D244:I246"/>
+    <mergeCell ref="D1252:L1254"/>
+    <mergeCell ref="D1267:L1269"/>
+    <mergeCell ref="D1292:L1294"/>
+    <mergeCell ref="D1309:L1311"/>
+    <mergeCell ref="D1326:L1328"/>
+    <mergeCell ref="D1431:L1433"/>
+    <mergeCell ref="D1346:L1348"/>
+    <mergeCell ref="D1361:L1363"/>
+    <mergeCell ref="D1386:L1388"/>
+    <mergeCell ref="D1421:L1423"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -43292,8 +43289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43305,1500 +43302,1500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>1519</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>1672</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>1386</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>1387</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>1480</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>1388</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>1481</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>1389</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>1675</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>1482</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>1390</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>1676</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>1483</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>1391</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>1677</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>1484</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>1392</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>1485</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>1393</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>1679</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>1479</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>1394</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>1486</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>1681</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>1487</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="21" t="s">
         <v>1396</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>1682</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="21" t="s">
         <v>1488</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="21" t="s">
         <v>1397</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>1683</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>1489</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>1398</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="21" t="s">
         <v>1490</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="21" t="s">
         <v>1399</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>1491</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>1400</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>1684</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="21" t="s">
         <v>1492</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="21" t="s">
         <v>1401</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>1685</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="21" t="s">
         <v>1501</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>1686</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="C21" s="21" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D19" s="24" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D20" s="24" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D21" s="24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D22" s="24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B23" s="24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>1691</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="C27" s="21" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D24" s="24" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D25" s="24" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D26" s="24" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D27" s="24" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D28" s="24" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D29" s="24" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D30" s="24" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D31" s="24" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D32" s="24" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D33" s="24" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D34" s="24" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D35" s="24" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D36" s="24" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D37" s="24" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D38" s="24" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D39" s="24" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D40" s="24" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>742</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D41" s="24" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D42" s="24" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D44" s="24" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D45" s="24" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D46" s="24" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D47" s="24" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D48" s="24" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D53" s="24" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D54" s="24" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D55" s="24" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D80" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D56" s="24" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D57" s="24" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D58" s="24" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D83" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D59" s="24" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D84" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D60" s="24" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D61" s="24" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D62" s="24" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D63" s="24" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D65" s="24" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D66" s="24" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D67" s="24" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D68" s="24" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D69" s="24" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D70" s="24" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D71" s="24" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D72" s="24" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D100" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D73" s="24" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D74" s="24" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D102" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D75" s="24" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D76" s="24" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D104" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D77" s="24" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D105" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D78" s="24" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="24" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="24" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="24" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="24" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="24" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="24" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B101" s="24" t="s">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B107" s="21" t="s">
         <v>1760</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="24" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="24" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>1573</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B107" s="24" t="s">
+      <c r="C107" s="18" t="s">
         <v>1761</v>
       </c>
-      <c r="C107" s="21" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
@@ -44816,6 +44813,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023C68C9F20C69D48BB417A9ADFD5DC9C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29914a5778ec744f9d5d623c4355d354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a57c4080a7a73066863a39e6ec4255" ns2:_="">
     <xsd:import namespace="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
@@ -44960,27 +44978,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -45028,19 +45025,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45062,9 +45049,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7155" uniqueCount="1765">
   <si>
     <t>Owner</t>
   </si>
@@ -6297,6 +6297,15 @@
   </si>
   <si>
     <t>A grade point deficit is defined as the number of grade points below a C average on credits attempted at UF. If the grade point average is less than 2.0, there is a grade point deficit. Only grades higher than C (2.0) will lower a deficit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIVERSAL_TRACKING_TERM_CD </t>
+  </si>
+  <si>
+    <t>UF_UNIV_TRK_TER</t>
+  </si>
+  <si>
+    <t>Universal Tracking Semester Code</t>
   </si>
 </sst>
 </file>
@@ -6432,10 +6441,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11625,7 +11634,7 @@
       <c r="B199" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D199" s="23" t="s">
+      <c r="D199" s="24" t="s">
         <v>992</v>
       </c>
       <c r="E199" s="22"/>
@@ -12691,7 +12700,7 @@
       <c r="B244" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D244" s="23" t="s">
+      <c r="D244" s="24" t="s">
         <v>991</v>
       </c>
       <c r="E244" s="22"/>
@@ -14396,36 +14405,36 @@
       <c r="L317" s="2"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D318" s="24" t="s">
+      <c r="D318" s="23" t="s">
         <v>999</v>
       </c>
-      <c r="E318" s="24"/>
-      <c r="F318" s="24"/>
-      <c r="G318" s="24"/>
-      <c r="H318" s="24"/>
-      <c r="I318" s="24"/>
+      <c r="E318" s="23"/>
+      <c r="F318" s="23"/>
+      <c r="G318" s="23"/>
+      <c r="H318" s="23"/>
+      <c r="I318" s="23"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D319" s="24"/>
-      <c r="E319" s="24"/>
-      <c r="F319" s="24"/>
-      <c r="G319" s="24"/>
-      <c r="H319" s="24"/>
-      <c r="I319" s="24"/>
+      <c r="D319" s="23"/>
+      <c r="E319" s="23"/>
+      <c r="F319" s="23"/>
+      <c r="G319" s="23"/>
+      <c r="H319" s="23"/>
+      <c r="I319" s="23"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D320" s="24"/>
-      <c r="E320" s="24"/>
-      <c r="F320" s="24"/>
-      <c r="G320" s="24"/>
-      <c r="H320" s="24"/>
-      <c r="I320" s="24"/>
+      <c r="D320" s="23"/>
+      <c r="E320" s="23"/>
+      <c r="F320" s="23"/>
+      <c r="G320" s="23"/>
+      <c r="H320" s="23"/>
+      <c r="I320" s="23"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
@@ -15380,36 +15389,36 @@
       <c r="L362" s="2"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D363" s="24" t="s">
+      <c r="D363" s="23" t="s">
         <v>1001</v>
       </c>
-      <c r="E363" s="24"/>
-      <c r="F363" s="24"/>
-      <c r="G363" s="24"/>
-      <c r="H363" s="24"/>
-      <c r="I363" s="24"/>
+      <c r="E363" s="23"/>
+      <c r="F363" s="23"/>
+      <c r="G363" s="23"/>
+      <c r="H363" s="23"/>
+      <c r="I363" s="23"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D364" s="24"/>
-      <c r="E364" s="24"/>
-      <c r="F364" s="24"/>
-      <c r="G364" s="24"/>
-      <c r="H364" s="24"/>
-      <c r="I364" s="24"/>
+      <c r="D364" s="23"/>
+      <c r="E364" s="23"/>
+      <c r="F364" s="23"/>
+      <c r="G364" s="23"/>
+      <c r="H364" s="23"/>
+      <c r="I364" s="23"/>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D365" s="24"/>
-      <c r="E365" s="24"/>
-      <c r="F365" s="24"/>
-      <c r="G365" s="24"/>
-      <c r="H365" s="24"/>
-      <c r="I365" s="24"/>
+      <c r="D365" s="23"/>
+      <c r="E365" s="23"/>
+      <c r="F365" s="23"/>
+      <c r="G365" s="23"/>
+      <c r="H365" s="23"/>
+      <c r="I365" s="23"/>
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -17406,36 +17415,36 @@
       <c r="L448" s="2"/>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D449" s="24" t="s">
+      <c r="D449" s="23" t="s">
         <v>1002</v>
       </c>
-      <c r="E449" s="24"/>
-      <c r="F449" s="24"/>
-      <c r="G449" s="24"/>
-      <c r="H449" s="24"/>
-      <c r="I449" s="24"/>
+      <c r="E449" s="23"/>
+      <c r="F449" s="23"/>
+      <c r="G449" s="23"/>
+      <c r="H449" s="23"/>
+      <c r="I449" s="23"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
     </row>
     <row r="450" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D450" s="24"/>
-      <c r="E450" s="24"/>
-      <c r="F450" s="24"/>
-      <c r="G450" s="24"/>
-      <c r="H450" s="24"/>
-      <c r="I450" s="24"/>
+      <c r="D450" s="23"/>
+      <c r="E450" s="23"/>
+      <c r="F450" s="23"/>
+      <c r="G450" s="23"/>
+      <c r="H450" s="23"/>
+      <c r="I450" s="23"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D451" s="24"/>
-      <c r="E451" s="24"/>
-      <c r="F451" s="24"/>
-      <c r="G451" s="24"/>
-      <c r="H451" s="24"/>
-      <c r="I451" s="24"/>
+      <c r="D451" s="23"/>
+      <c r="E451" s="23"/>
+      <c r="F451" s="23"/>
+      <c r="G451" s="23"/>
+      <c r="H451" s="23"/>
+      <c r="I451" s="23"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
@@ -36447,7 +36456,7 @@
       <c r="B1252" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1252" s="23" t="s">
+      <c r="D1252" s="24" t="s">
         <v>1287</v>
       </c>
       <c r="E1252" s="22"/>
@@ -41122,38 +41131,38 @@
     </row>
     <row r="1468" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1468" s="4"/>
-      <c r="D1468" s="23" t="s">
+      <c r="D1468" s="24" t="s">
         <v>1653</v>
       </c>
-      <c r="E1468" s="23"/>
-      <c r="F1468" s="23"/>
-      <c r="G1468" s="23"/>
-      <c r="H1468" s="23"/>
-      <c r="I1468" s="23"/>
+      <c r="E1468" s="24"/>
+      <c r="F1468" s="24"/>
+      <c r="G1468" s="24"/>
+      <c r="H1468" s="24"/>
+      <c r="I1468" s="24"/>
       <c r="J1468" s="17"/>
       <c r="K1468" s="17"/>
       <c r="L1468" s="17"/>
     </row>
     <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1469" s="4"/>
-      <c r="D1469" s="23"/>
-      <c r="E1469" s="23"/>
-      <c r="F1469" s="23"/>
-      <c r="G1469" s="23"/>
-      <c r="H1469" s="23"/>
-      <c r="I1469" s="23"/>
+      <c r="D1469" s="24"/>
+      <c r="E1469" s="24"/>
+      <c r="F1469" s="24"/>
+      <c r="G1469" s="24"/>
+      <c r="H1469" s="24"/>
+      <c r="I1469" s="24"/>
       <c r="J1469" s="17"/>
       <c r="K1469" s="17"/>
       <c r="L1469" s="17"/>
     </row>
     <row r="1470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1470" s="4"/>
-      <c r="D1470" s="23"/>
-      <c r="E1470" s="23"/>
-      <c r="F1470" s="23"/>
-      <c r="G1470" s="23"/>
-      <c r="H1470" s="23"/>
-      <c r="I1470" s="23"/>
+      <c r="D1470" s="24"/>
+      <c r="E1470" s="24"/>
+      <c r="F1470" s="24"/>
+      <c r="G1470" s="24"/>
+      <c r="H1470" s="24"/>
+      <c r="I1470" s="24"/>
       <c r="J1470" s="17"/>
       <c r="K1470" s="17"/>
       <c r="L1470" s="17"/>
@@ -42361,7 +42370,7 @@
       </c>
     </row>
     <row r="1522" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1522" s="23" t="s">
+      <c r="D1522" s="24" t="s">
         <v>1654</v>
       </c>
       <c r="E1522" s="22"/>
@@ -42405,29 +42414,7 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="D1236:L1238"/>
-    <mergeCell ref="D1129:I1131"/>
-    <mergeCell ref="D295:I297"/>
-    <mergeCell ref="D318:I320"/>
-    <mergeCell ref="D1468:I1470"/>
-    <mergeCell ref="D1484:I1486"/>
-    <mergeCell ref="D1522:I1524"/>
-    <mergeCell ref="D835:I837"/>
-    <mergeCell ref="D895:L897"/>
-    <mergeCell ref="D912:L914"/>
-    <mergeCell ref="D929:L931"/>
-    <mergeCell ref="D1059:L1061"/>
-    <mergeCell ref="D958:I960"/>
-    <mergeCell ref="D979:I981"/>
-    <mergeCell ref="D999:I1001"/>
-    <mergeCell ref="D1016:I1018"/>
-    <mergeCell ref="D1076:L1078"/>
-    <mergeCell ref="D1188:L1190"/>
-    <mergeCell ref="D613:I615"/>
-    <mergeCell ref="D629:I631"/>
-    <mergeCell ref="D648:I650"/>
-    <mergeCell ref="D665:I667"/>
-    <mergeCell ref="D693:I695"/>
+    <mergeCell ref="D1421:L1423"/>
     <mergeCell ref="D17:L19"/>
     <mergeCell ref="D68:L70"/>
     <mergeCell ref="D113:L115"/>
@@ -42444,16 +42431,38 @@
     <mergeCell ref="D143:I145"/>
     <mergeCell ref="D199:I201"/>
     <mergeCell ref="D244:I246"/>
+    <mergeCell ref="D1484:I1486"/>
+    <mergeCell ref="D1522:I1524"/>
+    <mergeCell ref="D835:I837"/>
+    <mergeCell ref="D895:L897"/>
+    <mergeCell ref="D912:L914"/>
+    <mergeCell ref="D929:L931"/>
+    <mergeCell ref="D1059:L1061"/>
+    <mergeCell ref="D958:I960"/>
+    <mergeCell ref="D979:I981"/>
+    <mergeCell ref="D999:I1001"/>
+    <mergeCell ref="D1016:I1018"/>
+    <mergeCell ref="D1076:L1078"/>
+    <mergeCell ref="D1188:L1190"/>
     <mergeCell ref="D1252:L1254"/>
     <mergeCell ref="D1267:L1269"/>
     <mergeCell ref="D1292:L1294"/>
+    <mergeCell ref="D1236:L1238"/>
+    <mergeCell ref="D1129:I1131"/>
+    <mergeCell ref="D295:I297"/>
+    <mergeCell ref="D318:I320"/>
+    <mergeCell ref="D1468:I1470"/>
+    <mergeCell ref="D613:I615"/>
+    <mergeCell ref="D629:I631"/>
+    <mergeCell ref="D648:I650"/>
+    <mergeCell ref="D665:I667"/>
+    <mergeCell ref="D693:I695"/>
     <mergeCell ref="D1309:L1311"/>
     <mergeCell ref="D1326:L1328"/>
     <mergeCell ref="D1431:L1433"/>
     <mergeCell ref="D1346:L1348"/>
     <mergeCell ref="D1361:L1363"/>
     <mergeCell ref="D1386:L1388"/>
-    <mergeCell ref="D1421:L1423"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -43287,10 +43296,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44113,15 +44122,15 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>1436</v>
+        <v>1763</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>1718</v>
+        <v>1762</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>1527</v>
+        <v>1764</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>1574</v>
@@ -44129,13 +44138,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>1574</v>
@@ -44143,13 +44152,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>1574</v>
@@ -44157,13 +44166,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>1303</v>
+        <v>1720</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>1574</v>
@@ -44171,13 +44180,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>1721</v>
+        <v>1303</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>1574</v>
@@ -44185,41 +44194,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>1532</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>1574</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>1574</v>
@@ -44227,13 +44236,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>1574</v>
@@ -44241,13 +44250,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>1574</v>
@@ -44255,13 +44264,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>1574</v>
@@ -44269,13 +44278,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>1574</v>
@@ -44283,13 +44292,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>1574</v>
@@ -44297,13 +44306,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>1574</v>
@@ -44311,13 +44320,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>1574</v>
@@ -44325,13 +44334,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>1574</v>
@@ -44339,13 +44348,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>1574</v>
@@ -44353,13 +44362,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>1574</v>
@@ -44367,13 +44376,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>1574</v>
@@ -44381,13 +44390,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>1564</v>
+        <v>1546</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>1574</v>
@@ -44395,13 +44404,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>1574</v>
@@ -44409,13 +44418,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D80" s="21" t="s">
         <v>1574</v>
@@ -44423,13 +44432,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>1574</v>
@@ -44437,13 +44446,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D82" s="21" t="s">
         <v>1574</v>
@@ -44451,13 +44460,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>1574</v>
@@ -44465,13 +44474,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>1574</v>
@@ -44479,13 +44488,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D85" s="21" t="s">
         <v>1574</v>
@@ -44493,13 +44502,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>1574</v>
@@ -44507,13 +44516,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>1574</v>
@@ -44521,13 +44530,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>1574</v>
@@ -44535,13 +44544,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>1574</v>
@@ -44549,13 +44558,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>1574</v>
@@ -44563,13 +44572,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>1574</v>
@@ -44577,13 +44586,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D92" s="21" t="s">
         <v>1574</v>
@@ -44591,13 +44600,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>1574</v>
@@ -44605,13 +44614,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>1574</v>
@@ -44619,13 +44628,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>1574</v>
@@ -44633,27 +44642,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>1755</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D97" s="21" t="s">
         <v>1755</v>
@@ -44661,13 +44670,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D98" s="21" t="s">
         <v>1755</v>
@@ -44675,13 +44684,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>1755</v>
@@ -44689,27 +44698,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>686</v>
+        <v>1758</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>1574</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>1664</v>
+        <v>1477</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>1759</v>
+        <v>686</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>1665</v>
+        <v>1569</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>1574</v>
@@ -44717,13 +44726,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>820</v>
+        <v>1664</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>820</v>
+        <v>1759</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>1572</v>
+        <v>1665</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>1574</v>
@@ -44731,13 +44740,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>1574</v>
@@ -44745,13 +44754,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>1478</v>
+        <v>720</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>1478</v>
+        <v>720</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>1574</v>
@@ -44759,13 +44768,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>1365</v>
+        <v>1478</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>1365</v>
+        <v>1478</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D105" s="21" t="s">
         <v>1574</v>
@@ -44773,29 +44782,43 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>63</v>
+        <v>1365</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>63</v>
+        <v>1365</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>64</v>
+        <v>1573</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B108" s="21" t="s">
         <v>1760</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C108" s="18" t="s">
         <v>1761</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D108" s="21" t="s">
         <v>1574</v>
       </c>
     </row>
@@ -44813,27 +44836,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023C68C9F20C69D48BB417A9ADFD5DC9C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29914a5778ec744f9d5d623c4355d354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a57c4080a7a73066863a39e6ec4255" ns2:_="">
     <xsd:import namespace="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
@@ -44978,6 +44980,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -45025,9 +45048,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45049,19 +45082,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Standard Abbreviations" sheetId="3" r:id="rId3"/>
     <sheet name="Crosswalk Objects" sheetId="4" r:id="rId4"/>
     <sheet name="WH_STUDENT_STATUS_TERM" sheetId="5" r:id="rId5"/>
-    <sheet name="WH_STU_ADMISS Impact" sheetId="6" r:id="rId6"/>
-    <sheet name="WH_STU_APP_INFO Impact" sheetId="7" r:id="rId7"/>
+    <sheet name="WH_STU_ADMISS(MERGE) Impact" sheetId="6" r:id="rId6"/>
+    <sheet name="WH_STU_APP_INFO(MERGE) Impact" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8310" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8523" uniqueCount="1977">
   <si>
     <t>Owner</t>
   </si>
@@ -6935,6 +6935,15 @@
   </si>
   <si>
     <t>Now populated from Slate</t>
+  </si>
+  <si>
+    <t>New View Name</t>
+  </si>
+  <si>
+    <t>WH_STU_ADMISS_MERGE</t>
+  </si>
+  <si>
+    <t>WH_STU_APP_INFO_MERGE</t>
   </si>
 </sst>
 </file>
@@ -7067,17 +7076,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -7883,39 +7892,39 @@
       <c r="B17" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>997</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
@@ -9228,39 +9237,39 @@
       <c r="B68" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="24" t="s">
         <v>996</v>
       </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
@@ -9722,36 +9731,36 @@
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -10216,39 +10225,39 @@
       <c r="B113" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" s="24" t="s">
         <v>994</v>
       </c>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="22"/>
-      <c r="L114" s="22"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D116" s="2"/>
@@ -10882,36 +10891,36 @@
       <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="24" t="s">
         <v>993</v>
       </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="22"/>
-      <c r="I144" s="22"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="22"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -12266,36 +12275,36 @@
       <c r="B199" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D199" s="24" t="s">
+      <c r="D199" s="23" t="s">
         <v>992</v>
       </c>
-      <c r="E199" s="22"/>
-      <c r="F199" s="22"/>
-      <c r="G199" s="22"/>
-      <c r="H199" s="22"/>
-      <c r="I199" s="22"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="24"/>
+      <c r="I199" s="24"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="22"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="22"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="24"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="24"/>
+      <c r="I200" s="24"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D201" s="22"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="22"/>
-      <c r="G201" s="22"/>
-      <c r="H201" s="22"/>
-      <c r="I201" s="22"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="24"/>
+      <c r="I201" s="24"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -13332,36 +13341,36 @@
       <c r="B244" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D244" s="24" t="s">
+      <c r="D244" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="E244" s="22"/>
-      <c r="F244" s="22"/>
-      <c r="G244" s="22"/>
-      <c r="H244" s="22"/>
-      <c r="I244" s="22"/>
+      <c r="E244" s="24"/>
+      <c r="F244" s="24"/>
+      <c r="G244" s="24"/>
+      <c r="H244" s="24"/>
+      <c r="I244" s="24"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D245" s="22"/>
-      <c r="E245" s="22"/>
-      <c r="F245" s="22"/>
-      <c r="G245" s="22"/>
-      <c r="H245" s="22"/>
-      <c r="I245" s="22"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="24"/>
+      <c r="H245" s="24"/>
+      <c r="I245" s="24"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D246" s="22"/>
-      <c r="E246" s="22"/>
-      <c r="F246" s="22"/>
-      <c r="G246" s="22"/>
-      <c r="H246" s="22"/>
-      <c r="I246" s="22"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="24"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="24"/>
+      <c r="H246" s="24"/>
+      <c r="I246" s="24"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -14537,36 +14546,36 @@
       <c r="B295" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D295" s="22" t="s">
+      <c r="D295" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="E295" s="22"/>
-      <c r="F295" s="22"/>
-      <c r="G295" s="22"/>
-      <c r="H295" s="22"/>
-      <c r="I295" s="22"/>
+      <c r="E295" s="24"/>
+      <c r="F295" s="24"/>
+      <c r="G295" s="24"/>
+      <c r="H295" s="24"/>
+      <c r="I295" s="24"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D296" s="22"/>
-      <c r="E296" s="22"/>
-      <c r="F296" s="22"/>
-      <c r="G296" s="22"/>
-      <c r="H296" s="22"/>
-      <c r="I296" s="22"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="24"/>
+      <c r="F296" s="24"/>
+      <c r="G296" s="24"/>
+      <c r="H296" s="24"/>
+      <c r="I296" s="24"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D297" s="22"/>
-      <c r="E297" s="22"/>
-      <c r="F297" s="22"/>
-      <c r="G297" s="22"/>
-      <c r="H297" s="22"/>
-      <c r="I297" s="22"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="24"/>
+      <c r="F297" s="24"/>
+      <c r="G297" s="24"/>
+      <c r="H297" s="24"/>
+      <c r="I297" s="24"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -15037,36 +15046,36 @@
       <c r="L317" s="2"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D318" s="23" t="s">
+      <c r="D318" s="25" t="s">
         <v>999</v>
       </c>
-      <c r="E318" s="23"/>
-      <c r="F318" s="23"/>
-      <c r="G318" s="23"/>
-      <c r="H318" s="23"/>
-      <c r="I318" s="23"/>
+      <c r="E318" s="25"/>
+      <c r="F318" s="25"/>
+      <c r="G318" s="25"/>
+      <c r="H318" s="25"/>
+      <c r="I318" s="25"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D319" s="23"/>
-      <c r="E319" s="23"/>
-      <c r="F319" s="23"/>
-      <c r="G319" s="23"/>
-      <c r="H319" s="23"/>
-      <c r="I319" s="23"/>
+      <c r="D319" s="25"/>
+      <c r="E319" s="25"/>
+      <c r="F319" s="25"/>
+      <c r="G319" s="25"/>
+      <c r="H319" s="25"/>
+      <c r="I319" s="25"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D320" s="23"/>
-      <c r="E320" s="23"/>
-      <c r="F320" s="23"/>
-      <c r="G320" s="23"/>
-      <c r="H320" s="23"/>
-      <c r="I320" s="23"/>
+      <c r="D320" s="25"/>
+      <c r="E320" s="25"/>
+      <c r="F320" s="25"/>
+      <c r="G320" s="25"/>
+      <c r="H320" s="25"/>
+      <c r="I320" s="25"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
@@ -15391,39 +15400,39 @@
       <c r="B335" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D335" s="22" t="s">
+      <c r="D335" s="24" t="s">
         <v>1000</v>
       </c>
-      <c r="E335" s="22"/>
-      <c r="F335" s="22"/>
-      <c r="G335" s="22"/>
-      <c r="H335" s="22"/>
-      <c r="I335" s="22"/>
-      <c r="J335" s="22"/>
-      <c r="K335" s="22"/>
-      <c r="L335" s="22"/>
+      <c r="E335" s="24"/>
+      <c r="F335" s="24"/>
+      <c r="G335" s="24"/>
+      <c r="H335" s="24"/>
+      <c r="I335" s="24"/>
+      <c r="J335" s="24"/>
+      <c r="K335" s="24"/>
+      <c r="L335" s="24"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D336" s="22"/>
-      <c r="E336" s="22"/>
-      <c r="F336" s="22"/>
-      <c r="G336" s="22"/>
-      <c r="H336" s="22"/>
-      <c r="I336" s="22"/>
-      <c r="J336" s="22"/>
-      <c r="K336" s="22"/>
-      <c r="L336" s="22"/>
+      <c r="D336" s="24"/>
+      <c r="E336" s="24"/>
+      <c r="F336" s="24"/>
+      <c r="G336" s="24"/>
+      <c r="H336" s="24"/>
+      <c r="I336" s="24"/>
+      <c r="J336" s="24"/>
+      <c r="K336" s="24"/>
+      <c r="L336" s="24"/>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D337" s="22"/>
-      <c r="E337" s="22"/>
-      <c r="F337" s="22"/>
-      <c r="G337" s="22"/>
-      <c r="H337" s="22"/>
-      <c r="I337" s="22"/>
-      <c r="J337" s="22"/>
-      <c r="K337" s="22"/>
-      <c r="L337" s="22"/>
+      <c r="D337" s="24"/>
+      <c r="E337" s="24"/>
+      <c r="F337" s="24"/>
+      <c r="G337" s="24"/>
+      <c r="H337" s="24"/>
+      <c r="I337" s="24"/>
+      <c r="J337" s="24"/>
+      <c r="K337" s="24"/>
+      <c r="L337" s="24"/>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D338" s="2"/>
@@ -16021,36 +16030,36 @@
       <c r="L362" s="2"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D363" s="23" t="s">
+      <c r="D363" s="25" t="s">
         <v>1001</v>
       </c>
-      <c r="E363" s="23"/>
-      <c r="F363" s="23"/>
-      <c r="G363" s="23"/>
-      <c r="H363" s="23"/>
-      <c r="I363" s="23"/>
+      <c r="E363" s="25"/>
+      <c r="F363" s="25"/>
+      <c r="G363" s="25"/>
+      <c r="H363" s="25"/>
+      <c r="I363" s="25"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D364" s="23"/>
-      <c r="E364" s="23"/>
-      <c r="F364" s="23"/>
-      <c r="G364" s="23"/>
-      <c r="H364" s="23"/>
-      <c r="I364" s="23"/>
+      <c r="D364" s="25"/>
+      <c r="E364" s="25"/>
+      <c r="F364" s="25"/>
+      <c r="G364" s="25"/>
+      <c r="H364" s="25"/>
+      <c r="I364" s="25"/>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D365" s="23"/>
-      <c r="E365" s="23"/>
-      <c r="F365" s="23"/>
-      <c r="G365" s="23"/>
-      <c r="H365" s="23"/>
-      <c r="I365" s="23"/>
+      <c r="D365" s="25"/>
+      <c r="E365" s="25"/>
+      <c r="F365" s="25"/>
+      <c r="G365" s="25"/>
+      <c r="H365" s="25"/>
+      <c r="I365" s="25"/>
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -18047,36 +18056,36 @@
       <c r="L448" s="2"/>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D449" s="23" t="s">
+      <c r="D449" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="E449" s="23"/>
-      <c r="F449" s="23"/>
-      <c r="G449" s="23"/>
-      <c r="H449" s="23"/>
-      <c r="I449" s="23"/>
+      <c r="E449" s="25"/>
+      <c r="F449" s="25"/>
+      <c r="G449" s="25"/>
+      <c r="H449" s="25"/>
+      <c r="I449" s="25"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
     </row>
     <row r="450" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D450" s="23"/>
-      <c r="E450" s="23"/>
-      <c r="F450" s="23"/>
-      <c r="G450" s="23"/>
-      <c r="H450" s="23"/>
-      <c r="I450" s="23"/>
+      <c r="D450" s="25"/>
+      <c r="E450" s="25"/>
+      <c r="F450" s="25"/>
+      <c r="G450" s="25"/>
+      <c r="H450" s="25"/>
+      <c r="I450" s="25"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D451" s="23"/>
-      <c r="E451" s="23"/>
-      <c r="F451" s="23"/>
-      <c r="G451" s="23"/>
-      <c r="H451" s="23"/>
-      <c r="I451" s="23"/>
+      <c r="D451" s="25"/>
+      <c r="E451" s="25"/>
+      <c r="F451" s="25"/>
+      <c r="G451" s="25"/>
+      <c r="H451" s="25"/>
+      <c r="I451" s="25"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
@@ -18371,36 +18380,36 @@
       <c r="L465" s="2"/>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D466" s="22" t="s">
+      <c r="D466" s="24" t="s">
         <v>1003</v>
       </c>
-      <c r="E466" s="22"/>
-      <c r="F466" s="22"/>
-      <c r="G466" s="22"/>
-      <c r="H466" s="22"/>
-      <c r="I466" s="22"/>
+      <c r="E466" s="24"/>
+      <c r="F466" s="24"/>
+      <c r="G466" s="24"/>
+      <c r="H466" s="24"/>
+      <c r="I466" s="24"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
     <row r="467" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D467" s="22"/>
-      <c r="E467" s="22"/>
-      <c r="F467" s="22"/>
-      <c r="G467" s="22"/>
-      <c r="H467" s="22"/>
-      <c r="I467" s="22"/>
+      <c r="D467" s="24"/>
+      <c r="E467" s="24"/>
+      <c r="F467" s="24"/>
+      <c r="G467" s="24"/>
+      <c r="H467" s="24"/>
+      <c r="I467" s="24"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D468" s="22"/>
-      <c r="E468" s="22"/>
-      <c r="F468" s="22"/>
-      <c r="G468" s="22"/>
-      <c r="H468" s="22"/>
-      <c r="I468" s="22"/>
+      <c r="D468" s="24"/>
+      <c r="E468" s="24"/>
+      <c r="F468" s="24"/>
+      <c r="G468" s="24"/>
+      <c r="H468" s="24"/>
+      <c r="I468" s="24"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
@@ -18749,36 +18758,36 @@
       <c r="L484" s="2"/>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D485" s="22" t="s">
+      <c r="D485" s="24" t="s">
         <v>1004</v>
       </c>
-      <c r="E485" s="22"/>
-      <c r="F485" s="22"/>
-      <c r="G485" s="22"/>
-      <c r="H485" s="22"/>
-      <c r="I485" s="22"/>
+      <c r="E485" s="24"/>
+      <c r="F485" s="24"/>
+      <c r="G485" s="24"/>
+      <c r="H485" s="24"/>
+      <c r="I485" s="24"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
     <row r="486" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D486" s="22"/>
-      <c r="E486" s="22"/>
-      <c r="F486" s="22"/>
-      <c r="G486" s="22"/>
-      <c r="H486" s="22"/>
-      <c r="I486" s="22"/>
+      <c r="D486" s="24"/>
+      <c r="E486" s="24"/>
+      <c r="F486" s="24"/>
+      <c r="G486" s="24"/>
+      <c r="H486" s="24"/>
+      <c r="I486" s="24"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D487" s="22"/>
-      <c r="E487" s="22"/>
-      <c r="F487" s="22"/>
-      <c r="G487" s="22"/>
-      <c r="H487" s="22"/>
-      <c r="I487" s="22"/>
+      <c r="D487" s="24"/>
+      <c r="E487" s="24"/>
+      <c r="F487" s="24"/>
+      <c r="G487" s="24"/>
+      <c r="H487" s="24"/>
+      <c r="I487" s="24"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
@@ -19073,36 +19082,36 @@
       <c r="L501" s="2"/>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D502" s="22" t="s">
+      <c r="D502" s="24" t="s">
         <v>1005</v>
       </c>
-      <c r="E502" s="22"/>
-      <c r="F502" s="22"/>
-      <c r="G502" s="22"/>
-      <c r="H502" s="22"/>
-      <c r="I502" s="22"/>
+      <c r="E502" s="24"/>
+      <c r="F502" s="24"/>
+      <c r="G502" s="24"/>
+      <c r="H502" s="24"/>
+      <c r="I502" s="24"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D503" s="22"/>
-      <c r="E503" s="22"/>
-      <c r="F503" s="22"/>
-      <c r="G503" s="22"/>
-      <c r="H503" s="22"/>
-      <c r="I503" s="22"/>
+      <c r="D503" s="24"/>
+      <c r="E503" s="24"/>
+      <c r="F503" s="24"/>
+      <c r="G503" s="24"/>
+      <c r="H503" s="24"/>
+      <c r="I503" s="24"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D504" s="22"/>
-      <c r="E504" s="22"/>
-      <c r="F504" s="22"/>
-      <c r="G504" s="22"/>
-      <c r="H504" s="22"/>
-      <c r="I504" s="22"/>
+      <c r="D504" s="24"/>
+      <c r="E504" s="24"/>
+      <c r="F504" s="24"/>
+      <c r="G504" s="24"/>
+      <c r="H504" s="24"/>
+      <c r="I504" s="24"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
@@ -19573,39 +19582,39 @@
       <c r="B524" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D524" s="22" t="s">
+      <c r="D524" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="E524" s="22"/>
-      <c r="F524" s="22"/>
-      <c r="G524" s="22"/>
-      <c r="H524" s="22"/>
-      <c r="I524" s="22"/>
-      <c r="J524" s="22"/>
-      <c r="K524" s="22"/>
-      <c r="L524" s="22"/>
+      <c r="E524" s="24"/>
+      <c r="F524" s="24"/>
+      <c r="G524" s="24"/>
+      <c r="H524" s="24"/>
+      <c r="I524" s="24"/>
+      <c r="J524" s="24"/>
+      <c r="K524" s="24"/>
+      <c r="L524" s="24"/>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D525" s="22"/>
-      <c r="E525" s="22"/>
-      <c r="F525" s="22"/>
-      <c r="G525" s="22"/>
-      <c r="H525" s="22"/>
-      <c r="I525" s="22"/>
-      <c r="J525" s="22"/>
-      <c r="K525" s="22"/>
-      <c r="L525" s="22"/>
+      <c r="D525" s="24"/>
+      <c r="E525" s="24"/>
+      <c r="F525" s="24"/>
+      <c r="G525" s="24"/>
+      <c r="H525" s="24"/>
+      <c r="I525" s="24"/>
+      <c r="J525" s="24"/>
+      <c r="K525" s="24"/>
+      <c r="L525" s="24"/>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D526" s="22"/>
-      <c r="E526" s="22"/>
-      <c r="F526" s="22"/>
-      <c r="G526" s="22"/>
-      <c r="H526" s="22"/>
-      <c r="I526" s="22"/>
-      <c r="J526" s="22"/>
-      <c r="K526" s="22"/>
-      <c r="L526" s="22"/>
+      <c r="D526" s="24"/>
+      <c r="E526" s="24"/>
+      <c r="F526" s="24"/>
+      <c r="G526" s="24"/>
+      <c r="H526" s="24"/>
+      <c r="I526" s="24"/>
+      <c r="J526" s="24"/>
+      <c r="K526" s="24"/>
+      <c r="L526" s="24"/>
     </row>
     <row r="527" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D527" s="2"/>
@@ -20524,36 +20533,36 @@
       <c r="L561" s="2"/>
     </row>
     <row r="562" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D562" s="22" t="s">
+      <c r="D562" s="24" t="s">
         <v>1007</v>
       </c>
-      <c r="E562" s="22"/>
-      <c r="F562" s="22"/>
-      <c r="G562" s="22"/>
-      <c r="H562" s="22"/>
-      <c r="I562" s="22"/>
+      <c r="E562" s="24"/>
+      <c r="F562" s="24"/>
+      <c r="G562" s="24"/>
+      <c r="H562" s="24"/>
+      <c r="I562" s="24"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
     <row r="563" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D563" s="22"/>
-      <c r="E563" s="22"/>
-      <c r="F563" s="22"/>
-      <c r="G563" s="22"/>
-      <c r="H563" s="22"/>
-      <c r="I563" s="22"/>
+      <c r="D563" s="24"/>
+      <c r="E563" s="24"/>
+      <c r="F563" s="24"/>
+      <c r="G563" s="24"/>
+      <c r="H563" s="24"/>
+      <c r="I563" s="24"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
     <row r="564" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D564" s="22"/>
-      <c r="E564" s="22"/>
-      <c r="F564" s="22"/>
-      <c r="G564" s="22"/>
-      <c r="H564" s="22"/>
-      <c r="I564" s="22"/>
+      <c r="D564" s="24"/>
+      <c r="E564" s="24"/>
+      <c r="F564" s="24"/>
+      <c r="G564" s="24"/>
+      <c r="H564" s="24"/>
+      <c r="I564" s="24"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
@@ -21496,36 +21505,36 @@
       <c r="L602" s="2"/>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D603" s="22" t="s">
+      <c r="D603" s="24" t="s">
         <v>1008</v>
       </c>
-      <c r="E603" s="22"/>
-      <c r="F603" s="22"/>
-      <c r="G603" s="22"/>
-      <c r="H603" s="22"/>
-      <c r="I603" s="22"/>
+      <c r="E603" s="24"/>
+      <c r="F603" s="24"/>
+      <c r="G603" s="24"/>
+      <c r="H603" s="24"/>
+      <c r="I603" s="24"/>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D604" s="22"/>
-      <c r="E604" s="22"/>
-      <c r="F604" s="22"/>
-      <c r="G604" s="22"/>
-      <c r="H604" s="22"/>
-      <c r="I604" s="22"/>
+      <c r="D604" s="24"/>
+      <c r="E604" s="24"/>
+      <c r="F604" s="24"/>
+      <c r="G604" s="24"/>
+      <c r="H604" s="24"/>
+      <c r="I604" s="24"/>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D605" s="22"/>
-      <c r="E605" s="22"/>
-      <c r="F605" s="22"/>
-      <c r="G605" s="22"/>
-      <c r="H605" s="22"/>
-      <c r="I605" s="22"/>
+      <c r="D605" s="24"/>
+      <c r="E605" s="24"/>
+      <c r="F605" s="24"/>
+      <c r="G605" s="24"/>
+      <c r="H605" s="24"/>
+      <c r="I605" s="24"/>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
@@ -21648,36 +21657,36 @@
       <c r="L612" s="2"/>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D613" s="22" t="s">
+      <c r="D613" s="24" t="s">
         <v>1009</v>
       </c>
-      <c r="E613" s="22"/>
-      <c r="F613" s="22"/>
-      <c r="G613" s="22"/>
-      <c r="H613" s="22"/>
-      <c r="I613" s="22"/>
+      <c r="E613" s="24"/>
+      <c r="F613" s="24"/>
+      <c r="G613" s="24"/>
+      <c r="H613" s="24"/>
+      <c r="I613" s="24"/>
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D614" s="22"/>
-      <c r="E614" s="22"/>
-      <c r="F614" s="22"/>
-      <c r="G614" s="22"/>
-      <c r="H614" s="22"/>
-      <c r="I614" s="22"/>
+      <c r="D614" s="24"/>
+      <c r="E614" s="24"/>
+      <c r="F614" s="24"/>
+      <c r="G614" s="24"/>
+      <c r="H614" s="24"/>
+      <c r="I614" s="24"/>
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D615" s="22"/>
-      <c r="E615" s="22"/>
-      <c r="F615" s="22"/>
-      <c r="G615" s="22"/>
-      <c r="H615" s="22"/>
-      <c r="I615" s="22"/>
+      <c r="D615" s="24"/>
+      <c r="E615" s="24"/>
+      <c r="F615" s="24"/>
+      <c r="G615" s="24"/>
+      <c r="H615" s="24"/>
+      <c r="I615" s="24"/>
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
@@ -21961,36 +21970,36 @@
       <c r="L628" s="2"/>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D629" s="22" t="s">
+      <c r="D629" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="E629" s="22"/>
-      <c r="F629" s="22"/>
-      <c r="G629" s="22"/>
-      <c r="H629" s="22"/>
-      <c r="I629" s="22"/>
+      <c r="E629" s="24"/>
+      <c r="F629" s="24"/>
+      <c r="G629" s="24"/>
+      <c r="H629" s="24"/>
+      <c r="I629" s="24"/>
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D630" s="22"/>
-      <c r="E630" s="22"/>
-      <c r="F630" s="22"/>
-      <c r="G630" s="22"/>
-      <c r="H630" s="22"/>
-      <c r="I630" s="22"/>
+      <c r="D630" s="24"/>
+      <c r="E630" s="24"/>
+      <c r="F630" s="24"/>
+      <c r="G630" s="24"/>
+      <c r="H630" s="24"/>
+      <c r="I630" s="24"/>
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D631" s="22"/>
-      <c r="E631" s="22"/>
-      <c r="F631" s="22"/>
-      <c r="G631" s="22"/>
-      <c r="H631" s="22"/>
-      <c r="I631" s="22"/>
+      <c r="D631" s="24"/>
+      <c r="E631" s="24"/>
+      <c r="F631" s="24"/>
+      <c r="G631" s="24"/>
+      <c r="H631" s="24"/>
+      <c r="I631" s="24"/>
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
@@ -22342,36 +22351,36 @@
       <c r="L647" s="2"/>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D648" s="22" t="s">
+      <c r="D648" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="E648" s="22"/>
-      <c r="F648" s="22"/>
-      <c r="G648" s="22"/>
-      <c r="H648" s="22"/>
-      <c r="I648" s="22"/>
+      <c r="E648" s="24"/>
+      <c r="F648" s="24"/>
+      <c r="G648" s="24"/>
+      <c r="H648" s="24"/>
+      <c r="I648" s="24"/>
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D649" s="22"/>
-      <c r="E649" s="22"/>
-      <c r="F649" s="22"/>
-      <c r="G649" s="22"/>
-      <c r="H649" s="22"/>
-      <c r="I649" s="22"/>
+      <c r="D649" s="24"/>
+      <c r="E649" s="24"/>
+      <c r="F649" s="24"/>
+      <c r="G649" s="24"/>
+      <c r="H649" s="24"/>
+      <c r="I649" s="24"/>
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D650" s="22"/>
-      <c r="E650" s="22"/>
-      <c r="F650" s="22"/>
-      <c r="G650" s="22"/>
-      <c r="H650" s="22"/>
-      <c r="I650" s="22"/>
+      <c r="D650" s="24"/>
+      <c r="E650" s="24"/>
+      <c r="F650" s="24"/>
+      <c r="G650" s="24"/>
+      <c r="H650" s="24"/>
+      <c r="I650" s="24"/>
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
@@ -22663,36 +22672,36 @@
       <c r="L664" s="2"/>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D665" s="22" t="s">
+      <c r="D665" s="24" t="s">
         <v>1012</v>
       </c>
-      <c r="E665" s="22"/>
-      <c r="F665" s="22"/>
-      <c r="G665" s="22"/>
-      <c r="H665" s="22"/>
-      <c r="I665" s="22"/>
+      <c r="E665" s="24"/>
+      <c r="F665" s="24"/>
+      <c r="G665" s="24"/>
+      <c r="H665" s="24"/>
+      <c r="I665" s="24"/>
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D666" s="22"/>
-      <c r="E666" s="22"/>
-      <c r="F666" s="22"/>
-      <c r="G666" s="22"/>
-      <c r="H666" s="22"/>
-      <c r="I666" s="22"/>
+      <c r="D666" s="24"/>
+      <c r="E666" s="24"/>
+      <c r="F666" s="24"/>
+      <c r="G666" s="24"/>
+      <c r="H666" s="24"/>
+      <c r="I666" s="24"/>
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
       <c r="L666" s="2"/>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D667" s="22"/>
-      <c r="E667" s="22"/>
-      <c r="F667" s="22"/>
-      <c r="G667" s="22"/>
-      <c r="H667" s="22"/>
-      <c r="I667" s="22"/>
+      <c r="D667" s="24"/>
+      <c r="E667" s="24"/>
+      <c r="F667" s="24"/>
+      <c r="G667" s="24"/>
+      <c r="H667" s="24"/>
+      <c r="I667" s="24"/>
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
       <c r="L667" s="2"/>
@@ -23257,36 +23266,36 @@
       <c r="L692" s="2"/>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D693" s="22" t="s">
+      <c r="D693" s="24" t="s">
         <v>1013</v>
       </c>
-      <c r="E693" s="22"/>
-      <c r="F693" s="22"/>
-      <c r="G693" s="22"/>
-      <c r="H693" s="22"/>
-      <c r="I693" s="22"/>
+      <c r="E693" s="24"/>
+      <c r="F693" s="24"/>
+      <c r="G693" s="24"/>
+      <c r="H693" s="24"/>
+      <c r="I693" s="24"/>
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
       <c r="L693" s="2"/>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D694" s="22"/>
-      <c r="E694" s="22"/>
-      <c r="F694" s="22"/>
-      <c r="G694" s="22"/>
-      <c r="H694" s="22"/>
-      <c r="I694" s="22"/>
+      <c r="D694" s="24"/>
+      <c r="E694" s="24"/>
+      <c r="F694" s="24"/>
+      <c r="G694" s="24"/>
+      <c r="H694" s="24"/>
+      <c r="I694" s="24"/>
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D695" s="22"/>
-      <c r="E695" s="22"/>
-      <c r="F695" s="22"/>
-      <c r="G695" s="22"/>
-      <c r="H695" s="22"/>
-      <c r="I695" s="22"/>
+      <c r="D695" s="24"/>
+      <c r="E695" s="24"/>
+      <c r="F695" s="24"/>
+      <c r="G695" s="24"/>
+      <c r="H695" s="24"/>
+      <c r="I695" s="24"/>
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
       <c r="L695" s="2"/>
@@ -27125,36 +27134,36 @@
       <c r="L834" s="2"/>
     </row>
     <row r="835" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D835" s="22" t="s">
+      <c r="D835" s="24" t="s">
         <v>1014</v>
       </c>
-      <c r="E835" s="22"/>
-      <c r="F835" s="22"/>
-      <c r="G835" s="22"/>
-      <c r="H835" s="22"/>
-      <c r="I835" s="22"/>
+      <c r="E835" s="24"/>
+      <c r="F835" s="24"/>
+      <c r="G835" s="24"/>
+      <c r="H835" s="24"/>
+      <c r="I835" s="24"/>
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
       <c r="L835" s="2"/>
     </row>
     <row r="836" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D836" s="22"/>
-      <c r="E836" s="22"/>
-      <c r="F836" s="22"/>
-      <c r="G836" s="22"/>
-      <c r="H836" s="22"/>
-      <c r="I836" s="22"/>
+      <c r="D836" s="24"/>
+      <c r="E836" s="24"/>
+      <c r="F836" s="24"/>
+      <c r="G836" s="24"/>
+      <c r="H836" s="24"/>
+      <c r="I836" s="24"/>
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
       <c r="L836" s="2"/>
     </row>
     <row r="837" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D837" s="22"/>
-      <c r="E837" s="22"/>
-      <c r="F837" s="22"/>
-      <c r="G837" s="22"/>
-      <c r="H837" s="22"/>
-      <c r="I837" s="22"/>
+      <c r="D837" s="24"/>
+      <c r="E837" s="24"/>
+      <c r="F837" s="24"/>
+      <c r="G837" s="24"/>
+      <c r="H837" s="24"/>
+      <c r="I837" s="24"/>
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
       <c r="L837" s="2"/>
@@ -28668,39 +28677,39 @@
       <c r="B895" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D895" s="22" t="s">
+      <c r="D895" s="24" t="s">
         <v>1015</v>
       </c>
-      <c r="E895" s="22"/>
-      <c r="F895" s="22"/>
-      <c r="G895" s="22"/>
-      <c r="H895" s="22"/>
-      <c r="I895" s="22"/>
-      <c r="J895" s="22"/>
-      <c r="K895" s="22"/>
-      <c r="L895" s="22"/>
+      <c r="E895" s="24"/>
+      <c r="F895" s="24"/>
+      <c r="G895" s="24"/>
+      <c r="H895" s="24"/>
+      <c r="I895" s="24"/>
+      <c r="J895" s="24"/>
+      <c r="K895" s="24"/>
+      <c r="L895" s="24"/>
     </row>
     <row r="896" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D896" s="22"/>
-      <c r="E896" s="22"/>
-      <c r="F896" s="22"/>
-      <c r="G896" s="22"/>
-      <c r="H896" s="22"/>
-      <c r="I896" s="22"/>
-      <c r="J896" s="22"/>
-      <c r="K896" s="22"/>
-      <c r="L896" s="22"/>
+      <c r="D896" s="24"/>
+      <c r="E896" s="24"/>
+      <c r="F896" s="24"/>
+      <c r="G896" s="24"/>
+      <c r="H896" s="24"/>
+      <c r="I896" s="24"/>
+      <c r="J896" s="24"/>
+      <c r="K896" s="24"/>
+      <c r="L896" s="24"/>
     </row>
     <row r="897" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D897" s="22"/>
-      <c r="E897" s="22"/>
-      <c r="F897" s="22"/>
-      <c r="G897" s="22"/>
-      <c r="H897" s="22"/>
-      <c r="I897" s="22"/>
-      <c r="J897" s="22"/>
-      <c r="K897" s="22"/>
-      <c r="L897" s="22"/>
+      <c r="D897" s="24"/>
+      <c r="E897" s="24"/>
+      <c r="F897" s="24"/>
+      <c r="G897" s="24"/>
+      <c r="H897" s="24"/>
+      <c r="I897" s="24"/>
+      <c r="J897" s="24"/>
+      <c r="K897" s="24"/>
+      <c r="L897" s="24"/>
     </row>
     <row r="898" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D898" s="2"/>
@@ -29017,39 +29026,39 @@
       <c r="B912" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D912" s="22" t="s">
+      <c r="D912" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="E912" s="22"/>
-      <c r="F912" s="22"/>
-      <c r="G912" s="22"/>
-      <c r="H912" s="22"/>
-      <c r="I912" s="22"/>
-      <c r="J912" s="22"/>
-      <c r="K912" s="22"/>
-      <c r="L912" s="22"/>
+      <c r="E912" s="24"/>
+      <c r="F912" s="24"/>
+      <c r="G912" s="24"/>
+      <c r="H912" s="24"/>
+      <c r="I912" s="24"/>
+      <c r="J912" s="24"/>
+      <c r="K912" s="24"/>
+      <c r="L912" s="24"/>
     </row>
     <row r="913" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D913" s="22"/>
-      <c r="E913" s="22"/>
-      <c r="F913" s="22"/>
-      <c r="G913" s="22"/>
-      <c r="H913" s="22"/>
-      <c r="I913" s="22"/>
-      <c r="J913" s="22"/>
-      <c r="K913" s="22"/>
-      <c r="L913" s="22"/>
+      <c r="D913" s="24"/>
+      <c r="E913" s="24"/>
+      <c r="F913" s="24"/>
+      <c r="G913" s="24"/>
+      <c r="H913" s="24"/>
+      <c r="I913" s="24"/>
+      <c r="J913" s="24"/>
+      <c r="K913" s="24"/>
+      <c r="L913" s="24"/>
     </row>
     <row r="914" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D914" s="22"/>
-      <c r="E914" s="22"/>
-      <c r="F914" s="22"/>
-      <c r="G914" s="22"/>
-      <c r="H914" s="22"/>
-      <c r="I914" s="22"/>
-      <c r="J914" s="22"/>
-      <c r="K914" s="22"/>
-      <c r="L914" s="22"/>
+      <c r="D914" s="24"/>
+      <c r="E914" s="24"/>
+      <c r="F914" s="24"/>
+      <c r="G914" s="24"/>
+      <c r="H914" s="24"/>
+      <c r="I914" s="24"/>
+      <c r="J914" s="24"/>
+      <c r="K914" s="24"/>
+      <c r="L914" s="24"/>
     </row>
     <row r="915" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D915" s="2"/>
@@ -29366,39 +29375,39 @@
       <c r="B929" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D929" s="22" t="s">
+      <c r="D929" s="24" t="s">
         <v>1017</v>
       </c>
-      <c r="E929" s="22"/>
-      <c r="F929" s="22"/>
-      <c r="G929" s="22"/>
-      <c r="H929" s="22"/>
-      <c r="I929" s="22"/>
-      <c r="J929" s="22"/>
-      <c r="K929" s="22"/>
-      <c r="L929" s="22"/>
+      <c r="E929" s="24"/>
+      <c r="F929" s="24"/>
+      <c r="G929" s="24"/>
+      <c r="H929" s="24"/>
+      <c r="I929" s="24"/>
+      <c r="J929" s="24"/>
+      <c r="K929" s="24"/>
+      <c r="L929" s="24"/>
     </row>
     <row r="930" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D930" s="22"/>
-      <c r="E930" s="22"/>
-      <c r="F930" s="22"/>
-      <c r="G930" s="22"/>
-      <c r="H930" s="22"/>
-      <c r="I930" s="22"/>
-      <c r="J930" s="22"/>
-      <c r="K930" s="22"/>
-      <c r="L930" s="22"/>
+      <c r="D930" s="24"/>
+      <c r="E930" s="24"/>
+      <c r="F930" s="24"/>
+      <c r="G930" s="24"/>
+      <c r="H930" s="24"/>
+      <c r="I930" s="24"/>
+      <c r="J930" s="24"/>
+      <c r="K930" s="24"/>
+      <c r="L930" s="24"/>
     </row>
     <row r="931" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D931" s="22"/>
-      <c r="E931" s="22"/>
-      <c r="F931" s="22"/>
-      <c r="G931" s="22"/>
-      <c r="H931" s="22"/>
-      <c r="I931" s="22"/>
-      <c r="J931" s="22"/>
-      <c r="K931" s="22"/>
-      <c r="L931" s="22"/>
+      <c r="D931" s="24"/>
+      <c r="E931" s="24"/>
+      <c r="F931" s="24"/>
+      <c r="G931" s="24"/>
+      <c r="H931" s="24"/>
+      <c r="I931" s="24"/>
+      <c r="J931" s="24"/>
+      <c r="K931" s="24"/>
+      <c r="L931" s="24"/>
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D932" s="2"/>
@@ -30012,36 +30021,36 @@
       <c r="B958" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D958" s="22" t="s">
+      <c r="D958" s="24" t="s">
         <v>1018</v>
       </c>
-      <c r="E958" s="22"/>
-      <c r="F958" s="22"/>
-      <c r="G958" s="22"/>
-      <c r="H958" s="22"/>
-      <c r="I958" s="22"/>
+      <c r="E958" s="24"/>
+      <c r="F958" s="24"/>
+      <c r="G958" s="24"/>
+      <c r="H958" s="24"/>
+      <c r="I958" s="24"/>
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
       <c r="L958" s="2"/>
     </row>
     <row r="959" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D959" s="22"/>
-      <c r="E959" s="22"/>
-      <c r="F959" s="22"/>
-      <c r="G959" s="22"/>
-      <c r="H959" s="22"/>
-      <c r="I959" s="22"/>
+      <c r="D959" s="24"/>
+      <c r="E959" s="24"/>
+      <c r="F959" s="24"/>
+      <c r="G959" s="24"/>
+      <c r="H959" s="24"/>
+      <c r="I959" s="24"/>
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
       <c r="L959" s="2"/>
     </row>
     <row r="960" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D960" s="22"/>
-      <c r="E960" s="22"/>
-      <c r="F960" s="22"/>
-      <c r="G960" s="22"/>
-      <c r="H960" s="22"/>
-      <c r="I960" s="22"/>
+      <c r="D960" s="24"/>
+      <c r="E960" s="24"/>
+      <c r="F960" s="24"/>
+      <c r="G960" s="24"/>
+      <c r="H960" s="24"/>
+      <c r="I960" s="24"/>
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
       <c r="L960" s="2"/>
@@ -30455,36 +30464,36 @@
       <c r="L978" s="2"/>
     </row>
     <row r="979" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D979" s="22" t="s">
+      <c r="D979" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="E979" s="22"/>
-      <c r="F979" s="22"/>
-      <c r="G979" s="22"/>
-      <c r="H979" s="22"/>
-      <c r="I979" s="22"/>
+      <c r="E979" s="24"/>
+      <c r="F979" s="24"/>
+      <c r="G979" s="24"/>
+      <c r="H979" s="24"/>
+      <c r="I979" s="24"/>
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
       <c r="L979" s="2"/>
     </row>
     <row r="980" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D980" s="22"/>
-      <c r="E980" s="22"/>
-      <c r="F980" s="22"/>
-      <c r="G980" s="22"/>
-      <c r="H980" s="22"/>
-      <c r="I980" s="22"/>
+      <c r="D980" s="24"/>
+      <c r="E980" s="24"/>
+      <c r="F980" s="24"/>
+      <c r="G980" s="24"/>
+      <c r="H980" s="24"/>
+      <c r="I980" s="24"/>
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
       <c r="L980" s="2"/>
     </row>
     <row r="981" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D981" s="22"/>
-      <c r="E981" s="22"/>
-      <c r="F981" s="22"/>
-      <c r="G981" s="22"/>
-      <c r="H981" s="22"/>
-      <c r="I981" s="22"/>
+      <c r="D981" s="24"/>
+      <c r="E981" s="24"/>
+      <c r="F981" s="24"/>
+      <c r="G981" s="24"/>
+      <c r="H981" s="24"/>
+      <c r="I981" s="24"/>
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
       <c r="L981" s="2"/>
@@ -30840,36 +30849,36 @@
       <c r="L998" s="2"/>
     </row>
     <row r="999" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D999" s="22" t="s">
+      <c r="D999" s="24" t="s">
         <v>1020</v>
       </c>
-      <c r="E999" s="22"/>
-      <c r="F999" s="22"/>
-      <c r="G999" s="22"/>
-      <c r="H999" s="22"/>
-      <c r="I999" s="22"/>
+      <c r="E999" s="24"/>
+      <c r="F999" s="24"/>
+      <c r="G999" s="24"/>
+      <c r="H999" s="24"/>
+      <c r="I999" s="24"/>
       <c r="J999" s="2"/>
       <c r="K999" s="2"/>
       <c r="L999" s="2"/>
     </row>
     <row r="1000" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D1000" s="22"/>
-      <c r="E1000" s="22"/>
-      <c r="F1000" s="22"/>
-      <c r="G1000" s="22"/>
-      <c r="H1000" s="22"/>
-      <c r="I1000" s="22"/>
+      <c r="D1000" s="24"/>
+      <c r="E1000" s="24"/>
+      <c r="F1000" s="24"/>
+      <c r="G1000" s="24"/>
+      <c r="H1000" s="24"/>
+      <c r="I1000" s="24"/>
       <c r="J1000" s="2"/>
       <c r="K1000" s="2"/>
       <c r="L1000" s="2"/>
     </row>
     <row r="1001" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D1001" s="22"/>
-      <c r="E1001" s="22"/>
-      <c r="F1001" s="22"/>
-      <c r="G1001" s="22"/>
-      <c r="H1001" s="22"/>
-      <c r="I1001" s="22"/>
+      <c r="D1001" s="24"/>
+      <c r="E1001" s="24"/>
+      <c r="F1001" s="24"/>
+      <c r="G1001" s="24"/>
+      <c r="H1001" s="24"/>
+      <c r="I1001" s="24"/>
       <c r="J1001" s="2"/>
       <c r="K1001" s="2"/>
       <c r="L1001" s="2"/>
@@ -31161,36 +31170,36 @@
       <c r="L1015" s="2"/>
     </row>
     <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1016" s="22" t="s">
+      <c r="D1016" s="24" t="s">
         <v>1021</v>
       </c>
-      <c r="E1016" s="22"/>
-      <c r="F1016" s="22"/>
-      <c r="G1016" s="22"/>
-      <c r="H1016" s="22"/>
-      <c r="I1016" s="22"/>
+      <c r="E1016" s="24"/>
+      <c r="F1016" s="24"/>
+      <c r="G1016" s="24"/>
+      <c r="H1016" s="24"/>
+      <c r="I1016" s="24"/>
       <c r="J1016" s="2"/>
       <c r="K1016" s="2"/>
       <c r="L1016" s="2"/>
     </row>
     <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1017" s="22"/>
-      <c r="E1017" s="22"/>
-      <c r="F1017" s="22"/>
-      <c r="G1017" s="22"/>
-      <c r="H1017" s="22"/>
-      <c r="I1017" s="22"/>
+      <c r="D1017" s="24"/>
+      <c r="E1017" s="24"/>
+      <c r="F1017" s="24"/>
+      <c r="G1017" s="24"/>
+      <c r="H1017" s="24"/>
+      <c r="I1017" s="24"/>
       <c r="J1017" s="2"/>
       <c r="K1017" s="2"/>
       <c r="L1017" s="2"/>
     </row>
     <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1018" s="22"/>
-      <c r="E1018" s="22"/>
-      <c r="F1018" s="22"/>
-      <c r="G1018" s="22"/>
-      <c r="H1018" s="22"/>
-      <c r="I1018" s="22"/>
+      <c r="D1018" s="24"/>
+      <c r="E1018" s="24"/>
+      <c r="F1018" s="24"/>
+      <c r="G1018" s="24"/>
+      <c r="H1018" s="24"/>
+      <c r="I1018" s="24"/>
       <c r="J1018" s="2"/>
       <c r="K1018" s="2"/>
       <c r="L1018" s="2"/>
@@ -32172,39 +32181,39 @@
       <c r="B1059" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1059" s="22" t="s">
+      <c r="D1059" s="24" t="s">
         <v>1022</v>
       </c>
-      <c r="E1059" s="22"/>
-      <c r="F1059" s="22"/>
-      <c r="G1059" s="22"/>
-      <c r="H1059" s="22"/>
-      <c r="I1059" s="22"/>
-      <c r="J1059" s="22"/>
-      <c r="K1059" s="22"/>
-      <c r="L1059" s="22"/>
+      <c r="E1059" s="24"/>
+      <c r="F1059" s="24"/>
+      <c r="G1059" s="24"/>
+      <c r="H1059" s="24"/>
+      <c r="I1059" s="24"/>
+      <c r="J1059" s="24"/>
+      <c r="K1059" s="24"/>
+      <c r="L1059" s="24"/>
     </row>
     <row r="1060" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1060" s="22"/>
-      <c r="E1060" s="22"/>
-      <c r="F1060" s="22"/>
-      <c r="G1060" s="22"/>
-      <c r="H1060" s="22"/>
-      <c r="I1060" s="22"/>
-      <c r="J1060" s="22"/>
-      <c r="K1060" s="22"/>
-      <c r="L1060" s="22"/>
+      <c r="D1060" s="24"/>
+      <c r="E1060" s="24"/>
+      <c r="F1060" s="24"/>
+      <c r="G1060" s="24"/>
+      <c r="H1060" s="24"/>
+      <c r="I1060" s="24"/>
+      <c r="J1060" s="24"/>
+      <c r="K1060" s="24"/>
+      <c r="L1060" s="24"/>
     </row>
     <row r="1061" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1061" s="22"/>
-      <c r="E1061" s="22"/>
-      <c r="F1061" s="22"/>
-      <c r="G1061" s="22"/>
-      <c r="H1061" s="22"/>
-      <c r="I1061" s="22"/>
-      <c r="J1061" s="22"/>
-      <c r="K1061" s="22"/>
-      <c r="L1061" s="22"/>
+      <c r="D1061" s="24"/>
+      <c r="E1061" s="24"/>
+      <c r="F1061" s="24"/>
+      <c r="G1061" s="24"/>
+      <c r="H1061" s="24"/>
+      <c r="I1061" s="24"/>
+      <c r="J1061" s="24"/>
+      <c r="K1061" s="24"/>
+      <c r="L1061" s="24"/>
     </row>
     <row r="1062" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1062" s="2"/>
@@ -32523,39 +32532,39 @@
       <c r="B1076" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1076" s="22" t="s">
+      <c r="D1076" s="24" t="s">
         <v>1023</v>
       </c>
-      <c r="E1076" s="22"/>
-      <c r="F1076" s="22"/>
-      <c r="G1076" s="22"/>
-      <c r="H1076" s="22"/>
-      <c r="I1076" s="22"/>
-      <c r="J1076" s="22"/>
-      <c r="K1076" s="22"/>
-      <c r="L1076" s="22"/>
+      <c r="E1076" s="24"/>
+      <c r="F1076" s="24"/>
+      <c r="G1076" s="24"/>
+      <c r="H1076" s="24"/>
+      <c r="I1076" s="24"/>
+      <c r="J1076" s="24"/>
+      <c r="K1076" s="24"/>
+      <c r="L1076" s="24"/>
     </row>
     <row r="1077" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1077" s="22"/>
-      <c r="E1077" s="22"/>
-      <c r="F1077" s="22"/>
-      <c r="G1077" s="22"/>
-      <c r="H1077" s="22"/>
-      <c r="I1077" s="22"/>
-      <c r="J1077" s="22"/>
-      <c r="K1077" s="22"/>
-      <c r="L1077" s="22"/>
+      <c r="D1077" s="24"/>
+      <c r="E1077" s="24"/>
+      <c r="F1077" s="24"/>
+      <c r="G1077" s="24"/>
+      <c r="H1077" s="24"/>
+      <c r="I1077" s="24"/>
+      <c r="J1077" s="24"/>
+      <c r="K1077" s="24"/>
+      <c r="L1077" s="24"/>
     </row>
     <row r="1078" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1078" s="22"/>
-      <c r="E1078" s="22"/>
-      <c r="F1078" s="22"/>
-      <c r="G1078" s="22"/>
-      <c r="H1078" s="22"/>
-      <c r="I1078" s="22"/>
-      <c r="J1078" s="22"/>
-      <c r="K1078" s="22"/>
-      <c r="L1078" s="22"/>
+      <c r="D1078" s="24"/>
+      <c r="E1078" s="24"/>
+      <c r="F1078" s="24"/>
+      <c r="G1078" s="24"/>
+      <c r="H1078" s="24"/>
+      <c r="I1078" s="24"/>
+      <c r="J1078" s="24"/>
+      <c r="K1078" s="24"/>
+      <c r="L1078" s="24"/>
     </row>
     <row r="1079" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1079" s="2"/>
@@ -33923,36 +33932,36 @@
       <c r="L1128" s="2"/>
     </row>
     <row r="1129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1129" s="22" t="s">
+      <c r="D1129" s="24" t="s">
         <v>1024</v>
       </c>
-      <c r="E1129" s="22"/>
-      <c r="F1129" s="22"/>
-      <c r="G1129" s="22"/>
-      <c r="H1129" s="22"/>
-      <c r="I1129" s="22"/>
+      <c r="E1129" s="24"/>
+      <c r="F1129" s="24"/>
+      <c r="G1129" s="24"/>
+      <c r="H1129" s="24"/>
+      <c r="I1129" s="24"/>
       <c r="J1129" s="2"/>
       <c r="K1129" s="2"/>
       <c r="L1129" s="2"/>
     </row>
     <row r="1130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1130" s="22"/>
-      <c r="E1130" s="22"/>
-      <c r="F1130" s="22"/>
-      <c r="G1130" s="22"/>
-      <c r="H1130" s="22"/>
-      <c r="I1130" s="22"/>
+      <c r="D1130" s="24"/>
+      <c r="E1130" s="24"/>
+      <c r="F1130" s="24"/>
+      <c r="G1130" s="24"/>
+      <c r="H1130" s="24"/>
+      <c r="I1130" s="24"/>
       <c r="J1130" s="2"/>
       <c r="K1130" s="2"/>
       <c r="L1130" s="2"/>
     </row>
     <row r="1131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1131" s="22"/>
-      <c r="E1131" s="22"/>
-      <c r="F1131" s="22"/>
-      <c r="G1131" s="22"/>
-      <c r="H1131" s="22"/>
-      <c r="I1131" s="22"/>
+      <c r="D1131" s="24"/>
+      <c r="E1131" s="24"/>
+      <c r="F1131" s="24"/>
+      <c r="G1131" s="24"/>
+      <c r="H1131" s="24"/>
+      <c r="I1131" s="24"/>
       <c r="J1131" s="2"/>
       <c r="K1131" s="2"/>
       <c r="L1131" s="2"/>
@@ -35526,39 +35535,39 @@
       <c r="B1188" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1188" s="22" t="s">
+      <c r="D1188" s="24" t="s">
         <v>1025</v>
       </c>
-      <c r="E1188" s="22"/>
-      <c r="F1188" s="22"/>
-      <c r="G1188" s="22"/>
-      <c r="H1188" s="22"/>
-      <c r="I1188" s="22"/>
-      <c r="J1188" s="22"/>
-      <c r="K1188" s="22"/>
-      <c r="L1188" s="22"/>
+      <c r="E1188" s="24"/>
+      <c r="F1188" s="24"/>
+      <c r="G1188" s="24"/>
+      <c r="H1188" s="24"/>
+      <c r="I1188" s="24"/>
+      <c r="J1188" s="24"/>
+      <c r="K1188" s="24"/>
+      <c r="L1188" s="24"/>
     </row>
     <row r="1189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1189" s="22"/>
-      <c r="E1189" s="22"/>
-      <c r="F1189" s="22"/>
-      <c r="G1189" s="22"/>
-      <c r="H1189" s="22"/>
-      <c r="I1189" s="22"/>
-      <c r="J1189" s="22"/>
-      <c r="K1189" s="22"/>
-      <c r="L1189" s="22"/>
+      <c r="D1189" s="24"/>
+      <c r="E1189" s="24"/>
+      <c r="F1189" s="24"/>
+      <c r="G1189" s="24"/>
+      <c r="H1189" s="24"/>
+      <c r="I1189" s="24"/>
+      <c r="J1189" s="24"/>
+      <c r="K1189" s="24"/>
+      <c r="L1189" s="24"/>
     </row>
     <row r="1190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1190" s="22"/>
-      <c r="E1190" s="22"/>
-      <c r="F1190" s="22"/>
-      <c r="G1190" s="22"/>
-      <c r="H1190" s="22"/>
-      <c r="I1190" s="22"/>
-      <c r="J1190" s="22"/>
-      <c r="K1190" s="22"/>
-      <c r="L1190" s="22"/>
+      <c r="D1190" s="24"/>
+      <c r="E1190" s="24"/>
+      <c r="F1190" s="24"/>
+      <c r="G1190" s="24"/>
+      <c r="H1190" s="24"/>
+      <c r="I1190" s="24"/>
+      <c r="J1190" s="24"/>
+      <c r="K1190" s="24"/>
+      <c r="L1190" s="24"/>
     </row>
     <row r="1191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1191" s="2"/>
@@ -36767,39 +36776,39 @@
       <c r="B1236" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1236" s="22" t="s">
+      <c r="D1236" s="24" t="s">
         <v>1026</v>
       </c>
-      <c r="E1236" s="22"/>
-      <c r="F1236" s="22"/>
-      <c r="G1236" s="22"/>
-      <c r="H1236" s="22"/>
-      <c r="I1236" s="22"/>
-      <c r="J1236" s="22"/>
-      <c r="K1236" s="22"/>
-      <c r="L1236" s="22"/>
+      <c r="E1236" s="24"/>
+      <c r="F1236" s="24"/>
+      <c r="G1236" s="24"/>
+      <c r="H1236" s="24"/>
+      <c r="I1236" s="24"/>
+      <c r="J1236" s="24"/>
+      <c r="K1236" s="24"/>
+      <c r="L1236" s="24"/>
     </row>
     <row r="1237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1237" s="22"/>
-      <c r="E1237" s="22"/>
-      <c r="F1237" s="22"/>
-      <c r="G1237" s="22"/>
-      <c r="H1237" s="22"/>
-      <c r="I1237" s="22"/>
-      <c r="J1237" s="22"/>
-      <c r="K1237" s="22"/>
-      <c r="L1237" s="22"/>
+      <c r="D1237" s="24"/>
+      <c r="E1237" s="24"/>
+      <c r="F1237" s="24"/>
+      <c r="G1237" s="24"/>
+      <c r="H1237" s="24"/>
+      <c r="I1237" s="24"/>
+      <c r="J1237" s="24"/>
+      <c r="K1237" s="24"/>
+      <c r="L1237" s="24"/>
     </row>
     <row r="1238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1238" s="22"/>
-      <c r="E1238" s="22"/>
-      <c r="F1238" s="22"/>
-      <c r="G1238" s="22"/>
-      <c r="H1238" s="22"/>
-      <c r="I1238" s="22"/>
-      <c r="J1238" s="22"/>
-      <c r="K1238" s="22"/>
-      <c r="L1238" s="22"/>
+      <c r="D1238" s="24"/>
+      <c r="E1238" s="24"/>
+      <c r="F1238" s="24"/>
+      <c r="G1238" s="24"/>
+      <c r="H1238" s="24"/>
+      <c r="I1238" s="24"/>
+      <c r="J1238" s="24"/>
+      <c r="K1238" s="24"/>
+      <c r="L1238" s="24"/>
     </row>
     <row r="1239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1239" s="2"/>
@@ -37088,39 +37097,39 @@
       <c r="B1252" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1252" s="24" t="s">
+      <c r="D1252" s="23" t="s">
         <v>1287</v>
       </c>
-      <c r="E1252" s="22"/>
-      <c r="F1252" s="22"/>
-      <c r="G1252" s="22"/>
-      <c r="H1252" s="22"/>
-      <c r="I1252" s="22"/>
-      <c r="J1252" s="22"/>
-      <c r="K1252" s="22"/>
-      <c r="L1252" s="22"/>
+      <c r="E1252" s="24"/>
+      <c r="F1252" s="24"/>
+      <c r="G1252" s="24"/>
+      <c r="H1252" s="24"/>
+      <c r="I1252" s="24"/>
+      <c r="J1252" s="24"/>
+      <c r="K1252" s="24"/>
+      <c r="L1252" s="24"/>
     </row>
     <row r="1253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1253" s="22"/>
-      <c r="E1253" s="22"/>
-      <c r="F1253" s="22"/>
-      <c r="G1253" s="22"/>
-      <c r="H1253" s="22"/>
-      <c r="I1253" s="22"/>
-      <c r="J1253" s="22"/>
-      <c r="K1253" s="22"/>
-      <c r="L1253" s="22"/>
+      <c r="D1253" s="24"/>
+      <c r="E1253" s="24"/>
+      <c r="F1253" s="24"/>
+      <c r="G1253" s="24"/>
+      <c r="H1253" s="24"/>
+      <c r="I1253" s="24"/>
+      <c r="J1253" s="24"/>
+      <c r="K1253" s="24"/>
+      <c r="L1253" s="24"/>
     </row>
     <row r="1254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1254" s="22"/>
-      <c r="E1254" s="22"/>
-      <c r="F1254" s="22"/>
-      <c r="G1254" s="22"/>
-      <c r="H1254" s="22"/>
-      <c r="I1254" s="22"/>
-      <c r="J1254" s="22"/>
-      <c r="K1254" s="22"/>
-      <c r="L1254" s="22"/>
+      <c r="D1254" s="24"/>
+      <c r="E1254" s="24"/>
+      <c r="F1254" s="24"/>
+      <c r="G1254" s="24"/>
+      <c r="H1254" s="24"/>
+      <c r="I1254" s="24"/>
+      <c r="J1254" s="24"/>
+      <c r="K1254" s="24"/>
+      <c r="L1254" s="24"/>
     </row>
     <row r="1255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1255" s="2"/>
@@ -37383,39 +37392,39 @@
       <c r="B1267" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1267" s="22" t="s">
+      <c r="D1267" s="24" t="s">
         <v>1288</v>
       </c>
-      <c r="E1267" s="22"/>
-      <c r="F1267" s="22"/>
-      <c r="G1267" s="22"/>
-      <c r="H1267" s="22"/>
-      <c r="I1267" s="22"/>
-      <c r="J1267" s="22"/>
-      <c r="K1267" s="22"/>
-      <c r="L1267" s="22"/>
+      <c r="E1267" s="24"/>
+      <c r="F1267" s="24"/>
+      <c r="G1267" s="24"/>
+      <c r="H1267" s="24"/>
+      <c r="I1267" s="24"/>
+      <c r="J1267" s="24"/>
+      <c r="K1267" s="24"/>
+      <c r="L1267" s="24"/>
     </row>
     <row r="1268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1268" s="22"/>
-      <c r="E1268" s="22"/>
-      <c r="F1268" s="22"/>
-      <c r="G1268" s="22"/>
-      <c r="H1268" s="22"/>
-      <c r="I1268" s="22"/>
-      <c r="J1268" s="22"/>
-      <c r="K1268" s="22"/>
-      <c r="L1268" s="22"/>
+      <c r="D1268" s="24"/>
+      <c r="E1268" s="24"/>
+      <c r="F1268" s="24"/>
+      <c r="G1268" s="24"/>
+      <c r="H1268" s="24"/>
+      <c r="I1268" s="24"/>
+      <c r="J1268" s="24"/>
+      <c r="K1268" s="24"/>
+      <c r="L1268" s="24"/>
     </row>
     <row r="1269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1269" s="22"/>
-      <c r="E1269" s="22"/>
-      <c r="F1269" s="22"/>
-      <c r="G1269" s="22"/>
-      <c r="H1269" s="22"/>
-      <c r="I1269" s="22"/>
-      <c r="J1269" s="22"/>
-      <c r="K1269" s="22"/>
-      <c r="L1269" s="22"/>
+      <c r="D1269" s="24"/>
+      <c r="E1269" s="24"/>
+      <c r="F1269" s="24"/>
+      <c r="G1269" s="24"/>
+      <c r="H1269" s="24"/>
+      <c r="I1269" s="24"/>
+      <c r="J1269" s="24"/>
+      <c r="K1269" s="24"/>
+      <c r="L1269" s="24"/>
     </row>
     <row r="1270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1270" s="2"/>
@@ -37945,39 +37954,39 @@
       <c r="B1292" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1292" s="22" t="s">
+      <c r="D1292" s="24" t="s">
         <v>1295</v>
       </c>
-      <c r="E1292" s="22"/>
-      <c r="F1292" s="22"/>
-      <c r="G1292" s="22"/>
-      <c r="H1292" s="22"/>
-      <c r="I1292" s="22"/>
-      <c r="J1292" s="22"/>
-      <c r="K1292" s="22"/>
-      <c r="L1292" s="22"/>
+      <c r="E1292" s="24"/>
+      <c r="F1292" s="24"/>
+      <c r="G1292" s="24"/>
+      <c r="H1292" s="24"/>
+      <c r="I1292" s="24"/>
+      <c r="J1292" s="24"/>
+      <c r="K1292" s="24"/>
+      <c r="L1292" s="24"/>
     </row>
     <row r="1293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1293" s="22"/>
-      <c r="E1293" s="22"/>
-      <c r="F1293" s="22"/>
-      <c r="G1293" s="22"/>
-      <c r="H1293" s="22"/>
-      <c r="I1293" s="22"/>
-      <c r="J1293" s="22"/>
-      <c r="K1293" s="22"/>
-      <c r="L1293" s="22"/>
+      <c r="D1293" s="24"/>
+      <c r="E1293" s="24"/>
+      <c r="F1293" s="24"/>
+      <c r="G1293" s="24"/>
+      <c r="H1293" s="24"/>
+      <c r="I1293" s="24"/>
+      <c r="J1293" s="24"/>
+      <c r="K1293" s="24"/>
+      <c r="L1293" s="24"/>
     </row>
     <row r="1294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1294" s="22"/>
-      <c r="E1294" s="22"/>
-      <c r="F1294" s="22"/>
-      <c r="G1294" s="22"/>
-      <c r="H1294" s="22"/>
-      <c r="I1294" s="22"/>
-      <c r="J1294" s="22"/>
-      <c r="K1294" s="22"/>
-      <c r="L1294" s="22"/>
+      <c r="D1294" s="24"/>
+      <c r="E1294" s="24"/>
+      <c r="F1294" s="24"/>
+      <c r="G1294" s="24"/>
+      <c r="H1294" s="24"/>
+      <c r="I1294" s="24"/>
+      <c r="J1294" s="24"/>
+      <c r="K1294" s="24"/>
+      <c r="L1294" s="24"/>
     </row>
     <row r="1295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1295" s="2"/>
@@ -38293,39 +38302,39 @@
       <c r="B1309" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1309" s="22" t="s">
+      <c r="D1309" s="24" t="s">
         <v>1289</v>
       </c>
-      <c r="E1309" s="22"/>
-      <c r="F1309" s="22"/>
-      <c r="G1309" s="22"/>
-      <c r="H1309" s="22"/>
-      <c r="I1309" s="22"/>
-      <c r="J1309" s="22"/>
-      <c r="K1309" s="22"/>
-      <c r="L1309" s="22"/>
+      <c r="E1309" s="24"/>
+      <c r="F1309" s="24"/>
+      <c r="G1309" s="24"/>
+      <c r="H1309" s="24"/>
+      <c r="I1309" s="24"/>
+      <c r="J1309" s="24"/>
+      <c r="K1309" s="24"/>
+      <c r="L1309" s="24"/>
     </row>
     <row r="1310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1310" s="22"/>
-      <c r="E1310" s="22"/>
-      <c r="F1310" s="22"/>
-      <c r="G1310" s="22"/>
-      <c r="H1310" s="22"/>
-      <c r="I1310" s="22"/>
-      <c r="J1310" s="22"/>
-      <c r="K1310" s="22"/>
-      <c r="L1310" s="22"/>
+      <c r="D1310" s="24"/>
+      <c r="E1310" s="24"/>
+      <c r="F1310" s="24"/>
+      <c r="G1310" s="24"/>
+      <c r="H1310" s="24"/>
+      <c r="I1310" s="24"/>
+      <c r="J1310" s="24"/>
+      <c r="K1310" s="24"/>
+      <c r="L1310" s="24"/>
     </row>
     <row r="1311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1311" s="22"/>
-      <c r="E1311" s="22"/>
-      <c r="F1311" s="22"/>
-      <c r="G1311" s="22"/>
-      <c r="H1311" s="22"/>
-      <c r="I1311" s="22"/>
-      <c r="J1311" s="22"/>
-      <c r="K1311" s="22"/>
-      <c r="L1311" s="22"/>
+      <c r="D1311" s="24"/>
+      <c r="E1311" s="24"/>
+      <c r="F1311" s="24"/>
+      <c r="G1311" s="24"/>
+      <c r="H1311" s="24"/>
+      <c r="I1311" s="24"/>
+      <c r="J1311" s="24"/>
+      <c r="K1311" s="24"/>
+      <c r="L1311" s="24"/>
     </row>
     <row r="1312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1312" s="2"/>
@@ -38641,39 +38650,39 @@
       <c r="B1326" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1326" s="22" t="s">
+      <c r="D1326" s="24" t="s">
         <v>1291</v>
       </c>
-      <c r="E1326" s="22"/>
-      <c r="F1326" s="22"/>
-      <c r="G1326" s="22"/>
-      <c r="H1326" s="22"/>
-      <c r="I1326" s="22"/>
-      <c r="J1326" s="22"/>
-      <c r="K1326" s="22"/>
-      <c r="L1326" s="22"/>
+      <c r="E1326" s="24"/>
+      <c r="F1326" s="24"/>
+      <c r="G1326" s="24"/>
+      <c r="H1326" s="24"/>
+      <c r="I1326" s="24"/>
+      <c r="J1326" s="24"/>
+      <c r="K1326" s="24"/>
+      <c r="L1326" s="24"/>
     </row>
     <row r="1327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1327" s="22"/>
-      <c r="E1327" s="22"/>
-      <c r="F1327" s="22"/>
-      <c r="G1327" s="22"/>
-      <c r="H1327" s="22"/>
-      <c r="I1327" s="22"/>
-      <c r="J1327" s="22"/>
-      <c r="K1327" s="22"/>
-      <c r="L1327" s="22"/>
+      <c r="D1327" s="24"/>
+      <c r="E1327" s="24"/>
+      <c r="F1327" s="24"/>
+      <c r="G1327" s="24"/>
+      <c r="H1327" s="24"/>
+      <c r="I1327" s="24"/>
+      <c r="J1327" s="24"/>
+      <c r="K1327" s="24"/>
+      <c r="L1327" s="24"/>
     </row>
     <row r="1328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1328" s="22"/>
-      <c r="E1328" s="22"/>
-      <c r="F1328" s="22"/>
-      <c r="G1328" s="22"/>
-      <c r="H1328" s="22"/>
-      <c r="I1328" s="22"/>
-      <c r="J1328" s="22"/>
-      <c r="K1328" s="22"/>
-      <c r="L1328" s="22"/>
+      <c r="D1328" s="24"/>
+      <c r="E1328" s="24"/>
+      <c r="F1328" s="24"/>
+      <c r="G1328" s="24"/>
+      <c r="H1328" s="24"/>
+      <c r="I1328" s="24"/>
+      <c r="J1328" s="24"/>
+      <c r="K1328" s="24"/>
+      <c r="L1328" s="24"/>
     </row>
     <row r="1329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1329" s="2"/>
@@ -39066,39 +39075,39 @@
       <c r="B1346" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1346" s="22" t="s">
+      <c r="D1346" s="24" t="s">
         <v>1290</v>
       </c>
-      <c r="E1346" s="22"/>
-      <c r="F1346" s="22"/>
-      <c r="G1346" s="22"/>
-      <c r="H1346" s="22"/>
-      <c r="I1346" s="22"/>
-      <c r="J1346" s="22"/>
-      <c r="K1346" s="22"/>
-      <c r="L1346" s="22"/>
+      <c r="E1346" s="24"/>
+      <c r="F1346" s="24"/>
+      <c r="G1346" s="24"/>
+      <c r="H1346" s="24"/>
+      <c r="I1346" s="24"/>
+      <c r="J1346" s="24"/>
+      <c r="K1346" s="24"/>
+      <c r="L1346" s="24"/>
     </row>
     <row r="1347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1347" s="22"/>
-      <c r="E1347" s="22"/>
-      <c r="F1347" s="22"/>
-      <c r="G1347" s="22"/>
-      <c r="H1347" s="22"/>
-      <c r="I1347" s="22"/>
-      <c r="J1347" s="22"/>
-      <c r="K1347" s="22"/>
-      <c r="L1347" s="22"/>
+      <c r="D1347" s="24"/>
+      <c r="E1347" s="24"/>
+      <c r="F1347" s="24"/>
+      <c r="G1347" s="24"/>
+      <c r="H1347" s="24"/>
+      <c r="I1347" s="24"/>
+      <c r="J1347" s="24"/>
+      <c r="K1347" s="24"/>
+      <c r="L1347" s="24"/>
     </row>
     <row r="1348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1348" s="22"/>
-      <c r="E1348" s="22"/>
-      <c r="F1348" s="22"/>
-      <c r="G1348" s="22"/>
-      <c r="H1348" s="22"/>
-      <c r="I1348" s="22"/>
-      <c r="J1348" s="22"/>
-      <c r="K1348" s="22"/>
-      <c r="L1348" s="22"/>
+      <c r="D1348" s="24"/>
+      <c r="E1348" s="24"/>
+      <c r="F1348" s="24"/>
+      <c r="G1348" s="24"/>
+      <c r="H1348" s="24"/>
+      <c r="I1348" s="24"/>
+      <c r="J1348" s="24"/>
+      <c r="K1348" s="24"/>
+      <c r="L1348" s="24"/>
     </row>
     <row r="1349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1349" s="2"/>
@@ -39361,39 +39370,39 @@
       <c r="B1361" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1361" s="22" t="s">
+      <c r="D1361" s="24" t="s">
         <v>1972</v>
       </c>
-      <c r="E1361" s="22"/>
-      <c r="F1361" s="22"/>
-      <c r="G1361" s="22"/>
-      <c r="H1361" s="22"/>
-      <c r="I1361" s="22"/>
-      <c r="J1361" s="22"/>
-      <c r="K1361" s="22"/>
-      <c r="L1361" s="22"/>
+      <c r="E1361" s="24"/>
+      <c r="F1361" s="24"/>
+      <c r="G1361" s="24"/>
+      <c r="H1361" s="24"/>
+      <c r="I1361" s="24"/>
+      <c r="J1361" s="24"/>
+      <c r="K1361" s="24"/>
+      <c r="L1361" s="24"/>
     </row>
     <row r="1362" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1362" s="22"/>
-      <c r="E1362" s="22"/>
-      <c r="F1362" s="22"/>
-      <c r="G1362" s="22"/>
-      <c r="H1362" s="22"/>
-      <c r="I1362" s="22"/>
-      <c r="J1362" s="22"/>
-      <c r="K1362" s="22"/>
-      <c r="L1362" s="22"/>
+      <c r="D1362" s="24"/>
+      <c r="E1362" s="24"/>
+      <c r="F1362" s="24"/>
+      <c r="G1362" s="24"/>
+      <c r="H1362" s="24"/>
+      <c r="I1362" s="24"/>
+      <c r="J1362" s="24"/>
+      <c r="K1362" s="24"/>
+      <c r="L1362" s="24"/>
     </row>
     <row r="1363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1363" s="22"/>
-      <c r="E1363" s="22"/>
-      <c r="F1363" s="22"/>
-      <c r="G1363" s="22"/>
-      <c r="H1363" s="22"/>
-      <c r="I1363" s="22"/>
-      <c r="J1363" s="22"/>
-      <c r="K1363" s="22"/>
-      <c r="L1363" s="22"/>
+      <c r="D1363" s="24"/>
+      <c r="E1363" s="24"/>
+      <c r="F1363" s="24"/>
+      <c r="G1363" s="24"/>
+      <c r="H1363" s="24"/>
+      <c r="I1363" s="24"/>
+      <c r="J1363" s="24"/>
+      <c r="K1363" s="24"/>
+      <c r="L1363" s="24"/>
     </row>
     <row r="1364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1364" s="2"/>
@@ -39919,39 +39928,39 @@
       <c r="B1386" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1386" s="22" t="s">
+      <c r="D1386" s="24" t="s">
         <v>1292</v>
       </c>
-      <c r="E1386" s="22"/>
-      <c r="F1386" s="22"/>
-      <c r="G1386" s="22"/>
-      <c r="H1386" s="22"/>
-      <c r="I1386" s="22"/>
-      <c r="J1386" s="22"/>
-      <c r="K1386" s="22"/>
-      <c r="L1386" s="22"/>
+      <c r="E1386" s="24"/>
+      <c r="F1386" s="24"/>
+      <c r="G1386" s="24"/>
+      <c r="H1386" s="24"/>
+      <c r="I1386" s="24"/>
+      <c r="J1386" s="24"/>
+      <c r="K1386" s="24"/>
+      <c r="L1386" s="24"/>
     </row>
     <row r="1387" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1387" s="22"/>
-      <c r="E1387" s="22"/>
-      <c r="F1387" s="22"/>
-      <c r="G1387" s="22"/>
-      <c r="H1387" s="22"/>
-      <c r="I1387" s="22"/>
-      <c r="J1387" s="22"/>
-      <c r="K1387" s="22"/>
-      <c r="L1387" s="22"/>
+      <c r="D1387" s="24"/>
+      <c r="E1387" s="24"/>
+      <c r="F1387" s="24"/>
+      <c r="G1387" s="24"/>
+      <c r="H1387" s="24"/>
+      <c r="I1387" s="24"/>
+      <c r="J1387" s="24"/>
+      <c r="K1387" s="24"/>
+      <c r="L1387" s="24"/>
     </row>
     <row r="1388" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1388" s="22"/>
-      <c r="E1388" s="22"/>
-      <c r="F1388" s="22"/>
-      <c r="G1388" s="22"/>
-      <c r="H1388" s="22"/>
-      <c r="I1388" s="22"/>
-      <c r="J1388" s="22"/>
-      <c r="K1388" s="22"/>
-      <c r="L1388" s="22"/>
+      <c r="D1388" s="24"/>
+      <c r="E1388" s="24"/>
+      <c r="F1388" s="24"/>
+      <c r="G1388" s="24"/>
+      <c r="H1388" s="24"/>
+      <c r="I1388" s="24"/>
+      <c r="J1388" s="24"/>
+      <c r="K1388" s="24"/>
+      <c r="L1388" s="24"/>
     </row>
     <row r="1389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1389" s="2"/>
@@ -40734,39 +40743,39 @@
       <c r="B1421" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D1421" s="22" t="s">
+      <c r="D1421" s="24" t="s">
         <v>1293</v>
       </c>
-      <c r="E1421" s="22"/>
-      <c r="F1421" s="22"/>
-      <c r="G1421" s="22"/>
-      <c r="H1421" s="22"/>
-      <c r="I1421" s="22"/>
-      <c r="J1421" s="22"/>
-      <c r="K1421" s="22"/>
-      <c r="L1421" s="22"/>
+      <c r="E1421" s="24"/>
+      <c r="F1421" s="24"/>
+      <c r="G1421" s="24"/>
+      <c r="H1421" s="24"/>
+      <c r="I1421" s="24"/>
+      <c r="J1421" s="24"/>
+      <c r="K1421" s="24"/>
+      <c r="L1421" s="24"/>
     </row>
     <row r="1422" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1422" s="22"/>
-      <c r="E1422" s="22"/>
-      <c r="F1422" s="22"/>
-      <c r="G1422" s="22"/>
-      <c r="H1422" s="22"/>
-      <c r="I1422" s="22"/>
-      <c r="J1422" s="22"/>
-      <c r="K1422" s="22"/>
-      <c r="L1422" s="22"/>
+      <c r="D1422" s="24"/>
+      <c r="E1422" s="24"/>
+      <c r="F1422" s="24"/>
+      <c r="G1422" s="24"/>
+      <c r="H1422" s="24"/>
+      <c r="I1422" s="24"/>
+      <c r="J1422" s="24"/>
+      <c r="K1422" s="24"/>
+      <c r="L1422" s="24"/>
     </row>
     <row r="1423" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1423" s="22"/>
-      <c r="E1423" s="22"/>
-      <c r="F1423" s="22"/>
-      <c r="G1423" s="22"/>
-      <c r="H1423" s="22"/>
-      <c r="I1423" s="22"/>
-      <c r="J1423" s="22"/>
-      <c r="K1423" s="22"/>
-      <c r="L1423" s="22"/>
+      <c r="D1423" s="24"/>
+      <c r="E1423" s="24"/>
+      <c r="F1423" s="24"/>
+      <c r="G1423" s="24"/>
+      <c r="H1423" s="24"/>
+      <c r="I1423" s="24"/>
+      <c r="J1423" s="24"/>
+      <c r="K1423" s="24"/>
+      <c r="L1423" s="24"/>
     </row>
     <row r="1424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1424" s="2"/>
@@ -40893,39 +40902,39 @@
       <c r="B1431" s="6" t="s">
         <v>1286</v>
       </c>
-      <c r="D1431" s="22" t="s">
+      <c r="D1431" s="24" t="s">
         <v>1301</v>
       </c>
-      <c r="E1431" s="22"/>
-      <c r="F1431" s="22"/>
-      <c r="G1431" s="22"/>
-      <c r="H1431" s="22"/>
-      <c r="I1431" s="22"/>
-      <c r="J1431" s="22"/>
-      <c r="K1431" s="22"/>
-      <c r="L1431" s="22"/>
+      <c r="E1431" s="24"/>
+      <c r="F1431" s="24"/>
+      <c r="G1431" s="24"/>
+      <c r="H1431" s="24"/>
+      <c r="I1431" s="24"/>
+      <c r="J1431" s="24"/>
+      <c r="K1431" s="24"/>
+      <c r="L1431" s="24"/>
     </row>
     <row r="1432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1432" s="22"/>
-      <c r="E1432" s="22"/>
-      <c r="F1432" s="22"/>
-      <c r="G1432" s="22"/>
-      <c r="H1432" s="22"/>
-      <c r="I1432" s="22"/>
-      <c r="J1432" s="22"/>
-      <c r="K1432" s="22"/>
-      <c r="L1432" s="22"/>
+      <c r="D1432" s="24"/>
+      <c r="E1432" s="24"/>
+      <c r="F1432" s="24"/>
+      <c r="G1432" s="24"/>
+      <c r="H1432" s="24"/>
+      <c r="I1432" s="24"/>
+      <c r="J1432" s="24"/>
+      <c r="K1432" s="24"/>
+      <c r="L1432" s="24"/>
     </row>
     <row r="1433" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1433" s="22"/>
-      <c r="E1433" s="22"/>
-      <c r="F1433" s="22"/>
-      <c r="G1433" s="22"/>
-      <c r="H1433" s="22"/>
-      <c r="I1433" s="22"/>
-      <c r="J1433" s="22"/>
-      <c r="K1433" s="22"/>
-      <c r="L1433" s="22"/>
+      <c r="D1433" s="24"/>
+      <c r="E1433" s="24"/>
+      <c r="F1433" s="24"/>
+      <c r="G1433" s="24"/>
+      <c r="H1433" s="24"/>
+      <c r="I1433" s="24"/>
+      <c r="J1433" s="24"/>
+      <c r="K1433" s="24"/>
+      <c r="L1433" s="24"/>
     </row>
     <row r="1434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1434" s="16"/>
@@ -41763,38 +41772,38 @@
     </row>
     <row r="1468" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1468" s="4"/>
-      <c r="D1468" s="24" t="s">
+      <c r="D1468" s="23" t="s">
         <v>1652</v>
       </c>
-      <c r="E1468" s="24"/>
-      <c r="F1468" s="24"/>
-      <c r="G1468" s="24"/>
-      <c r="H1468" s="24"/>
-      <c r="I1468" s="24"/>
+      <c r="E1468" s="23"/>
+      <c r="F1468" s="23"/>
+      <c r="G1468" s="23"/>
+      <c r="H1468" s="23"/>
+      <c r="I1468" s="23"/>
       <c r="J1468" s="17"/>
       <c r="K1468" s="17"/>
       <c r="L1468" s="17"/>
     </row>
     <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1469" s="4"/>
-      <c r="D1469" s="24"/>
-      <c r="E1469" s="24"/>
-      <c r="F1469" s="24"/>
-      <c r="G1469" s="24"/>
-      <c r="H1469" s="24"/>
-      <c r="I1469" s="24"/>
+      <c r="D1469" s="23"/>
+      <c r="E1469" s="23"/>
+      <c r="F1469" s="23"/>
+      <c r="G1469" s="23"/>
+      <c r="H1469" s="23"/>
+      <c r="I1469" s="23"/>
       <c r="J1469" s="17"/>
       <c r="K1469" s="17"/>
       <c r="L1469" s="17"/>
     </row>
     <row r="1470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1470" s="4"/>
-      <c r="D1470" s="24"/>
-      <c r="E1470" s="24"/>
-      <c r="F1470" s="24"/>
-      <c r="G1470" s="24"/>
-      <c r="H1470" s="24"/>
-      <c r="I1470" s="24"/>
+      <c r="D1470" s="23"/>
+      <c r="E1470" s="23"/>
+      <c r="F1470" s="23"/>
+      <c r="G1470" s="23"/>
+      <c r="H1470" s="23"/>
+      <c r="I1470" s="23"/>
       <c r="J1470" s="17"/>
       <c r="K1470" s="17"/>
       <c r="L1470" s="17"/>
@@ -42073,38 +42082,38 @@
     </row>
     <row r="1484" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1484" s="4"/>
-      <c r="D1484" s="22" t="s">
+      <c r="D1484" s="24" t="s">
         <v>1654</v>
       </c>
-      <c r="E1484" s="22"/>
-      <c r="F1484" s="22"/>
-      <c r="G1484" s="22"/>
-      <c r="H1484" s="22"/>
-      <c r="I1484" s="22"/>
+      <c r="E1484" s="24"/>
+      <c r="F1484" s="24"/>
+      <c r="G1484" s="24"/>
+      <c r="H1484" s="24"/>
+      <c r="I1484" s="24"/>
       <c r="J1484" s="17"/>
       <c r="K1484" s="17"/>
       <c r="L1484" s="17"/>
     </row>
     <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1485" s="4"/>
-      <c r="D1485" s="22"/>
-      <c r="E1485" s="22"/>
-      <c r="F1485" s="22"/>
-      <c r="G1485" s="22"/>
-      <c r="H1485" s="22"/>
-      <c r="I1485" s="22"/>
+      <c r="D1485" s="24"/>
+      <c r="E1485" s="24"/>
+      <c r="F1485" s="24"/>
+      <c r="G1485" s="24"/>
+      <c r="H1485" s="24"/>
+      <c r="I1485" s="24"/>
       <c r="J1485" s="17"/>
       <c r="K1485" s="17"/>
       <c r="L1485" s="17"/>
     </row>
     <row r="1486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1486" s="4"/>
-      <c r="D1486" s="22"/>
-      <c r="E1486" s="22"/>
-      <c r="F1486" s="22"/>
-      <c r="G1486" s="22"/>
-      <c r="H1486" s="22"/>
-      <c r="I1486" s="22"/>
+      <c r="D1486" s="24"/>
+      <c r="E1486" s="24"/>
+      <c r="F1486" s="24"/>
+      <c r="G1486" s="24"/>
+      <c r="H1486" s="24"/>
+      <c r="I1486" s="24"/>
       <c r="J1486" s="17"/>
       <c r="K1486" s="17"/>
       <c r="L1486" s="17"/>
@@ -43002,36 +43011,36 @@
       </c>
     </row>
     <row r="1522" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1522" s="24" t="s">
+      <c r="D1522" s="23" t="s">
         <v>1653</v>
       </c>
-      <c r="E1522" s="22"/>
-      <c r="F1522" s="22"/>
-      <c r="G1522" s="22"/>
-      <c r="H1522" s="22"/>
-      <c r="I1522" s="22"/>
+      <c r="E1522" s="24"/>
+      <c r="F1522" s="24"/>
+      <c r="G1522" s="24"/>
+      <c r="H1522" s="24"/>
+      <c r="I1522" s="24"/>
       <c r="J1522" s="17"/>
       <c r="K1522" s="17"/>
       <c r="L1522" s="17"/>
     </row>
     <row r="1523" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D1523" s="22"/>
-      <c r="E1523" s="22"/>
-      <c r="F1523" s="22"/>
-      <c r="G1523" s="22"/>
-      <c r="H1523" s="22"/>
-      <c r="I1523" s="22"/>
+      <c r="D1523" s="24"/>
+      <c r="E1523" s="24"/>
+      <c r="F1523" s="24"/>
+      <c r="G1523" s="24"/>
+      <c r="H1523" s="24"/>
+      <c r="I1523" s="24"/>
       <c r="J1523" s="17"/>
       <c r="K1523" s="17"/>
       <c r="L1523" s="17"/>
     </row>
     <row r="1524" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D1524" s="22"/>
-      <c r="E1524" s="22"/>
-      <c r="F1524" s="22"/>
-      <c r="G1524" s="22"/>
-      <c r="H1524" s="22"/>
-      <c r="I1524" s="22"/>
+      <c r="D1524" s="24"/>
+      <c r="E1524" s="24"/>
+      <c r="F1524" s="24"/>
+      <c r="G1524" s="24"/>
+      <c r="H1524" s="24"/>
+      <c r="I1524" s="24"/>
       <c r="J1524" s="17"/>
       <c r="K1524" s="17"/>
       <c r="L1524" s="17"/>
@@ -43046,25 +43055,7 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="D1468:I1470"/>
-    <mergeCell ref="D613:I615"/>
-    <mergeCell ref="D629:I631"/>
-    <mergeCell ref="D648:I650"/>
-    <mergeCell ref="D665:I667"/>
-    <mergeCell ref="D693:I695"/>
-    <mergeCell ref="D1309:L1311"/>
-    <mergeCell ref="D1326:L1328"/>
-    <mergeCell ref="D1431:L1433"/>
-    <mergeCell ref="D1346:L1348"/>
-    <mergeCell ref="D1361:L1363"/>
-    <mergeCell ref="D1386:L1388"/>
-    <mergeCell ref="D1292:L1294"/>
-    <mergeCell ref="D1236:L1238"/>
-    <mergeCell ref="D1129:I1131"/>
-    <mergeCell ref="D295:I297"/>
-    <mergeCell ref="D318:I320"/>
-    <mergeCell ref="D244:I246"/>
-    <mergeCell ref="D1484:I1486"/>
+    <mergeCell ref="D1252:L1254"/>
     <mergeCell ref="D1522:I1524"/>
     <mergeCell ref="D835:I837"/>
     <mergeCell ref="D895:L897"/>
@@ -43077,7 +43068,27 @@
     <mergeCell ref="D1016:I1018"/>
     <mergeCell ref="D1076:L1078"/>
     <mergeCell ref="D1188:L1190"/>
-    <mergeCell ref="D1252:L1254"/>
+    <mergeCell ref="D1468:I1470"/>
+    <mergeCell ref="D1309:L1311"/>
+    <mergeCell ref="D1326:L1328"/>
+    <mergeCell ref="D1431:L1433"/>
+    <mergeCell ref="D143:I145"/>
+    <mergeCell ref="D295:I297"/>
+    <mergeCell ref="D318:I320"/>
+    <mergeCell ref="D244:I246"/>
+    <mergeCell ref="D1484:I1486"/>
+    <mergeCell ref="D613:I615"/>
+    <mergeCell ref="D629:I631"/>
+    <mergeCell ref="D648:I650"/>
+    <mergeCell ref="D665:I667"/>
+    <mergeCell ref="D693:I695"/>
+    <mergeCell ref="D1346:L1348"/>
+    <mergeCell ref="D1361:L1363"/>
+    <mergeCell ref="D1386:L1388"/>
+    <mergeCell ref="D1292:L1294"/>
+    <mergeCell ref="D1236:L1238"/>
+    <mergeCell ref="D1129:I1131"/>
+    <mergeCell ref="D199:I201"/>
     <mergeCell ref="D1267:L1269"/>
     <mergeCell ref="D1421:L1423"/>
     <mergeCell ref="D17:L19"/>
@@ -43093,8 +43104,6 @@
     <mergeCell ref="D524:L526"/>
     <mergeCell ref="D363:I365"/>
     <mergeCell ref="D92:I94"/>
-    <mergeCell ref="D143:I145"/>
-    <mergeCell ref="D199:I201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -45469,10 +45478,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I184" sqref="I184"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45483,12 +45492,13 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="95.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="95.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -45508,16 +45518,19 @@
         <v>1764</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>1765</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>1766</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>413</v>
       </c>
@@ -45536,11 +45549,14 @@
       <c r="F2" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>413</v>
       </c>
@@ -45560,14 +45576,17 @@
         <v>1769</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="19">
         <v>100</v>
       </c>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>413</v>
       </c>
@@ -45586,11 +45605,14 @@
       <c r="F4" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>413</v>
       </c>
@@ -45609,11 +45631,14 @@
       <c r="F5" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>413</v>
       </c>
@@ -45632,11 +45657,14 @@
       <c r="F6" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>413</v>
       </c>
@@ -45655,11 +45683,14 @@
       <c r="F7" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>413</v>
       </c>
@@ -45678,11 +45709,14 @@
       <c r="F8" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>413</v>
       </c>
@@ -45701,11 +45735,14 @@
       <c r="F9" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>413</v>
       </c>
@@ -45724,11 +45761,14 @@
       <c r="F10" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>413</v>
       </c>
@@ -45747,11 +45787,14 @@
       <c r="F11" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>413</v>
       </c>
@@ -45770,11 +45813,14 @@
       <c r="F12" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>413</v>
       </c>
@@ -45793,11 +45839,14 @@
       <c r="F13" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>413</v>
       </c>
@@ -45816,11 +45865,14 @@
       <c r="F14" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>413</v>
       </c>
@@ -45839,11 +45891,14 @@
       <c r="F15" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>413</v>
       </c>
@@ -45863,16 +45918,19 @@
         <v>1769</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="19">
         <v>5</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="J16" s="19" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>413</v>
       </c>
@@ -45892,16 +45950,19 @@
         <v>1769</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19">
         <v>10</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="J17" s="19" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>413</v>
       </c>
@@ -45920,11 +45981,14 @@
       <c r="F18" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>413</v>
       </c>
@@ -45943,11 +46007,14 @@
       <c r="F19" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>413</v>
       </c>
@@ -45967,14 +46034,17 @@
         <v>1769</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="19">
         <v>20</v>
       </c>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>413</v>
       </c>
@@ -45993,11 +46063,14 @@
       <c r="F21" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>413</v>
       </c>
@@ -46016,11 +46089,14 @@
       <c r="F22" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>413</v>
       </c>
@@ -46039,11 +46115,14 @@
       <c r="F23" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>413</v>
       </c>
@@ -46062,11 +46141,14 @@
       <c r="F24" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>413</v>
       </c>
@@ -46086,16 +46168,19 @@
         <v>1794</v>
       </c>
       <c r="G25" s="19" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="I25" s="19" t="s">
         <v>1795</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="J25" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>413</v>
       </c>
@@ -46115,14 +46200,17 @@
         <v>1769</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="25">
+        <v>1975</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="22">
         <v>5</v>
       </c>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>413</v>
       </c>
@@ -46141,11 +46229,14 @@
       <c r="F27" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>413</v>
       </c>
@@ -46164,11 +46255,14 @@
       <c r="F28" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>413</v>
       </c>
@@ -46187,11 +46281,14 @@
       <c r="F29" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>413</v>
       </c>
@@ -46211,16 +46308,19 @@
         <v>1794</v>
       </c>
       <c r="G30" s="19" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="I30" s="19" t="s">
         <v>1802</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="J30" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>413</v>
       </c>
@@ -46239,11 +46339,14 @@
       <c r="F31" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>413</v>
       </c>
@@ -46262,11 +46365,14 @@
       <c r="F32" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>413</v>
       </c>
@@ -46286,16 +46392,19 @@
         <v>1794</v>
       </c>
       <c r="G33" s="19" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="I33" s="19" t="s">
         <v>1806</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="J33" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>413</v>
       </c>
@@ -46314,11 +46423,14 @@
       <c r="F34" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>413</v>
       </c>
@@ -46337,11 +46449,14 @@
       <c r="F35" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>413</v>
       </c>
@@ -46360,11 +46475,14 @@
       <c r="F36" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>413</v>
       </c>
@@ -46383,11 +46501,14 @@
       <c r="F37" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G37" s="19"/>
+      <c r="G37" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>413</v>
       </c>
@@ -46406,11 +46527,14 @@
       <c r="F38" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>413</v>
       </c>
@@ -46430,14 +46554,17 @@
         <v>1769</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="19">
         <v>5</v>
       </c>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>413</v>
       </c>
@@ -46456,13 +46583,16 @@
       <c r="F40" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G40" s="19"/>
+      <c r="G40" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H40" s="19"/>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="19"/>
+      <c r="J40" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>413</v>
       </c>
@@ -46481,13 +46611,16 @@
       <c r="F41" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G41" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H41" s="19"/>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="19"/>
+      <c r="J41" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>413</v>
       </c>
@@ -46506,13 +46639,16 @@
       <c r="F42" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H42" s="19"/>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="19"/>
+      <c r="J42" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>413</v>
       </c>
@@ -46531,13 +46667,16 @@
       <c r="F43" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G43" s="19"/>
+      <c r="G43" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H43" s="19"/>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="19"/>
+      <c r="J43" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>413</v>
       </c>
@@ -46556,11 +46695,14 @@
       <c r="F44" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G44" s="19"/>
+      <c r="G44" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>413</v>
       </c>
@@ -46579,13 +46721,16 @@
       <c r="F45" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H45" s="19"/>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="19"/>
+      <c r="J45" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>413</v>
       </c>
@@ -46604,11 +46749,14 @@
       <c r="F46" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G46" s="19"/>
+      <c r="G46" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>413</v>
       </c>
@@ -46628,14 +46776,17 @@
         <v>1769</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="19">
         <v>5</v>
       </c>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>413</v>
       </c>
@@ -46654,13 +46805,16 @@
       <c r="F48" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G48" s="19"/>
+      <c r="G48" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H48" s="19"/>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="19"/>
+      <c r="J48" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>413</v>
       </c>
@@ -46679,13 +46833,16 @@
       <c r="F49" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H49" s="19"/>
-      <c r="I49" s="19" t="s">
+      <c r="I49" s="19"/>
+      <c r="J49" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>413</v>
       </c>
@@ -46704,13 +46861,16 @@
       <c r="F50" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H50" s="19"/>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="19"/>
+      <c r="J50" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>413</v>
       </c>
@@ -46729,13 +46889,16 @@
       <c r="F51" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G51" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H51" s="19"/>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="19"/>
+      <c r="J51" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>413</v>
       </c>
@@ -46754,11 +46917,14 @@
       <c r="F52" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G52" s="19"/>
+      <c r="G52" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>413</v>
       </c>
@@ -46777,13 +46943,16 @@
       <c r="F53" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H53" s="19"/>
-      <c r="I53" s="19" t="s">
+      <c r="I53" s="19"/>
+      <c r="J53" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>413</v>
       </c>
@@ -46802,11 +46971,14 @@
       <c r="F54" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G54" s="19"/>
+      <c r="G54" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>413</v>
       </c>
@@ -46825,11 +46997,14 @@
       <c r="F55" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G55" s="19"/>
+      <c r="G55" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>413</v>
       </c>
@@ -46848,13 +47023,16 @@
       <c r="F56" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G56" s="19"/>
+      <c r="G56" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H56" s="19"/>
-      <c r="I56" s="19" t="s">
+      <c r="I56" s="19"/>
+      <c r="J56" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>413</v>
       </c>
@@ -46873,13 +47051,16 @@
       <c r="F57" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G57" s="19"/>
+      <c r="G57" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H57" s="19"/>
-      <c r="I57" s="19" t="s">
+      <c r="I57" s="19"/>
+      <c r="J57" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>413</v>
       </c>
@@ -46898,13 +47079,16 @@
       <c r="F58" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G58" s="19"/>
+      <c r="G58" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H58" s="19"/>
-      <c r="I58" s="19" t="s">
+      <c r="I58" s="19"/>
+      <c r="J58" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>413</v>
       </c>
@@ -46923,11 +47107,14 @@
       <c r="F59" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G59" s="19"/>
+      <c r="G59" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="19"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>413</v>
       </c>
@@ -46946,11 +47133,14 @@
       <c r="F60" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G60" s="19"/>
+      <c r="G60" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="19"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>413</v>
       </c>
@@ -46969,11 +47159,14 @@
       <c r="F61" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G61" s="19"/>
+      <c r="G61" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="19"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>413</v>
       </c>
@@ -46992,11 +47185,14 @@
       <c r="F62" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G62" s="19"/>
+      <c r="G62" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="19"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>413</v>
       </c>
@@ -47015,11 +47211,14 @@
       <c r="F63" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="19"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>413</v>
       </c>
@@ -47038,11 +47237,14 @@
       <c r="F64" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G64" s="19"/>
+      <c r="G64" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="19"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>413</v>
       </c>
@@ -47061,11 +47263,14 @@
       <c r="F65" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G65" s="19"/>
+      <c r="G65" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="19"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>413</v>
       </c>
@@ -47084,13 +47289,16 @@
       <c r="F66" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G66" s="19"/>
+      <c r="G66" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H66" s="19"/>
-      <c r="I66" s="19" t="s">
+      <c r="I66" s="19"/>
+      <c r="J66" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>413</v>
       </c>
@@ -47109,11 +47317,14 @@
       <c r="F67" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G67" s="19"/>
+      <c r="G67" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>413</v>
       </c>
@@ -47132,11 +47343,14 @@
       <c r="F68" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G68" s="19"/>
+      <c r="G68" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="19"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>413</v>
       </c>
@@ -47156,14 +47370,17 @@
         <v>1769</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="19">
         <v>30</v>
       </c>
-      <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="19"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>413</v>
       </c>
@@ -47182,11 +47399,14 @@
       <c r="F70" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G70" s="19"/>
+      <c r="G70" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="19"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>413</v>
       </c>
@@ -47205,11 +47425,14 @@
       <c r="F71" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G71" s="19"/>
+      <c r="G71" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="19"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>413</v>
       </c>
@@ -47228,11 +47451,14 @@
       <c r="F72" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G72" s="19"/>
+      <c r="G72" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="19"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>413</v>
       </c>
@@ -47252,14 +47478,17 @@
         <v>1769</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="19">
         <v>10</v>
       </c>
-      <c r="I73" s="19"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="19"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>413</v>
       </c>
@@ -47279,14 +47508,17 @@
         <v>1769</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="19">
         <v>50</v>
       </c>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="19"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>413</v>
       </c>
@@ -47305,11 +47537,14 @@
       <c r="F75" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G75" s="19"/>
+      <c r="G75" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>413</v>
       </c>
@@ -47328,11 +47563,14 @@
       <c r="F76" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G76" s="19"/>
+      <c r="G76" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="19"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>413</v>
       </c>
@@ -47351,11 +47589,14 @@
       <c r="F77" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G77" s="19"/>
+      <c r="G77" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="19"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>413</v>
       </c>
@@ -47374,11 +47615,14 @@
       <c r="F78" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G78" s="19"/>
+      <c r="G78" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="19"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>413</v>
       </c>
@@ -47397,11 +47641,14 @@
       <c r="F79" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G79" s="19"/>
+      <c r="G79" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="19"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>413</v>
       </c>
@@ -47420,11 +47667,14 @@
       <c r="F80" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G80" s="19"/>
+      <c r="G80" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="19"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>413</v>
       </c>
@@ -47443,11 +47693,14 @@
       <c r="F81" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G81" s="19"/>
+      <c r="G81" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="19"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>413</v>
       </c>
@@ -47466,11 +47719,14 @@
       <c r="F82" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G82" s="19"/>
+      <c r="G82" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="19"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>413</v>
       </c>
@@ -47489,11 +47745,14 @@
       <c r="F83" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G83" s="19"/>
+      <c r="G83" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="19"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>413</v>
       </c>
@@ -47512,11 +47771,14 @@
       <c r="F84" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G84" s="19"/>
+      <c r="G84" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="19"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>413</v>
       </c>
@@ -47535,11 +47797,14 @@
       <c r="F85" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G85" s="19"/>
+      <c r="G85" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="19"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>413</v>
       </c>
@@ -47558,11 +47823,14 @@
       <c r="F86" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G86" s="19"/>
+      <c r="G86" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="19"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>413</v>
       </c>
@@ -47581,11 +47849,14 @@
       <c r="F87" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G87" s="19"/>
+      <c r="G87" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="19"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>413</v>
       </c>
@@ -47604,11 +47875,14 @@
       <c r="F88" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G88" s="19"/>
+      <c r="G88" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="19"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>413</v>
       </c>
@@ -47627,11 +47901,14 @@
       <c r="F89" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G89" s="19"/>
+      <c r="G89" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="19"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>413</v>
       </c>
@@ -47650,11 +47927,14 @@
       <c r="F90" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G90" s="19"/>
+      <c r="G90" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="19"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>413</v>
       </c>
@@ -47673,11 +47953,14 @@
       <c r="F91" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G91" s="19"/>
+      <c r="G91" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="19"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>413</v>
       </c>
@@ -47696,11 +47979,14 @@
       <c r="F92" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G92" s="19"/>
+      <c r="G92" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="19"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>413</v>
       </c>
@@ -47719,11 +48005,14 @@
       <c r="F93" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G93" s="19"/>
+      <c r="G93" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="19"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>413</v>
       </c>
@@ -47742,11 +48031,14 @@
       <c r="F94" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G94" s="19"/>
+      <c r="G94" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="19"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>413</v>
       </c>
@@ -47765,11 +48057,14 @@
       <c r="F95" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G95" s="19"/>
+      <c r="G95" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="19"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>413</v>
       </c>
@@ -47788,11 +48083,14 @@
       <c r="F96" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G96" s="19"/>
+      <c r="G96" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="19"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>413</v>
       </c>
@@ -47811,11 +48109,14 @@
       <c r="F97" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G97" s="19"/>
+      <c r="G97" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="19"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>413</v>
       </c>
@@ -47835,14 +48136,17 @@
         <v>1769</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="19">
         <v>10</v>
       </c>
-      <c r="I98" s="19"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="19"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>413</v>
       </c>
@@ -47861,11 +48165,14 @@
       <c r="F99" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G99" s="19"/>
+      <c r="G99" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="19"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>413</v>
       </c>
@@ -47884,11 +48191,14 @@
       <c r="F100" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G100" s="19"/>
+      <c r="G100" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="19"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>413</v>
       </c>
@@ -47907,11 +48217,14 @@
       <c r="F101" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G101" s="19"/>
+      <c r="G101" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="19"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>413</v>
       </c>
@@ -47930,11 +48243,14 @@
       <c r="F102" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G102" s="19"/>
+      <c r="G102" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="19"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>413</v>
       </c>
@@ -47953,11 +48269,14 @@
       <c r="F103" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G103" s="19"/>
+      <c r="G103" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="19"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>413</v>
       </c>
@@ -47977,14 +48296,17 @@
         <v>1769</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="19">
         <v>30</v>
       </c>
-      <c r="I104" s="19"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="19"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>413</v>
       </c>
@@ -48003,11 +48325,14 @@
       <c r="F105" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G105" s="19"/>
+      <c r="G105" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="19"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>413</v>
       </c>
@@ -48026,11 +48351,14 @@
       <c r="F106" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G106" s="19"/>
+      <c r="G106" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="19"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>413</v>
       </c>
@@ -48049,11 +48377,14 @@
       <c r="F107" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G107" s="19"/>
+      <c r="G107" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="19"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>413</v>
       </c>
@@ -48072,11 +48403,14 @@
       <c r="F108" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G108" s="19"/>
+      <c r="G108" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="19"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>413</v>
       </c>
@@ -48095,11 +48429,14 @@
       <c r="F109" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G109" s="19"/>
+      <c r="G109" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="19"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>413</v>
       </c>
@@ -48118,11 +48455,14 @@
       <c r="F110" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G110" s="19"/>
+      <c r="G110" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="19"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>413</v>
       </c>
@@ -48142,14 +48482,17 @@
         <v>1769</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="19">
         <v>5</v>
       </c>
-      <c r="I111" s="19"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="19"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>413</v>
       </c>
@@ -48169,14 +48512,17 @@
         <v>1769</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="19">
         <v>10</v>
       </c>
-      <c r="I112" s="19"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="19"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>413</v>
       </c>
@@ -48196,14 +48542,17 @@
         <v>1769</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="19">
         <v>10</v>
       </c>
-      <c r="I113" s="19"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="19"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>413</v>
       </c>
@@ -48222,11 +48571,14 @@
       <c r="F114" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G114" s="19"/>
+      <c r="G114" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="19"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>413</v>
       </c>
@@ -48246,14 +48598,17 @@
         <v>1769</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="19">
         <v>5</v>
       </c>
-      <c r="I115" s="19"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="19"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>413</v>
       </c>
@@ -48273,14 +48628,17 @@
         <v>1769</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="19">
         <v>10</v>
       </c>
-      <c r="I116" s="19"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="19"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>413</v>
       </c>
@@ -48299,11 +48657,14 @@
       <c r="F117" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G117" s="19"/>
+      <c r="G117" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="19"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>413</v>
       </c>
@@ -48323,14 +48684,17 @@
         <v>1769</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="19">
         <v>10</v>
       </c>
-      <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="19"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>413</v>
       </c>
@@ -48349,11 +48713,14 @@
       <c r="F119" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G119" s="19"/>
+      <c r="G119" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="19"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>413</v>
       </c>
@@ -48372,11 +48739,14 @@
       <c r="F120" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G120" s="19"/>
+      <c r="G120" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="19"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>413</v>
       </c>
@@ -48395,11 +48765,14 @@
       <c r="F121" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G121" s="19"/>
+      <c r="G121" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="19"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>413</v>
       </c>
@@ -48418,11 +48791,14 @@
       <c r="F122" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G122" s="19"/>
+      <c r="G122" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="19"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>413</v>
       </c>
@@ -48441,11 +48817,14 @@
       <c r="F123" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G123" s="19"/>
+      <c r="G123" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="19"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>413</v>
       </c>
@@ -48464,11 +48843,14 @@
       <c r="F124" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G124" s="19"/>
+      <c r="G124" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="19"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
         <v>413</v>
       </c>
@@ -48487,11 +48869,14 @@
       <c r="F125" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G125" s="19"/>
+      <c r="G125" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="19"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>413</v>
       </c>
@@ -48510,11 +48895,14 @@
       <c r="F126" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G126" s="19"/>
+      <c r="G126" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="19"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>413</v>
       </c>
@@ -48533,11 +48921,14 @@
       <c r="F127" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G127" s="19"/>
+      <c r="G127" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="19"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>413</v>
       </c>
@@ -48556,11 +48947,14 @@
       <c r="F128" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G128" s="19"/>
+      <c r="G128" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="19"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
         <v>413</v>
       </c>
@@ -48580,16 +48974,19 @@
         <v>1794</v>
       </c>
       <c r="G129" s="19" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H129" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H129" s="19" t="s">
+      <c r="I129" s="19" t="s">
         <v>1795</v>
       </c>
-      <c r="I129" s="19" t="s">
+      <c r="J129" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>413</v>
       </c>
@@ -48609,14 +49006,17 @@
         <v>1769</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" s="19">
-        <v>6</v>
-      </c>
-      <c r="I130" s="19"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1975</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="19">
+        <v>6</v>
+      </c>
+      <c r="J130" s="19"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>413</v>
       </c>
@@ -48635,11 +49035,14 @@
       <c r="F131" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G131" s="19"/>
+      <c r="G131" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="19"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>413</v>
       </c>
@@ -48658,11 +49061,14 @@
       <c r="F132" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G132" s="19"/>
+      <c r="G132" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="19"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
         <v>413</v>
       </c>
@@ -48681,13 +49087,16 @@
       <c r="F133" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G133" s="19"/>
+      <c r="G133" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H133" s="19"/>
-      <c r="I133" s="19" t="s">
+      <c r="I133" s="19"/>
+      <c r="J133" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>413</v>
       </c>
@@ -48706,13 +49115,16 @@
       <c r="F134" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G134" s="19"/>
+      <c r="G134" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H134" s="19"/>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="19"/>
+      <c r="J134" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>413</v>
       </c>
@@ -48731,13 +49143,16 @@
       <c r="F135" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G135" s="19"/>
+      <c r="G135" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H135" s="19"/>
-      <c r="I135" s="19" t="s">
+      <c r="I135" s="19"/>
+      <c r="J135" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>413</v>
       </c>
@@ -48756,13 +49171,16 @@
       <c r="F136" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G136" s="19"/>
+      <c r="G136" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H136" s="19"/>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="19"/>
+      <c r="J136" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>413</v>
       </c>
@@ -48781,11 +49199,14 @@
       <c r="F137" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G137" s="19"/>
+      <c r="G137" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="19"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>413</v>
       </c>
@@ -48804,11 +49225,14 @@
       <c r="F138" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G138" s="19"/>
+      <c r="G138" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="19"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
         <v>413</v>
       </c>
@@ -48827,11 +49251,14 @@
       <c r="F139" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G139" s="19"/>
+      <c r="G139" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="19"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>413</v>
       </c>
@@ -48850,11 +49277,14 @@
       <c r="F140" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G140" s="19"/>
+      <c r="G140" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="19"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
         <v>413</v>
       </c>
@@ -48873,11 +49303,14 @@
       <c r="F141" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G141" s="19"/>
+      <c r="G141" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="19"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
         <v>413</v>
       </c>
@@ -48896,11 +49329,14 @@
       <c r="F142" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G142" s="19"/>
+      <c r="G142" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="19"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>413</v>
       </c>
@@ -48919,11 +49355,14 @@
       <c r="F143" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G143" s="19"/>
+      <c r="G143" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="19"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>413</v>
       </c>
@@ -48942,11 +49381,14 @@
       <c r="F144" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G144" s="19"/>
+      <c r="G144" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="19"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>413</v>
       </c>
@@ -48965,11 +49407,14 @@
       <c r="F145" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G145" s="19"/>
+      <c r="G145" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="19"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>413</v>
       </c>
@@ -48988,11 +49433,14 @@
       <c r="F146" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G146" s="19"/>
+      <c r="G146" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="19"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>413</v>
       </c>
@@ -49011,11 +49459,14 @@
       <c r="F147" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G147" s="19"/>
+      <c r="G147" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="19"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>413</v>
       </c>
@@ -49034,11 +49485,14 @@
       <c r="F148" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G148" s="19"/>
+      <c r="G148" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="19"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>413</v>
       </c>
@@ -49057,11 +49511,14 @@
       <c r="F149" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G149" s="19"/>
+      <c r="G149" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="19"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
         <v>413</v>
       </c>
@@ -49080,11 +49537,14 @@
       <c r="F150" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G150" s="19"/>
+      <c r="G150" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="19"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>413</v>
       </c>
@@ -49103,11 +49563,14 @@
       <c r="F151" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G151" s="19"/>
+      <c r="G151" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="19"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>413</v>
       </c>
@@ -49126,11 +49589,14 @@
       <c r="F152" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G152" s="19"/>
+      <c r="G152" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="19"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
         <v>413</v>
       </c>
@@ -49149,11 +49615,14 @@
       <c r="F153" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G153" s="19"/>
+      <c r="G153" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="19"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>413</v>
       </c>
@@ -49172,11 +49641,14 @@
       <c r="F154" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G154" s="19"/>
+      <c r="G154" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="19"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>413</v>
       </c>
@@ -49195,11 +49667,14 @@
       <c r="F155" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G155" s="19"/>
+      <c r="G155" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="19"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>413</v>
       </c>
@@ -49218,11 +49693,14 @@
       <c r="F156" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G156" s="19"/>
+      <c r="G156" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="19"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>413</v>
       </c>
@@ -49241,11 +49719,14 @@
       <c r="F157" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G157" s="19"/>
+      <c r="G157" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="19"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>413</v>
       </c>
@@ -49264,11 +49745,14 @@
       <c r="F158" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G158" s="19"/>
+      <c r="G158" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="19"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
         <v>413</v>
       </c>
@@ -49287,11 +49771,14 @@
       <c r="F159" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G159" s="19"/>
+      <c r="G159" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="19"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>413</v>
       </c>
@@ -49310,11 +49797,14 @@
       <c r="F160" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G160" s="19"/>
+      <c r="G160" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="19"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
         <v>413</v>
       </c>
@@ -49333,11 +49823,14 @@
       <c r="F161" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G161" s="19"/>
+      <c r="G161" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="19"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
         <v>413</v>
       </c>
@@ -49356,11 +49849,14 @@
       <c r="F162" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G162" s="19"/>
+      <c r="G162" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="19"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>413</v>
       </c>
@@ -49380,14 +49876,17 @@
         <v>1769</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H163" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H163" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" s="19">
         <v>50</v>
       </c>
-      <c r="I163" s="19"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="19"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>413</v>
       </c>
@@ -49406,11 +49905,14 @@
       <c r="F164" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G164" s="19"/>
+      <c r="G164" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="19"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>413</v>
       </c>
@@ -49429,11 +49931,14 @@
       <c r="F165" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G165" s="19"/>
+      <c r="G165" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="19"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
         <v>413</v>
       </c>
@@ -49452,11 +49957,14 @@
       <c r="F166" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G166" s="19"/>
+      <c r="G166" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="19"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
         <v>413</v>
       </c>
@@ -49475,11 +49983,14 @@
       <c r="F167" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G167" s="19"/>
+      <c r="G167" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="19"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
         <v>413</v>
       </c>
@@ -49498,11 +50009,14 @@
       <c r="F168" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G168" s="19"/>
+      <c r="G168" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="19"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>413</v>
       </c>
@@ -49521,11 +50035,14 @@
       <c r="F169" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G169" s="19"/>
+      <c r="G169" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="19"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>413</v>
       </c>
@@ -49544,11 +50061,14 @@
       <c r="F170" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G170" s="19"/>
+      <c r="G170" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="19"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
         <v>413</v>
       </c>
@@ -49568,14 +50088,17 @@
         <v>1769</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H171" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H171" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="19">
         <v>10</v>
       </c>
-      <c r="I171" s="19"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="19"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
         <v>413</v>
       </c>
@@ -49594,11 +50117,14 @@
       <c r="F172" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G172" s="19"/>
+      <c r="G172" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="19"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
         <v>413</v>
       </c>
@@ -49618,14 +50144,17 @@
         <v>1769</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H173" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H173" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="19">
         <v>30</v>
       </c>
-      <c r="I173" s="19"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="19"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
         <v>413</v>
       </c>
@@ -49644,11 +50173,14 @@
       <c r="F174" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G174" s="19"/>
+      <c r="G174" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="19"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
         <v>413</v>
       </c>
@@ -49667,11 +50199,14 @@
       <c r="F175" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G175" s="19"/>
+      <c r="G175" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="19"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
         <v>413</v>
       </c>
@@ -49690,11 +50225,14 @@
       <c r="F176" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G176" s="19"/>
+      <c r="G176" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="19"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
         <v>413</v>
       </c>
@@ -49713,11 +50251,14 @@
       <c r="F177" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G177" s="19"/>
+      <c r="G177" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="19"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
         <v>413</v>
       </c>
@@ -49736,13 +50277,16 @@
       <c r="F178" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G178" s="19"/>
+      <c r="G178" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H178" s="19"/>
-      <c r="I178" s="19" t="s">
+      <c r="I178" s="19"/>
+      <c r="J178" s="19" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>413</v>
       </c>
@@ -49761,13 +50305,16 @@
       <c r="F179" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G179" s="19"/>
+      <c r="G179" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H179" s="19"/>
-      <c r="I179" s="19" t="s">
+      <c r="I179" s="19"/>
+      <c r="J179" s="19" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
         <v>413</v>
       </c>
@@ -49786,13 +50333,16 @@
       <c r="F180" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G180" s="19"/>
+      <c r="G180" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H180" s="19"/>
-      <c r="I180" s="19" t="s">
+      <c r="I180" s="19"/>
+      <c r="J180" s="19" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
         <v>413</v>
       </c>
@@ -49812,16 +50362,19 @@
         <v>1769</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H181" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H181" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I181" s="19">
         <v>5</v>
       </c>
-      <c r="I181" s="19" t="s">
+      <c r="J181" s="19" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
         <v>413</v>
       </c>
@@ -49841,16 +50394,19 @@
         <v>1769</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H182" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H182" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I182" s="19">
         <v>10</v>
       </c>
-      <c r="I182" s="19" t="s">
+      <c r="J182" s="19" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
         <v>413</v>
       </c>
@@ -49870,16 +50426,19 @@
         <v>1769</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H183" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H183" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I183" s="19">
         <v>10</v>
       </c>
-      <c r="I183" s="19" t="s">
+      <c r="J183" s="19" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
         <v>413</v>
       </c>
@@ -49898,13 +50457,16 @@
       <c r="F184" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G184" s="19"/>
+      <c r="G184" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H184" s="19"/>
-      <c r="I184" s="19" t="s">
+      <c r="I184" s="19"/>
+      <c r="J184" s="19" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>413</v>
       </c>
@@ -49924,16 +50486,19 @@
         <v>1794</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H185" s="19">
+        <v>1975</v>
+      </c>
+      <c r="H185" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I185" s="19">
         <v>40</v>
       </c>
-      <c r="I185" s="19" t="s">
+      <c r="J185" s="19" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>413</v>
       </c>
@@ -49952,11 +50517,14 @@
       <c r="F186" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G186" s="19"/>
+      <c r="G186" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="19"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
         <v>413</v>
       </c>
@@ -49975,11 +50543,14 @@
       <c r="F187" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G187" s="19"/>
+      <c r="G187" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="19"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
         <v>413</v>
       </c>
@@ -49998,13 +50569,16 @@
       <c r="F188" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G188" s="19"/>
+      <c r="G188" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H188" s="19"/>
-      <c r="I188" s="19" t="s">
+      <c r="I188" s="19"/>
+      <c r="J188" s="19" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="19" t="s">
         <v>413</v>
       </c>
@@ -50023,13 +50597,16 @@
       <c r="F189" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G189" s="19"/>
+      <c r="G189" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H189" s="19"/>
-      <c r="I189" s="19" t="s">
+      <c r="I189" s="19"/>
+      <c r="J189" s="19" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>413</v>
       </c>
@@ -50048,13 +50625,16 @@
       <c r="F190" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G190" s="19"/>
+      <c r="G190" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H190" s="19"/>
-      <c r="I190" s="19" t="s">
+      <c r="I190" s="19"/>
+      <c r="J190" s="19" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
         <v>413</v>
       </c>
@@ -50073,9 +50653,12 @@
       <c r="F191" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G191" s="19"/>
+      <c r="G191" s="19" t="s">
+        <v>1975</v>
+      </c>
       <c r="H191" s="19"/>
-      <c r="I191" s="19" t="s">
+      <c r="I191" s="19"/>
+      <c r="J191" s="19" t="s">
         <v>853</v>
       </c>
     </row>
@@ -50086,10 +50669,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50099,12 +50682,13 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -50124,16 +50708,19 @@
         <v>1764</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>1765</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>1766</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>413</v>
       </c>
@@ -50152,11 +50739,14 @@
       <c r="F2" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>413</v>
       </c>
@@ -50176,14 +50766,17 @@
         <v>1769</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>413</v>
       </c>
@@ -50202,11 +50795,14 @@
       <c r="F4" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>413</v>
       </c>
@@ -50225,11 +50821,14 @@
       <c r="F5" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>413</v>
       </c>
@@ -50248,11 +50847,14 @@
       <c r="F6" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>413</v>
       </c>
@@ -50272,14 +50874,17 @@
         <v>1769</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="19">
+        <v>1976</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="19">
         <v>50</v>
       </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>413</v>
       </c>
@@ -50299,14 +50904,17 @@
         <v>1769</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="19">
+        <v>1976</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="19">
         <v>30</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>413</v>
       </c>
@@ -50326,16 +50934,19 @@
         <v>1794</v>
       </c>
       <c r="G9" s="19" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="19">
+      <c r="I9" s="19">
         <v>5</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>413</v>
       </c>
@@ -50354,11 +50965,14 @@
       <c r="F10" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>413</v>
       </c>
@@ -50378,16 +50992,19 @@
         <v>1794</v>
       </c>
       <c r="G11" s="19" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="19">
+      <c r="I11" s="19">
         <v>5</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>413</v>
       </c>
@@ -50407,16 +51024,19 @@
         <v>1794</v>
       </c>
       <c r="G12" s="19" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>1795</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="J12" s="19" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>413</v>
       </c>
@@ -50435,11 +51055,14 @@
       <c r="F13" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>413</v>
       </c>
@@ -50458,11 +51081,14 @@
       <c r="F14" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>413</v>
       </c>
@@ -50481,11 +51107,14 @@
       <c r="F15" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>413</v>
       </c>
@@ -50504,11 +51133,14 @@
       <c r="F16" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>413</v>
       </c>
@@ -50527,11 +51159,14 @@
       <c r="F17" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>413</v>
       </c>
@@ -50551,14 +51186,17 @@
         <v>1769</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="19">
+        <v>1976</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="19">
         <v>30</v>
       </c>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>413</v>
       </c>
@@ -50577,11 +51215,14 @@
       <c r="F19" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>413</v>
       </c>
@@ -50600,11 +51241,14 @@
       <c r="F20" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>413</v>
       </c>
@@ -50623,11 +51267,14 @@
       <c r="F21" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>413</v>
       </c>
@@ -50646,1868 +51293,1871 @@
       <c r="F22" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>1976</v>
+      </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="19"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="19"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="19"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="19"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="19"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="19"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="19"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="19"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="19"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="19"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="19"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="19"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="19"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="19"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="19"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="19"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="19"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="19"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="19"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="19"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="19"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="19"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="19"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="19"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="19"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="19"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="19"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="19"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="19"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="19"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="19"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="19"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="19"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="19"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="19"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="19"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="19"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="19"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="19"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="19"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="19"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="19"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="19"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="19"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="19"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="19"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="19"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="19"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="19"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="19"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="19"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="19"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="19"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="19"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="19"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="19"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="19"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="19"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="19"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="19"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="19"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="19"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="19"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="19"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="19"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="19"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="19"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="19"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="19"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="19"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="19"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="19"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="19"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="19"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="19"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="19"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="19"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="19"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="19"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="19"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="19"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="19"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="19"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="19"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="19"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="19"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="19"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="19"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="19"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="19"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="19"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="19"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="19"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="19"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="19"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="19"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="19"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="19"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="19"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="19"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="19"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="19"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="19"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="19"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="19"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="19"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
       <c r="D164" s="19"/>
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="19"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="19"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
       <c r="D166" s="19"/>
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="19"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="19"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
       <c r="E168" s="19"/>
       <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="19"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
       <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="19"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="19"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
       <c r="E171" s="19"/>
       <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="19"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="19"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="19"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="19"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="19"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="19"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
       <c r="E177" s="19"/>
       <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="19"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="19"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="19"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="19"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
       <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="19"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="19"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="19"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="19"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="19"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="19"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="19"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="19"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="19"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="19"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
       <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52515,6 +53165,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023C68C9F20C69D48BB417A9ADFD5DC9C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29914a5778ec744f9d5d623c4355d354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a57c4080a7a73066863a39e6ec4255" ns2:_="">
     <xsd:import namespace="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
@@ -52659,7 +53330,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -52705,28 +53376,31 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52744,34 +53418,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8523" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8668" uniqueCount="2003">
   <si>
     <t>Owner</t>
   </si>
@@ -6944,6 +6944,96 @@
   </si>
   <si>
     <t>WH_STU_APP_INFO_MERGE</t>
+  </si>
+  <si>
+    <t>WH_F_MILESTONES</t>
+  </si>
+  <si>
+    <t>MILESTONE_NUM</t>
+  </si>
+  <si>
+    <t>MILESTONE_CD</t>
+  </si>
+  <si>
+    <t>MILESTONE_LD</t>
+  </si>
+  <si>
+    <t>MILESTONE_FD</t>
+  </si>
+  <si>
+    <t>MILESTONE_LEVEL_CD</t>
+  </si>
+  <si>
+    <t>MILESTONE_LEVEL_LD</t>
+  </si>
+  <si>
+    <t>MILESTONE_TITLE</t>
+  </si>
+  <si>
+    <t>TERM_REQ</t>
+  </si>
+  <si>
+    <t>TERM_REQ_SID</t>
+  </si>
+  <si>
+    <t>ATTEMPT_NUM</t>
+  </si>
+  <si>
+    <t>DT_ATTEMPTED</t>
+  </si>
+  <si>
+    <t>Milestone Number</t>
+  </si>
+  <si>
+    <t>Milestone Code</t>
+  </si>
+  <si>
+    <t>Milestone Long Description</t>
+  </si>
+  <si>
+    <t>Milestone Formal Description</t>
+  </si>
+  <si>
+    <t>Milestone Level Code</t>
+  </si>
+  <si>
+    <t>Milestone Level Long Description</t>
+  </si>
+  <si>
+    <t>Milestone Title</t>
+  </si>
+  <si>
+    <t>Required Term (for Milestone)</t>
+  </si>
+  <si>
+    <t>Required Term Surrogate identification</t>
+  </si>
+  <si>
+    <t>Milestone Attempt Number</t>
+  </si>
+  <si>
+    <t>Flag Indicating if the Milestone is complete</t>
+  </si>
+  <si>
+    <t>Milestone Attempt Date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH_F_MILESTONES  is a fact table that contains the measures of the milestones information.  Milestones are non-course-related events that a student must fulfill for a degree. They include things such as language requirements, qualifying and oral examinations, thesis, and dissertation. Surrogate identifiers should be used to joined to dimensions based on how you want to describe the data.</t>
+    </r>
+  </si>
+  <si>
+    <t>MILESTONE_COMPLETE_FLAG</t>
   </si>
 </sst>
 </file>
@@ -7399,12 +7489,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:L1524"/>
+  <dimension ref="A1:L1554"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1491" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1522" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B1352" sqref="B1352"/>
+      <selection pane="bottomLeft" activeCell="I1543" sqref="I1543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43010,7 +43100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1522" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1522" s="23" t="s">
         <v>1653</v>
       </c>
@@ -43023,7 +43113,7 @@
       <c r="K1522" s="17"/>
       <c r="L1522" s="17"/>
     </row>
-    <row r="1523" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1523" s="24"/>
       <c r="E1523" s="24"/>
       <c r="F1523" s="24"/>
@@ -43034,7 +43124,7 @@
       <c r="K1523" s="17"/>
       <c r="L1523" s="17"/>
     </row>
-    <row r="1524" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1524" s="24"/>
       <c r="E1524" s="24"/>
       <c r="F1524" s="24"/>
@@ -43045,6 +43135,700 @@
       <c r="K1524" s="17"/>
       <c r="L1524" s="17"/>
     </row>
+    <row r="1527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1527" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1527" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1527" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1527" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1527" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1527" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1527" s="19">
+        <v>11</v>
+      </c>
+      <c r="H1527" s="19"/>
+      <c r="I1527" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1528" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1528" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1528" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1528" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1528" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1528" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1528" s="19">
+        <v>4</v>
+      </c>
+      <c r="H1528" s="19"/>
+      <c r="I1528" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1529" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1529" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1529" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1529" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1529" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1529" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1529" s="19">
+        <v>5</v>
+      </c>
+      <c r="H1529" s="19"/>
+      <c r="I1529" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1530" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1530" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1530" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1530" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1530" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="F1530" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1530" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1530" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1530" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1531" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1531" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1531" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1531" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1531" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1531" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1531" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1531" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1531" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1532" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1532" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1532" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1532" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1532" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1532" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1532" s="19">
+        <v>10</v>
+      </c>
+      <c r="H1532" s="19"/>
+      <c r="I1532" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1533" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1533" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1533" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1533" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1533" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1533" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1533" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1533" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1533" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1534" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1534" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1534" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1534" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1534" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1534" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1534" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1534" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1534" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1535" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1535" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1535" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1535" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1535" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1535" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1535" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1535" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1535" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1536" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1536" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1536" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1536" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1536" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1536" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1536" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1536" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1536" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1537" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1537" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1537" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1537" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1537" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1537" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1537" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1537" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1537" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1538" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1538" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1538" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1538" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1538" s="19" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F1538" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1538" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1538" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1539" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1539" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1539" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1539" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1539" s="19" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F1539" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1539" s="19">
+        <v>10</v>
+      </c>
+      <c r="H1539" s="19"/>
+      <c r="I1539" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1540" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1540" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1540" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1540" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1540" s="19" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F1540" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1540" s="19">
+        <v>30</v>
+      </c>
+      <c r="H1540" s="19"/>
+      <c r="I1540" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1541" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1541" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1541" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1541" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1541" s="19" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F1541" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1541" s="19">
+        <v>50</v>
+      </c>
+      <c r="H1541" s="19"/>
+      <c r="I1541" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1542" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1542" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1542" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1542" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1542" s="19" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F1542" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1542" s="19">
+        <v>15</v>
+      </c>
+      <c r="H1542" s="19"/>
+      <c r="I1542" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1543" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1543" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1543" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1543" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1543" s="19" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F1543" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1543" s="19">
+        <v>30</v>
+      </c>
+      <c r="H1543" s="19"/>
+      <c r="I1543" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1544" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1544" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1544" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1544" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1544" s="19" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F1544" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1544" s="19">
+        <v>254</v>
+      </c>
+      <c r="H1544" s="19"/>
+      <c r="I1544" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1545" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1545" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1545" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1545" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1545" s="19" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F1545" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1545" s="19">
+        <v>4</v>
+      </c>
+      <c r="H1545" s="19"/>
+      <c r="I1545" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1546" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1546" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1546" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1546" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1546" s="19" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F1546" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1546" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1546" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1546" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1547" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1547" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1547" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1547" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1547" s="19" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F1547" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1547" s="19">
+        <v>22</v>
+      </c>
+      <c r="H1547" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1547" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1548" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1548" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1548" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1548" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1548" s="19" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F1548" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1548" s="19">
+        <v>1</v>
+      </c>
+      <c r="H1548" s="19"/>
+      <c r="I1548" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1549" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1549" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1549" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1549" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1549" s="19" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F1549" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1549" s="19">
+        <v>7</v>
+      </c>
+      <c r="H1549" s="19"/>
+      <c r="I1549" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1550" s="4">
+        <v>43368</v>
+      </c>
+      <c r="B1550" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1550" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1550" s="19" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1550" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1550" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1550" s="19">
+        <v>19</v>
+      </c>
+      <c r="H1550" s="19"/>
+      <c r="I1550" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1552" s="23" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E1552" s="24"/>
+      <c r="F1552" s="24"/>
+      <c r="G1552" s="24"/>
+      <c r="H1552" s="24"/>
+      <c r="I1552" s="24"/>
+    </row>
+    <row r="1553" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D1553" s="24"/>
+      <c r="E1553" s="24"/>
+      <c r="F1553" s="24"/>
+      <c r="G1553" s="24"/>
+      <c r="H1553" s="24"/>
+      <c r="I1553" s="24"/>
+    </row>
+    <row r="1554" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D1554" s="24"/>
+      <c r="E1554" s="24"/>
+      <c r="F1554" s="24"/>
+      <c r="G1554" s="24"/>
+      <c r="H1554" s="24"/>
+      <c r="I1554" s="24"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{F4AE1B9E-5266-4134-A2C3-A4E39633C052}" topLeftCell="C1">
@@ -43054,7 +43838,41 @@
       <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="49">
+  <mergeCells count="50">
+    <mergeCell ref="D1552:I1554"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D68:L70"/>
+    <mergeCell ref="D113:L115"/>
+    <mergeCell ref="D335:L337"/>
+    <mergeCell ref="D603:I605"/>
+    <mergeCell ref="D502:I504"/>
+    <mergeCell ref="D449:I451"/>
+    <mergeCell ref="D466:I468"/>
+    <mergeCell ref="D485:I487"/>
+    <mergeCell ref="D562:I564"/>
+    <mergeCell ref="D524:L526"/>
+    <mergeCell ref="D363:I365"/>
+    <mergeCell ref="D92:I94"/>
+    <mergeCell ref="D1484:I1486"/>
+    <mergeCell ref="D613:I615"/>
+    <mergeCell ref="D629:I631"/>
+    <mergeCell ref="D648:I650"/>
+    <mergeCell ref="D665:I667"/>
+    <mergeCell ref="D693:I695"/>
+    <mergeCell ref="D1346:L1348"/>
+    <mergeCell ref="D1361:L1363"/>
+    <mergeCell ref="D1386:L1388"/>
+    <mergeCell ref="D1292:L1294"/>
+    <mergeCell ref="D1236:L1238"/>
+    <mergeCell ref="D1129:I1131"/>
+    <mergeCell ref="D1267:L1269"/>
+    <mergeCell ref="D1421:L1423"/>
+    <mergeCell ref="D1431:L1433"/>
+    <mergeCell ref="D143:I145"/>
+    <mergeCell ref="D295:I297"/>
+    <mergeCell ref="D318:I320"/>
+    <mergeCell ref="D244:I246"/>
+    <mergeCell ref="D199:I201"/>
     <mergeCell ref="D1252:L1254"/>
     <mergeCell ref="D1522:I1524"/>
     <mergeCell ref="D835:I837"/>
@@ -43071,39 +43889,6 @@
     <mergeCell ref="D1468:I1470"/>
     <mergeCell ref="D1309:L1311"/>
     <mergeCell ref="D1326:L1328"/>
-    <mergeCell ref="D1431:L1433"/>
-    <mergeCell ref="D143:I145"/>
-    <mergeCell ref="D295:I297"/>
-    <mergeCell ref="D318:I320"/>
-    <mergeCell ref="D244:I246"/>
-    <mergeCell ref="D1484:I1486"/>
-    <mergeCell ref="D613:I615"/>
-    <mergeCell ref="D629:I631"/>
-    <mergeCell ref="D648:I650"/>
-    <mergeCell ref="D665:I667"/>
-    <mergeCell ref="D693:I695"/>
-    <mergeCell ref="D1346:L1348"/>
-    <mergeCell ref="D1361:L1363"/>
-    <mergeCell ref="D1386:L1388"/>
-    <mergeCell ref="D1292:L1294"/>
-    <mergeCell ref="D1236:L1238"/>
-    <mergeCell ref="D1129:I1131"/>
-    <mergeCell ref="D199:I201"/>
-    <mergeCell ref="D1267:L1269"/>
-    <mergeCell ref="D1421:L1423"/>
-    <mergeCell ref="D17:L19"/>
-    <mergeCell ref="D68:L70"/>
-    <mergeCell ref="D113:L115"/>
-    <mergeCell ref="D335:L337"/>
-    <mergeCell ref="D603:I605"/>
-    <mergeCell ref="D502:I504"/>
-    <mergeCell ref="D449:I451"/>
-    <mergeCell ref="D466:I468"/>
-    <mergeCell ref="D485:I487"/>
-    <mergeCell ref="D562:I564"/>
-    <mergeCell ref="D524:L526"/>
-    <mergeCell ref="D363:I365"/>
-    <mergeCell ref="D92:I94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -43120,7 +43905,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43196,8 +43981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43939,8 +44724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44152,7 +44937,7 @@
         <v>1398</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>874</v>
+        <v>1709</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>1490</v>
@@ -50671,8 +51456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53174,15 +53959,49 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53331,49 +54150,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53385,17 +54170,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -53419,9 +54196,17 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Reporting_Student_Data_Model_Dictionary.xlsx
+++ b/Reporting_Student_Data_Model_Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9760" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10046" uniqueCount="2107">
   <si>
     <t>Owner</t>
   </si>
@@ -7290,6 +7290,254 @@
       </rPr>
       <t>: WH_D_COURSE  is a type 2 (Slow-Changing) dimension and has EFF_START_DT and EFF_END_DT that indicates when the academic plan was effective. The PS_CUR_FLAG can be used to filter which Courses are active as of current time. This dimension contains the course information from the course catalog. The join between this dimension and the fact table should be with COURSE_SID.</t>
     </r>
+  </si>
+  <si>
+    <t>LAST_ACAD_ROW_FLAG</t>
+  </si>
+  <si>
+    <t>VETERAN_BENEFITS_CD</t>
+  </si>
+  <si>
+    <t>COMBINED_DEGREE_START_TERM_CD</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_ADMIT_TERM_CD_1</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_ADMIT_TERM_CD_2</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_ADMIT_TERM_CD_3</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_ADMIT_TERM_CD_4</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_ADMIT_TERM_CD_5</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_COMPLETED_TERM_CD_1</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_COMPLETED_TERM_CD_2</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_COMPLETED_TERM_CD_3</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_COMPLETED_TERM_CD_4</t>
+  </si>
+  <si>
+    <t>ACAD_PROG_COMPLETED_TERM_CD_5</t>
+  </si>
+  <si>
+    <t>TERM_GPA</t>
+  </si>
+  <si>
+    <t>SERVICE_INDICATORS_POSITIVE</t>
+  </si>
+  <si>
+    <t>SERVICE_INDICATORS_NEGATIVE</t>
+  </si>
+  <si>
+    <t>STU_GROUPS</t>
+  </si>
+  <si>
+    <t>Flag (Y/N)  for the most current academic record recorded for a student &lt;= current term</t>
+  </si>
+  <si>
+    <t>Matriculation term for Academic Program one (primary)</t>
+  </si>
+  <si>
+    <t>Matriculation term for Academic Program two (secondary)</t>
+  </si>
+  <si>
+    <t>Matriculation term for Academic Program three</t>
+  </si>
+  <si>
+    <t>Matriculation term for Academic Program four</t>
+  </si>
+  <si>
+    <t>Matriculation term for Academic Program five</t>
+  </si>
+  <si>
+    <t>Completion term for Academic Program one (primary)</t>
+  </si>
+  <si>
+    <t>Completion term for Academic Program two (secondary)</t>
+  </si>
+  <si>
+    <t>Completion term for Academic Program three</t>
+  </si>
+  <si>
+    <t>Completion term for Academic Program four</t>
+  </si>
+  <si>
+    <t>Completion term for Academic Program five</t>
+  </si>
+  <si>
+    <t>Student Groups rolled up, delimited by a semicolon ";" - Based on ODBC authorized groups</t>
+  </si>
+  <si>
+    <t>Negative Service Indicators rolled up, delimited by a semicolon ";"  - Based on ODBC authorized groups</t>
+  </si>
+  <si>
+    <t>Positive Service Indicators rolled up, delimited by a semicolon ";"  - Based on ODBC authorized groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined Degree Indicator Starting Term Code </t>
+  </si>
+  <si>
+    <t>Identification of the chapter of the Civil Code under which a veteran is receiving educational benefits</t>
+  </si>
+  <si>
+    <t>PRELIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preliminary </t>
+  </si>
+  <si>
+    <t>REVOKED_DEGREE_CERTIFICATION</t>
+  </si>
+  <si>
+    <t>APPLIED_PRELIM_DEPT_APPROVE</t>
+  </si>
+  <si>
+    <t>APPLIED_FINAL_DEPT_APPROVE</t>
+  </si>
+  <si>
+    <t>LIST_PRELIM_DEPT_APPROVE</t>
+  </si>
+  <si>
+    <t>LIST_FINAL_DEPT_APPROVE</t>
+  </si>
+  <si>
+    <t>APPLIED_PRELIM_COLLEGE_APPROVE</t>
+  </si>
+  <si>
+    <t>APPLIED_FINAL_COLLEGE_APPROVE</t>
+  </si>
+  <si>
+    <t>LIST_PRELIM_COLLEGE_APPROVE</t>
+  </si>
+  <si>
+    <t>LIST_FINAL_COLLEGE_APPROVE</t>
+  </si>
+  <si>
+    <t>APPLIED_PRELIM_GRAD_APPROVE</t>
+  </si>
+  <si>
+    <t>APPLIED_FINAL_GRAD_APPROVE</t>
+  </si>
+  <si>
+    <t>LIST_PRELIM_GRAD_APPROVE</t>
+  </si>
+  <si>
+    <t>LIST_FINAL_GRAD_APPROVE</t>
+  </si>
+  <si>
+    <t>HONORS_PRELIM_DEPT_APPROVE</t>
+  </si>
+  <si>
+    <t>HONORS_FINAL_DEPT_APPROVE</t>
+  </si>
+  <si>
+    <t>HONORS_PRELIM_COLLEGE_APPROVE</t>
+  </si>
+  <si>
+    <t>HONORS_FINAL_COLLEGE_APPROVE</t>
+  </si>
+  <si>
+    <t>Indicates if the degree certification was revoked</t>
+  </si>
+  <si>
+    <t>Overall degree/minor/cert approval preliminary phase for the department</t>
+  </si>
+  <si>
+    <t>Overall degree/minor/cert approval preliminary phase for the college</t>
+  </si>
+  <si>
+    <t>Overall degree/minor/cert approval preliminary phase for the graduate school</t>
+  </si>
+  <si>
+    <t>Overall degree/minor/cert approval final phase for the department</t>
+  </si>
+  <si>
+    <t>Overall degree/minor/cert approval final phase for the college</t>
+  </si>
+  <si>
+    <t>Overall degree/minor/cert approval final phase for the graduate school</t>
+  </si>
+  <si>
+    <t>Commencement List preliminary phase for the department</t>
+  </si>
+  <si>
+    <t>Commencement List final phase for the department</t>
+  </si>
+  <si>
+    <t>Commencement List preliminary phase for the college</t>
+  </si>
+  <si>
+    <t>Commencement List final phase for the college</t>
+  </si>
+  <si>
+    <t>Commencement List preliminary phase for the graduate school</t>
+  </si>
+  <si>
+    <t>Commencement List final phase for the graduate school</t>
+  </si>
+  <si>
+    <t>Honors approval final phase for the department</t>
+  </si>
+  <si>
+    <t>Honors approval final phase for the college</t>
+  </si>
+  <si>
+    <t>Honors approval preliminary phase for the department</t>
+  </si>
+  <si>
+    <t>Honors approval preliminary phase for the college</t>
+  </si>
+  <si>
+    <t>WH_D_VETERAN_BENEFITS</t>
+  </si>
+  <si>
+    <t>VETERAN_BENEFITS_SID</t>
+  </si>
+  <si>
+    <t>VETERAN_BENEFITS_DESC_250</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WH_D_VETERAN_BENEFITS  is a type 1 (max effective change) dimension. This dimension contains information of the Civil Coded under which a veteran is receiving educational benefits. The join between this dimension and the fact table should be with VETERAN_BENEFITS_SID.</t>
+    </r>
+  </si>
+  <si>
+    <t>Veteran Benefits Code - Identification of the chapter of the Civil Code under which a veteran is receiving educational benefits</t>
+  </si>
+  <si>
+    <t>Veteran Benefits Surrogate Identification</t>
+  </si>
+  <si>
+    <t>Veteran Benefits description up to 250 characters</t>
   </si>
 </sst>
 </file>
@@ -7426,10 +7674,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7746,12 +7994,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:L1726"/>
+  <dimension ref="A1:L1739"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1699" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I1742" sqref="I1742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8239,39 +8487,39 @@
       <c r="B17" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>997</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
@@ -9584,39 +9832,39 @@
       <c r="B68" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="24" t="s">
         <v>996</v>
       </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
@@ -10078,36 +10326,36 @@
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -10572,39 +10820,39 @@
       <c r="B113" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="24" t="s">
         <v>994</v>
       </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D116" s="2"/>
@@ -11238,36 +11486,36 @@
       <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D143" s="25" t="s">
+      <c r="D143" s="24" t="s">
         <v>993</v>
       </c>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -12622,36 +12870,36 @@
       <c r="B199" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D199" s="24" t="s">
+      <c r="D199" s="25" t="s">
         <v>992</v>
       </c>
-      <c r="E199" s="25"/>
-      <c r="F199" s="25"/>
-      <c r="G199" s="25"/>
-      <c r="H199" s="25"/>
-      <c r="I199" s="25"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="24"/>
+      <c r="I199" s="24"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D200" s="25"/>
-      <c r="E200" s="25"/>
-      <c r="F200" s="25"/>
-      <c r="G200" s="25"/>
-      <c r="H200" s="25"/>
-      <c r="I200" s="25"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="24"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="24"/>
+      <c r="I200" s="24"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="25"/>
-      <c r="H201" s="25"/>
-      <c r="I201" s="25"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="24"/>
+      <c r="I201" s="24"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -13688,36 +13936,36 @@
       <c r="B244" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D244" s="24" t="s">
+      <c r="D244" s="25" t="s">
         <v>991</v>
       </c>
-      <c r="E244" s="25"/>
-      <c r="F244" s="25"/>
-      <c r="G244" s="25"/>
-      <c r="H244" s="25"/>
-      <c r="I244" s="25"/>
+      <c r="E244" s="24"/>
+      <c r="F244" s="24"/>
+      <c r="G244" s="24"/>
+      <c r="H244" s="24"/>
+      <c r="I244" s="24"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D245" s="25"/>
-      <c r="E245" s="25"/>
-      <c r="F245" s="25"/>
-      <c r="G245" s="25"/>
-      <c r="H245" s="25"/>
-      <c r="I245" s="25"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="24"/>
+      <c r="H245" s="24"/>
+      <c r="I245" s="24"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D246" s="25"/>
-      <c r="E246" s="25"/>
-      <c r="F246" s="25"/>
-      <c r="G246" s="25"/>
-      <c r="H246" s="25"/>
-      <c r="I246" s="25"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="24"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="24"/>
+      <c r="H246" s="24"/>
+      <c r="I246" s="24"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -14893,36 +15141,36 @@
       <c r="B295" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D295" s="25" t="s">
+      <c r="D295" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="E295" s="25"/>
-      <c r="F295" s="25"/>
-      <c r="G295" s="25"/>
-      <c r="H295" s="25"/>
-      <c r="I295" s="25"/>
+      <c r="E295" s="24"/>
+      <c r="F295" s="24"/>
+      <c r="G295" s="24"/>
+      <c r="H295" s="24"/>
+      <c r="I295" s="24"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D296" s="25"/>
-      <c r="E296" s="25"/>
-      <c r="F296" s="25"/>
-      <c r="G296" s="25"/>
-      <c r="H296" s="25"/>
-      <c r="I296" s="25"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="24"/>
+      <c r="F296" s="24"/>
+      <c r="G296" s="24"/>
+      <c r="H296" s="24"/>
+      <c r="I296" s="24"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D297" s="25"/>
-      <c r="E297" s="25"/>
-      <c r="F297" s="25"/>
-      <c r="G297" s="25"/>
-      <c r="H297" s="25"/>
-      <c r="I297" s="25"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="24"/>
+      <c r="F297" s="24"/>
+      <c r="G297" s="24"/>
+      <c r="H297" s="24"/>
+      <c r="I297" s="24"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -15747,39 +15995,39 @@
       <c r="B335" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D335" s="25" t="s">
+      <c r="D335" s="24" t="s">
         <v>1000</v>
       </c>
-      <c r="E335" s="25"/>
-      <c r="F335" s="25"/>
-      <c r="G335" s="25"/>
-      <c r="H335" s="25"/>
-      <c r="I335" s="25"/>
-      <c r="J335" s="25"/>
-      <c r="K335" s="25"/>
-      <c r="L335" s="25"/>
+      <c r="E335" s="24"/>
+      <c r="F335" s="24"/>
+      <c r="G335" s="24"/>
+      <c r="H335" s="24"/>
+      <c r="I335" s="24"/>
+      <c r="J335" s="24"/>
+      <c r="K335" s="24"/>
+      <c r="L335" s="24"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D336" s="25"/>
-      <c r="E336" s="25"/>
-      <c r="F336" s="25"/>
-      <c r="G336" s="25"/>
-      <c r="H336" s="25"/>
-      <c r="I336" s="25"/>
-      <c r="J336" s="25"/>
-      <c r="K336" s="25"/>
-      <c r="L336" s="25"/>
+      <c r="D336" s="24"/>
+      <c r="E336" s="24"/>
+      <c r="F336" s="24"/>
+      <c r="G336" s="24"/>
+      <c r="H336" s="24"/>
+      <c r="I336" s="24"/>
+      <c r="J336" s="24"/>
+      <c r="K336" s="24"/>
+      <c r="L336" s="24"/>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D337" s="25"/>
-      <c r="E337" s="25"/>
-      <c r="F337" s="25"/>
-      <c r="G337" s="25"/>
-      <c r="H337" s="25"/>
-      <c r="I337" s="25"/>
-      <c r="J337" s="25"/>
-      <c r="K337" s="25"/>
-      <c r="L337" s="25"/>
+      <c r="D337" s="24"/>
+      <c r="E337" s="24"/>
+      <c r="F337" s="24"/>
+      <c r="G337" s="24"/>
+      <c r="H337" s="24"/>
+      <c r="I337" s="24"/>
+      <c r="J337" s="24"/>
+      <c r="K337" s="24"/>
+      <c r="L337" s="24"/>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D338" s="2"/>
@@ -18727,36 +18975,36 @@
       <c r="L465" s="2"/>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D466" s="25" t="s">
+      <c r="D466" s="24" t="s">
         <v>1003</v>
       </c>
-      <c r="E466" s="25"/>
-      <c r="F466" s="25"/>
-      <c r="G466" s="25"/>
-      <c r="H466" s="25"/>
-      <c r="I466" s="25"/>
+      <c r="E466" s="24"/>
+      <c r="F466" s="24"/>
+      <c r="G466" s="24"/>
+      <c r="H466" s="24"/>
+      <c r="I466" s="24"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
     <row r="467" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D467" s="25"/>
-      <c r="E467" s="25"/>
-      <c r="F467" s="25"/>
-      <c r="G467" s="25"/>
-      <c r="H467" s="25"/>
-      <c r="I467" s="25"/>
+      <c r="D467" s="24"/>
+      <c r="E467" s="24"/>
+      <c r="F467" s="24"/>
+      <c r="G467" s="24"/>
+      <c r="H467" s="24"/>
+      <c r="I467" s="24"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D468" s="25"/>
-      <c r="E468" s="25"/>
-      <c r="F468" s="25"/>
-      <c r="G468" s="25"/>
-      <c r="H468" s="25"/>
-      <c r="I468" s="25"/>
+      <c r="D468" s="24"/>
+      <c r="E468" s="24"/>
+      <c r="F468" s="24"/>
+      <c r="G468" s="24"/>
+      <c r="H468" s="24"/>
+      <c r="I468" s="24"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
@@ -19105,36 +19353,36 @@
       <c r="L484" s="2"/>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D485" s="25" t="s">
+      <c r="D485" s="24" t="s">
         <v>1004</v>
       </c>
-      <c r="E485" s="25"/>
-      <c r="F485" s="25"/>
-      <c r="G485" s="25"/>
-      <c r="H485" s="25"/>
-      <c r="I485" s="25"/>
+      <c r="E485" s="24"/>
+      <c r="F485" s="24"/>
+      <c r="G485" s="24"/>
+      <c r="H485" s="24"/>
+      <c r="I485" s="24"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
     <row r="486" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D486" s="25"/>
-      <c r="E486" s="25"/>
-      <c r="F486" s="25"/>
-      <c r="G486" s="25"/>
-      <c r="H486" s="25"/>
-      <c r="I486" s="25"/>
+      <c r="D486" s="24"/>
+      <c r="E486" s="24"/>
+      <c r="F486" s="24"/>
+      <c r="G486" s="24"/>
+      <c r="H486" s="24"/>
+      <c r="I486" s="24"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D487" s="25"/>
-      <c r="E487" s="25"/>
-      <c r="F487" s="25"/>
-      <c r="G487" s="25"/>
-      <c r="H487" s="25"/>
-      <c r="I487" s="25"/>
+      <c r="D487" s="24"/>
+      <c r="E487" s="24"/>
+      <c r="F487" s="24"/>
+      <c r="G487" s="24"/>
+      <c r="H487" s="24"/>
+      <c r="I487" s="24"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
@@ -19429,36 +19677,36 @@
       <c r="L501" s="2"/>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D502" s="25" t="s">
+      <c r="D502" s="24" t="s">
         <v>1005</v>
       </c>
-      <c r="E502" s="25"/>
-      <c r="F502" s="25"/>
-      <c r="G502" s="25"/>
-      <c r="H502" s="25"/>
-      <c r="I502" s="25"/>
+      <c r="E502" s="24"/>
+      <c r="F502" s="24"/>
+      <c r="G502" s="24"/>
+      <c r="H502" s="24"/>
+      <c r="I502" s="24"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D503" s="25"/>
-      <c r="E503" s="25"/>
-      <c r="F503" s="25"/>
-      <c r="G503" s="25"/>
-      <c r="H503" s="25"/>
-      <c r="I503" s="25"/>
+      <c r="D503" s="24"/>
+      <c r="E503" s="24"/>
+      <c r="F503" s="24"/>
+      <c r="G503" s="24"/>
+      <c r="H503" s="24"/>
+      <c r="I503" s="24"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D504" s="25"/>
-      <c r="E504" s="25"/>
-      <c r="F504" s="25"/>
-      <c r="G504" s="25"/>
-      <c r="H504" s="25"/>
-      <c r="I504" s="25"/>
+      <c r="D504" s="24"/>
+      <c r="E504" s="24"/>
+      <c r="F504" s="24"/>
+      <c r="G504" s="24"/>
+      <c r="H504" s="24"/>
+      <c r="I504" s="24"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
@@ -19929,39 +20177,39 @@
       <c r="B524" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D524" s="25" t="s">
+      <c r="D524" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="E524" s="25"/>
-      <c r="F524" s="25"/>
-      <c r="G524" s="25"/>
-      <c r="H524" s="25"/>
-      <c r="I524" s="25"/>
-      <c r="J524" s="25"/>
-      <c r="K524" s="25"/>
-      <c r="L524" s="25"/>
+      <c r="E524" s="24"/>
+      <c r="F524" s="24"/>
+      <c r="G524" s="24"/>
+      <c r="H524" s="24"/>
+      <c r="I524" s="24"/>
+      <c r="J524" s="24"/>
+      <c r="K524" s="24"/>
+      <c r="L524" s="24"/>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D525" s="25"/>
-      <c r="E525" s="25"/>
-      <c r="F525" s="25"/>
-      <c r="G525" s="25"/>
-      <c r="H525" s="25"/>
-      <c r="I525" s="25"/>
-      <c r="J525" s="25"/>
-      <c r="K525" s="25"/>
-      <c r="L525" s="25"/>
+      <c r="D525" s="24"/>
+      <c r="E525" s="24"/>
+      <c r="F525" s="24"/>
+      <c r="G525" s="24"/>
+      <c r="H525" s="24"/>
+      <c r="I525" s="24"/>
+      <c r="J525" s="24"/>
+      <c r="K525" s="24"/>
+      <c r="L525" s="24"/>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D526" s="25"/>
-      <c r="E526" s="25"/>
-      <c r="F526" s="25"/>
-      <c r="G526" s="25"/>
-      <c r="H526" s="25"/>
-      <c r="I526" s="25"/>
-      <c r="J526" s="25"/>
-      <c r="K526" s="25"/>
-      <c r="L526" s="25"/>
+      <c r="D526" s="24"/>
+      <c r="E526" s="24"/>
+      <c r="F526" s="24"/>
+      <c r="G526" s="24"/>
+      <c r="H526" s="24"/>
+      <c r="I526" s="24"/>
+      <c r="J526" s="24"/>
+      <c r="K526" s="24"/>
+      <c r="L526" s="24"/>
     </row>
     <row r="527" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D527" s="2"/>
@@ -20998,36 +21246,36 @@
       <c r="L565" s="2"/>
     </row>
     <row r="566" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D566" s="25" t="s">
+      <c r="D566" s="24" t="s">
         <v>1007</v>
       </c>
-      <c r="E566" s="25"/>
-      <c r="F566" s="25"/>
-      <c r="G566" s="25"/>
-      <c r="H566" s="25"/>
-      <c r="I566" s="25"/>
+      <c r="E566" s="24"/>
+      <c r="F566" s="24"/>
+      <c r="G566" s="24"/>
+      <c r="H566" s="24"/>
+      <c r="I566" s="24"/>
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D567" s="25"/>
-      <c r="E567" s="25"/>
-      <c r="F567" s="25"/>
-      <c r="G567" s="25"/>
-      <c r="H567" s="25"/>
-      <c r="I567" s="25"/>
+      <c r="D567" s="24"/>
+      <c r="E567" s="24"/>
+      <c r="F567" s="24"/>
+      <c r="G567" s="24"/>
+      <c r="H567" s="24"/>
+      <c r="I567" s="24"/>
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D568" s="25"/>
-      <c r="E568" s="25"/>
-      <c r="F568" s="25"/>
-      <c r="G568" s="25"/>
-      <c r="H568" s="25"/>
-      <c r="I568" s="25"/>
+      <c r="D568" s="24"/>
+      <c r="E568" s="24"/>
+      <c r="F568" s="24"/>
+      <c r="G568" s="24"/>
+      <c r="H568" s="24"/>
+      <c r="I568" s="24"/>
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
@@ -21970,36 +22218,36 @@
       <c r="L606" s="2"/>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D607" s="25" t="s">
+      <c r="D607" s="24" t="s">
         <v>1008</v>
       </c>
-      <c r="E607" s="25"/>
-      <c r="F607" s="25"/>
-      <c r="G607" s="25"/>
-      <c r="H607" s="25"/>
-      <c r="I607" s="25"/>
+      <c r="E607" s="24"/>
+      <c r="F607" s="24"/>
+      <c r="G607" s="24"/>
+      <c r="H607" s="24"/>
+      <c r="I607" s="24"/>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D608" s="25"/>
-      <c r="E608" s="25"/>
-      <c r="F608" s="25"/>
-      <c r="G608" s="25"/>
-      <c r="H608" s="25"/>
-      <c r="I608" s="25"/>
+      <c r="D608" s="24"/>
+      <c r="E608" s="24"/>
+      <c r="F608" s="24"/>
+      <c r="G608" s="24"/>
+      <c r="H608" s="24"/>
+      <c r="I608" s="24"/>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
       <c r="L608" s="2"/>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D609" s="25"/>
-      <c r="E609" s="25"/>
-      <c r="F609" s="25"/>
-      <c r="G609" s="25"/>
-      <c r="H609" s="25"/>
-      <c r="I609" s="25"/>
+      <c r="D609" s="24"/>
+      <c r="E609" s="24"/>
+      <c r="F609" s="24"/>
+      <c r="G609" s="24"/>
+      <c r="H609" s="24"/>
+      <c r="I609" s="24"/>
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
       <c r="L609" s="2"/>
@@ -22122,36 +22370,36 @@
       <c r="L616" s="2"/>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D617" s="25" t="s">
+      <c r="D617" s="24" t="s">
         <v>1009</v>
       </c>
-      <c r="E617" s="25"/>
-      <c r="F617" s="25"/>
-      <c r="G617" s="25"/>
-      <c r="H617" s="25"/>
-      <c r="I617" s="25"/>
+      <c r="E617" s="24"/>
+      <c r="F617" s="24"/>
+      <c r="G617" s="24"/>
+      <c r="H617" s="24"/>
+      <c r="I617" s="24"/>
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
       <c r="L617" s="2"/>
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D618" s="25"/>
-      <c r="E618" s="25"/>
-      <c r="F618" s="25"/>
-      <c r="G618" s="25"/>
-      <c r="H618" s="25"/>
-      <c r="I618" s="25"/>
+      <c r="D618" s="24"/>
+      <c r="E618" s="24"/>
+      <c r="F618" s="24"/>
+      <c r="G618" s="24"/>
+      <c r="H618" s="24"/>
+      <c r="I618" s="24"/>
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D619" s="25"/>
-      <c r="E619" s="25"/>
-      <c r="F619" s="25"/>
-      <c r="G619" s="25"/>
-      <c r="H619" s="25"/>
-      <c r="I619" s="25"/>
+      <c r="D619" s="24"/>
+      <c r="E619" s="24"/>
+      <c r="F619" s="24"/>
+      <c r="G619" s="24"/>
+      <c r="H619" s="24"/>
+      <c r="I619" s="24"/>
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
       <c r="L619" s="2"/>
@@ -22435,36 +22683,36 @@
       <c r="L632" s="2"/>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D633" s="25" t="s">
+      <c r="D633" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="E633" s="25"/>
-      <c r="F633" s="25"/>
-      <c r="G633" s="25"/>
-      <c r="H633" s="25"/>
-      <c r="I633" s="25"/>
+      <c r="E633" s="24"/>
+      <c r="F633" s="24"/>
+      <c r="G633" s="24"/>
+      <c r="H633" s="24"/>
+      <c r="I633" s="24"/>
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D634" s="25"/>
-      <c r="E634" s="25"/>
-      <c r="F634" s="25"/>
-      <c r="G634" s="25"/>
-      <c r="H634" s="25"/>
-      <c r="I634" s="25"/>
+      <c r="D634" s="24"/>
+      <c r="E634" s="24"/>
+      <c r="F634" s="24"/>
+      <c r="G634" s="24"/>
+      <c r="H634" s="24"/>
+      <c r="I634" s="24"/>
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
       <c r="L634" s="2"/>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D635" s="25"/>
-      <c r="E635" s="25"/>
-      <c r="F635" s="25"/>
-      <c r="G635" s="25"/>
-      <c r="H635" s="25"/>
-      <c r="I635" s="25"/>
+      <c r="D635" s="24"/>
+      <c r="E635" s="24"/>
+      <c r="F635" s="24"/>
+      <c r="G635" s="24"/>
+      <c r="H635" s="24"/>
+      <c r="I635" s="24"/>
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
       <c r="L635" s="2"/>
@@ -22816,36 +23064,36 @@
       <c r="L651" s="2"/>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D652" s="25" t="s">
+      <c r="D652" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="E652" s="25"/>
-      <c r="F652" s="25"/>
-      <c r="G652" s="25"/>
-      <c r="H652" s="25"/>
-      <c r="I652" s="25"/>
+      <c r="E652" s="24"/>
+      <c r="F652" s="24"/>
+      <c r="G652" s="24"/>
+      <c r="H652" s="24"/>
+      <c r="I652" s="24"/>
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
       <c r="L652" s="2"/>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D653" s="25"/>
-      <c r="E653" s="25"/>
-      <c r="F653" s="25"/>
-      <c r="G653" s="25"/>
-      <c r="H653" s="25"/>
-      <c r="I653" s="25"/>
+      <c r="D653" s="24"/>
+      <c r="E653" s="24"/>
+      <c r="F653" s="24"/>
+      <c r="G653" s="24"/>
+      <c r="H653" s="24"/>
+      <c r="I653" s="24"/>
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
       <c r="L653" s="2"/>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D654" s="25"/>
-      <c r="E654" s="25"/>
-      <c r="F654" s="25"/>
-      <c r="G654" s="25"/>
-      <c r="H654" s="25"/>
-      <c r="I654" s="25"/>
+      <c r="D654" s="24"/>
+      <c r="E654" s="24"/>
+      <c r="F654" s="24"/>
+      <c r="G654" s="24"/>
+      <c r="H654" s="24"/>
+      <c r="I654" s="24"/>
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
       <c r="L654" s="2"/>
@@ -23137,36 +23385,36 @@
       <c r="L668" s="2"/>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D669" s="25" t="s">
+      <c r="D669" s="24" t="s">
         <v>1012</v>
       </c>
-      <c r="E669" s="25"/>
-      <c r="F669" s="25"/>
-      <c r="G669" s="25"/>
-      <c r="H669" s="25"/>
-      <c r="I669" s="25"/>
+      <c r="E669" s="24"/>
+      <c r="F669" s="24"/>
+      <c r="G669" s="24"/>
+      <c r="H669" s="24"/>
+      <c r="I669" s="24"/>
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
       <c r="L669" s="2"/>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D670" s="25"/>
-      <c r="E670" s="25"/>
-      <c r="F670" s="25"/>
-      <c r="G670" s="25"/>
-      <c r="H670" s="25"/>
-      <c r="I670" s="25"/>
+      <c r="D670" s="24"/>
+      <c r="E670" s="24"/>
+      <c r="F670" s="24"/>
+      <c r="G670" s="24"/>
+      <c r="H670" s="24"/>
+      <c r="I670" s="24"/>
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
       <c r="L670" s="2"/>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D671" s="25"/>
-      <c r="E671" s="25"/>
-      <c r="F671" s="25"/>
-      <c r="G671" s="25"/>
-      <c r="H671" s="25"/>
-      <c r="I671" s="25"/>
+      <c r="D671" s="24"/>
+      <c r="E671" s="24"/>
+      <c r="F671" s="24"/>
+      <c r="G671" s="24"/>
+      <c r="H671" s="24"/>
+      <c r="I671" s="24"/>
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
       <c r="L671" s="2"/>
@@ -23731,36 +23979,36 @@
       <c r="L696" s="2"/>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D697" s="25" t="s">
+      <c r="D697" s="24" t="s">
         <v>1013</v>
       </c>
-      <c r="E697" s="25"/>
-      <c r="F697" s="25"/>
-      <c r="G697" s="25"/>
-      <c r="H697" s="25"/>
-      <c r="I697" s="25"/>
+      <c r="E697" s="24"/>
+      <c r="F697" s="24"/>
+      <c r="G697" s="24"/>
+      <c r="H697" s="24"/>
+      <c r="I697" s="24"/>
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
       <c r="L697" s="2"/>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D698" s="25"/>
-      <c r="E698" s="25"/>
-      <c r="F698" s="25"/>
-      <c r="G698" s="25"/>
-      <c r="H698" s="25"/>
-      <c r="I698" s="25"/>
+      <c r="D698" s="24"/>
+      <c r="E698" s="24"/>
+      <c r="F698" s="24"/>
+      <c r="G698" s="24"/>
+      <c r="H698" s="24"/>
+      <c r="I698" s="24"/>
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
       <c r="L698" s="2"/>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D699" s="25"/>
-      <c r="E699" s="25"/>
-      <c r="F699" s="25"/>
-      <c r="G699" s="25"/>
-      <c r="H699" s="25"/>
-      <c r="I699" s="25"/>
+      <c r="D699" s="24"/>
+      <c r="E699" s="24"/>
+      <c r="F699" s="24"/>
+      <c r="G699" s="24"/>
+      <c r="H699" s="24"/>
+      <c r="I699" s="24"/>
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
       <c r="L699" s="2"/>
@@ -27629,36 +27877,36 @@
       <c r="L839" s="2"/>
     </row>
     <row r="840" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D840" s="25" t="s">
+      <c r="D840" s="24" t="s">
         <v>1014</v>
       </c>
-      <c r="E840" s="25"/>
-      <c r="F840" s="25"/>
-      <c r="G840" s="25"/>
-      <c r="H840" s="25"/>
-      <c r="I840" s="25"/>
+      <c r="E840" s="24"/>
+      <c r="F840" s="24"/>
+      <c r="G840" s="24"/>
+      <c r="H840" s="24"/>
+      <c r="I840" s="24"/>
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
       <c r="L840" s="2"/>
     </row>
     <row r="841" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D841" s="25"/>
-      <c r="E841" s="25"/>
-      <c r="F841" s="25"/>
-      <c r="G841" s="25"/>
-      <c r="H841" s="25"/>
-      <c r="I841" s="25"/>
+      <c r="D841" s="24"/>
+      <c r="E841" s="24"/>
+      <c r="F841" s="24"/>
+      <c r="G841" s="24"/>
+      <c r="H841" s="24"/>
+      <c r="I841" s="24"/>
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
       <c r="L841" s="2"/>
     </row>
     <row r="842" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D842" s="25"/>
-      <c r="E842" s="25"/>
-      <c r="F842" s="25"/>
-      <c r="G842" s="25"/>
-      <c r="H842" s="25"/>
-      <c r="I842" s="25"/>
+      <c r="D842" s="24"/>
+      <c r="E842" s="24"/>
+      <c r="F842" s="24"/>
+      <c r="G842" s="24"/>
+      <c r="H842" s="24"/>
+      <c r="I842" s="24"/>
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
       <c r="L842" s="2"/>
@@ -29262,39 +29510,39 @@
       <c r="B903" s="6" t="s">
         <v>2029</v>
       </c>
-      <c r="D903" s="25" t="s">
+      <c r="D903" s="24" t="s">
         <v>2030</v>
       </c>
-      <c r="E903" s="25"/>
-      <c r="F903" s="25"/>
-      <c r="G903" s="25"/>
-      <c r="H903" s="25"/>
-      <c r="I903" s="25"/>
-      <c r="J903" s="25"/>
-      <c r="K903" s="25"/>
-      <c r="L903" s="25"/>
+      <c r="E903" s="24"/>
+      <c r="F903" s="24"/>
+      <c r="G903" s="24"/>
+      <c r="H903" s="24"/>
+      <c r="I903" s="24"/>
+      <c r="J903" s="24"/>
+      <c r="K903" s="24"/>
+      <c r="L903" s="24"/>
     </row>
     <row r="904" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D904" s="25"/>
-      <c r="E904" s="25"/>
-      <c r="F904" s="25"/>
-      <c r="G904" s="25"/>
-      <c r="H904" s="25"/>
-      <c r="I904" s="25"/>
-      <c r="J904" s="25"/>
-      <c r="K904" s="25"/>
-      <c r="L904" s="25"/>
+      <c r="D904" s="24"/>
+      <c r="E904" s="24"/>
+      <c r="F904" s="24"/>
+      <c r="G904" s="24"/>
+      <c r="H904" s="24"/>
+      <c r="I904" s="24"/>
+      <c r="J904" s="24"/>
+      <c r="K904" s="24"/>
+      <c r="L904" s="24"/>
     </row>
     <row r="905" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D905" s="25"/>
-      <c r="E905" s="25"/>
-      <c r="F905" s="25"/>
-      <c r="G905" s="25"/>
-      <c r="H905" s="25"/>
-      <c r="I905" s="25"/>
-      <c r="J905" s="25"/>
-      <c r="K905" s="25"/>
-      <c r="L905" s="25"/>
+      <c r="D905" s="24"/>
+      <c r="E905" s="24"/>
+      <c r="F905" s="24"/>
+      <c r="G905" s="24"/>
+      <c r="H905" s="24"/>
+      <c r="I905" s="24"/>
+      <c r="J905" s="24"/>
+      <c r="K905" s="24"/>
+      <c r="L905" s="24"/>
     </row>
     <row r="906" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D906" s="2"/>
@@ -29611,39 +29859,39 @@
       <c r="B920" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D920" s="25" t="s">
+      <c r="D920" s="24" t="s">
         <v>1015</v>
       </c>
-      <c r="E920" s="25"/>
-      <c r="F920" s="25"/>
-      <c r="G920" s="25"/>
-      <c r="H920" s="25"/>
-      <c r="I920" s="25"/>
-      <c r="J920" s="25"/>
-      <c r="K920" s="25"/>
-      <c r="L920" s="25"/>
+      <c r="E920" s="24"/>
+      <c r="F920" s="24"/>
+      <c r="G920" s="24"/>
+      <c r="H920" s="24"/>
+      <c r="I920" s="24"/>
+      <c r="J920" s="24"/>
+      <c r="K920" s="24"/>
+      <c r="L920" s="24"/>
     </row>
     <row r="921" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D921" s="25"/>
-      <c r="E921" s="25"/>
-      <c r="F921" s="25"/>
-      <c r="G921" s="25"/>
-      <c r="H921" s="25"/>
-      <c r="I921" s="25"/>
-      <c r="J921" s="25"/>
-      <c r="K921" s="25"/>
-      <c r="L921" s="25"/>
+      <c r="D921" s="24"/>
+      <c r="E921" s="24"/>
+      <c r="F921" s="24"/>
+      <c r="G921" s="24"/>
+      <c r="H921" s="24"/>
+      <c r="I921" s="24"/>
+      <c r="J921" s="24"/>
+      <c r="K921" s="24"/>
+      <c r="L921" s="24"/>
     </row>
     <row r="922" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D922" s="25"/>
-      <c r="E922" s="25"/>
-      <c r="F922" s="25"/>
-      <c r="G922" s="25"/>
-      <c r="H922" s="25"/>
-      <c r="I922" s="25"/>
-      <c r="J922" s="25"/>
-      <c r="K922" s="25"/>
-      <c r="L922" s="25"/>
+      <c r="D922" s="24"/>
+      <c r="E922" s="24"/>
+      <c r="F922" s="24"/>
+      <c r="G922" s="24"/>
+      <c r="H922" s="24"/>
+      <c r="I922" s="24"/>
+      <c r="J922" s="24"/>
+      <c r="K922" s="24"/>
+      <c r="L922" s="24"/>
     </row>
     <row r="923" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D923" s="2"/>
@@ -29960,39 +30208,39 @@
       <c r="B937" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D937" s="25" t="s">
+      <c r="D937" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="E937" s="25"/>
-      <c r="F937" s="25"/>
-      <c r="G937" s="25"/>
-      <c r="H937" s="25"/>
-      <c r="I937" s="25"/>
-      <c r="J937" s="25"/>
-      <c r="K937" s="25"/>
-      <c r="L937" s="25"/>
+      <c r="E937" s="24"/>
+      <c r="F937" s="24"/>
+      <c r="G937" s="24"/>
+      <c r="H937" s="24"/>
+      <c r="I937" s="24"/>
+      <c r="J937" s="24"/>
+      <c r="K937" s="24"/>
+      <c r="L937" s="24"/>
     </row>
     <row r="938" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D938" s="25"/>
-      <c r="E938" s="25"/>
-      <c r="F938" s="25"/>
-      <c r="G938" s="25"/>
-      <c r="H938" s="25"/>
-      <c r="I938" s="25"/>
-      <c r="J938" s="25"/>
-      <c r="K938" s="25"/>
-      <c r="L938" s="25"/>
+      <c r="D938" s="24"/>
+      <c r="E938" s="24"/>
+      <c r="F938" s="24"/>
+      <c r="G938" s="24"/>
+      <c r="H938" s="24"/>
+      <c r="I938" s="24"/>
+      <c r="J938" s="24"/>
+      <c r="K938" s="24"/>
+      <c r="L938" s="24"/>
     </row>
     <row r="939" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D939" s="25"/>
-      <c r="E939" s="25"/>
-      <c r="F939" s="25"/>
-      <c r="G939" s="25"/>
-      <c r="H939" s="25"/>
-      <c r="I939" s="25"/>
-      <c r="J939" s="25"/>
-      <c r="K939" s="25"/>
-      <c r="L939" s="25"/>
+      <c r="D939" s="24"/>
+      <c r="E939" s="24"/>
+      <c r="F939" s="24"/>
+      <c r="G939" s="24"/>
+      <c r="H939" s="24"/>
+      <c r="I939" s="24"/>
+      <c r="J939" s="24"/>
+      <c r="K939" s="24"/>
+      <c r="L939" s="24"/>
     </row>
     <row r="940" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D940" s="2"/>
@@ -30606,36 +30854,36 @@
       <c r="B966" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D966" s="25" t="s">
+      <c r="D966" s="24" t="s">
         <v>1017</v>
       </c>
-      <c r="E966" s="25"/>
-      <c r="F966" s="25"/>
-      <c r="G966" s="25"/>
-      <c r="H966" s="25"/>
-      <c r="I966" s="25"/>
+      <c r="E966" s="24"/>
+      <c r="F966" s="24"/>
+      <c r="G966" s="24"/>
+      <c r="H966" s="24"/>
+      <c r="I966" s="24"/>
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
       <c r="L966" s="2"/>
     </row>
     <row r="967" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D967" s="25"/>
-      <c r="E967" s="25"/>
-      <c r="F967" s="25"/>
-      <c r="G967" s="25"/>
-      <c r="H967" s="25"/>
-      <c r="I967" s="25"/>
+      <c r="D967" s="24"/>
+      <c r="E967" s="24"/>
+      <c r="F967" s="24"/>
+      <c r="G967" s="24"/>
+      <c r="H967" s="24"/>
+      <c r="I967" s="24"/>
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
       <c r="L967" s="2"/>
     </row>
     <row r="968" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D968" s="25"/>
-      <c r="E968" s="25"/>
-      <c r="F968" s="25"/>
-      <c r="G968" s="25"/>
-      <c r="H968" s="25"/>
-      <c r="I968" s="25"/>
+      <c r="D968" s="24"/>
+      <c r="E968" s="24"/>
+      <c r="F968" s="24"/>
+      <c r="G968" s="24"/>
+      <c r="H968" s="24"/>
+      <c r="I968" s="24"/>
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
       <c r="L968" s="2"/>
@@ -31049,36 +31297,36 @@
       <c r="L986" s="2"/>
     </row>
     <row r="987" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D987" s="25" t="s">
+      <c r="D987" s="24" t="s">
         <v>1018</v>
       </c>
-      <c r="E987" s="25"/>
-      <c r="F987" s="25"/>
-      <c r="G987" s="25"/>
-      <c r="H987" s="25"/>
-      <c r="I987" s="25"/>
+      <c r="E987" s="24"/>
+      <c r="F987" s="24"/>
+      <c r="G987" s="24"/>
+      <c r="H987" s="24"/>
+      <c r="I987" s="24"/>
       <c r="J987" s="2"/>
       <c r="K987" s="2"/>
       <c r="L987" s="2"/>
     </row>
     <row r="988" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D988" s="25"/>
-      <c r="E988" s="25"/>
-      <c r="F988" s="25"/>
-      <c r="G988" s="25"/>
-      <c r="H988" s="25"/>
-      <c r="I988" s="25"/>
+      <c r="D988" s="24"/>
+      <c r="E988" s="24"/>
+      <c r="F988" s="24"/>
+      <c r="G988" s="24"/>
+      <c r="H988" s="24"/>
+      <c r="I988" s="24"/>
       <c r="J988" s="2"/>
       <c r="K988" s="2"/>
       <c r="L988" s="2"/>
     </row>
     <row r="989" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D989" s="25"/>
-      <c r="E989" s="25"/>
-      <c r="F989" s="25"/>
-      <c r="G989" s="25"/>
-      <c r="H989" s="25"/>
-      <c r="I989" s="25"/>
+      <c r="D989" s="24"/>
+      <c r="E989" s="24"/>
+      <c r="F989" s="24"/>
+      <c r="G989" s="24"/>
+      <c r="H989" s="24"/>
+      <c r="I989" s="24"/>
       <c r="J989" s="2"/>
       <c r="K989" s="2"/>
       <c r="L989" s="2"/>
@@ -31434,36 +31682,36 @@
       <c r="L1006" s="2"/>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1007" s="25" t="s">
+      <c r="D1007" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="E1007" s="25"/>
-      <c r="F1007" s="25"/>
-      <c r="G1007" s="25"/>
-      <c r="H1007" s="25"/>
-      <c r="I1007" s="25"/>
+      <c r="E1007" s="24"/>
+      <c r="F1007" s="24"/>
+      <c r="G1007" s="24"/>
+      <c r="H1007" s="24"/>
+      <c r="I1007" s="24"/>
       <c r="J1007" s="2"/>
       <c r="K1007" s="2"/>
       <c r="L1007" s="2"/>
     </row>
     <row r="1008" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1008" s="25"/>
-      <c r="E1008" s="25"/>
-      <c r="F1008" s="25"/>
-      <c r="G1008" s="25"/>
-      <c r="H1008" s="25"/>
-      <c r="I1008" s="25"/>
+      <c r="D1008" s="24"/>
+      <c r="E1008" s="24"/>
+      <c r="F1008" s="24"/>
+      <c r="G1008" s="24"/>
+      <c r="H1008" s="24"/>
+      <c r="I1008" s="24"/>
       <c r="J1008" s="2"/>
       <c r="K1008" s="2"/>
       <c r="L1008" s="2"/>
     </row>
     <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1009" s="25"/>
-      <c r="E1009" s="25"/>
-      <c r="F1009" s="25"/>
-      <c r="G1009" s="25"/>
-      <c r="H1009" s="25"/>
-      <c r="I1009" s="25"/>
+      <c r="D1009" s="24"/>
+      <c r="E1009" s="24"/>
+      <c r="F1009" s="24"/>
+      <c r="G1009" s="24"/>
+      <c r="H1009" s="24"/>
+      <c r="I1009" s="24"/>
       <c r="J1009" s="2"/>
       <c r="K1009" s="2"/>
       <c r="L1009" s="2"/>
@@ -31755,36 +32003,36 @@
       <c r="L1023" s="2"/>
     </row>
     <row r="1024" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1024" s="25" t="s">
+      <c r="D1024" s="24" t="s">
         <v>1020</v>
       </c>
-      <c r="E1024" s="25"/>
-      <c r="F1024" s="25"/>
-      <c r="G1024" s="25"/>
-      <c r="H1024" s="25"/>
-      <c r="I1024" s="25"/>
+      <c r="E1024" s="24"/>
+      <c r="F1024" s="24"/>
+      <c r="G1024" s="24"/>
+      <c r="H1024" s="24"/>
+      <c r="I1024" s="24"/>
       <c r="J1024" s="2"/>
       <c r="K1024" s="2"/>
       <c r="L1024" s="2"/>
     </row>
     <row r="1025" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1025" s="25"/>
-      <c r="E1025" s="25"/>
-      <c r="F1025" s="25"/>
-      <c r="G1025" s="25"/>
-      <c r="H1025" s="25"/>
-      <c r="I1025" s="25"/>
+      <c r="D1025" s="24"/>
+      <c r="E1025" s="24"/>
+      <c r="F1025" s="24"/>
+      <c r="G1025" s="24"/>
+      <c r="H1025" s="24"/>
+      <c r="I1025" s="24"/>
       <c r="J1025" s="2"/>
       <c r="K1025" s="2"/>
       <c r="L1025" s="2"/>
     </row>
     <row r="1026" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1026" s="25"/>
-      <c r="E1026" s="25"/>
-      <c r="F1026" s="25"/>
-      <c r="G1026" s="25"/>
-      <c r="H1026" s="25"/>
-      <c r="I1026" s="25"/>
+      <c r="D1026" s="24"/>
+      <c r="E1026" s="24"/>
+      <c r="F1026" s="24"/>
+      <c r="G1026" s="24"/>
+      <c r="H1026" s="24"/>
+      <c r="I1026" s="24"/>
       <c r="J1026" s="2"/>
       <c r="K1026" s="2"/>
       <c r="L1026" s="2"/>
@@ -32766,39 +33014,39 @@
       <c r="B1067" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1067" s="25" t="s">
+      <c r="D1067" s="24" t="s">
         <v>1021</v>
       </c>
-      <c r="E1067" s="25"/>
-      <c r="F1067" s="25"/>
-      <c r="G1067" s="25"/>
-      <c r="H1067" s="25"/>
-      <c r="I1067" s="25"/>
-      <c r="J1067" s="25"/>
-      <c r="K1067" s="25"/>
-      <c r="L1067" s="25"/>
+      <c r="E1067" s="24"/>
+      <c r="F1067" s="24"/>
+      <c r="G1067" s="24"/>
+      <c r="H1067" s="24"/>
+      <c r="I1067" s="24"/>
+      <c r="J1067" s="24"/>
+      <c r="K1067" s="24"/>
+      <c r="L1067" s="24"/>
     </row>
     <row r="1068" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1068" s="25"/>
-      <c r="E1068" s="25"/>
-      <c r="F1068" s="25"/>
-      <c r="G1068" s="25"/>
-      <c r="H1068" s="25"/>
-      <c r="I1068" s="25"/>
-      <c r="J1068" s="25"/>
-      <c r="K1068" s="25"/>
-      <c r="L1068" s="25"/>
+      <c r="D1068" s="24"/>
+      <c r="E1068" s="24"/>
+      <c r="F1068" s="24"/>
+      <c r="G1068" s="24"/>
+      <c r="H1068" s="24"/>
+      <c r="I1068" s="24"/>
+      <c r="J1068" s="24"/>
+      <c r="K1068" s="24"/>
+      <c r="L1068" s="24"/>
     </row>
     <row r="1069" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1069" s="25"/>
-      <c r="E1069" s="25"/>
-      <c r="F1069" s="25"/>
-      <c r="G1069" s="25"/>
-      <c r="H1069" s="25"/>
-      <c r="I1069" s="25"/>
-      <c r="J1069" s="25"/>
-      <c r="K1069" s="25"/>
-      <c r="L1069" s="25"/>
+      <c r="D1069" s="24"/>
+      <c r="E1069" s="24"/>
+      <c r="F1069" s="24"/>
+      <c r="G1069" s="24"/>
+      <c r="H1069" s="24"/>
+      <c r="I1069" s="24"/>
+      <c r="J1069" s="24"/>
+      <c r="K1069" s="24"/>
+      <c r="L1069" s="24"/>
     </row>
     <row r="1070" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1070" s="2"/>
@@ -33117,39 +33365,39 @@
       <c r="B1084" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1084" s="25" t="s">
+      <c r="D1084" s="24" t="s">
         <v>1022</v>
       </c>
-      <c r="E1084" s="25"/>
-      <c r="F1084" s="25"/>
-      <c r="G1084" s="25"/>
-      <c r="H1084" s="25"/>
-      <c r="I1084" s="25"/>
-      <c r="J1084" s="25"/>
-      <c r="K1084" s="25"/>
-      <c r="L1084" s="25"/>
+      <c r="E1084" s="24"/>
+      <c r="F1084" s="24"/>
+      <c r="G1084" s="24"/>
+      <c r="H1084" s="24"/>
+      <c r="I1084" s="24"/>
+      <c r="J1084" s="24"/>
+      <c r="K1084" s="24"/>
+      <c r="L1084" s="24"/>
     </row>
     <row r="1085" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1085" s="25"/>
-      <c r="E1085" s="25"/>
-      <c r="F1085" s="25"/>
-      <c r="G1085" s="25"/>
-      <c r="H1085" s="25"/>
-      <c r="I1085" s="25"/>
-      <c r="J1085" s="25"/>
-      <c r="K1085" s="25"/>
-      <c r="L1085" s="25"/>
+      <c r="D1085" s="24"/>
+      <c r="E1085" s="24"/>
+      <c r="F1085" s="24"/>
+      <c r="G1085" s="24"/>
+      <c r="H1085" s="24"/>
+      <c r="I1085" s="24"/>
+      <c r="J1085" s="24"/>
+      <c r="K1085" s="24"/>
+      <c r="L1085" s="24"/>
     </row>
     <row r="1086" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1086" s="25"/>
-      <c r="E1086" s="25"/>
-      <c r="F1086" s="25"/>
-      <c r="G1086" s="25"/>
-      <c r="H1086" s="25"/>
-      <c r="I1086" s="25"/>
-      <c r="J1086" s="25"/>
-      <c r="K1086" s="25"/>
-      <c r="L1086" s="25"/>
+      <c r="D1086" s="24"/>
+      <c r="E1086" s="24"/>
+      <c r="F1086" s="24"/>
+      <c r="G1086" s="24"/>
+      <c r="H1086" s="24"/>
+      <c r="I1086" s="24"/>
+      <c r="J1086" s="24"/>
+      <c r="K1086" s="24"/>
+      <c r="L1086" s="24"/>
     </row>
     <row r="1087" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1087" s="2"/>
@@ -34517,36 +34765,36 @@
       <c r="L1136" s="2"/>
     </row>
     <row r="1137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1137" s="25" t="s">
+      <c r="D1137" s="24" t="s">
         <v>1023</v>
       </c>
-      <c r="E1137" s="25"/>
-      <c r="F1137" s="25"/>
-      <c r="G1137" s="25"/>
-      <c r="H1137" s="25"/>
-      <c r="I1137" s="25"/>
+      <c r="E1137" s="24"/>
+      <c r="F1137" s="24"/>
+      <c r="G1137" s="24"/>
+      <c r="H1137" s="24"/>
+      <c r="I1137" s="24"/>
       <c r="J1137" s="2"/>
       <c r="K1137" s="2"/>
       <c r="L1137" s="2"/>
     </row>
     <row r="1138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1138" s="25"/>
-      <c r="E1138" s="25"/>
-      <c r="F1138" s="25"/>
-      <c r="G1138" s="25"/>
-      <c r="H1138" s="25"/>
-      <c r="I1138" s="25"/>
+      <c r="D1138" s="24"/>
+      <c r="E1138" s="24"/>
+      <c r="F1138" s="24"/>
+      <c r="G1138" s="24"/>
+      <c r="H1138" s="24"/>
+      <c r="I1138" s="24"/>
       <c r="J1138" s="2"/>
       <c r="K1138" s="2"/>
       <c r="L1138" s="2"/>
     </row>
     <row r="1139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1139" s="25"/>
-      <c r="E1139" s="25"/>
-      <c r="F1139" s="25"/>
-      <c r="G1139" s="25"/>
-      <c r="H1139" s="25"/>
-      <c r="I1139" s="25"/>
+      <c r="D1139" s="24"/>
+      <c r="E1139" s="24"/>
+      <c r="F1139" s="24"/>
+      <c r="G1139" s="24"/>
+      <c r="H1139" s="24"/>
+      <c r="I1139" s="24"/>
       <c r="J1139" s="2"/>
       <c r="K1139" s="2"/>
       <c r="L1139" s="2"/>
@@ -36210,39 +36458,39 @@
       <c r="B1199" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1199" s="25" t="s">
+      <c r="D1199" s="24" t="s">
         <v>1024</v>
       </c>
-      <c r="E1199" s="25"/>
-      <c r="F1199" s="25"/>
-      <c r="G1199" s="25"/>
-      <c r="H1199" s="25"/>
-      <c r="I1199" s="25"/>
-      <c r="J1199" s="25"/>
-      <c r="K1199" s="25"/>
-      <c r="L1199" s="25"/>
+      <c r="E1199" s="24"/>
+      <c r="F1199" s="24"/>
+      <c r="G1199" s="24"/>
+      <c r="H1199" s="24"/>
+      <c r="I1199" s="24"/>
+      <c r="J1199" s="24"/>
+      <c r="K1199" s="24"/>
+      <c r="L1199" s="24"/>
     </row>
     <row r="1200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1200" s="25"/>
-      <c r="E1200" s="25"/>
-      <c r="F1200" s="25"/>
-      <c r="G1200" s="25"/>
-      <c r="H1200" s="25"/>
-      <c r="I1200" s="25"/>
-      <c r="J1200" s="25"/>
-      <c r="K1200" s="25"/>
-      <c r="L1200" s="25"/>
+      <c r="D1200" s="24"/>
+      <c r="E1200" s="24"/>
+      <c r="F1200" s="24"/>
+      <c r="G1200" s="24"/>
+      <c r="H1200" s="24"/>
+      <c r="I1200" s="24"/>
+      <c r="J1200" s="24"/>
+      <c r="K1200" s="24"/>
+      <c r="L1200" s="24"/>
     </row>
     <row r="1201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1201" s="25"/>
-      <c r="E1201" s="25"/>
-      <c r="F1201" s="25"/>
-      <c r="G1201" s="25"/>
-      <c r="H1201" s="25"/>
-      <c r="I1201" s="25"/>
-      <c r="J1201" s="25"/>
-      <c r="K1201" s="25"/>
-      <c r="L1201" s="25"/>
+      <c r="D1201" s="24"/>
+      <c r="E1201" s="24"/>
+      <c r="F1201" s="24"/>
+      <c r="G1201" s="24"/>
+      <c r="H1201" s="24"/>
+      <c r="I1201" s="24"/>
+      <c r="J1201" s="24"/>
+      <c r="K1201" s="24"/>
+      <c r="L1201" s="24"/>
     </row>
     <row r="1202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1202" s="2"/>
@@ -37571,39 +37819,39 @@
       <c r="B1251" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D1251" s="25" t="s">
+      <c r="D1251" s="24" t="s">
         <v>1025</v>
       </c>
-      <c r="E1251" s="25"/>
-      <c r="F1251" s="25"/>
-      <c r="G1251" s="25"/>
-      <c r="H1251" s="25"/>
-      <c r="I1251" s="25"/>
-      <c r="J1251" s="25"/>
-      <c r="K1251" s="25"/>
-      <c r="L1251" s="25"/>
+      <c r="E1251" s="24"/>
+      <c r="F1251" s="24"/>
+      <c r="G1251" s="24"/>
+      <c r="H1251" s="24"/>
+      <c r="I1251" s="24"/>
+      <c r="J1251" s="24"/>
+      <c r="K1251" s="24"/>
+      <c r="L1251" s="24"/>
     </row>
     <row r="1252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1252" s="25"/>
-      <c r="E1252" s="25"/>
-      <c r="F1252" s="25"/>
-      <c r="G1252" s="25"/>
-      <c r="H1252" s="25"/>
-      <c r="I1252" s="25"/>
-      <c r="J1252" s="25"/>
-      <c r="K1252" s="25"/>
-      <c r="L1252" s="25"/>
+      <c r="D1252" s="24"/>
+      <c r="E1252" s="24"/>
+      <c r="F1252" s="24"/>
+      <c r="G1252" s="24"/>
+      <c r="H1252" s="24"/>
+      <c r="I1252" s="24"/>
+      <c r="J1252" s="24"/>
+      <c r="K1252" s="24"/>
+      <c r="L1252" s="24"/>
     </row>
     <row r="1253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1253" s="25"/>
-      <c r="E1253" s="25"/>
-      <c r="F1253" s="25"/>
-      <c r="G1253" s="25"/>
-      <c r="H1253" s="25"/>
-      <c r="I1253" s="25"/>
-      <c r="J1253" s="25"/>
-      <c r="K1253" s="25"/>
-      <c r="L1253" s="25"/>
+      <c r="D1253" s="24"/>
+      <c r="E1253" s="24"/>
+      <c r="F1253" s="24"/>
+      <c r="G1253" s="24"/>
+      <c r="H1253" s="24"/>
+      <c r="I1253" s="24"/>
+      <c r="J1253" s="24"/>
+      <c r="K1253" s="24"/>
+      <c r="L1253" s="24"/>
     </row>
     <row r="1254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1254" s="2"/>
@@ -37892,39 +38140,39 @@
       <c r="B1267" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1267" s="24" t="s">
+      <c r="D1267" s="25" t="s">
         <v>1286</v>
       </c>
-      <c r="E1267" s="25"/>
-      <c r="F1267" s="25"/>
-      <c r="G1267" s="25"/>
-      <c r="H1267" s="25"/>
-      <c r="I1267" s="25"/>
-      <c r="J1267" s="25"/>
-      <c r="K1267" s="25"/>
-      <c r="L1267" s="25"/>
+      <c r="E1267" s="24"/>
+      <c r="F1267" s="24"/>
+      <c r="G1267" s="24"/>
+      <c r="H1267" s="24"/>
+      <c r="I1267" s="24"/>
+      <c r="J1267" s="24"/>
+      <c r="K1267" s="24"/>
+      <c r="L1267" s="24"/>
     </row>
     <row r="1268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1268" s="25"/>
-      <c r="E1268" s="25"/>
-      <c r="F1268" s="25"/>
-      <c r="G1268" s="25"/>
-      <c r="H1268" s="25"/>
-      <c r="I1268" s="25"/>
-      <c r="J1268" s="25"/>
-      <c r="K1268" s="25"/>
-      <c r="L1268" s="25"/>
+      <c r="D1268" s="24"/>
+      <c r="E1268" s="24"/>
+      <c r="F1268" s="24"/>
+      <c r="G1268" s="24"/>
+      <c r="H1268" s="24"/>
+      <c r="I1268" s="24"/>
+      <c r="J1268" s="24"/>
+      <c r="K1268" s="24"/>
+      <c r="L1268" s="24"/>
     </row>
     <row r="1269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1269" s="25"/>
-      <c r="E1269" s="25"/>
-      <c r="F1269" s="25"/>
-      <c r="G1269" s="25"/>
-      <c r="H1269" s="25"/>
-      <c r="I1269" s="25"/>
-      <c r="J1269" s="25"/>
-      <c r="K1269" s="25"/>
-      <c r="L1269" s="25"/>
+      <c r="D1269" s="24"/>
+      <c r="E1269" s="24"/>
+      <c r="F1269" s="24"/>
+      <c r="G1269" s="24"/>
+      <c r="H1269" s="24"/>
+      <c r="I1269" s="24"/>
+      <c r="J1269" s="24"/>
+      <c r="K1269" s="24"/>
+      <c r="L1269" s="24"/>
     </row>
     <row r="1270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1270" s="2"/>
@@ -38187,39 +38435,39 @@
       <c r="B1282" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1282" s="25" t="s">
+      <c r="D1282" s="24" t="s">
         <v>1287</v>
       </c>
-      <c r="E1282" s="25"/>
-      <c r="F1282" s="25"/>
-      <c r="G1282" s="25"/>
-      <c r="H1282" s="25"/>
-      <c r="I1282" s="25"/>
-      <c r="J1282" s="25"/>
-      <c r="K1282" s="25"/>
-      <c r="L1282" s="25"/>
+      <c r="E1282" s="24"/>
+      <c r="F1282" s="24"/>
+      <c r="G1282" s="24"/>
+      <c r="H1282" s="24"/>
+      <c r="I1282" s="24"/>
+      <c r="J1282" s="24"/>
+      <c r="K1282" s="24"/>
+      <c r="L1282" s="24"/>
     </row>
     <row r="1283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1283" s="25"/>
-      <c r="E1283" s="25"/>
-      <c r="F1283" s="25"/>
-      <c r="G1283" s="25"/>
-      <c r="H1283" s="25"/>
-      <c r="I1283" s="25"/>
-      <c r="J1283" s="25"/>
-      <c r="K1283" s="25"/>
-      <c r="L1283" s="25"/>
+      <c r="D1283" s="24"/>
+      <c r="E1283" s="24"/>
+      <c r="F1283" s="24"/>
+      <c r="G1283" s="24"/>
+      <c r="H1283" s="24"/>
+      <c r="I1283" s="24"/>
+      <c r="J1283" s="24"/>
+      <c r="K1283" s="24"/>
+      <c r="L1283" s="24"/>
     </row>
     <row r="1284" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1284" s="25"/>
-      <c r="E1284" s="25"/>
-      <c r="F1284" s="25"/>
-      <c r="G1284" s="25"/>
-      <c r="H1284" s="25"/>
-      <c r="I1284" s="25"/>
-      <c r="J1284" s="25"/>
-      <c r="K1284" s="25"/>
-      <c r="L1284" s="25"/>
+      <c r="D1284" s="24"/>
+      <c r="E1284" s="24"/>
+      <c r="F1284" s="24"/>
+      <c r="G1284" s="24"/>
+      <c r="H1284" s="24"/>
+      <c r="I1284" s="24"/>
+      <c r="J1284" s="24"/>
+      <c r="K1284" s="24"/>
+      <c r="L1284" s="24"/>
     </row>
     <row r="1285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1285" s="2"/>
@@ -38749,39 +38997,39 @@
       <c r="B1307" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1307" s="25" t="s">
+      <c r="D1307" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="E1307" s="25"/>
-      <c r="F1307" s="25"/>
-      <c r="G1307" s="25"/>
-      <c r="H1307" s="25"/>
-      <c r="I1307" s="25"/>
-      <c r="J1307" s="25"/>
-      <c r="K1307" s="25"/>
-      <c r="L1307" s="25"/>
+      <c r="E1307" s="24"/>
+      <c r="F1307" s="24"/>
+      <c r="G1307" s="24"/>
+      <c r="H1307" s="24"/>
+      <c r="I1307" s="24"/>
+      <c r="J1307" s="24"/>
+      <c r="K1307" s="24"/>
+      <c r="L1307" s="24"/>
     </row>
     <row r="1308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1308" s="25"/>
-      <c r="E1308" s="25"/>
-      <c r="F1308" s="25"/>
-      <c r="G1308" s="25"/>
-      <c r="H1308" s="25"/>
-      <c r="I1308" s="25"/>
-      <c r="J1308" s="25"/>
-      <c r="K1308" s="25"/>
-      <c r="L1308" s="25"/>
+      <c r="D1308" s="24"/>
+      <c r="E1308" s="24"/>
+      <c r="F1308" s="24"/>
+      <c r="G1308" s="24"/>
+      <c r="H1308" s="24"/>
+      <c r="I1308" s="24"/>
+      <c r="J1308" s="24"/>
+      <c r="K1308" s="24"/>
+      <c r="L1308" s="24"/>
     </row>
     <row r="1309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1309" s="25"/>
-      <c r="E1309" s="25"/>
-      <c r="F1309" s="25"/>
-      <c r="G1309" s="25"/>
-      <c r="H1309" s="25"/>
-      <c r="I1309" s="25"/>
-      <c r="J1309" s="25"/>
-      <c r="K1309" s="25"/>
-      <c r="L1309" s="25"/>
+      <c r="D1309" s="24"/>
+      <c r="E1309" s="24"/>
+      <c r="F1309" s="24"/>
+      <c r="G1309" s="24"/>
+      <c r="H1309" s="24"/>
+      <c r="I1309" s="24"/>
+      <c r="J1309" s="24"/>
+      <c r="K1309" s="24"/>
+      <c r="L1309" s="24"/>
     </row>
     <row r="1310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1310" s="2"/>
@@ -39097,39 +39345,39 @@
       <c r="B1324" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1324" s="25" t="s">
+      <c r="D1324" s="24" t="s">
         <v>1288</v>
       </c>
-      <c r="E1324" s="25"/>
-      <c r="F1324" s="25"/>
-      <c r="G1324" s="25"/>
-      <c r="H1324" s="25"/>
-      <c r="I1324" s="25"/>
-      <c r="J1324" s="25"/>
-      <c r="K1324" s="25"/>
-      <c r="L1324" s="25"/>
+      <c r="E1324" s="24"/>
+      <c r="F1324" s="24"/>
+      <c r="G1324" s="24"/>
+      <c r="H1324" s="24"/>
+      <c r="I1324" s="24"/>
+      <c r="J1324" s="24"/>
+      <c r="K1324" s="24"/>
+      <c r="L1324" s="24"/>
     </row>
     <row r="1325" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1325" s="25"/>
-      <c r="E1325" s="25"/>
-      <c r="F1325" s="25"/>
-      <c r="G1325" s="25"/>
-      <c r="H1325" s="25"/>
-      <c r="I1325" s="25"/>
-      <c r="J1325" s="25"/>
-      <c r="K1325" s="25"/>
-      <c r="L1325" s="25"/>
+      <c r="D1325" s="24"/>
+      <c r="E1325" s="24"/>
+      <c r="F1325" s="24"/>
+      <c r="G1325" s="24"/>
+      <c r="H1325" s="24"/>
+      <c r="I1325" s="24"/>
+      <c r="J1325" s="24"/>
+      <c r="K1325" s="24"/>
+      <c r="L1325" s="24"/>
     </row>
     <row r="1326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1326" s="25"/>
-      <c r="E1326" s="25"/>
-      <c r="F1326" s="25"/>
-      <c r="G1326" s="25"/>
-      <c r="H1326" s="25"/>
-      <c r="I1326" s="25"/>
-      <c r="J1326" s="25"/>
-      <c r="K1326" s="25"/>
-      <c r="L1326" s="25"/>
+      <c r="D1326" s="24"/>
+      <c r="E1326" s="24"/>
+      <c r="F1326" s="24"/>
+      <c r="G1326" s="24"/>
+      <c r="H1326" s="24"/>
+      <c r="I1326" s="24"/>
+      <c r="J1326" s="24"/>
+      <c r="K1326" s="24"/>
+      <c r="L1326" s="24"/>
     </row>
     <row r="1327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1327" s="2"/>
@@ -39445,39 +39693,39 @@
       <c r="B1341" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1341" s="25" t="s">
+      <c r="D1341" s="24" t="s">
         <v>1290</v>
       </c>
-      <c r="E1341" s="25"/>
-      <c r="F1341" s="25"/>
-      <c r="G1341" s="25"/>
-      <c r="H1341" s="25"/>
-      <c r="I1341" s="25"/>
-      <c r="J1341" s="25"/>
-      <c r="K1341" s="25"/>
-      <c r="L1341" s="25"/>
+      <c r="E1341" s="24"/>
+      <c r="F1341" s="24"/>
+      <c r="G1341" s="24"/>
+      <c r="H1341" s="24"/>
+      <c r="I1341" s="24"/>
+      <c r="J1341" s="24"/>
+      <c r="K1341" s="24"/>
+      <c r="L1341" s="24"/>
     </row>
     <row r="1342" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1342" s="25"/>
-      <c r="E1342" s="25"/>
-      <c r="F1342" s="25"/>
-      <c r="G1342" s="25"/>
-      <c r="H1342" s="25"/>
-      <c r="I1342" s="25"/>
-      <c r="J1342" s="25"/>
-      <c r="K1342" s="25"/>
-      <c r="L1342" s="25"/>
+      <c r="D1342" s="24"/>
+      <c r="E1342" s="24"/>
+      <c r="F1342" s="24"/>
+      <c r="G1342" s="24"/>
+      <c r="H1342" s="24"/>
+      <c r="I1342" s="24"/>
+      <c r="J1342" s="24"/>
+      <c r="K1342" s="24"/>
+      <c r="L1342" s="24"/>
     </row>
     <row r="1343" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1343" s="25"/>
-      <c r="E1343" s="25"/>
-      <c r="F1343" s="25"/>
-      <c r="G1343" s="25"/>
-      <c r="H1343" s="25"/>
-      <c r="I1343" s="25"/>
-      <c r="J1343" s="25"/>
-      <c r="K1343" s="25"/>
-      <c r="L1343" s="25"/>
+      <c r="D1343" s="24"/>
+      <c r="E1343" s="24"/>
+      <c r="F1343" s="24"/>
+      <c r="G1343" s="24"/>
+      <c r="H1343" s="24"/>
+      <c r="I1343" s="24"/>
+      <c r="J1343" s="24"/>
+      <c r="K1343" s="24"/>
+      <c r="L1343" s="24"/>
     </row>
     <row r="1344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1344" s="2"/>
@@ -39870,39 +40118,39 @@
       <c r="B1361" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1361" s="25" t="s">
+      <c r="D1361" s="24" t="s">
         <v>1289</v>
       </c>
-      <c r="E1361" s="25"/>
-      <c r="F1361" s="25"/>
-      <c r="G1361" s="25"/>
-      <c r="H1361" s="25"/>
-      <c r="I1361" s="25"/>
-      <c r="J1361" s="25"/>
-      <c r="K1361" s="25"/>
-      <c r="L1361" s="25"/>
+      <c r="E1361" s="24"/>
+      <c r="F1361" s="24"/>
+      <c r="G1361" s="24"/>
+      <c r="H1361" s="24"/>
+      <c r="I1361" s="24"/>
+      <c r="J1361" s="24"/>
+      <c r="K1361" s="24"/>
+      <c r="L1361" s="24"/>
     </row>
     <row r="1362" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1362" s="25"/>
-      <c r="E1362" s="25"/>
-      <c r="F1362" s="25"/>
-      <c r="G1362" s="25"/>
-      <c r="H1362" s="25"/>
-      <c r="I1362" s="25"/>
-      <c r="J1362" s="25"/>
-      <c r="K1362" s="25"/>
-      <c r="L1362" s="25"/>
+      <c r="D1362" s="24"/>
+      <c r="E1362" s="24"/>
+      <c r="F1362" s="24"/>
+      <c r="G1362" s="24"/>
+      <c r="H1362" s="24"/>
+      <c r="I1362" s="24"/>
+      <c r="J1362" s="24"/>
+      <c r="K1362" s="24"/>
+      <c r="L1362" s="24"/>
     </row>
     <row r="1363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1363" s="25"/>
-      <c r="E1363" s="25"/>
-      <c r="F1363" s="25"/>
-      <c r="G1363" s="25"/>
-      <c r="H1363" s="25"/>
-      <c r="I1363" s="25"/>
-      <c r="J1363" s="25"/>
-      <c r="K1363" s="25"/>
-      <c r="L1363" s="25"/>
+      <c r="D1363" s="24"/>
+      <c r="E1363" s="24"/>
+      <c r="F1363" s="24"/>
+      <c r="G1363" s="24"/>
+      <c r="H1363" s="24"/>
+      <c r="I1363" s="24"/>
+      <c r="J1363" s="24"/>
+      <c r="K1363" s="24"/>
+      <c r="L1363" s="24"/>
     </row>
     <row r="1364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1364" s="2"/>
@@ -40165,39 +40413,39 @@
       <c r="B1376" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1376" s="25" t="s">
+      <c r="D1376" s="24" t="s">
         <v>1776</v>
       </c>
-      <c r="E1376" s="25"/>
-      <c r="F1376" s="25"/>
-      <c r="G1376" s="25"/>
-      <c r="H1376" s="25"/>
-      <c r="I1376" s="25"/>
-      <c r="J1376" s="25"/>
-      <c r="K1376" s="25"/>
-      <c r="L1376" s="25"/>
+      <c r="E1376" s="24"/>
+      <c r="F1376" s="24"/>
+      <c r="G1376" s="24"/>
+      <c r="H1376" s="24"/>
+      <c r="I1376" s="24"/>
+      <c r="J1376" s="24"/>
+      <c r="K1376" s="24"/>
+      <c r="L1376" s="24"/>
     </row>
     <row r="1377" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1377" s="25"/>
-      <c r="E1377" s="25"/>
-      <c r="F1377" s="25"/>
-      <c r="G1377" s="25"/>
-      <c r="H1377" s="25"/>
-      <c r="I1377" s="25"/>
-      <c r="J1377" s="25"/>
-      <c r="K1377" s="25"/>
-      <c r="L1377" s="25"/>
+      <c r="D1377" s="24"/>
+      <c r="E1377" s="24"/>
+      <c r="F1377" s="24"/>
+      <c r="G1377" s="24"/>
+      <c r="H1377" s="24"/>
+      <c r="I1377" s="24"/>
+      <c r="J1377" s="24"/>
+      <c r="K1377" s="24"/>
+      <c r="L1377" s="24"/>
     </row>
     <row r="1378" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1378" s="25"/>
-      <c r="E1378" s="25"/>
-      <c r="F1378" s="25"/>
-      <c r="G1378" s="25"/>
-      <c r="H1378" s="25"/>
-      <c r="I1378" s="25"/>
-      <c r="J1378" s="25"/>
-      <c r="K1378" s="25"/>
-      <c r="L1378" s="25"/>
+      <c r="D1378" s="24"/>
+      <c r="E1378" s="24"/>
+      <c r="F1378" s="24"/>
+      <c r="G1378" s="24"/>
+      <c r="H1378" s="24"/>
+      <c r="I1378" s="24"/>
+      <c r="J1378" s="24"/>
+      <c r="K1378" s="24"/>
+      <c r="L1378" s="24"/>
     </row>
     <row r="1379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1379" s="2"/>
@@ -40723,39 +40971,39 @@
       <c r="B1401" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1401" s="25" t="s">
+      <c r="D1401" s="24" t="s">
         <v>1291</v>
       </c>
-      <c r="E1401" s="25"/>
-      <c r="F1401" s="25"/>
-      <c r="G1401" s="25"/>
-      <c r="H1401" s="25"/>
-      <c r="I1401" s="25"/>
-      <c r="J1401" s="25"/>
-      <c r="K1401" s="25"/>
-      <c r="L1401" s="25"/>
+      <c r="E1401" s="24"/>
+      <c r="F1401" s="24"/>
+      <c r="G1401" s="24"/>
+      <c r="H1401" s="24"/>
+      <c r="I1401" s="24"/>
+      <c r="J1401" s="24"/>
+      <c r="K1401" s="24"/>
+      <c r="L1401" s="24"/>
     </row>
     <row r="1402" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1402" s="25"/>
-      <c r="E1402" s="25"/>
-      <c r="F1402" s="25"/>
-      <c r="G1402" s="25"/>
-      <c r="H1402" s="25"/>
-      <c r="I1402" s="25"/>
-      <c r="J1402" s="25"/>
-      <c r="K1402" s="25"/>
-      <c r="L1402" s="25"/>
+      <c r="D1402" s="24"/>
+      <c r="E1402" s="24"/>
+      <c r="F1402" s="24"/>
+      <c r="G1402" s="24"/>
+      <c r="H1402" s="24"/>
+      <c r="I1402" s="24"/>
+      <c r="J1402" s="24"/>
+      <c r="K1402" s="24"/>
+      <c r="L1402" s="24"/>
     </row>
     <row r="1403" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1403" s="25"/>
-      <c r="E1403" s="25"/>
-      <c r="F1403" s="25"/>
-      <c r="G1403" s="25"/>
-      <c r="H1403" s="25"/>
-      <c r="I1403" s="25"/>
-      <c r="J1403" s="25"/>
-      <c r="K1403" s="25"/>
-      <c r="L1403" s="25"/>
+      <c r="D1403" s="24"/>
+      <c r="E1403" s="24"/>
+      <c r="F1403" s="24"/>
+      <c r="G1403" s="24"/>
+      <c r="H1403" s="24"/>
+      <c r="I1403" s="24"/>
+      <c r="J1403" s="24"/>
+      <c r="K1403" s="24"/>
+      <c r="L1403" s="24"/>
     </row>
     <row r="1404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1404" s="2"/>
@@ -41538,39 +41786,39 @@
       <c r="B1436" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="D1436" s="25" t="s">
+      <c r="D1436" s="24" t="s">
         <v>1292</v>
       </c>
-      <c r="E1436" s="25"/>
-      <c r="F1436" s="25"/>
-      <c r="G1436" s="25"/>
-      <c r="H1436" s="25"/>
-      <c r="I1436" s="25"/>
-      <c r="J1436" s="25"/>
-      <c r="K1436" s="25"/>
-      <c r="L1436" s="25"/>
+      <c r="E1436" s="24"/>
+      <c r="F1436" s="24"/>
+      <c r="G1436" s="24"/>
+      <c r="H1436" s="24"/>
+      <c r="I1436" s="24"/>
+      <c r="J1436" s="24"/>
+      <c r="K1436" s="24"/>
+      <c r="L1436" s="24"/>
     </row>
     <row r="1437" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1437" s="25"/>
-      <c r="E1437" s="25"/>
-      <c r="F1437" s="25"/>
-      <c r="G1437" s="25"/>
-      <c r="H1437" s="25"/>
-      <c r="I1437" s="25"/>
-      <c r="J1437" s="25"/>
-      <c r="K1437" s="25"/>
-      <c r="L1437" s="25"/>
+      <c r="D1437" s="24"/>
+      <c r="E1437" s="24"/>
+      <c r="F1437" s="24"/>
+      <c r="G1437" s="24"/>
+      <c r="H1437" s="24"/>
+      <c r="I1437" s="24"/>
+      <c r="J1437" s="24"/>
+      <c r="K1437" s="24"/>
+      <c r="L1437" s="24"/>
     </row>
     <row r="1438" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1438" s="25"/>
-      <c r="E1438" s="25"/>
-      <c r="F1438" s="25"/>
-      <c r="G1438" s="25"/>
-      <c r="H1438" s="25"/>
-      <c r="I1438" s="25"/>
-      <c r="J1438" s="25"/>
-      <c r="K1438" s="25"/>
-      <c r="L1438" s="25"/>
+      <c r="D1438" s="24"/>
+      <c r="E1438" s="24"/>
+      <c r="F1438" s="24"/>
+      <c r="G1438" s="24"/>
+      <c r="H1438" s="24"/>
+      <c r="I1438" s="24"/>
+      <c r="J1438" s="24"/>
+      <c r="K1438" s="24"/>
+      <c r="L1438" s="24"/>
     </row>
     <row r="1439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1439" s="2"/>
@@ -41697,39 +41945,39 @@
       <c r="B1446" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="D1446" s="25" t="s">
+      <c r="D1446" s="24" t="s">
         <v>1300</v>
       </c>
-      <c r="E1446" s="25"/>
-      <c r="F1446" s="25"/>
-      <c r="G1446" s="25"/>
-      <c r="H1446" s="25"/>
-      <c r="I1446" s="25"/>
-      <c r="J1446" s="25"/>
-      <c r="K1446" s="25"/>
-      <c r="L1446" s="25"/>
+      <c r="E1446" s="24"/>
+      <c r="F1446" s="24"/>
+      <c r="G1446" s="24"/>
+      <c r="H1446" s="24"/>
+      <c r="I1446" s="24"/>
+      <c r="J1446" s="24"/>
+      <c r="K1446" s="24"/>
+      <c r="L1446" s="24"/>
     </row>
     <row r="1447" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1447" s="25"/>
-      <c r="E1447" s="25"/>
-      <c r="F1447" s="25"/>
-      <c r="G1447" s="25"/>
-      <c r="H1447" s="25"/>
-      <c r="I1447" s="25"/>
-      <c r="J1447" s="25"/>
-      <c r="K1447" s="25"/>
-      <c r="L1447" s="25"/>
+      <c r="D1447" s="24"/>
+      <c r="E1447" s="24"/>
+      <c r="F1447" s="24"/>
+      <c r="G1447" s="24"/>
+      <c r="H1447" s="24"/>
+      <c r="I1447" s="24"/>
+      <c r="J1447" s="24"/>
+      <c r="K1447" s="24"/>
+      <c r="L1447" s="24"/>
     </row>
     <row r="1448" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1448" s="25"/>
-      <c r="E1448" s="25"/>
-      <c r="F1448" s="25"/>
-      <c r="G1448" s="25"/>
-      <c r="H1448" s="25"/>
-      <c r="I1448" s="25"/>
-      <c r="J1448" s="25"/>
-      <c r="K1448" s="25"/>
-      <c r="L1448" s="25"/>
+      <c r="D1448" s="24"/>
+      <c r="E1448" s="24"/>
+      <c r="F1448" s="24"/>
+      <c r="G1448" s="24"/>
+      <c r="H1448" s="24"/>
+      <c r="I1448" s="24"/>
+      <c r="J1448" s="24"/>
+      <c r="K1448" s="24"/>
+      <c r="L1448" s="24"/>
     </row>
     <row r="1449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1449" s="16"/>
@@ -42567,38 +42815,38 @@
     </row>
     <row r="1483" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1483" s="4"/>
-      <c r="D1483" s="24" t="s">
+      <c r="D1483" s="25" t="s">
         <v>1479</v>
       </c>
-      <c r="E1483" s="24"/>
-      <c r="F1483" s="24"/>
-      <c r="G1483" s="24"/>
-      <c r="H1483" s="24"/>
-      <c r="I1483" s="24"/>
+      <c r="E1483" s="25"/>
+      <c r="F1483" s="25"/>
+      <c r="G1483" s="25"/>
+      <c r="H1483" s="25"/>
+      <c r="I1483" s="25"/>
       <c r="J1483" s="17"/>
       <c r="K1483" s="17"/>
       <c r="L1483" s="17"/>
     </row>
     <row r="1484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1484" s="4"/>
-      <c r="D1484" s="24"/>
-      <c r="E1484" s="24"/>
-      <c r="F1484" s="24"/>
-      <c r="G1484" s="24"/>
-      <c r="H1484" s="24"/>
-      <c r="I1484" s="24"/>
+      <c r="D1484" s="25"/>
+      <c r="E1484" s="25"/>
+      <c r="F1484" s="25"/>
+      <c r="G1484" s="25"/>
+      <c r="H1484" s="25"/>
+      <c r="I1484" s="25"/>
       <c r="J1484" s="17"/>
       <c r="K1484" s="17"/>
       <c r="L1484" s="17"/>
     </row>
     <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1485" s="4"/>
-      <c r="D1485" s="24"/>
-      <c r="E1485" s="24"/>
-      <c r="F1485" s="24"/>
-      <c r="G1485" s="24"/>
-      <c r="H1485" s="24"/>
-      <c r="I1485" s="24"/>
+      <c r="D1485" s="25"/>
+      <c r="E1485" s="25"/>
+      <c r="F1485" s="25"/>
+      <c r="G1485" s="25"/>
+      <c r="H1485" s="25"/>
+      <c r="I1485" s="25"/>
       <c r="J1485" s="17"/>
       <c r="K1485" s="17"/>
       <c r="L1485" s="17"/>
@@ -42877,38 +43125,38 @@
     </row>
     <row r="1499" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1499" s="4"/>
-      <c r="D1499" s="25" t="s">
+      <c r="D1499" s="24" t="s">
         <v>1481</v>
       </c>
-      <c r="E1499" s="25"/>
-      <c r="F1499" s="25"/>
-      <c r="G1499" s="25"/>
-      <c r="H1499" s="25"/>
-      <c r="I1499" s="25"/>
+      <c r="E1499" s="24"/>
+      <c r="F1499" s="24"/>
+      <c r="G1499" s="24"/>
+      <c r="H1499" s="24"/>
+      <c r="I1499" s="24"/>
       <c r="J1499" s="17"/>
       <c r="K1499" s="17"/>
       <c r="L1499" s="17"/>
     </row>
     <row r="1500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1500" s="4"/>
-      <c r="D1500" s="25"/>
-      <c r="E1500" s="25"/>
-      <c r="F1500" s="25"/>
-      <c r="G1500" s="25"/>
-      <c r="H1500" s="25"/>
-      <c r="I1500" s="25"/>
+      <c r="D1500" s="24"/>
+      <c r="E1500" s="24"/>
+      <c r="F1500" s="24"/>
+      <c r="G1500" s="24"/>
+      <c r="H1500" s="24"/>
+      <c r="I1500" s="24"/>
       <c r="J1500" s="17"/>
       <c r="K1500" s="17"/>
       <c r="L1500" s="17"/>
     </row>
     <row r="1501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1501" s="4"/>
-      <c r="D1501" s="25"/>
-      <c r="E1501" s="25"/>
-      <c r="F1501" s="25"/>
-      <c r="G1501" s="25"/>
-      <c r="H1501" s="25"/>
-      <c r="I1501" s="25"/>
+      <c r="D1501" s="24"/>
+      <c r="E1501" s="24"/>
+      <c r="F1501" s="24"/>
+      <c r="G1501" s="24"/>
+      <c r="H1501" s="24"/>
+      <c r="I1501" s="24"/>
       <c r="J1501" s="17"/>
       <c r="K1501" s="17"/>
       <c r="L1501" s="17"/>
@@ -43806,36 +44054,36 @@
       </c>
     </row>
     <row r="1537" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1537" s="24" t="s">
+      <c r="D1537" s="25" t="s">
         <v>1480</v>
       </c>
-      <c r="E1537" s="25"/>
-      <c r="F1537" s="25"/>
-      <c r="G1537" s="25"/>
-      <c r="H1537" s="25"/>
-      <c r="I1537" s="25"/>
+      <c r="E1537" s="24"/>
+      <c r="F1537" s="24"/>
+      <c r="G1537" s="24"/>
+      <c r="H1537" s="24"/>
+      <c r="I1537" s="24"/>
       <c r="J1537" s="17"/>
       <c r="K1537" s="17"/>
       <c r="L1537" s="17"/>
     </row>
     <row r="1538" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1538" s="25"/>
-      <c r="E1538" s="25"/>
-      <c r="F1538" s="25"/>
-      <c r="G1538" s="25"/>
-      <c r="H1538" s="25"/>
-      <c r="I1538" s="25"/>
+      <c r="D1538" s="24"/>
+      <c r="E1538" s="24"/>
+      <c r="F1538" s="24"/>
+      <c r="G1538" s="24"/>
+      <c r="H1538" s="24"/>
+      <c r="I1538" s="24"/>
       <c r="J1538" s="17"/>
       <c r="K1538" s="17"/>
       <c r="L1538" s="17"/>
     </row>
     <row r="1539" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1539" s="25"/>
-      <c r="E1539" s="25"/>
-      <c r="F1539" s="25"/>
-      <c r="G1539" s="25"/>
-      <c r="H1539" s="25"/>
-      <c r="I1539" s="25"/>
+      <c r="D1539" s="24"/>
+      <c r="E1539" s="24"/>
+      <c r="F1539" s="24"/>
+      <c r="G1539" s="24"/>
+      <c r="H1539" s="24"/>
+      <c r="I1539" s="24"/>
       <c r="J1539" s="17"/>
       <c r="K1539" s="17"/>
       <c r="L1539" s="17"/>
@@ -44509,30 +44757,30 @@
       </c>
     </row>
     <row r="1567" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1567" s="24" t="s">
+      <c r="D1567" s="25" t="s">
         <v>1805</v>
       </c>
-      <c r="E1567" s="25"/>
-      <c r="F1567" s="25"/>
-      <c r="G1567" s="25"/>
-      <c r="H1567" s="25"/>
-      <c r="I1567" s="25"/>
+      <c r="E1567" s="24"/>
+      <c r="F1567" s="24"/>
+      <c r="G1567" s="24"/>
+      <c r="H1567" s="24"/>
+      <c r="I1567" s="24"/>
     </row>
     <row r="1568" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1568" s="25"/>
-      <c r="E1568" s="25"/>
-      <c r="F1568" s="25"/>
-      <c r="G1568" s="25"/>
-      <c r="H1568" s="25"/>
-      <c r="I1568" s="25"/>
+      <c r="D1568" s="24"/>
+      <c r="E1568" s="24"/>
+      <c r="F1568" s="24"/>
+      <c r="G1568" s="24"/>
+      <c r="H1568" s="24"/>
+      <c r="I1568" s="24"/>
     </row>
     <row r="1569" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1569" s="25"/>
-      <c r="E1569" s="25"/>
-      <c r="F1569" s="25"/>
-      <c r="G1569" s="25"/>
-      <c r="H1569" s="25"/>
-      <c r="I1569" s="25"/>
+      <c r="D1569" s="24"/>
+      <c r="E1569" s="24"/>
+      <c r="F1569" s="24"/>
+      <c r="G1569" s="24"/>
+      <c r="H1569" s="24"/>
+      <c r="I1569" s="24"/>
     </row>
     <row r="1572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1572" s="4">
@@ -44892,34 +45140,34 @@
     <row r="1586" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1586" s="4"/>
       <c r="B1586" s="6"/>
-      <c r="D1586" s="25" t="s">
+      <c r="D1586" s="24" t="s">
         <v>2022</v>
       </c>
-      <c r="E1586" s="25"/>
-      <c r="F1586" s="25"/>
-      <c r="G1586" s="25"/>
-      <c r="H1586" s="25"/>
-      <c r="I1586" s="25"/>
+      <c r="E1586" s="24"/>
+      <c r="F1586" s="24"/>
+      <c r="G1586" s="24"/>
+      <c r="H1586" s="24"/>
+      <c r="I1586" s="24"/>
     </row>
     <row r="1587" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1587" s="4"/>
       <c r="B1587" s="6"/>
-      <c r="D1587" s="25"/>
-      <c r="E1587" s="25"/>
-      <c r="F1587" s="25"/>
-      <c r="G1587" s="25"/>
-      <c r="H1587" s="25"/>
-      <c r="I1587" s="25"/>
+      <c r="D1587" s="24"/>
+      <c r="E1587" s="24"/>
+      <c r="F1587" s="24"/>
+      <c r="G1587" s="24"/>
+      <c r="H1587" s="24"/>
+      <c r="I1587" s="24"/>
     </row>
     <row r="1588" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1588" s="4"/>
       <c r="B1588" s="6"/>
-      <c r="D1588" s="25"/>
-      <c r="E1588" s="25"/>
-      <c r="F1588" s="25"/>
-      <c r="G1588" s="25"/>
-      <c r="H1588" s="25"/>
-      <c r="I1588" s="25"/>
+      <c r="D1588" s="24"/>
+      <c r="E1588" s="24"/>
+      <c r="F1588" s="24"/>
+      <c r="G1588" s="24"/>
+      <c r="H1588" s="24"/>
+      <c r="I1588" s="24"/>
     </row>
     <row r="1589" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1589" s="4"/>
@@ -45463,34 +45711,34 @@
     <row r="1611" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1611" s="4"/>
       <c r="B1611" s="6"/>
-      <c r="D1611" s="25" t="s">
+      <c r="D1611" s="24" t="s">
         <v>2021</v>
       </c>
-      <c r="E1611" s="25"/>
-      <c r="F1611" s="25"/>
-      <c r="G1611" s="25"/>
-      <c r="H1611" s="25"/>
-      <c r="I1611" s="25"/>
+      <c r="E1611" s="24"/>
+      <c r="F1611" s="24"/>
+      <c r="G1611" s="24"/>
+      <c r="H1611" s="24"/>
+      <c r="I1611" s="24"/>
     </row>
     <row r="1612" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1612" s="4"/>
       <c r="B1612" s="6"/>
-      <c r="D1612" s="25"/>
-      <c r="E1612" s="25"/>
-      <c r="F1612" s="25"/>
-      <c r="G1612" s="25"/>
-      <c r="H1612" s="25"/>
-      <c r="I1612" s="25"/>
+      <c r="D1612" s="24"/>
+      <c r="E1612" s="24"/>
+      <c r="F1612" s="24"/>
+      <c r="G1612" s="24"/>
+      <c r="H1612" s="24"/>
+      <c r="I1612" s="24"/>
     </row>
     <row r="1613" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1613" s="4"/>
       <c r="B1613" s="6"/>
-      <c r="D1613" s="25"/>
-      <c r="E1613" s="25"/>
-      <c r="F1613" s="25"/>
-      <c r="G1613" s="25"/>
-      <c r="H1613" s="25"/>
-      <c r="I1613" s="25"/>
+      <c r="D1613" s="24"/>
+      <c r="E1613" s="24"/>
+      <c r="F1613" s="24"/>
+      <c r="G1613" s="24"/>
+      <c r="H1613" s="24"/>
+      <c r="I1613" s="24"/>
     </row>
     <row r="1614" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1614" s="4"/>
@@ -45750,34 +45998,34 @@
     <row r="1626" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1626" s="4"/>
       <c r="B1626" s="6"/>
-      <c r="D1626" s="25" t="s">
+      <c r="D1626" s="24" t="s">
         <v>2019</v>
       </c>
-      <c r="E1626" s="25"/>
-      <c r="F1626" s="25"/>
-      <c r="G1626" s="25"/>
-      <c r="H1626" s="25"/>
-      <c r="I1626" s="25"/>
+      <c r="E1626" s="24"/>
+      <c r="F1626" s="24"/>
+      <c r="G1626" s="24"/>
+      <c r="H1626" s="24"/>
+      <c r="I1626" s="24"/>
     </row>
     <row r="1627" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1627" s="4"/>
       <c r="B1627" s="6"/>
-      <c r="D1627" s="25"/>
-      <c r="E1627" s="25"/>
-      <c r="F1627" s="25"/>
-      <c r="G1627" s="25"/>
-      <c r="H1627" s="25"/>
-      <c r="I1627" s="25"/>
+      <c r="D1627" s="24"/>
+      <c r="E1627" s="24"/>
+      <c r="F1627" s="24"/>
+      <c r="G1627" s="24"/>
+      <c r="H1627" s="24"/>
+      <c r="I1627" s="24"/>
     </row>
     <row r="1628" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1628" s="4"/>
       <c r="B1628" s="6"/>
-      <c r="D1628" s="25"/>
-      <c r="E1628" s="25"/>
-      <c r="F1628" s="25"/>
-      <c r="G1628" s="25"/>
-      <c r="H1628" s="25"/>
-      <c r="I1628" s="25"/>
+      <c r="D1628" s="24"/>
+      <c r="E1628" s="24"/>
+      <c r="F1628" s="24"/>
+      <c r="G1628" s="24"/>
+      <c r="H1628" s="24"/>
+      <c r="I1628" s="24"/>
     </row>
     <row r="1629" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1629" s="4"/>
@@ -46039,34 +46287,34 @@
     <row r="1641" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1641" s="4"/>
       <c r="B1641" s="6"/>
-      <c r="D1641" s="25" t="s">
+      <c r="D1641" s="24" t="s">
         <v>2018</v>
       </c>
-      <c r="E1641" s="25"/>
-      <c r="F1641" s="25"/>
-      <c r="G1641" s="25"/>
-      <c r="H1641" s="25"/>
-      <c r="I1641" s="25"/>
+      <c r="E1641" s="24"/>
+      <c r="F1641" s="24"/>
+      <c r="G1641" s="24"/>
+      <c r="H1641" s="24"/>
+      <c r="I1641" s="24"/>
     </row>
     <row r="1642" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1642" s="4"/>
       <c r="B1642" s="6"/>
-      <c r="D1642" s="25"/>
-      <c r="E1642" s="25"/>
-      <c r="F1642" s="25"/>
-      <c r="G1642" s="25"/>
-      <c r="H1642" s="25"/>
-      <c r="I1642" s="25"/>
+      <c r="D1642" s="24"/>
+      <c r="E1642" s="24"/>
+      <c r="F1642" s="24"/>
+      <c r="G1642" s="24"/>
+      <c r="H1642" s="24"/>
+      <c r="I1642" s="24"/>
     </row>
     <row r="1643" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1643" s="4"/>
       <c r="B1643" s="6"/>
-      <c r="D1643" s="25"/>
-      <c r="E1643" s="25"/>
-      <c r="F1643" s="25"/>
-      <c r="G1643" s="25"/>
-      <c r="H1643" s="25"/>
-      <c r="I1643" s="25"/>
+      <c r="D1643" s="24"/>
+      <c r="E1643" s="24"/>
+      <c r="F1643" s="24"/>
+      <c r="G1643" s="24"/>
+      <c r="H1643" s="24"/>
+      <c r="I1643" s="24"/>
     </row>
     <row r="1644" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1644" s="4"/>
@@ -46328,34 +46576,34 @@
     <row r="1656" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1656" s="4"/>
       <c r="B1656" s="6"/>
-      <c r="D1656" s="25" t="s">
+      <c r="D1656" s="24" t="s">
         <v>2020</v>
       </c>
-      <c r="E1656" s="25"/>
-      <c r="F1656" s="25"/>
-      <c r="G1656" s="25"/>
-      <c r="H1656" s="25"/>
-      <c r="I1656" s="25"/>
+      <c r="E1656" s="24"/>
+      <c r="F1656" s="24"/>
+      <c r="G1656" s="24"/>
+      <c r="H1656" s="24"/>
+      <c r="I1656" s="24"/>
     </row>
     <row r="1657" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1657" s="4"/>
       <c r="B1657" s="6"/>
-      <c r="D1657" s="25"/>
-      <c r="E1657" s="25"/>
-      <c r="F1657" s="25"/>
-      <c r="G1657" s="25"/>
-      <c r="H1657" s="25"/>
-      <c r="I1657" s="25"/>
+      <c r="D1657" s="24"/>
+      <c r="E1657" s="24"/>
+      <c r="F1657" s="24"/>
+      <c r="G1657" s="24"/>
+      <c r="H1657" s="24"/>
+      <c r="I1657" s="24"/>
     </row>
     <row r="1658" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1658" s="4"/>
       <c r="B1658" s="6"/>
-      <c r="D1658" s="25"/>
-      <c r="E1658" s="25"/>
-      <c r="F1658" s="25"/>
-      <c r="G1658" s="25"/>
-      <c r="H1658" s="25"/>
-      <c r="I1658" s="25"/>
+      <c r="D1658" s="24"/>
+      <c r="E1658" s="24"/>
+      <c r="F1658" s="24"/>
+      <c r="G1658" s="24"/>
+      <c r="H1658" s="24"/>
+      <c r="I1658" s="24"/>
     </row>
     <row r="1659" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1659" s="4"/>
@@ -46717,31 +46965,31 @@
       </c>
     </row>
     <row r="1675" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1675" s="25" t="s">
+      <c r="D1675" s="24" t="s">
         <v>2017</v>
       </c>
-      <c r="E1675" s="25"/>
-      <c r="F1675" s="25"/>
-      <c r="G1675" s="25"/>
-      <c r="H1675" s="25"/>
-      <c r="I1675" s="25"/>
+      <c r="E1675" s="24"/>
+      <c r="F1675" s="24"/>
+      <c r="G1675" s="24"/>
+      <c r="H1675" s="24"/>
+      <c r="I1675" s="24"/>
     </row>
     <row r="1676" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1676" s="25"/>
-      <c r="E1676" s="25"/>
-      <c r="F1676" s="25"/>
-      <c r="G1676" s="25"/>
-      <c r="H1676" s="25"/>
-      <c r="I1676" s="25"/>
+      <c r="D1676" s="24"/>
+      <c r="E1676" s="24"/>
+      <c r="F1676" s="24"/>
+      <c r="G1676" s="24"/>
+      <c r="H1676" s="24"/>
+      <c r="I1676" s="24"/>
     </row>
     <row r="1677" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1677" s="6"/>
-      <c r="D1677" s="25"/>
-      <c r="E1677" s="25"/>
-      <c r="F1677" s="25"/>
-      <c r="G1677" s="25"/>
-      <c r="H1677" s="25"/>
-      <c r="I1677" s="25"/>
+      <c r="D1677" s="24"/>
+      <c r="E1677" s="24"/>
+      <c r="F1677" s="24"/>
+      <c r="G1677" s="24"/>
+      <c r="H1677" s="24"/>
+      <c r="I1677" s="24"/>
     </row>
     <row r="1678" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1678" s="6"/>
@@ -47009,7 +47257,7 @@
         <v>10</v>
       </c>
       <c r="I1688" s="18" t="str">
-        <f>VLOOKUP(E1688,E10:L1684,5,FALSE)</f>
+        <f t="shared" ref="I1688:I1696" si="0">VLOOKUP(E1688,E10:L1684,5,FALSE)</f>
         <v>Institution surrogate identification</v>
       </c>
     </row>
@@ -47039,7 +47287,7 @@
         <v>10</v>
       </c>
       <c r="I1689" s="18" t="str">
-        <f>VLOOKUP(E1689,E11:L1685,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Academic Group surrogate identification</v>
       </c>
     </row>
@@ -47069,7 +47317,7 @@
         <v>38</v>
       </c>
       <c r="I1690" s="18" t="str">
-        <f>VLOOKUP(E1690,E12:L1686,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Section number (class number) of the class, provides a unique section numbering for a term</v>
       </c>
     </row>
@@ -47099,7 +47347,7 @@
         <v>10</v>
       </c>
       <c r="I1691" s="18" t="str">
-        <f>VLOOKUP(E1691,E13:L1687,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Academic Organization surrogate identification</v>
       </c>
     </row>
@@ -47129,7 +47377,7 @@
         <v>10</v>
       </c>
       <c r="I1692" s="18" t="str">
-        <f>VLOOKUP(E1692,E14:L1688,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Campus Surrogate identification</v>
       </c>
     </row>
@@ -47157,7 +47405,7 @@
       </c>
       <c r="H1693" s="18"/>
       <c r="I1693" s="18" t="str">
-        <f>VLOOKUP(E1693,E15:L1689,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>PeopleSoft Employee ID -  populated with UFID values</v>
       </c>
     </row>
@@ -47187,7 +47435,7 @@
         <v>10</v>
       </c>
       <c r="I1694" s="18" t="str">
-        <f>VLOOKUP(E1694,E16:L1690,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Person surrogate identification</v>
       </c>
     </row>
@@ -47217,7 +47465,7 @@
         <v>10</v>
       </c>
       <c r="I1695" s="18" t="str">
-        <f>VLOOKUP(E1695,E17:L1691,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Instructor Role Surrogate Identification</v>
       </c>
     </row>
@@ -47247,7 +47495,7 @@
         <v>10</v>
       </c>
       <c r="I1696" s="18" t="str">
-        <f>VLOOKUP(E1696,E18:L1692,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Section Delivery Method (technology indicator) Surrogate Identification</v>
       </c>
     </row>
@@ -47975,30 +48223,212 @@
       </c>
     </row>
     <row r="1724" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1724" s="24" t="s">
+      <c r="D1724" s="25" t="s">
         <v>2016</v>
       </c>
-      <c r="E1724" s="25"/>
-      <c r="F1724" s="25"/>
-      <c r="G1724" s="25"/>
-      <c r="H1724" s="25"/>
-      <c r="I1724" s="25"/>
+      <c r="E1724" s="24"/>
+      <c r="F1724" s="24"/>
+      <c r="G1724" s="24"/>
+      <c r="H1724" s="24"/>
+      <c r="I1724" s="24"/>
     </row>
     <row r="1725" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1725" s="25"/>
-      <c r="E1725" s="25"/>
-      <c r="F1725" s="25"/>
-      <c r="G1725" s="25"/>
-      <c r="H1725" s="25"/>
-      <c r="I1725" s="25"/>
+      <c r="D1725" s="24"/>
+      <c r="E1725" s="24"/>
+      <c r="F1725" s="24"/>
+      <c r="G1725" s="24"/>
+      <c r="H1725" s="24"/>
+      <c r="I1725" s="24"/>
     </row>
     <row r="1726" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1726" s="25"/>
-      <c r="E1726" s="25"/>
-      <c r="F1726" s="25"/>
-      <c r="G1726" s="25"/>
-      <c r="H1726" s="25"/>
-      <c r="I1726" s="25"/>
+      <c r="D1726" s="24"/>
+      <c r="E1726" s="24"/>
+      <c r="F1726" s="24"/>
+      <c r="G1726" s="24"/>
+      <c r="H1726" s="24"/>
+      <c r="I1726" s="24"/>
+    </row>
+    <row r="1730" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1730" s="4">
+        <v>43396</v>
+      </c>
+      <c r="B1730" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1730" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1730" s="18" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E1730" s="18" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F1730" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1730" s="18">
+        <v>22</v>
+      </c>
+      <c r="I1730" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1731" s="4">
+        <v>43396</v>
+      </c>
+      <c r="B1731" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1731" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1731" s="18" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E1731" s="18" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F1731" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1731" s="18">
+        <v>2</v>
+      </c>
+      <c r="I1731" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1732" s="4">
+        <v>43396</v>
+      </c>
+      <c r="B1732" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1732" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1732" s="18" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E1732" s="18" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F1732" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1732" s="18">
+        <v>250</v>
+      </c>
+      <c r="I1732" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1733" s="4">
+        <v>43396</v>
+      </c>
+      <c r="B1733" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1733" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1733" s="18" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E1733" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1733" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1733" s="18">
+        <v>5</v>
+      </c>
+      <c r="I1733" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1734" s="4">
+        <v>43396</v>
+      </c>
+      <c r="B1734" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1734" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1734" s="18" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E1734" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1734" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1734" s="18">
+        <v>19</v>
+      </c>
+      <c r="I1734" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1735" s="4">
+        <v>43396</v>
+      </c>
+      <c r="B1735" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1735" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1735" s="18" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E1735" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1735" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1735" s="18">
+        <v>19</v>
+      </c>
+      <c r="I1735" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1737" s="24" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1737" s="24"/>
+      <c r="F1737" s="24"/>
+      <c r="G1737" s="24"/>
+      <c r="H1737" s="24"/>
+      <c r="I1737" s="24"/>
+    </row>
+    <row r="1738" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1738" s="24"/>
+      <c r="E1738" s="24"/>
+      <c r="F1738" s="24"/>
+      <c r="G1738" s="24"/>
+      <c r="H1738" s="24"/>
+      <c r="I1738" s="24"/>
+    </row>
+    <row r="1739" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1739" s="24"/>
+      <c r="E1739" s="24"/>
+      <c r="F1739" s="24"/>
+      <c r="G1739" s="24"/>
+      <c r="H1739" s="24"/>
+      <c r="I1739" s="24"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -48009,19 +48439,28 @@
       <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="57">
-    <mergeCell ref="D1641:I1643"/>
-    <mergeCell ref="D1656:I1658"/>
-    <mergeCell ref="D1675:I1677"/>
-    <mergeCell ref="D1724:I1726"/>
-    <mergeCell ref="D1499:I1501"/>
-    <mergeCell ref="D617:I619"/>
-    <mergeCell ref="D1586:I1588"/>
-    <mergeCell ref="D1611:I1613"/>
-    <mergeCell ref="D1626:I1628"/>
-    <mergeCell ref="D697:I699"/>
-    <mergeCell ref="D1361:L1363"/>
-    <mergeCell ref="D1567:I1569"/>
+  <mergeCells count="58">
+    <mergeCell ref="D1483:I1485"/>
+    <mergeCell ref="D1324:L1326"/>
+    <mergeCell ref="D1341:L1343"/>
+    <mergeCell ref="D1436:L1438"/>
+    <mergeCell ref="D1737:I1739"/>
+    <mergeCell ref="D244:I246"/>
+    <mergeCell ref="D199:I201"/>
+    <mergeCell ref="D1267:L1269"/>
+    <mergeCell ref="D1376:L1378"/>
+    <mergeCell ref="D1401:L1403"/>
+    <mergeCell ref="D1307:L1309"/>
+    <mergeCell ref="D1251:L1253"/>
+    <mergeCell ref="D1137:I1139"/>
+    <mergeCell ref="D1282:L1284"/>
+    <mergeCell ref="D633:I635"/>
+    <mergeCell ref="D652:I654"/>
+    <mergeCell ref="D669:I671"/>
+    <mergeCell ref="D840:I842"/>
+    <mergeCell ref="D903:L905"/>
+    <mergeCell ref="D920:L922"/>
+    <mergeCell ref="D937:L939"/>
     <mergeCell ref="D17:L19"/>
     <mergeCell ref="D68:L70"/>
     <mergeCell ref="D113:L115"/>
@@ -48035,27 +48474,18 @@
     <mergeCell ref="D524:L526"/>
     <mergeCell ref="D363:I365"/>
     <mergeCell ref="D92:I94"/>
-    <mergeCell ref="D1446:L1448"/>
     <mergeCell ref="D143:I145"/>
     <mergeCell ref="D295:I297"/>
     <mergeCell ref="D318:I320"/>
-    <mergeCell ref="D244:I246"/>
-    <mergeCell ref="D199:I201"/>
-    <mergeCell ref="D1267:L1269"/>
-    <mergeCell ref="D1376:L1378"/>
-    <mergeCell ref="D1401:L1403"/>
-    <mergeCell ref="D1307:L1309"/>
-    <mergeCell ref="D1251:L1253"/>
-    <mergeCell ref="D1137:I1139"/>
-    <mergeCell ref="D1282:L1284"/>
-    <mergeCell ref="D633:I635"/>
-    <mergeCell ref="D652:I654"/>
-    <mergeCell ref="D669:I671"/>
+    <mergeCell ref="D617:I619"/>
+    <mergeCell ref="D1586:I1588"/>
+    <mergeCell ref="D1611:I1613"/>
+    <mergeCell ref="D1626:I1628"/>
+    <mergeCell ref="D697:I699"/>
+    <mergeCell ref="D1361:L1363"/>
+    <mergeCell ref="D1567:I1569"/>
+    <mergeCell ref="D1446:L1448"/>
     <mergeCell ref="D1537:I1539"/>
-    <mergeCell ref="D840:I842"/>
-    <mergeCell ref="D903:L905"/>
-    <mergeCell ref="D920:L922"/>
-    <mergeCell ref="D937:L939"/>
     <mergeCell ref="D1067:L1069"/>
     <mergeCell ref="D966:I968"/>
     <mergeCell ref="D987:I989"/>
@@ -48063,10 +48493,11 @@
     <mergeCell ref="D1024:I1026"/>
     <mergeCell ref="D1084:L1086"/>
     <mergeCell ref="D1199:L1201"/>
-    <mergeCell ref="D1483:I1485"/>
-    <mergeCell ref="D1324:L1326"/>
-    <mergeCell ref="D1341:L1343"/>
-    <mergeCell ref="D1436:L1438"/>
+    <mergeCell ref="D1641:I1643"/>
+    <mergeCell ref="D1656:I1658"/>
+    <mergeCell ref="D1675:I1677"/>
+    <mergeCell ref="D1724:I1726"/>
+    <mergeCell ref="D1499:I1501"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -48080,11 +48511,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48492,7 +48923,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43369</v>
       </c>
@@ -48518,7 +48949,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43369</v>
       </c>
@@ -48544,7 +48975,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43369</v>
       </c>
@@ -48570,7 +49001,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43369</v>
       </c>
@@ -48596,7 +49027,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43369</v>
       </c>
@@ -48622,7 +49053,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43369</v>
       </c>
@@ -48648,7 +49079,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43369</v>
       </c>
@@ -48674,7 +49105,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43369</v>
       </c>
@@ -48700,7 +49131,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43369</v>
       </c>
@@ -48726,56 +49157,165 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="18"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="18"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="18"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>1162</v>
@@ -48783,26 +49323,25 @@
       <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>1818</v>
+      <c r="D32" s="18" t="s">
+        <v>1807</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32">
-        <v>11</v>
+        <v>2072</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>1162</v>
@@ -48811,24 +49350,24 @@
         <v>6</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33">
+        <v>2073</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="18">
         <v>1</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="18" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>1162</v>
@@ -48837,24 +49376,24 @@
         <v>6</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34">
+        <v>2074</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="18">
         <v>1</v>
       </c>
-      <c r="I34" s="20" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="18" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>1162</v>
@@ -48863,27 +49402,24 @@
         <v>6</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>22</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2075</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>1162</v>
@@ -48892,28 +49428,24 @@
         <v>6</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36">
-        <v>22</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>942</v>
-      </c>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2076</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>1162</v>
@@ -48922,28 +49454,24 @@
         <v>6</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37">
-        <v>22</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>945</v>
-      </c>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2077</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>1162</v>
@@ -48952,28 +49480,24 @@
         <v>6</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38">
-        <v>22</v>
-      </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2078</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>1162</v>
@@ -48982,28 +49506,24 @@
         <v>6</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39">
-        <v>22</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
+        <v>2079</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>1898</v>
-      </c>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>1162</v>
@@ -49012,24 +49532,24 @@
         <v>6</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40">
+        <v>2080</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="18">
         <v>1</v>
       </c>
-      <c r="I40" s="20" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="18" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>1162</v>
@@ -49038,24 +49558,24 @@
         <v>6</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41">
+        <v>2081</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="18">
         <v>1</v>
       </c>
-      <c r="I41" s="20" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="18" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>1162</v>
@@ -49064,181 +49584,67 @@
         <v>6</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42">
+        <v>2082</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="18">
         <v>1</v>
       </c>
-      <c r="I42" s="20" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>43369</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>43369</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44">
-        <v>5</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="20"/>
+      <c r="I42" s="18" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>43369</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>1852</v>
-      </c>
-      <c r="J45" s="20"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>43369</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="J46" s="20"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>43369</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="J47" s="20"/>
+      <c r="C47" s="18"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43369</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>710</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="J48" s="20"/>
+      <c r="C48" s="18"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -49250,22 +49656,22 @@
       <c r="C49" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" t="s">
         <v>1818</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>1872</v>
-      </c>
-      <c r="J49" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -49281,21 +49687,17 @@
         <v>1818</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G50">
-        <v>22</v>
-      </c>
-      <c r="H50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>926</v>
-      </c>
-      <c r="J50" s="20"/>
+        <v>1832</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -49311,18 +49713,17 @@
         <v>1818</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
       </c>
       <c r="G51">
-        <v>6</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>1853</v>
-      </c>
-      <c r="J51" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>1833</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -49338,18 +49739,20 @@
         <v>1818</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G52">
-        <v>6</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>1854</v>
-      </c>
-      <c r="J52" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -49365,16 +49768,19 @@
         <v>1818</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>93</v>
+        <v>1487</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G53">
-        <v>10</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>252</v>
+        <v>22</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>942</v>
       </c>
       <c r="J53" s="20"/>
     </row>
@@ -49392,16 +49798,19 @@
         <v>1818</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>44</v>
+        <v>1488</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>945</v>
       </c>
       <c r="J54" s="20"/>
     </row>
@@ -49419,16 +49828,19 @@
         <v>1818</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>76</v>
+        <v>1489</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>5</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>221</v>
+        <v>22</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>639</v>
       </c>
       <c r="J55" s="20"/>
     </row>
@@ -49446,16 +49858,19 @@
         <v>1818</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G56">
+        <v>22</v>
+      </c>
+      <c r="H56">
         <v>6</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>1839</v>
+        <v>1898</v>
       </c>
       <c r="J56" s="20"/>
     </row>
@@ -49473,7 +49888,7 @@
         <v>1818</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -49481,10 +49896,9 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="I57" s="18" t="s">
-        <v>1840</v>
-      </c>
-      <c r="J57" s="20"/>
+      <c r="I57" s="20" t="s">
+        <v>1834</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -49500,7 +49914,7 @@
         <v>1818</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -49508,10 +49922,9 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="I58" s="18" t="s">
-        <v>1835</v>
-      </c>
-      <c r="J58" s="20"/>
+      <c r="I58" s="20" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -49527,18 +49940,17 @@
         <v>1818</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
       </c>
       <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>1863</v>
-      </c>
-      <c r="J59" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -49554,16 +49966,16 @@
         <v>1818</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>1855</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -49580,7 +49992,7 @@
         <v>1818</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>1358</v>
+        <v>194</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
@@ -49589,7 +50001,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>1378</v>
+        <v>22</v>
       </c>
       <c r="J61" s="20"/>
     </row>
@@ -49607,16 +50019,16 @@
         <v>1818</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>1836</v>
+        <v>1852</v>
       </c>
       <c r="J62" s="20"/>
     </row>
@@ -49634,7 +50046,7 @@
         <v>1818</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>1819</v>
+        <v>1496</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -49642,8 +50054,8 @@
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="I63" s="18" t="s">
-        <v>1837</v>
+      <c r="I63" s="20" t="s">
+        <v>492</v>
       </c>
       <c r="J63" s="20"/>
     </row>
@@ -49661,16 +50073,16 @@
         <v>1818</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>1506</v>
+        <v>697</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>1838</v>
+        <v>490</v>
       </c>
       <c r="J64" s="20"/>
     </row>
@@ -49688,16 +50100,16 @@
         <v>1818</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>1507</v>
+        <v>710</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>1841</v>
+        <v>207</v>
       </c>
       <c r="J65" s="20"/>
     </row>
@@ -49715,16 +50127,16 @@
         <v>1818</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>1508</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>1842</v>
+        <v>1872</v>
       </c>
       <c r="J66" s="20"/>
     </row>
@@ -49742,16 +50154,19 @@
         <v>1818</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>1856</v>
+        <v>926</v>
       </c>
       <c r="J67" s="20"/>
     </row>
@@ -49769,16 +50184,16 @@
         <v>1818</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>106</v>
+        <v>1498</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
       </c>
       <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>1397</v>
+        <v>6</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>1853</v>
       </c>
       <c r="J68" s="20"/>
     </row>
@@ -49796,16 +50211,16 @@
         <v>1818</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
       </c>
       <c r="G69">
-        <v>4</v>
-      </c>
-      <c r="I69" s="20" t="s">
-        <v>1399</v>
+        <v>6</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>1854</v>
       </c>
       <c r="J69" s="20"/>
     </row>
@@ -49823,16 +50238,16 @@
         <v>1818</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>742</v>
+        <v>93</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
       </c>
       <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="I70" s="20" t="s">
-        <v>1398</v>
+        <v>10</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="J70" s="20"/>
     </row>
@@ -49850,16 +50265,16 @@
         <v>1818</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>1511</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>1843</v>
+        <v>29</v>
       </c>
       <c r="J71" s="20"/>
     </row>
@@ -49877,16 +50292,16 @@
         <v>1818</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>1512</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>1844</v>
+        <v>221</v>
       </c>
       <c r="J72" s="20"/>
     </row>
@@ -49904,16 +50319,16 @@
         <v>1818</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="J73" s="20"/>
     </row>
@@ -49931,16 +50346,16 @@
         <v>1818</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="F74" t="s">
         <v>15</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="J74" s="20"/>
     </row>
@@ -49958,7 +50373,7 @@
         <v>1818</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -49967,7 +50382,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="J75" s="20"/>
     </row>
@@ -49985,16 +50400,16 @@
         <v>1818</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>1848</v>
+        <v>1863</v>
       </c>
       <c r="J76" s="20"/>
     </row>
@@ -50012,7 +50427,7 @@
         <v>1818</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
       <c r="F77" t="s">
         <v>15</v>
@@ -50020,10 +50435,9 @@
       <c r="G77">
         <v>1</v>
       </c>
-      <c r="I77" s="18" t="s">
-        <v>1849</v>
-      </c>
-      <c r="J77" s="20"/>
+      <c r="I77" s="20" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
@@ -50039,7 +50453,7 @@
         <v>1818</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>1518</v>
+        <v>1358</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -50048,7 +50462,7 @@
         <v>5</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>1857</v>
+        <v>1378</v>
       </c>
       <c r="J78" s="20"/>
     </row>
@@ -50066,16 +50480,16 @@
         <v>1818</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>1858</v>
+        <v>1836</v>
       </c>
       <c r="J79" s="20"/>
     </row>
@@ -50093,7 +50507,7 @@
         <v>1818</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>1520</v>
+        <v>1819</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -50101,8 +50515,8 @@
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="I80" s="20" t="s">
-        <v>293</v>
+      <c r="I80" s="18" t="s">
+        <v>1837</v>
       </c>
       <c r="J80" s="20"/>
     </row>
@@ -50120,7 +50534,7 @@
         <v>1818</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -50128,8 +50542,8 @@
       <c r="G81">
         <v>1</v>
       </c>
-      <c r="I81" s="20" t="s">
-        <v>493</v>
+      <c r="I81" s="18" t="s">
+        <v>1838</v>
       </c>
       <c r="J81" s="20"/>
     </row>
@@ -50147,16 +50561,16 @@
         <v>1818</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
       </c>
       <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>381</v>
+        <v>6</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>1841</v>
       </c>
       <c r="J82" s="20"/>
     </row>
@@ -50174,16 +50588,16 @@
         <v>1818</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
       <c r="F83" t="s">
         <v>15</v>
       </c>
       <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>1850</v>
+        <v>6</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>1842</v>
       </c>
       <c r="J83" s="20"/>
     </row>
@@ -50201,7 +50615,7 @@
         <v>1818</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>1820</v>
+        <v>1509</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -50210,8 +50624,9 @@
         <v>1</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>1567</v>
-      </c>
+        <v>1856</v>
+      </c>
+      <c r="J84" s="20"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -50227,16 +50642,16 @@
         <v>1818</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>1524</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>1368</v>
+        <v>1397</v>
       </c>
       <c r="J85" s="20"/>
     </row>
@@ -50254,16 +50669,16 @@
         <v>1818</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>1369</v>
+        <v>1399</v>
       </c>
       <c r="J86" s="20"/>
     </row>
@@ -50281,16 +50696,16 @@
         <v>1818</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>1526</v>
+        <v>742</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>1370</v>
+        <v>1398</v>
       </c>
       <c r="J87" s="20"/>
     </row>
@@ -50308,16 +50723,16 @@
         <v>1818</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>1301</v>
+        <v>1511</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>1307</v>
+        <v>1843</v>
       </c>
       <c r="J88" s="20"/>
     </row>
@@ -50335,16 +50750,16 @@
         <v>1818</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
       </c>
       <c r="G89">
-        <v>7</v>
-      </c>
-      <c r="I89" s="20" t="s">
-        <v>379</v>
+        <v>8</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>1844</v>
       </c>
       <c r="J89" s="20"/>
     </row>
@@ -50362,16 +50777,16 @@
         <v>1818</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>1528</v>
+        <v>1513</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="J90" s="20"/>
     </row>
@@ -50389,16 +50804,16 @@
         <v>1818</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
       <c r="F91" t="s">
         <v>15</v>
       </c>
       <c r="G91">
-        <v>4</v>
-      </c>
-      <c r="I91" s="20" t="s">
-        <v>1897</v>
+        <v>5</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>1846</v>
       </c>
       <c r="J91" s="20"/>
     </row>
@@ -50416,16 +50831,16 @@
         <v>1818</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="F92" t="s">
         <v>15</v>
       </c>
       <c r="G92">
-        <v>5</v>
-      </c>
-      <c r="I92" s="20" t="s">
-        <v>1400</v>
+        <v>1</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>1847</v>
       </c>
       <c r="J92" s="20"/>
     </row>
@@ -50443,16 +50858,16 @@
         <v>1818</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="F93" t="s">
         <v>15</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>1900</v>
+        <v>1848</v>
       </c>
       <c r="J93" s="20"/>
     </row>
@@ -50470,16 +50885,16 @@
         <v>1818</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="F94" t="s">
         <v>15</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>1864</v>
+        <v>1849</v>
       </c>
       <c r="J94" s="20"/>
     </row>
@@ -50497,16 +50912,16 @@
         <v>1818</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="F95" t="s">
         <v>15</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="J95" s="20"/>
     </row>
@@ -50524,16 +50939,16 @@
         <v>1818</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="F96" t="s">
         <v>15</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>1866</v>
+        <v>1858</v>
       </c>
       <c r="J96" s="20"/>
     </row>
@@ -50551,16 +50966,16 @@
         <v>1818</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="F97" t="s">
         <v>15</v>
       </c>
       <c r="G97">
-        <v>10</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>1867</v>
+        <v>1</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="J97" s="20"/>
     </row>
@@ -50578,16 +50993,16 @@
         <v>1818</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
       </c>
       <c r="G98">
-        <v>5</v>
-      </c>
-      <c r="I98" s="18" t="s">
-        <v>1868</v>
+        <v>1</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>493</v>
       </c>
       <c r="J98" s="20"/>
     </row>
@@ -50605,16 +51020,16 @@
         <v>1818</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>1537</v>
+        <v>1522</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
       </c>
       <c r="G99">
-        <v>10</v>
-      </c>
-      <c r="I99" s="18" t="s">
-        <v>1888</v>
+        <v>1</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>381</v>
       </c>
       <c r="J99" s="20"/>
     </row>
@@ -50632,16 +51047,16 @@
         <v>1818</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>1538</v>
+        <v>1523</v>
       </c>
       <c r="F100" t="s">
         <v>15</v>
       </c>
       <c r="G100">
-        <v>10</v>
-      </c>
-      <c r="I100" s="18" t="s">
-        <v>1892</v>
+        <v>2</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>1850</v>
       </c>
       <c r="J100" s="20"/>
     </row>
@@ -50659,18 +51074,17 @@
         <v>1818</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>1539</v>
+        <v>1820</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
       </c>
       <c r="G101">
-        <v>6</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>1891</v>
-      </c>
-      <c r="J101" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>1567</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
@@ -50686,16 +51100,16 @@
         <v>1818</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="F102" t="s">
         <v>15</v>
       </c>
       <c r="G102">
-        <v>4</v>
-      </c>
-      <c r="I102" s="18" t="s">
-        <v>1890</v>
+        <v>1</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>1368</v>
       </c>
       <c r="J102" s="20"/>
     </row>
@@ -50713,16 +51127,16 @@
         <v>1818</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
       <c r="F103" t="s">
         <v>15</v>
       </c>
       <c r="G103">
-        <v>5</v>
-      </c>
-      <c r="I103" s="18" t="s">
-        <v>1889</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="20" t="s">
+        <v>1369</v>
       </c>
       <c r="J103" s="20"/>
     </row>
@@ -50740,16 +51154,16 @@
         <v>1818</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="F104" t="s">
         <v>15</v>
       </c>
       <c r="G104">
-        <v>5</v>
-      </c>
-      <c r="I104" s="18" t="s">
-        <v>1869</v>
+        <v>1</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>1370</v>
       </c>
       <c r="J104" s="20"/>
     </row>
@@ -50767,16 +51181,16 @@
         <v>1818</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>1543</v>
+        <v>1301</v>
       </c>
       <c r="F105" t="s">
         <v>15</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>1883</v>
+        <v>1307</v>
       </c>
       <c r="J105" s="20"/>
     </row>
@@ -50794,16 +51208,16 @@
         <v>1818</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>1544</v>
+        <v>1527</v>
       </c>
       <c r="F106" t="s">
         <v>15</v>
       </c>
       <c r="G106">
-        <v>10</v>
-      </c>
-      <c r="I106" s="18" t="s">
-        <v>1884</v>
+        <v>7</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>379</v>
       </c>
       <c r="J106" s="20"/>
     </row>
@@ -50821,16 +51235,16 @@
         <v>1818</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>1545</v>
+        <v>1528</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>1885</v>
+        <v>1851</v>
       </c>
       <c r="J107" s="20"/>
     </row>
@@ -50848,7 +51262,7 @@
         <v>1818</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>1546</v>
+        <v>1529</v>
       </c>
       <c r="F108" t="s">
         <v>15</v>
@@ -50856,8 +51270,8 @@
       <c r="G108">
         <v>4</v>
       </c>
-      <c r="I108" s="18" t="s">
-        <v>1886</v>
+      <c r="I108" s="20" t="s">
+        <v>1897</v>
       </c>
       <c r="J108" s="20"/>
     </row>
@@ -50875,7 +51289,7 @@
         <v>1818</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>1547</v>
+        <v>1530</v>
       </c>
       <c r="F109" t="s">
         <v>15</v>
@@ -50883,8 +51297,8 @@
       <c r="G109">
         <v>5</v>
       </c>
-      <c r="I109" s="18" t="s">
-        <v>1887</v>
+      <c r="I109" s="20" t="s">
+        <v>1400</v>
       </c>
       <c r="J109" s="20"/>
     </row>
@@ -50902,16 +51316,16 @@
         <v>1818</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>1548</v>
+        <v>1531</v>
       </c>
       <c r="F110" t="s">
         <v>15</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>1870</v>
+        <v>1900</v>
       </c>
       <c r="J110" s="20"/>
     </row>
@@ -50929,7 +51343,7 @@
         <v>1818</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>1549</v>
+        <v>1532</v>
       </c>
       <c r="F111" t="s">
         <v>15</v>
@@ -50938,7 +51352,7 @@
         <v>10</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="J111" s="20"/>
     </row>
@@ -50956,7 +51370,7 @@
         <v>1818</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>1550</v>
+        <v>1533</v>
       </c>
       <c r="F112" t="s">
         <v>15</v>
@@ -50965,7 +51379,7 @@
         <v>10</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="J112" s="20"/>
     </row>
@@ -50983,16 +51397,16 @@
         <v>1818</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>1551</v>
+        <v>1534</v>
       </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
       <c r="G113">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="J113" s="20"/>
     </row>
@@ -51010,16 +51424,16 @@
         <v>1818</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>1552</v>
+        <v>1535</v>
       </c>
       <c r="F114" t="s">
         <v>15</v>
       </c>
       <c r="G114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="J114" s="20"/>
     </row>
@@ -51037,7 +51451,7 @@
         <v>1818</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>1553</v>
+        <v>1536</v>
       </c>
       <c r="F115" t="s">
         <v>15</v>
@@ -51046,7 +51460,7 @@
         <v>5</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="J115" s="20"/>
     </row>
@@ -51064,16 +51478,16 @@
         <v>1818</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>1554</v>
+        <v>1537</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
       </c>
       <c r="G116">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>1871</v>
+        <v>1888</v>
       </c>
       <c r="J116" s="20"/>
     </row>
@@ -51091,7 +51505,7 @@
         <v>1818</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>1555</v>
+        <v>1538</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -51100,7 +51514,7 @@
         <v>10</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>1873</v>
+        <v>1892</v>
       </c>
       <c r="J117" s="20"/>
     </row>
@@ -51118,16 +51532,16 @@
         <v>1818</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>1556</v>
+        <v>1539</v>
       </c>
       <c r="F118" t="s">
         <v>15</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>1874</v>
+        <v>1891</v>
       </c>
       <c r="J118" s="20"/>
     </row>
@@ -51145,16 +51559,16 @@
         <v>1818</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>1557</v>
+        <v>1540</v>
       </c>
       <c r="F119" t="s">
         <v>15</v>
       </c>
       <c r="G119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>1875</v>
+        <v>1890</v>
       </c>
       <c r="J119" s="20"/>
     </row>
@@ -51172,16 +51586,16 @@
         <v>1818</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>1558</v>
+        <v>1541</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I120" s="18" t="s">
-        <v>1876</v>
+        <v>1889</v>
       </c>
       <c r="J120" s="20"/>
     </row>
@@ -51199,7 +51613,7 @@
         <v>1818</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>1559</v>
+        <v>1542</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -51208,7 +51622,7 @@
         <v>5</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="J121" s="20"/>
     </row>
@@ -51226,16 +51640,16 @@
         <v>1818</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>1560</v>
+        <v>1543</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
       </c>
       <c r="G122">
-        <v>4</v>
-      </c>
-      <c r="I122" s="20" t="s">
-        <v>1893</v>
+        <v>10</v>
+      </c>
+      <c r="I122" s="18" t="s">
+        <v>1883</v>
       </c>
       <c r="J122" s="20"/>
     </row>
@@ -51253,16 +51667,16 @@
         <v>1818</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>1561</v>
+        <v>1544</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
       </c>
       <c r="G123">
-        <v>4</v>
-      </c>
-      <c r="I123" s="20" t="s">
-        <v>1894</v>
+        <v>10</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>1884</v>
       </c>
       <c r="J123" s="20"/>
     </row>
@@ -51280,16 +51694,16 @@
         <v>1818</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>1562</v>
+        <v>1545</v>
       </c>
       <c r="F124" t="s">
         <v>15</v>
       </c>
       <c r="G124">
-        <v>4</v>
-      </c>
-      <c r="I124" s="20" t="s">
-        <v>1895</v>
+        <v>6</v>
+      </c>
+      <c r="I124" s="18" t="s">
+        <v>1885</v>
       </c>
       <c r="J124" s="20"/>
     </row>
@@ -51307,7 +51721,7 @@
         <v>1818</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>1563</v>
+        <v>1546</v>
       </c>
       <c r="F125" t="s">
         <v>15</v>
@@ -51315,8 +51729,8 @@
       <c r="G125">
         <v>4</v>
       </c>
-      <c r="I125" s="20" t="s">
-        <v>1896</v>
+      <c r="I125" s="18" t="s">
+        <v>1886</v>
       </c>
       <c r="J125" s="20"/>
     </row>
@@ -51334,16 +51748,16 @@
         <v>1818</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>686</v>
+        <v>1547</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>27</v>
+        <v>1887</v>
       </c>
       <c r="J126" s="20"/>
     </row>
@@ -51361,16 +51775,16 @@
         <v>1818</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
       <c r="F127" t="s">
         <v>15</v>
       </c>
       <c r="G127">
-        <v>10</v>
-      </c>
-      <c r="I127" s="20" t="s">
-        <v>1859</v>
+        <v>5</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>1870</v>
       </c>
       <c r="J127" s="20"/>
     </row>
@@ -51388,16 +51802,16 @@
         <v>1818</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>820</v>
+        <v>1549</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>1860</v>
+        <v>1878</v>
       </c>
       <c r="J128" s="20"/>
     </row>
@@ -51415,16 +51829,16 @@
         <v>1818</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>720</v>
+        <v>1550</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I129" s="18" t="s">
-        <v>1861</v>
+        <v>1879</v>
       </c>
       <c r="J129" s="20"/>
     </row>
@@ -51442,16 +51856,16 @@
         <v>1818</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>1393</v>
+        <v>1551</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="J130" s="20"/>
     </row>
@@ -51469,16 +51883,16 @@
         <v>1818</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>1363</v>
+        <v>1552</v>
       </c>
       <c r="F131" t="s">
         <v>15</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>1367</v>
+        <v>1881</v>
       </c>
       <c r="J131" s="20"/>
     </row>
@@ -51496,16 +51910,16 @@
         <v>1818</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>63</v>
+        <v>1553</v>
       </c>
       <c r="F132" t="s">
         <v>15</v>
       </c>
       <c r="G132">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I132" s="18" t="s">
-        <v>64</v>
+        <v>1882</v>
       </c>
       <c r="J132" s="20"/>
     </row>
@@ -51523,60 +51937,1147 @@
         <v>1818</v>
       </c>
       <c r="E133" s="20" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133">
+        <v>5</v>
+      </c>
+      <c r="I133" s="18" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E134" s="20" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134">
+        <v>10</v>
+      </c>
+      <c r="I134" s="18" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E135" s="20" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135">
+        <v>10</v>
+      </c>
+      <c r="I135" s="18" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136">
+        <v>6</v>
+      </c>
+      <c r="I136" s="18" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137">
+        <v>4</v>
+      </c>
+      <c r="I137" s="18" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138">
+        <v>5</v>
+      </c>
+      <c r="I138" s="18" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140">
+        <v>4</v>
+      </c>
+      <c r="I140" s="20" t="s">
+        <v>1894</v>
+      </c>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141">
+        <v>4</v>
+      </c>
+      <c r="I141" s="20" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E142" s="20" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142">
+        <v>4</v>
+      </c>
+      <c r="I142" s="20" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="F143" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143">
+        <v>7</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E144" s="20" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144">
+        <v>10</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="I145" s="18" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E146" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="I146" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>1862</v>
+      </c>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149">
+        <v>19</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>43369</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E150" s="20" t="s">
         <v>1565</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F150" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G133">
+      <c r="G150">
         <v>22</v>
       </c>
-      <c r="H133">
+      <c r="H150">
         <v>10</v>
       </c>
-      <c r="I133" s="23" t="s">
+      <c r="I150" s="23" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="25" t="s">
+    <row r="151" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="18">
+        <v>1</v>
+      </c>
+      <c r="I151" s="23" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E152" s="20" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="18">
+        <v>2</v>
+      </c>
+      <c r="I152" s="23" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E153" s="20" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F153" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="18">
+        <v>4</v>
+      </c>
+      <c r="I153" s="23" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E154" s="20" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="18">
+        <v>4</v>
+      </c>
+      <c r="I154" s="23" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F155" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="18">
+        <v>4</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E156" s="20" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="18">
+        <v>4</v>
+      </c>
+      <c r="I156" s="23" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="18">
+        <v>4</v>
+      </c>
+      <c r="I157" s="23" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E158" s="20" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="18">
+        <v>4</v>
+      </c>
+      <c r="I158" s="23" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="18">
+        <v>4</v>
+      </c>
+      <c r="I159" s="23" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E160" s="20" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="18">
+        <v>4</v>
+      </c>
+      <c r="I160" s="23" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="18">
+        <v>4</v>
+      </c>
+      <c r="I161" s="23" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E162" s="20" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="18">
+        <v>4</v>
+      </c>
+      <c r="I162" s="23" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="18">
+        <v>4</v>
+      </c>
+      <c r="I163" s="23" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="18">
+        <v>8</v>
+      </c>
+      <c r="H164" s="18">
+        <v>3</v>
+      </c>
+      <c r="I164" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="18">
+        <v>150</v>
+      </c>
+      <c r="I165" s="23" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E166" s="20" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="18">
+        <v>150</v>
+      </c>
+      <c r="I166" s="23" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" s="18">
+        <v>150</v>
+      </c>
+      <c r="I167" s="23" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E168" s="20" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="18">
+        <v>1</v>
+      </c>
+      <c r="I168" s="20" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F169" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" s="18">
+        <v>7</v>
+      </c>
+      <c r="I169" s="20" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="18">
+        <v>1</v>
+      </c>
+      <c r="I170" s="20" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F171" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="18">
+        <v>30</v>
+      </c>
+      <c r="I171" s="20" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F172" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="18">
+        <v>4</v>
+      </c>
+      <c r="I172" s="18" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F173" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" s="18">
+        <v>10</v>
+      </c>
+      <c r="I173" s="18" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>43397</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F174" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="18">
+        <v>19</v>
+      </c>
+      <c r="I174" s="20" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="24" t="s">
         <v>1901</v>
       </c>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
-      <c r="J135" s="25"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B137" s="25"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="25"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="24"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B27:J29"/>
-    <mergeCell ref="B135:J137"/>
+    <mergeCell ref="B44:J46"/>
+    <mergeCell ref="B176:J178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51839,10 +53340,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52258,136 +53759,150 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>1351</v>
+        <v>2065</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1350</v>
+        <v>2064</v>
       </c>
       <c r="C48" s="15">
-        <v>43303</v>
-      </c>
-      <c r="D48" t="s">
+        <v>43397</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>1108</v>
+        <v>1351</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1109</v>
+        <v>1350</v>
+      </c>
+      <c r="C49" s="15">
+        <v>43303</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>1318</v>
+        <v>1126</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C59" s="15">
-        <v>43286</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>1127</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>1128</v>
+        <v>1318</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1129</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="C60" s="15">
+        <v>43286</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -60091,6 +61606,73 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
+      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
+      <Description>STHNKY6CXN64-585-23125</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023C68C9F20C69D48BB417A9ADFD5DC9C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29914a5778ec744f9d5d623c4355d354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a57c4080a7a73066863a39e6ec4255" ns2:_="">
     <xsd:import namespace="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
@@ -60235,74 +61817,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">STHNKY6CXN64-585-23125</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d">
-      <Url>https://connect.ufl.edu/it/Projects/83804A/_layouts/DocIdRedir.aspx?ID=STHNKY6CXN64-585-23125</Url>
-      <Description>STHNKY6CXN64-585-23125</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4983C0FC-0A52-42BE-81C3-B1D565BD5AB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60318,36 +61865,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02EC59C-3037-4324-9F25-70F5C5DE4AE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3cfd9aaa-4fb7-4c22-8109-d679e3e9d77d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730136FF-7953-4B5D-A700-45AC58366C1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF90A1-0238-4E08-AF86-38ADE0A38CA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>